--- a/Heroes of Kocmocraft/Assets/_iLYuSha Wakaka Setting/Wakaka Kocmocraft/Balance Data.xlsx
+++ b/Heroes of Kocmocraft/Assets/_iLYuSha Wakaka Setting/Wakaka Kocmocraft/Balance Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Funny-Skirmish-Online\Heroes of Kocmocraft\Assets\_iLYuSha Wakaka Setting\Wakaka Kocmocraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E9E0A3-801F-4D09-8E29-2438A061A16F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BD1ADC-DB47-4938-A41C-BFA8F892D143}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{31C724A4-68AD-44B9-AAD0-D887B58A3456}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{31C724A4-68AD-44B9-AAD0-D887B58A3456}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="140">
   <si>
     <t>巨型宇航机</t>
   </si>
@@ -522,15 +527,51 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>护盾总值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>评级底限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度专精</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度总值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6★</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7★</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5★</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>2★</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>护盾总值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本值</t>
+    <t>4★</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3★</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1★</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -538,9 +579,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -878,7 +920,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -987,46 +1029,25 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1044,25 +1065,64 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="20" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1395,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909D19AF-B56F-48A8-942D-AA4A28475538}">
-  <dimension ref="A1:BC55"/>
+  <dimension ref="A1:BF55"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1408,51 +1468,59 @@
     <col min="3" max="3" width="5.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.75" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="8.5" style="57" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="8.5" style="57" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8" style="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="4.625" style="2" customWidth="1"/>
-    <col min="33" max="33" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="8" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="65" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.75" style="44" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="8.5" style="49" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="8.5" style="49" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8" style="18" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.625" style="2" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.625" style="2" customWidth="1"/>
-    <col min="39" max="39" width="4.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="4.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4.625" style="2" customWidth="1"/>
-    <col min="42" max="42" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9" style="1" customWidth="1"/>
-    <col min="47" max="47" width="9.75" style="1" customWidth="1"/>
-    <col min="48" max="48" width="5.75" style="1" customWidth="1"/>
-    <col min="49" max="49" width="9" style="1"/>
-    <col min="56" max="16384" width="9" style="1"/>
+    <col min="37" max="37" width="4.625" style="2" customWidth="1"/>
+    <col min="38" max="38" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="4.625" style="2" customWidth="1"/>
+    <col min="41" max="41" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4.625" style="2" customWidth="1"/>
+    <col min="44" max="44" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="4.625" style="2" customWidth="1"/>
+    <col min="47" max="47" width="4.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="4.625" style="2" customWidth="1"/>
+    <col min="50" max="50" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9" style="1" customWidth="1"/>
+    <col min="55" max="55" width="9.75" style="1" customWidth="1"/>
+    <col min="56" max="56" width="5.75" style="1" customWidth="1"/>
+    <col min="57" max="57" width="9" style="1"/>
+    <col min="59" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -1471,94 +1539,105 @@
       <c r="F1" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="63"/>
+      <c r="J1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="L1" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="M1" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="56"/>
+      <c r="O1" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="58"/>
+      <c r="Q1" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="S1" s="47"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="60"/>
+      <c r="S1" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="T1" s="56"/>
+      <c r="U1" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="37" t="s">
+      <c r="V1" s="54"/>
+      <c r="W1" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="36" t="s">
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="36" t="s">
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36" t="s">
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36" t="s">
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36" t="s">
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="11" t="s">
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AS1" s="31" t="s">
+      <c r="BA1" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="AT1" s="31" t="s">
+      <c r="BB1" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="AU1" s="31" t="s">
+      <c r="BC1" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="AV1" s="31"/>
-    </row>
-    <row r="2" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BD1" s="31"/>
+    </row>
+    <row r="2" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>10</v>
       </c>
@@ -1577,131 +1656,159 @@
       <c r="F2" s="23">
         <v>5.65</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="38">
         <f>2*(D2*E2+E2*F2+F2*D2)</f>
         <v>458.05600000000004</v>
       </c>
-      <c r="H2" s="41">
+      <c r="H2" s="38">
         <f>D2*E2*F2</f>
         <v>622.35880000000009</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="64">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5">
         <v>10</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="K2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="L2" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="M2" s="21">
+        <v>5</v>
+      </c>
+      <c r="N2" s="47">
+        <f>Z$3+AA$3*M2</f>
+        <v>10200</v>
+      </c>
+      <c r="O2" s="9">
+        <v>1</v>
+      </c>
+      <c r="P2" s="51">
+        <f>Z$13+AA$13*O2</f>
+        <v>3500</v>
+      </c>
+      <c r="Q2" s="22">
+        <v>4</v>
+      </c>
+      <c r="R2" s="22">
+        <f>Z$23+AA$23*Q2</f>
+        <v>98</v>
+      </c>
+      <c r="S2" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="48">
+        <f>G2*10+N2</f>
+        <v>14780.560000000001</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="52">
+        <f>H2*10+P2</f>
+        <v>9723.5879999999997</v>
+      </c>
+      <c r="W2" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="X2" s="67">
+        <f>I2++R2</f>
+        <v>118</v>
+      </c>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD2" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>14287</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ2" s="9">
+        <v>6772</v>
+      </c>
+      <c r="AK2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL2" s="30">
+        <f>AG2+AJ2</f>
+        <v>21059</v>
+      </c>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO2" s="21">
+        <v>10773</v>
+      </c>
+      <c r="AP2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR2" s="19">
+        <v>1398</v>
+      </c>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="54">
-        <v>10100</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="60">
-        <v>4350</v>
-      </c>
-      <c r="P2" s="22" t="s">
+      <c r="AU2" s="4">
+        <v>47</v>
+      </c>
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="22">
+      <c r="AX2" s="22">
         <v>100</v>
       </c>
-      <c r="R2" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="56">
-        <f>G2*10+M2</f>
-        <v>14680.560000000001</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="U2" s="61">
-        <f>H2*10+O2</f>
-        <v>10573.588</v>
-      </c>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y2" s="8">
-        <v>14287</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB2" s="9">
-        <v>6772</v>
-      </c>
-      <c r="AC2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD2" s="30">
-        <f>Y2+AB2</f>
-        <v>21059</v>
-      </c>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG2" s="21">
-        <v>10773</v>
-      </c>
-      <c r="AH2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ2" s="19">
-        <v>1398</v>
-      </c>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM2" s="4">
-        <v>47</v>
-      </c>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP2" s="22">
-        <v>100</v>
-      </c>
-      <c r="AQ2" s="14">
+      <c r="AY2" s="14">
         <v>20</v>
       </c>
-      <c r="AR2" s="14">
+      <c r="AZ2" s="14">
         <v>4</v>
       </c>
-      <c r="AS2" s="32">
+      <c r="BA2" s="32">
         <v>0.84299999999999997</v>
       </c>
-      <c r="AT2" s="32">
-        <f>(1630*AS2+AM2*5)*(1630*AS2+AM2*5)*AR2*1.3035*0.5*0.000066</f>
+      <c r="BB2" s="32">
+        <f>(1630*BA2+AU2*5)*(1630*BA2+AU2*5)*AZ2*1.3035*0.5*0.000066</f>
         <v>445.49787661214225</v>
       </c>
-      <c r="AU2" s="32">
-        <f>(1630*AS2+AP2*5)*(1630*AS2+AP2*5)*AR2*4.1949*0.5*0.000066</f>
+      <c r="BC2" s="32">
+        <f>(1630*BA2+AX2*5)*(1630*BA2+AX2*5)*AZ2*4.1949*0.5*0.000066</f>
         <v>1944.8066470861627</v>
       </c>
-      <c r="AV2" s="32" t="s">
+      <c r="BD2" s="32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>44</v>
       </c>
@@ -1720,133 +1827,163 @@
       <c r="F3" s="23">
         <v>5.46</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="38">
         <f>2*(D3*E3+E3*F3+F3*D3)</f>
         <v>434.77600000000001</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="38">
         <f>D3*E3*F3</f>
         <v>574.31010000000003</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="64">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="K3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="L3" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="M3" s="21">
+        <v>4</v>
+      </c>
+      <c r="N3" s="47">
+        <f>Z$3+AA$3*M3</f>
+        <v>8400</v>
+      </c>
+      <c r="O3" s="9">
+        <v>3</v>
+      </c>
+      <c r="P3" s="51">
+        <f>Z$13+AA$13*O3</f>
+        <v>7700</v>
+      </c>
+      <c r="Q3" s="22">
+        <v>3</v>
+      </c>
+      <c r="R3" s="22">
+        <f t="shared" ref="R3:R25" si="0">Z$23+AA$23*Q3</f>
+        <v>86</v>
+      </c>
+      <c r="S3" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="54">
-        <v>8300</v>
-      </c>
-      <c r="N3" s="9" t="s">
+      <c r="T3" s="48">
+        <f>G3*10+N3</f>
+        <v>12747.76</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="52">
+        <f>H3*10+P3</f>
+        <v>13443.101000000001</v>
+      </c>
+      <c r="W3" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="X3" s="67">
+        <f t="shared" ref="X3:X25" si="1">I3++R3</f>
+        <v>96</v>
+      </c>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="1">
+        <v>1200</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1800</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC3" s="1">
+        <f>Z$3+AA$3*AB3</f>
+        <v>13800</v>
+      </c>
+      <c r="AD3" s="1">
+        <f t="shared" ref="AD3:AD8" si="2">AC3+AA$3/6 * (AB3-1)</f>
+        <v>15600</v>
+      </c>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>13722</v>
+      </c>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="60">
-        <v>9750</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="22">
+      <c r="AJ3" s="9">
+        <v>3927</v>
+      </c>
+      <c r="AK3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL3" s="30">
+        <f>AG3+AJ3</f>
+        <v>17649</v>
+      </c>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO3" s="21">
+        <v>13915</v>
+      </c>
+      <c r="AP3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR3" s="19">
+        <v>3392</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU3" s="4">
+        <v>29</v>
+      </c>
+      <c r="AV3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX3" s="22">
         <v>119</v>
       </c>
-      <c r="R3" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="56">
-        <f>G3*10+M3</f>
-        <v>12647.76</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="61">
-        <f>H3*10+O3</f>
-        <v>15493.101000000001</v>
-      </c>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>13722</v>
-      </c>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB3" s="9">
-        <v>3927</v>
-      </c>
-      <c r="AC3" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD3" s="30">
-        <f>Y3+AB3</f>
-        <v>17649</v>
-      </c>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG3" s="21">
-        <v>13915</v>
-      </c>
-      <c r="AH3" s="19" t="s">
+      <c r="AY3" s="14">
+        <v>22</v>
+      </c>
+      <c r="AZ3" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA3" s="32">
         <v>1</v>
       </c>
-      <c r="AI3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ3" s="19">
-        <v>3392</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM3" s="4">
-        <v>29</v>
-      </c>
-      <c r="AN3" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP3" s="22">
-        <v>119</v>
-      </c>
-      <c r="AQ3" s="14">
-        <v>22</v>
-      </c>
-      <c r="AR3" s="14">
-        <v>2</v>
-      </c>
-      <c r="AS3" s="32">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="32">
-        <f>(1630*AS3+AM3*5)*(1630*AS3+AM3*5)*AR3*1.3035*0.5*0.000066</f>
+      <c r="BB3" s="32">
+        <f>(1630*BA3+AU3*5)*(1630*BA3+AU3*5)*AZ3*1.3035*0.5*0.000066</f>
         <v>271.05141937500002</v>
       </c>
-      <c r="AU3" s="32">
-        <f>(1630*AS3+AP3*5)*(1630*AS3+AP3*5)*AR3*4.1949*0.5*0.000066</f>
+      <c r="BC3" s="32">
+        <f>(1630*BA3+AX3*5)*(1630*BA3+AX3*5)*AZ3*4.1949*0.5*0.000066</f>
         <v>1370.6468696250001</v>
       </c>
-      <c r="AV3" s="32" t="s">
+      <c r="BD3" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>13</v>
       </c>
@@ -1865,129 +2002,155 @@
       <c r="F4" s="23">
         <v>5.91</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="38">
         <f>2*(D4*E4+E4*F4+F4*D4)</f>
         <v>416.80619999999999</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="38">
         <f>D4*E4*F4</f>
         <v>553.7079</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="64">
+        <v>35</v>
+      </c>
+      <c r="J4" s="5">
         <v>13</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="K4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="L4" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="M4" s="21">
+        <v>3</v>
+      </c>
+      <c r="N4" s="47">
+        <f>Z$3+AA$3*M4</f>
+        <v>6600</v>
+      </c>
+      <c r="O4" s="9">
+        <v>3</v>
+      </c>
+      <c r="P4" s="51">
+        <f>Z$13+AA$13*O4</f>
+        <v>7700</v>
+      </c>
+      <c r="Q4" s="22">
+        <v>4</v>
+      </c>
+      <c r="R4" s="22">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="S4" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="48">
+        <f>G4*10+N4</f>
+        <v>10768.062</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" s="52">
+        <f>H4*10+P4</f>
+        <v>13237.079</v>
+      </c>
+      <c r="W4" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="X4" s="67">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="3">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="1">
+        <f>Z$3+AA$3*AB4</f>
+        <v>12000</v>
+      </c>
+      <c r="AD4" s="1">
+        <f t="shared" si="2"/>
+        <v>13500</v>
+      </c>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>16979</v>
+      </c>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="53">
-        <v>6500</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="60">
-        <v>9750</v>
-      </c>
-      <c r="P4" s="22" t="s">
+      <c r="AJ4" s="9">
+        <v>3701</v>
+      </c>
+      <c r="AK4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL4" s="30">
+        <f>AG4+AJ4</f>
+        <v>20680</v>
+      </c>
+      <c r="AM4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="21">
+        <v>3999</v>
+      </c>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR4" s="19">
+        <v>2498</v>
+      </c>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="AU4" s="4">
+        <v>38</v>
+      </c>
+      <c r="AV4" s="22"/>
+      <c r="AW4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX4" s="22">
         <v>107</v>
       </c>
-      <c r="R4" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="56">
-        <f>G4*10+M4</f>
-        <v>10668.062</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="U4" s="61">
-        <f>H4*10+O4</f>
-        <v>15287.079</v>
-      </c>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>16979</v>
-      </c>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB4" s="9">
-        <v>3701</v>
-      </c>
-      <c r="AC4" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD4" s="30">
-        <f>Y4+AB4</f>
-        <v>20680</v>
-      </c>
-      <c r="AE4" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG4" s="21">
-        <v>3999</v>
-      </c>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ4" s="19">
-        <v>2498</v>
-      </c>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM4" s="4">
-        <v>38</v>
-      </c>
-      <c r="AN4" s="22"/>
-      <c r="AO4" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP4" s="22">
-        <v>107</v>
-      </c>
-      <c r="AQ4" s="14">
+      <c r="AY4" s="14">
         <v>18</v>
       </c>
-      <c r="AR4" s="14">
+      <c r="AZ4" s="14">
         <v>6</v>
       </c>
-      <c r="AS4" s="32">
+      <c r="BA4" s="32">
         <v>0.77900000000000003</v>
       </c>
-      <c r="AT4" s="32">
-        <f>(1630*AS4+AM4*5)*(1630*AS4+AM4*5)*AR4*1.3035*0.5*0.000066</f>
+      <c r="BB4" s="32">
+        <f>(1630*BA4+AU4*5)*(1630*BA4+AU4*5)*AZ4*1.3035*0.5*0.000066</f>
         <v>549.97771719431978</v>
       </c>
-      <c r="AU4" s="32">
-        <f>(1630*AS4+AP4*5)*(1630*AS4+AP4*5)*AR4*4.1949*0.5*0.000066</f>
+      <c r="BC4" s="32">
+        <f>(1630*BA4+AX4*5)*(1630*BA4+AX4*5)*AZ4*4.1949*0.5*0.000066</f>
         <v>2705.3940412501611</v>
       </c>
-      <c r="AV4" s="32" t="s">
+      <c r="BD4" s="32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
@@ -2006,94 +2169,112 @@
       <c r="F5" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="63"/>
+      <c r="J5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="K5" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="L5" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="M5" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="59" t="s">
+      <c r="N5" s="56"/>
+      <c r="O5" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="O5" s="55"/>
-      <c r="P5" s="48" t="s">
+      <c r="P5" s="58"/>
+      <c r="Q5" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="S5" s="47"/>
-      <c r="T5" s="37" t="s">
+      <c r="R5" s="60"/>
+      <c r="S5" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="T5" s="56"/>
+      <c r="U5" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="U5" s="38"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="37" t="s">
+      <c r="V5" s="54"/>
+      <c r="W5" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="1">
+        <f>Z$3+AA$3*AB5</f>
+        <v>10200</v>
+      </c>
+      <c r="AD5" s="1">
+        <f t="shared" si="2"/>
+        <v>11400</v>
+      </c>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="36" t="s">
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="37" t="s">
+      <c r="AI5" s="61"/>
+      <c r="AJ5" s="61"/>
+      <c r="AK5" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="36" t="s">
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36" t="s">
+      <c r="AN5" s="61"/>
+      <c r="AO5" s="61"/>
+      <c r="AP5" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36" t="s">
+      <c r="AQ5" s="61"/>
+      <c r="AR5" s="61"/>
+      <c r="AS5" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36" t="s">
+      <c r="AT5" s="61"/>
+      <c r="AU5" s="61"/>
+      <c r="AV5" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="11" t="s">
+      <c r="AW5" s="61"/>
+      <c r="AX5" s="61"/>
+      <c r="AY5" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AR5" s="11" t="s">
+      <c r="AZ5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AS5" s="31" t="s">
+      <c r="BA5" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="AT5" s="31" t="s">
+      <c r="BB5" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="AU5" s="31" t="s">
+      <c r="BC5" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="AV5" s="31"/>
-    </row>
-    <row r="6" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BD5" s="31"/>
+    </row>
+    <row r="6" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -2112,131 +2293,157 @@
       <c r="F6" s="23">
         <v>4.8499999999999996</v>
       </c>
-      <c r="G6" s="41">
-        <f>2*(D6*E6+E6*F6+F6*D6)</f>
+      <c r="G6" s="38">
+        <f t="shared" ref="G6:G11" si="3">2*(D6*E6+E6*F6+F6*D6)</f>
         <v>383.96400000000006</v>
       </c>
-      <c r="H6" s="41">
-        <f>D6*E6*F6</f>
+      <c r="H6" s="38">
+        <f t="shared" ref="H6:H11" si="4">D6*E6*F6</f>
         <v>468.18990000000008</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="64">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="K6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="L6" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="M6" s="21">
+        <v>5</v>
+      </c>
+      <c r="N6" s="47">
+        <f>Z$3+AA$3*M6</f>
+        <v>10200</v>
+      </c>
+      <c r="O6" s="9">
+        <v>4</v>
+      </c>
+      <c r="P6" s="51">
+        <f>Z$13+AA$13*O6</f>
+        <v>9800</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>1</v>
+      </c>
+      <c r="R6" s="22">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="S6" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="54">
-        <v>10100</v>
-      </c>
-      <c r="N6" s="9" t="s">
+      <c r="T6" s="48">
+        <f>G6*10+N6</f>
+        <v>14039.64</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="52">
+        <f>H6*10+P6</f>
+        <v>14481.899000000001</v>
+      </c>
+      <c r="W6" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="X6" s="67">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="3">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="1">
+        <f>Z$3+AA$3*AB6</f>
+        <v>8400</v>
+      </c>
+      <c r="AD6" s="1">
+        <f t="shared" si="2"/>
+        <v>9300</v>
+      </c>
+      <c r="AE6" s="46">
+        <v>13700</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>14724</v>
+      </c>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="60">
-        <v>12450</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="22">
+      <c r="AJ6" s="9">
+        <v>4715</v>
+      </c>
+      <c r="AK6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL6" s="30">
+        <f t="shared" ref="AL6:AL11" si="5">AG6+AJ6</f>
+        <v>19439</v>
+      </c>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO6" s="21">
+        <v>17801</v>
+      </c>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR6" s="19">
+        <v>2311</v>
+      </c>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>37</v>
+      </c>
+      <c r="AV6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX6" s="22">
         <v>87</v>
       </c>
-      <c r="R6" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" s="56">
-        <f>G6*10+M6</f>
-        <v>13939.64</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="U6" s="61">
-        <f>H6*10+O6</f>
-        <v>17131.899000000001</v>
-      </c>
-      <c r="V6" s="24"/>
-      <c r="W6" s="53">
-        <v>13700</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>14724</v>
-      </c>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>4715</v>
-      </c>
-      <c r="AC6" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD6" s="30">
-        <f>Y6+AB6</f>
-        <v>19439</v>
-      </c>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG6" s="21">
-        <v>17801</v>
-      </c>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ6" s="19">
-        <v>2311</v>
-      </c>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM6" s="4">
-        <v>37</v>
-      </c>
-      <c r="AN6" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO6" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP6" s="22">
-        <v>87</v>
-      </c>
-      <c r="AQ6" s="14">
+      <c r="AY6" s="14">
         <v>18</v>
       </c>
-      <c r="AR6" s="14">
+      <c r="AZ6" s="14">
         <v>6</v>
       </c>
-      <c r="AS6" s="32">
+      <c r="BA6" s="32">
         <v>0.77900000000000003</v>
       </c>
-      <c r="AT6" s="32">
-        <f>(1630*AS6+AM6*5)*(1630*AS6+AM6*5)*AR6*1.3035*0.5*0.000066</f>
+      <c r="BB6" s="32">
+        <f t="shared" ref="BB6:BB11" si="6">(1630*BA6+AU6*5)*(1630*BA6+AU6*5)*AZ6*1.3035*0.5*0.000066</f>
         <v>546.21660533321972</v>
       </c>
-      <c r="AU6" s="32">
-        <f>(1630*AS6+AP6*5)*(1630*AS6+AP6*5)*AR6*4.1949*0.5*0.000066</f>
+      <c r="BC6" s="32">
+        <f t="shared" ref="BC6:BC11" si="7">(1630*BA6+AX6*5)*(1630*BA6+AX6*5)*AZ6*4.1949*0.5*0.000066</f>
         <v>2413.8950881993615</v>
       </c>
-      <c r="AV6" s="32" t="s">
+      <c r="BD6" s="32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>16</v>
       </c>
@@ -2255,131 +2462,157 @@
       <c r="F7" s="23">
         <v>7.27</v>
       </c>
-      <c r="G7" s="41">
-        <f>2*(D7*E7+E7*F7+F7*D7)</f>
+      <c r="G7" s="38">
+        <f t="shared" si="3"/>
         <v>376.69240000000002</v>
       </c>
-      <c r="H7" s="41">
-        <f>D7*E7*F7</f>
+      <c r="H7" s="38">
+        <f t="shared" si="4"/>
         <v>488.74756000000002</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="64">
+        <v>15</v>
+      </c>
+      <c r="J7" s="5">
         <v>16</v>
       </c>
-      <c r="J7" s="52" t="s">
+      <c r="K7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="L7" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="L7" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="54">
-        <v>4700</v>
-      </c>
-      <c r="N7" s="9" t="s">
+      <c r="M7" s="21">
+        <v>2</v>
+      </c>
+      <c r="N7" s="47">
+        <f>Z$3+AA$3*M7</f>
+        <v>4800</v>
+      </c>
+      <c r="O7" s="9">
+        <v>7</v>
+      </c>
+      <c r="P7" s="51">
+        <f>Z$13+AA$13*O7</f>
+        <v>16100</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>1</v>
+      </c>
+      <c r="R7" s="22">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="S7" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="T7" s="48">
+        <f>G7*10+N7</f>
+        <v>8566.9239999999991</v>
+      </c>
+      <c r="U7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="60">
-        <v>20550</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="22">
+      <c r="V7" s="52">
+        <f>H7*10+P7</f>
+        <v>20987.475599999998</v>
+      </c>
+      <c r="W7" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="X7" s="67">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="1">
+        <f>Z$3+AA$3*AB7</f>
+        <v>6600</v>
+      </c>
+      <c r="AD7" s="1">
+        <f t="shared" si="2"/>
+        <v>7200</v>
+      </c>
+      <c r="AE7" s="46">
+        <v>11900</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>16321</v>
+      </c>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ7" s="9">
+        <v>5974</v>
+      </c>
+      <c r="AK7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL7" s="30">
+        <f t="shared" si="5"/>
+        <v>22295</v>
+      </c>
+      <c r="AM7" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO7" s="21">
+        <v>19242</v>
+      </c>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR7" s="19">
+        <v>1639</v>
+      </c>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU7" s="4">
+        <v>36</v>
+      </c>
+      <c r="AV7" s="22"/>
+      <c r="AW7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX7" s="22">
         <v>91</v>
       </c>
-      <c r="R7" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="S7" s="56">
-        <f>G7*10+M7</f>
-        <v>8466.9239999999991</v>
-      </c>
-      <c r="T7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="U7" s="61">
-        <f>H7*10+O7</f>
-        <v>25437.475599999998</v>
-      </c>
-      <c r="V7" s="24"/>
-      <c r="W7" s="53">
-        <v>11900</v>
-      </c>
-      <c r="X7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>16321</v>
-      </c>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB7" s="9">
-        <v>5974</v>
-      </c>
-      <c r="AC7" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD7" s="30">
-        <f>Y7+AB7</f>
-        <v>22295</v>
-      </c>
-      <c r="AE7" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG7" s="21">
-        <v>19242</v>
-      </c>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ7" s="19">
-        <v>1639</v>
-      </c>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM7" s="4">
-        <v>36</v>
-      </c>
-      <c r="AN7" s="22"/>
-      <c r="AO7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="AP7" s="22">
-        <v>91</v>
-      </c>
-      <c r="AQ7" s="14">
+      <c r="AY7" s="14">
         <v>20</v>
       </c>
-      <c r="AR7" s="14">
+      <c r="AZ7" s="14">
         <v>4</v>
       </c>
-      <c r="AS7" s="32">
+      <c r="BA7" s="32">
         <v>0.84299999999999997</v>
       </c>
-      <c r="AT7" s="32">
-        <f>(1630*AS7+AM7*5)*(1630*AS7+AM7*5)*AR7*1.3035*0.5*0.000066</f>
+      <c r="BB7" s="32">
+        <f t="shared" si="6"/>
         <v>415.56340736834221</v>
       </c>
-      <c r="AU7" s="32">
-        <f>(1630*AS7+AP7*5)*(1630*AS7+AP7*5)*AR7*4.1949*0.5*0.000066</f>
+      <c r="BC7" s="32">
+        <f t="shared" si="7"/>
         <v>1852.5318965810827</v>
       </c>
-      <c r="AV7" s="32" t="s">
+      <c r="BD7" s="32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>14</v>
       </c>
@@ -2398,133 +2631,159 @@
       <c r="F8" s="23">
         <v>5.46</v>
       </c>
-      <c r="G8" s="41">
-        <f>2*(D8*E8+E8*F8+F8*D8)</f>
+      <c r="G8" s="38">
+        <f t="shared" si="3"/>
         <v>347.13040000000001</v>
       </c>
-      <c r="H8" s="41">
-        <f>D8*E8*F8</f>
+      <c r="H8" s="38">
+        <f t="shared" si="4"/>
         <v>420.89501999999999</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="64">
+        <v>28</v>
+      </c>
+      <c r="J8" s="5">
         <v>14</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="K8" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="L8" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="M8" s="21">
+        <v>6</v>
+      </c>
+      <c r="N8" s="47">
+        <f>Z$3+AA$3*M8</f>
+        <v>12000</v>
+      </c>
+      <c r="O8" s="9">
+        <v>1</v>
+      </c>
+      <c r="P8" s="51">
+        <f>Z$13+AA$13*O8</f>
+        <v>3500</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>3</v>
+      </c>
+      <c r="R8" s="22">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="S8" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="54">
-        <v>11900</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="60">
-        <v>4350</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q8" s="22">
+      <c r="T8" s="48">
+        <f>G8*10+N8</f>
+        <v>15471.304</v>
+      </c>
+      <c r="U8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" s="52">
+        <f>H8*10+P8</f>
+        <v>7708.9502000000002</v>
+      </c>
+      <c r="W8" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="X8" s="67">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="1">
+        <f>Z$3+AA$3*AB8</f>
+        <v>4800</v>
+      </c>
+      <c r="AD8" s="1">
+        <f t="shared" si="2"/>
+        <v>5100</v>
+      </c>
+      <c r="AE8" s="46">
+        <v>10100</v>
+      </c>
+      <c r="AF8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG8" s="17">
+        <v>10755</v>
+      </c>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ8" s="9">
+        <v>4720</v>
+      </c>
+      <c r="AK8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL8" s="30">
+        <f t="shared" si="5"/>
+        <v>15475</v>
+      </c>
+      <c r="AM8" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO8" s="21">
+        <v>20884</v>
+      </c>
+      <c r="AP8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR8" s="19">
+        <v>1407</v>
+      </c>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU8" s="4">
+        <v>44</v>
+      </c>
+      <c r="AV8" s="22"/>
+      <c r="AW8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX8" s="22">
         <v>113</v>
       </c>
-      <c r="R8" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="S8" s="56">
-        <f>G8*10+M8</f>
-        <v>15371.304</v>
-      </c>
-      <c r="T8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U8" s="61">
-        <f>H8*10+O8</f>
-        <v>8558.9501999999993</v>
-      </c>
-      <c r="V8" s="25"/>
-      <c r="W8" s="53">
-        <v>10100</v>
-      </c>
-      <c r="X8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y8" s="17">
-        <v>10755</v>
-      </c>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB8" s="9">
-        <v>4720</v>
-      </c>
-      <c r="AC8" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD8" s="30">
-        <f>Y8+AB8</f>
-        <v>15475</v>
-      </c>
-      <c r="AE8" s="21" t="s">
+      <c r="AY8" s="14">
+        <v>22</v>
+      </c>
+      <c r="AZ8" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA8" s="32">
         <v>1</v>
       </c>
-      <c r="AF8" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG8" s="21">
-        <v>20884</v>
-      </c>
-      <c r="AH8" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ8" s="19">
-        <v>1407</v>
-      </c>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM8" s="4">
-        <v>44</v>
-      </c>
-      <c r="AN8" s="22"/>
-      <c r="AO8" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP8" s="22">
-        <v>113</v>
-      </c>
-      <c r="AQ8" s="14">
-        <v>22</v>
-      </c>
-      <c r="AR8" s="14">
-        <v>2</v>
-      </c>
-      <c r="AS8" s="32">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="32">
-        <f>(1630*AS8+AM8*5)*(1630*AS8+AM8*5)*AR8*1.3035*0.5*0.000066</f>
+      <c r="BB8" s="32">
+        <f t="shared" si="6"/>
         <v>294.44109750000001</v>
       </c>
-      <c r="AU8" s="32">
-        <f>(1630*AS8+AP8*5)*(1630*AS8+AP8*5)*AR8*4.1949*0.5*0.000066</f>
+      <c r="BC8" s="32">
+        <f t="shared" si="7"/>
         <v>1333.9347827849999</v>
       </c>
-      <c r="AV8" s="32" t="s">
+      <c r="BD8" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>108</v>
       </c>
@@ -2543,129 +2802,155 @@
       <c r="F9" s="23">
         <v>5.03</v>
       </c>
-      <c r="G9" s="41">
-        <f>2*(D9*E9+E9*F9+F9*D9)</f>
+      <c r="G9" s="38">
+        <f t="shared" si="3"/>
         <v>343.71160000000003</v>
       </c>
-      <c r="H9" s="41">
-        <f>D9*E9*F9</f>
+      <c r="H9" s="38">
+        <f t="shared" si="4"/>
         <v>402.44024000000007</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="64">
+        <v>23</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="K9" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="L9" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="M9" s="21">
+        <v>3</v>
+      </c>
+      <c r="N9" s="47">
+        <f>Z$3+AA$3*M9</f>
+        <v>6600</v>
+      </c>
+      <c r="O9" s="9">
+        <v>4</v>
+      </c>
+      <c r="P9" s="51">
+        <f>Z$13+AA$13*O9</f>
+        <v>9800</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>3</v>
+      </c>
+      <c r="R9" s="22">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="S9" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="T9" s="48">
+        <f>G9*10+N9</f>
+        <v>10037.116</v>
+      </c>
+      <c r="U9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V9" s="52">
+        <f>H9*10+P9</f>
+        <v>13824.402400000001</v>
+      </c>
+      <c r="W9" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="X9" s="67">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="1">
+        <f>Z$3+AA$3*AB9</f>
+        <v>3000</v>
+      </c>
+      <c r="AD9" s="1">
+        <f>AC9+AA$3/6 * (AB9-1)</f>
+        <v>3000</v>
+      </c>
+      <c r="AE9" s="46">
+        <v>8300</v>
+      </c>
+      <c r="AF9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG9" s="17">
+        <v>12997</v>
+      </c>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ9" s="9">
+        <v>2792</v>
+      </c>
+      <c r="AK9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL9" s="30">
+        <f t="shared" si="5"/>
+        <v>15789</v>
+      </c>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO9" s="21">
+        <v>24000</v>
+      </c>
+      <c r="AP9" s="19"/>
+      <c r="AQ9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="54">
-        <v>6500</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="O9" s="60">
-        <v>12450</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q9" s="22">
+      <c r="AR9" s="19">
+        <v>1774</v>
+      </c>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU9" s="4">
+        <v>30</v>
+      </c>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX9" s="22">
         <v>105</v>
       </c>
-      <c r="R9" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="S9" s="56">
-        <f>G9*10+M9</f>
-        <v>9937.116</v>
-      </c>
-      <c r="T9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U9" s="61">
-        <f>H9*10+O9</f>
-        <v>16474.402399999999</v>
-      </c>
-      <c r="V9" s="25"/>
-      <c r="W9" s="53">
-        <v>8300</v>
-      </c>
-      <c r="X9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y9" s="17">
-        <v>12997</v>
-      </c>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB9" s="9">
-        <v>2792</v>
-      </c>
-      <c r="AC9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD9" s="30">
-        <f>Y9+AB9</f>
-        <v>15789</v>
-      </c>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG9" s="21">
-        <v>24000</v>
-      </c>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ9" s="19">
-        <v>1774</v>
-      </c>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM9" s="4">
-        <v>30</v>
-      </c>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP9" s="22">
-        <v>105</v>
-      </c>
-      <c r="AQ9" s="14">
+      <c r="AY9" s="14">
         <v>18</v>
       </c>
-      <c r="AR9" s="14">
+      <c r="AZ9" s="14">
         <v>6</v>
       </c>
-      <c r="AS9" s="32">
+      <c r="BA9" s="32">
         <v>0.77900000000000003</v>
       </c>
-      <c r="AT9" s="32">
-        <f>(1630*AS9+AM9*5)*(1630*AS9+AM9*5)*AR9*1.3035*0.5*0.000066</f>
+      <c r="BB9" s="32">
+        <f t="shared" si="6"/>
         <v>520.25015250551974</v>
       </c>
-      <c r="AU9" s="32">
-        <f>(1630*AS9+AP9*5)*(1630*AS9+AP9*5)*AR9*4.1949*0.5*0.000066</f>
+      <c r="BC9" s="32">
+        <f t="shared" si="7"/>
         <v>2675.4966147650812</v>
       </c>
-      <c r="AV9" s="32" t="s">
+      <c r="BD9" s="32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
@@ -2684,135 +2969,151 @@
       <c r="F10" s="23">
         <v>3.63</v>
       </c>
-      <c r="G10" s="41">
-        <f>2*(D10*E10+E10*F10+F10*D10)</f>
+      <c r="G10" s="38">
+        <f t="shared" si="3"/>
         <v>320.19540000000001</v>
       </c>
-      <c r="H10" s="41">
-        <f>D10*E10*F10</f>
+      <c r="H10" s="38">
+        <f t="shared" si="4"/>
         <v>328.02640200000002</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="64">
+        <v>7</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="K10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="L10" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="L10" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="54">
-        <v>4700</v>
-      </c>
-      <c r="N10" s="9" t="s">
+      <c r="M10" s="21">
+        <v>2</v>
+      </c>
+      <c r="N10" s="47">
+        <f>Z$3+AA$3*M10</f>
+        <v>4800</v>
+      </c>
+      <c r="O10" s="9">
+        <v>3</v>
+      </c>
+      <c r="P10" s="51">
+        <f>Z$13+AA$13*O10</f>
+        <v>7700</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>5</v>
+      </c>
+      <c r="R10" s="22">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="S10" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="T10" s="48">
+        <f>G10*10+N10</f>
+        <v>8001.9539999999997</v>
+      </c>
+      <c r="U10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="60">
-        <v>9750</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="22">
+      <c r="V10" s="52">
+        <f>H10*10+P10</f>
+        <v>10980.264020000001</v>
+      </c>
+      <c r="W10" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="X10" s="67">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="Y10" s="26"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AE10" s="46">
+        <v>6500</v>
+      </c>
+      <c r="AF10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG10" s="17">
+        <v>9327</v>
+      </c>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ10" s="9">
+        <v>3329</v>
+      </c>
+      <c r="AK10" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="R10" s="45" t="s">
+      <c r="AL10" s="30">
+        <f t="shared" si="5"/>
+        <v>12656</v>
+      </c>
+      <c r="AM10" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="S10" s="56">
-        <f>G10*10+M10</f>
-        <v>7901.9539999999997</v>
-      </c>
-      <c r="T10" s="15" t="s">
+      <c r="AO10" s="21">
+        <v>20741</v>
+      </c>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="U10" s="61">
-        <f>H10*10+O10</f>
-        <v>13030.264020000001</v>
-      </c>
-      <c r="V10" s="26"/>
-      <c r="W10" s="53">
-        <v>6500</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y10" s="17">
-        <v>9327</v>
-      </c>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB10" s="9">
-        <v>3329</v>
-      </c>
-      <c r="AC10" s="15" t="s">
+      <c r="AR10" s="19">
+        <v>1597</v>
+      </c>
+      <c r="AS10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU10" s="4">
+        <v>59</v>
+      </c>
+      <c r="AV10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX10" s="22">
         <v>75</v>
       </c>
-      <c r="AD10" s="30">
-        <f>Y10+AB10</f>
-        <v>12656</v>
-      </c>
-      <c r="AE10" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG10" s="21">
-        <v>20741</v>
-      </c>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ10" s="19">
-        <v>1597</v>
-      </c>
-      <c r="AK10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM10" s="4">
-        <v>59</v>
-      </c>
-      <c r="AN10" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO10" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP10" s="22">
-        <v>75</v>
-      </c>
-      <c r="AQ10" s="14">
+      <c r="AY10" s="14">
         <v>20</v>
       </c>
-      <c r="AR10" s="14">
+      <c r="AZ10" s="14">
         <v>4</v>
       </c>
-      <c r="AS10" s="32">
+      <c r="BA10" s="32">
         <v>0.84299999999999997</v>
       </c>
-      <c r="AT10" s="32">
-        <f>(1630*AS10+AM10*5)*(1630*AS10+AM10*5)*AR10*1.3035*0.5*0.000066</f>
+      <c r="BB10" s="32">
+        <f t="shared" si="6"/>
         <v>479.34088904174223</v>
       </c>
-      <c r="AU10" s="32">
-        <f>(1630*AS10+AP10*5)*(1630*AS10+AP10*5)*AR10*4.1949*0.5*0.000066</f>
+      <c r="BC10" s="32">
+        <f t="shared" si="7"/>
         <v>1694.0251636831629</v>
       </c>
-      <c r="AV10" s="32" t="s">
+      <c r="BD10" s="32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>17</v>
       </c>
@@ -2831,133 +3132,152 @@
       <c r="F11" s="23">
         <v>6.12</v>
       </c>
-      <c r="G11" s="41">
-        <f>2*(D11*E11+E11*F11+F11*D11)</f>
+      <c r="G11" s="38">
+        <f t="shared" si="3"/>
         <v>310.48320000000001</v>
       </c>
-      <c r="H11" s="41">
-        <f>D11*E11*F11</f>
+      <c r="H11" s="38">
+        <f t="shared" si="4"/>
         <v>366.16449599999999</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="64">
+        <v>15</v>
+      </c>
+      <c r="J11" s="5">
         <v>17</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="K11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="50" t="s">
+      <c r="L11" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="L11" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="M11" s="54">
+      <c r="M11" s="21">
+        <v>2</v>
+      </c>
+      <c r="N11" s="47">
+        <f>Z$3+AA$3*M11</f>
+        <v>4800</v>
+      </c>
+      <c r="O11" s="9">
+        <v>6</v>
+      </c>
+      <c r="P11" s="51">
+        <f>Z$13+AA$13*O11</f>
+        <v>14000</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>2</v>
+      </c>
+      <c r="R11" s="22">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="S11" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="T11" s="48">
+        <f>G11*10+N11</f>
+        <v>7904.8320000000003</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="V11" s="52">
+        <f>H11*10+P11</f>
+        <v>17661.644959999998</v>
+      </c>
+      <c r="W11" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="X11" s="67">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AE11" s="46">
         <v>4700</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="AF11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG11" s="17">
+        <v>11386</v>
+      </c>
+      <c r="AH11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O11" s="60">
-        <v>17850</v>
-      </c>
-      <c r="P11" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="22">
+      <c r="AJ11" s="9">
+        <v>6922</v>
+      </c>
+      <c r="AK11" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL11" s="30">
+        <f t="shared" si="5"/>
+        <v>18308</v>
+      </c>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO11" s="21">
+        <v>13749</v>
+      </c>
+      <c r="AP11" s="19"/>
+      <c r="AQ11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR11" s="19">
+        <v>1553</v>
+      </c>
+      <c r="AS11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU11" s="4">
+        <v>22</v>
+      </c>
+      <c r="AV11" s="22"/>
+      <c r="AW11" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX11" s="22">
         <v>99</v>
       </c>
-      <c r="R11" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="S11" s="56">
-        <f>G11*10+M11</f>
-        <v>7804.8320000000003</v>
-      </c>
-      <c r="T11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="U11" s="61">
-        <f>H11*10+O11</f>
-        <v>21511.644959999998</v>
-      </c>
-      <c r="V11" s="25"/>
-      <c r="W11" s="53">
-        <v>4700</v>
-      </c>
-      <c r="X11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y11" s="17">
-        <v>11386</v>
-      </c>
-      <c r="Z11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB11" s="9">
-        <v>6922</v>
-      </c>
-      <c r="AC11" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD11" s="30">
-        <f>Y11+AB11</f>
-        <v>18308</v>
-      </c>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG11" s="21">
-        <v>13749</v>
-      </c>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ11" s="19">
-        <v>1553</v>
-      </c>
-      <c r="AK11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM11" s="4">
-        <v>22</v>
-      </c>
-      <c r="AN11" s="22"/>
-      <c r="AO11" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP11" s="22">
-        <v>99</v>
-      </c>
-      <c r="AQ11" s="14">
+      <c r="AY11" s="14">
         <v>18</v>
       </c>
-      <c r="AR11" s="14">
+      <c r="AZ11" s="14">
         <v>6</v>
       </c>
-      <c r="AS11" s="32">
+      <c r="BA11" s="32">
         <v>0.77900000000000003</v>
       </c>
-      <c r="AT11" s="32">
-        <f>(1630*AS11+AM11*5)*(1630*AS11+AM11*5)*AR11*1.3035*0.5*0.000066</f>
+      <c r="BB11" s="32">
+        <f t="shared" si="6"/>
         <v>491.34848541671977</v>
       </c>
-      <c r="AU11" s="32">
-        <f>(1630*AS11+AP11*5)*(1630*AS11+AP11*5)*AR11*4.1949*0.5*0.000066</f>
+      <c r="BC11" s="32">
+        <f t="shared" si="7"/>
         <v>2586.8010435498418</v>
       </c>
-      <c r="AV11" s="32" t="s">
+      <c r="BD11" s="32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>33</v>
       </c>
@@ -2976,96 +3296,113 @@
       <c r="F12" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="63"/>
+      <c r="J12" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="K12" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="L12" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="L12" s="46" t="s">
+      <c r="M12" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="M12" s="47"/>
-      <c r="N12" s="59" t="s">
+      <c r="N12" s="56"/>
+      <c r="O12" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="O12" s="55"/>
-      <c r="P12" s="48" t="s">
+      <c r="P12" s="58"/>
+      <c r="Q12" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="46" t="s">
+      <c r="R12" s="60"/>
+      <c r="S12" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="T12" s="56"/>
+      <c r="U12" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="V12" s="54"/>
+      <c r="W12" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="S12" s="47"/>
-      <c r="T12" s="37" t="s">
+      <c r="AA12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE12" s="46">
+        <v>2900</v>
+      </c>
+      <c r="AF12" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG12" s="54"/>
+      <c r="AH12" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI12" s="61"/>
+      <c r="AJ12" s="61"/>
+      <c r="AK12" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="U12" s="38"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="53">
-        <v>2900</v>
-      </c>
-      <c r="X12" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="36" t="s">
+      <c r="AL12" s="54"/>
+      <c r="AM12" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36" t="s">
+      <c r="AN12" s="61"/>
+      <c r="AO12" s="61"/>
+      <c r="AP12" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="36"/>
-      <c r="AK12" s="36" t="s">
+      <c r="AQ12" s="61"/>
+      <c r="AR12" s="61"/>
+      <c r="AS12" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="AL12" s="36"/>
-      <c r="AM12" s="36"/>
-      <c r="AN12" s="36" t="s">
+      <c r="AT12" s="61"/>
+      <c r="AU12" s="61"/>
+      <c r="AV12" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="AO12" s="36"/>
-      <c r="AP12" s="36"/>
-      <c r="AQ12" s="11" t="s">
+      <c r="AW12" s="61"/>
+      <c r="AX12" s="61"/>
+      <c r="AY12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AR12" s="11" t="s">
+      <c r="AZ12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AS12" s="31" t="s">
+      <c r="BA12" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="AT12" s="31" t="s">
+      <c r="BB12" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="AU12" s="31" t="s">
+      <c r="BC12" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="AV12" s="31"/>
-    </row>
-    <row r="13" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BD12" s="31"/>
+    </row>
+    <row r="13" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -3084,135 +3421,165 @@
       <c r="F13" s="23">
         <v>4.7699999999999996</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="38">
         <f>2*(D13*E13+E13*F13+F13*D13)</f>
         <v>299.214</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="38">
         <f>D13*E13*F13</f>
         <v>324.55079999999998</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="64">
+        <v>28</v>
+      </c>
+      <c r="J13" s="5">
         <v>12</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="K13" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="50" t="s">
+      <c r="L13" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="M13" s="21">
+        <v>3</v>
+      </c>
+      <c r="N13" s="47">
+        <f>Z$3+AA$3*M13</f>
+        <v>6600</v>
+      </c>
+      <c r="O13" s="9">
+        <v>2</v>
+      </c>
+      <c r="P13" s="51">
+        <f>Z$13+AA$13*O13</f>
+        <v>5600</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>5</v>
+      </c>
+      <c r="R13" s="22">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="S13" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13" s="48">
+        <f>G13*10+N13</f>
+        <v>9592.14</v>
+      </c>
+      <c r="U13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="V13" s="52">
+        <f>H13*10+P13</f>
+        <v>8845.5079999999998</v>
+      </c>
+      <c r="W13" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="X13" s="67">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="1">
+        <v>1400</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>2100</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC13" s="1">
+        <f>Z$13+AA$13*AB13</f>
+        <v>16100</v>
+      </c>
+      <c r="AD13" s="1">
+        <f t="shared" ref="AD13:AD18" si="8">AC13+AA$13/6 * (AB13-1)</f>
+        <v>18200</v>
+      </c>
+      <c r="AE13" s="50">
+        <v>20550</v>
+      </c>
+      <c r="AF13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG13" s="17">
+        <v>12760</v>
+      </c>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="54">
-        <v>6500</v>
-      </c>
-      <c r="N13" s="9" t="s">
+      <c r="AJ13" s="9">
+        <v>3566</v>
+      </c>
+      <c r="AK13" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL13" s="30">
+        <f>AG13+AJ13</f>
+        <v>16326</v>
+      </c>
+      <c r="AM13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="60">
-        <v>7050</v>
-      </c>
-      <c r="P13" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q13" s="22">
+      <c r="AO13" s="21">
+        <v>8409</v>
+      </c>
+      <c r="AP13" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR13" s="19">
+        <v>3131</v>
+      </c>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU13" s="4">
+        <v>48</v>
+      </c>
+      <c r="AV13" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX13" s="22">
         <v>117</v>
       </c>
-      <c r="R13" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="S13" s="56">
-        <f>G13*10+M13</f>
-        <v>9492.14</v>
-      </c>
-      <c r="T13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="U13" s="61">
-        <f>H13*10+O13</f>
-        <v>10295.508</v>
-      </c>
-      <c r="V13" s="25"/>
-      <c r="W13" s="58">
-        <v>20550</v>
-      </c>
-      <c r="X13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y13" s="17">
-        <v>12760</v>
-      </c>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB13" s="9">
-        <v>3566</v>
-      </c>
-      <c r="AC13" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD13" s="30">
-        <f>Y13+AB13</f>
-        <v>16326</v>
-      </c>
-      <c r="AE13" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG13" s="21">
-        <v>8409</v>
-      </c>
-      <c r="AH13" s="19" t="s">
+      <c r="AY13" s="14">
+        <v>22</v>
+      </c>
+      <c r="AZ13" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA13" s="32">
         <v>1</v>
       </c>
-      <c r="AI13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ13" s="19">
-        <v>3131</v>
-      </c>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM13" s="4">
-        <v>48</v>
-      </c>
-      <c r="AN13" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP13" s="22">
-        <v>117</v>
-      </c>
-      <c r="AQ13" s="14">
-        <v>22</v>
-      </c>
-      <c r="AR13" s="14">
-        <v>2</v>
-      </c>
-      <c r="AS13" s="32">
-        <v>1</v>
-      </c>
-      <c r="AT13" s="32">
-        <f>(1630*AS13+AM13*5)*(1630*AS13+AM13*5)*AR13*1.3035*0.5*0.000066</f>
+      <c r="BB13" s="32">
+        <f>(1630*BA13+AU13*5)*(1630*BA13+AU13*5)*AZ13*1.3035*0.5*0.000066</f>
         <v>300.84180390000006</v>
       </c>
-      <c r="AU13" s="32">
-        <f>(1630*AS13+AP13*5)*(1630*AS13+AP13*5)*AR13*4.1949*0.5*0.000066</f>
+      <c r="BC13" s="32">
+        <f>(1630*BA13+AX13*5)*(1630*BA13+AX13*5)*AZ13*4.1949*0.5*0.000066</f>
         <v>1358.3541346649999</v>
       </c>
-      <c r="AV13" s="32" t="s">
+      <c r="BD13" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>15</v>
       </c>
@@ -3231,133 +3598,159 @@
       <c r="F14" s="23">
         <v>5.79</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="38">
         <f>2*(D14*E14+E14*F14+F14*D14)</f>
         <v>269.60879999999997</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="38">
         <f>D14*E14*F14</f>
         <v>292.40657999999996</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="64">
+        <v>19</v>
+      </c>
+      <c r="J14" s="5">
         <v>15</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="K14" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="50" t="s">
+      <c r="L14" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="M14" s="21">
+        <v>7</v>
+      </c>
+      <c r="N14" s="47">
+        <f>Z$3+AA$3*M14</f>
+        <v>13800</v>
+      </c>
+      <c r="O14" s="9">
+        <v>2</v>
+      </c>
+      <c r="P14" s="51">
+        <f>Z$13+AA$13*O14</f>
+        <v>5600</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>1</v>
+      </c>
+      <c r="R14" s="22">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="S14" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="54">
-        <v>13700</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14" s="60">
-        <v>7050</v>
-      </c>
-      <c r="P14" s="22" t="s">
+      <c r="T14" s="48">
+        <f>G14*10+N14</f>
+        <v>16496.088</v>
+      </c>
+      <c r="U14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V14" s="52">
+        <f>H14*10+P14</f>
+        <v>8524.0658000000003</v>
+      </c>
+      <c r="W14" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="X14" s="67">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="3">
+        <v>6</v>
+      </c>
+      <c r="AC14" s="1">
+        <f>Z$13+AA$13*AB14</f>
+        <v>14000</v>
+      </c>
+      <c r="AD14" s="1">
+        <f t="shared" si="8"/>
+        <v>15750</v>
+      </c>
+      <c r="AE14" s="50">
+        <v>17850</v>
+      </c>
+      <c r="AF14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG14" s="17">
+        <v>10329</v>
+      </c>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ14" s="9">
+        <v>5522</v>
+      </c>
+      <c r="AK14" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL14" s="30">
+        <f>AG14+AJ14</f>
+        <v>15851</v>
+      </c>
+      <c r="AM14" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO14" s="21">
+        <v>22058</v>
+      </c>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR14" s="19">
+        <v>2299</v>
+      </c>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU14" s="4">
+        <v>37</v>
+      </c>
+      <c r="AV14" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="22">
+      <c r="AX14" s="22">
         <v>77</v>
       </c>
-      <c r="R14" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="56">
-        <f>G14*10+M14</f>
-        <v>16396.088</v>
-      </c>
-      <c r="T14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U14" s="61">
-        <f>H14*10+O14</f>
-        <v>9974.0658000000003</v>
-      </c>
-      <c r="V14" s="25"/>
-      <c r="W14" s="58">
-        <v>17850</v>
-      </c>
-      <c r="X14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y14" s="17">
-        <v>10329</v>
-      </c>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB14" s="9">
-        <v>5522</v>
-      </c>
-      <c r="AC14" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD14" s="30">
-        <f>Y14+AB14</f>
-        <v>15851</v>
-      </c>
-      <c r="AE14" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG14" s="21">
-        <v>22058</v>
-      </c>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ14" s="19">
-        <v>2299</v>
-      </c>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4" t="s">
+      <c r="AY14" s="14">
+        <v>20</v>
+      </c>
+      <c r="AZ14" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA14" s="32">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="BB14" s="32">
+        <f>(1630*BA14+AU14*5)*(1630*BA14+AU14*5)*AZ14*1.3035*0.5*0.000066</f>
+        <v>418.24170725414223</v>
+      </c>
+      <c r="BC14" s="32">
+        <f>(1630*BA14+AX14*5)*(1630*BA14+AX14*5)*AZ14*4.1949*0.5*0.000066</f>
+        <v>1713.450896535403</v>
+      </c>
+      <c r="BD14" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AM14" s="4">
-        <v>37</v>
-      </c>
-      <c r="AN14" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO14" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP14" s="22">
-        <v>77</v>
-      </c>
-      <c r="AQ14" s="14">
-        <v>20</v>
-      </c>
-      <c r="AR14" s="14">
-        <v>4</v>
-      </c>
-      <c r="AS14" s="32">
-        <v>0.84299999999999997</v>
-      </c>
-      <c r="AT14" s="32">
-        <f>(1630*AS14+AM14*5)*(1630*AS14+AM14*5)*AR14*1.3035*0.5*0.000066</f>
-        <v>418.24170725414223</v>
-      </c>
-      <c r="AU14" s="32">
-        <f>(1630*AS14+AP14*5)*(1630*AS14+AP14*5)*AR14*4.1949*0.5*0.000066</f>
-        <v>1713.450896535403</v>
-      </c>
-      <c r="AV14" s="32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -3376,135 +3769,161 @@
       <c r="F15" s="23">
         <v>3.26</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="38">
         <f>2*(D15*E15+E15*F15+F15*D15)</f>
         <v>253.9392</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="38">
         <f>D15*E15*F15</f>
         <v>233.67680000000001</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="64">
+        <v>9</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="K15" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="50" t="s">
+      <c r="L15" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="L15" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="54">
-        <v>2900</v>
-      </c>
-      <c r="N15" s="9" t="s">
+      <c r="M15" s="21">
+        <v>1</v>
+      </c>
+      <c r="N15" s="47">
+        <f>Z$3+AA$3*M15</f>
+        <v>3000</v>
+      </c>
+      <c r="O15" s="9">
+        <v>7</v>
+      </c>
+      <c r="P15" s="51">
+        <f>Z$13+AA$13*O15</f>
+        <v>16100</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>2</v>
+      </c>
+      <c r="R15" s="22">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="S15" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="T15" s="48">
+        <f>G15*10+N15</f>
+        <v>5539.3919999999998</v>
+      </c>
+      <c r="U15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="V15" s="52">
+        <f>H15*10+P15</f>
+        <v>18436.768</v>
+      </c>
+      <c r="W15" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="X15" s="67">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC15" s="1">
+        <f>Z$13+AA$13*AB15</f>
+        <v>11900</v>
+      </c>
+      <c r="AD15" s="1">
+        <f t="shared" si="8"/>
+        <v>13300</v>
+      </c>
+      <c r="AE15" s="50">
+        <v>15150</v>
+      </c>
+      <c r="AF15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG15" s="17">
+        <v>8325</v>
+      </c>
+      <c r="AH15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="60">
-        <v>20550</v>
-      </c>
-      <c r="P15" s="22" t="s">
+      <c r="AJ15" s="9">
+        <v>7724</v>
+      </c>
+      <c r="AK15" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL15" s="30">
+        <f>AG15+AJ15</f>
+        <v>16049</v>
+      </c>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO15" s="21">
+        <v>11754</v>
+      </c>
+      <c r="AP15" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="Q15" s="22">
+      <c r="AR15" s="19">
+        <v>1192</v>
+      </c>
+      <c r="AS15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU15" s="4">
+        <v>53</v>
+      </c>
+      <c r="AV15" s="22"/>
+      <c r="AW15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX15" s="22">
         <v>97</v>
       </c>
-      <c r="R15" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="S15" s="56">
-        <f>G15*10+M15</f>
-        <v>5439.3919999999998</v>
-      </c>
-      <c r="T15" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="U15" s="61">
-        <f>H15*10+O15</f>
-        <v>22886.768</v>
-      </c>
-      <c r="V15" s="26"/>
-      <c r="W15" s="58">
-        <v>15150</v>
-      </c>
-      <c r="X15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y15" s="17">
-        <v>8325</v>
-      </c>
-      <c r="Z15" s="9" t="s">
+      <c r="AY15" s="14">
+        <v>22</v>
+      </c>
+      <c r="AZ15" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA15" s="32">
         <v>1</v>
       </c>
-      <c r="AA15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB15" s="9">
-        <v>7724</v>
-      </c>
-      <c r="AC15" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD15" s="30">
-        <f>Y15+AB15</f>
-        <v>16049</v>
-      </c>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG15" s="21">
-        <v>11754</v>
-      </c>
-      <c r="AH15" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI15" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ15" s="19">
-        <v>1192</v>
-      </c>
-      <c r="AK15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM15" s="4">
-        <v>53</v>
-      </c>
-      <c r="AN15" s="22"/>
-      <c r="AO15" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP15" s="22">
-        <v>97</v>
-      </c>
-      <c r="AQ15" s="14">
-        <v>22</v>
-      </c>
-      <c r="AR15" s="14">
-        <v>2</v>
-      </c>
-      <c r="AS15" s="32">
-        <v>1</v>
-      </c>
-      <c r="AT15" s="32">
-        <f>(1630*AS15+AM15*5)*(1630*AS15+AM15*5)*AR15*1.3035*0.5*0.000066</f>
+      <c r="BB15" s="32">
+        <f>(1630*BA15+AU15*5)*(1630*BA15+AU15*5)*AZ15*1.3035*0.5*0.000066</f>
         <v>308.93947177500007</v>
       </c>
-      <c r="AU15" s="32">
-        <f>(1630*AS15+AP15*5)*(1630*AS15+AP15*5)*AR15*4.1949*0.5*0.000066</f>
+      <c r="BC15" s="32">
+        <f>(1630*BA15+AX15*5)*(1630*BA15+AX15*5)*AZ15*4.1949*0.5*0.000066</f>
         <v>1238.472282465</v>
       </c>
-      <c r="AV15" s="32" t="s">
+      <c r="BD15" s="32" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -3523,135 +3942,161 @@
       <c r="F16" s="23">
         <v>4.58</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="38">
         <f>2*(D16*E16+E16*F16+F16*D16)</f>
         <v>252.334</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="38">
         <f>D16*E16*F16</f>
         <v>260.05239999999998</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="64">
+        <v>22</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="K16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="50" t="s">
+      <c r="L16" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="L16" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="54">
-        <v>2900</v>
-      </c>
-      <c r="N16" s="9" t="s">
+      <c r="M16" s="21">
+        <v>1</v>
+      </c>
+      <c r="N16" s="47">
+        <f>Z$3+AA$3*M16</f>
+        <v>3000</v>
+      </c>
+      <c r="O16" s="9">
+        <v>3</v>
+      </c>
+      <c r="P16" s="51">
+        <f>Z$13+AA$13*O16</f>
+        <v>7700</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>6</v>
+      </c>
+      <c r="R16" s="22">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="S16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" s="48">
+        <f>G16*10+N16</f>
+        <v>5523.34</v>
+      </c>
+      <c r="U16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="60">
-        <v>9750</v>
-      </c>
-      <c r="P16" s="22" t="s">
+      <c r="V16" s="52">
+        <f>H16*10+P16</f>
+        <v>10300.523999999999</v>
+      </c>
+      <c r="W16" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="X16" s="67">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="3">
+        <v>4</v>
+      </c>
+      <c r="AC16" s="1">
+        <f>Z$13+AA$13*AB16</f>
+        <v>9800</v>
+      </c>
+      <c r="AD16" s="1">
+        <f t="shared" si="8"/>
+        <v>10850</v>
+      </c>
+      <c r="AE16" s="50">
+        <v>12450</v>
+      </c>
+      <c r="AF16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG16" s="17">
+        <v>8879</v>
+      </c>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ16" s="9">
+        <v>3771</v>
+      </c>
+      <c r="AK16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL16" s="30">
+        <f>AG16+AJ16</f>
+        <v>12650</v>
+      </c>
+      <c r="AM16" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN16" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO16" s="21">
+        <v>7945</v>
+      </c>
+      <c r="AP16" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="Q16" s="22">
+      <c r="AR16" s="19">
+        <v>3154</v>
+      </c>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU16" s="4">
+        <v>39</v>
+      </c>
+      <c r="AV16" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX16" s="22">
         <v>129</v>
       </c>
-      <c r="R16" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="S16" s="56">
-        <f>G16*10+M16</f>
-        <v>5423.34</v>
-      </c>
-      <c r="T16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="U16" s="61">
-        <f>H16*10+O16</f>
-        <v>12350.523999999999</v>
-      </c>
-      <c r="V16" s="26"/>
-      <c r="W16" s="58">
-        <v>12450</v>
-      </c>
-      <c r="X16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y16" s="17">
-        <v>8879</v>
-      </c>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB16" s="9">
-        <v>3771</v>
-      </c>
-      <c r="AC16" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD16" s="30">
-        <f>Y16+AB16</f>
-        <v>12650</v>
-      </c>
-      <c r="AE16" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF16" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG16" s="21">
-        <v>7945</v>
-      </c>
-      <c r="AH16" s="19" t="s">
+      <c r="AY16" s="14">
+        <v>22</v>
+      </c>
+      <c r="AZ16" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA16" s="32">
         <v>1</v>
       </c>
-      <c r="AI16" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ16" s="19">
-        <v>3154</v>
-      </c>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM16" s="4">
-        <v>39</v>
-      </c>
-      <c r="AN16" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO16" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP16" s="22">
-        <v>129</v>
-      </c>
-      <c r="AQ16" s="14">
-        <v>22</v>
-      </c>
-      <c r="AR16" s="14">
-        <v>2</v>
-      </c>
-      <c r="AS16" s="32">
-        <v>1</v>
-      </c>
-      <c r="AT16" s="32">
-        <f>(1630*AS16+AM16*5)*(1630*AS16+AM16*5)*AR16*1.3035*0.5*0.000066</f>
+      <c r="BB16" s="32">
+        <f>(1630*BA16+AU16*5)*(1630*BA16+AU16*5)*AZ16*1.3035*0.5*0.000066</f>
         <v>286.53699937500005</v>
       </c>
-      <c r="AU16" s="32">
-        <f>(1630*AS16+AP16*5)*(1630*AS16+AP16*5)*AR16*4.1949*0.5*0.000066</f>
+      <c r="BC16" s="32">
+        <f>(1630*BA16+AX16*5)*(1630*BA16+AX16*5)*AZ16*4.1949*0.5*0.000066</f>
         <v>1432.9411346249999</v>
       </c>
-      <c r="AV16" s="32" t="s">
+      <c r="BD16" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>33</v>
       </c>
@@ -3670,96 +4115,114 @@
       <c r="F17" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="H17" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="I17" s="35" t="s">
+      <c r="I17" s="63"/>
+      <c r="J17" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="K17" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="L17" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="L17" s="46" t="s">
+      <c r="M17" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="M17" s="47"/>
-      <c r="N17" s="59" t="s">
+      <c r="N17" s="56"/>
+      <c r="O17" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="O17" s="55"/>
-      <c r="P17" s="48" t="s">
+      <c r="P17" s="58"/>
+      <c r="Q17" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="S17" s="47"/>
-      <c r="T17" s="37" t="s">
+      <c r="R17" s="60"/>
+      <c r="S17" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="T17" s="56"/>
+      <c r="U17" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="U17" s="38"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="58">
+      <c r="V17" s="54"/>
+      <c r="W17" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC17" s="1">
+        <f>Z$13+AA$13*AB17</f>
+        <v>7700</v>
+      </c>
+      <c r="AD17" s="1">
+        <f t="shared" si="8"/>
+        <v>8400</v>
+      </c>
+      <c r="AE17" s="50">
         <v>9750</v>
       </c>
-      <c r="X17" s="37" t="s">
+      <c r="AF17" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="36" t="s">
+      <c r="AG17" s="54"/>
+      <c r="AH17" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="37" t="s">
+      <c r="AI17" s="61"/>
+      <c r="AJ17" s="61"/>
+      <c r="AK17" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="36" t="s">
+      <c r="AL17" s="54"/>
+      <c r="AM17" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36" t="s">
+      <c r="AN17" s="61"/>
+      <c r="AO17" s="61"/>
+      <c r="AP17" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="AI17" s="36"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="36" t="s">
+      <c r="AQ17" s="61"/>
+      <c r="AR17" s="61"/>
+      <c r="AS17" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="36"/>
-      <c r="AN17" s="36" t="s">
+      <c r="AT17" s="61"/>
+      <c r="AU17" s="61"/>
+      <c r="AV17" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="AO17" s="36"/>
-      <c r="AP17" s="36"/>
-      <c r="AQ17" s="11" t="s">
+      <c r="AW17" s="61"/>
+      <c r="AX17" s="61"/>
+      <c r="AY17" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AR17" s="11" t="s">
+      <c r="AZ17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AS17" s="31" t="s">
+      <c r="BA17" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="AT17" s="31" t="s">
+      <c r="BB17" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="AU17" s="31" t="s">
+      <c r="BC17" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="AV17" s="31"/>
-    </row>
-    <row r="18" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BD17" s="31"/>
+    </row>
+    <row r="18" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>105</v>
       </c>
@@ -3778,129 +4241,155 @@
       <c r="F18" s="23">
         <v>3.79</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="38">
         <f>2*(D18*E18+E18*F18+F18*D18)</f>
         <v>177.7704</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="38">
         <f>D18*E18*F18</f>
         <v>148.99248</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="64">
+        <v>20</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J18" s="27" t="s">
+      <c r="K18" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K18" s="50" t="s">
+      <c r="L18" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="L18" s="21" t="s">
+      <c r="M18" s="21">
+        <v>3</v>
+      </c>
+      <c r="N18" s="47">
+        <f>Z$3+AA$3*M18</f>
+        <v>6600</v>
+      </c>
+      <c r="O18" s="9">
+        <v>4</v>
+      </c>
+      <c r="P18" s="51">
+        <f>Z$13+AA$13*O18</f>
+        <v>9800</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>3</v>
+      </c>
+      <c r="R18" s="22">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="S18" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="T18" s="48">
+        <f>G18*10+N18</f>
+        <v>8377.7039999999997</v>
+      </c>
+      <c r="U18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="V18" s="52">
+        <f>H18*10+P18</f>
+        <v>11289.924800000001</v>
+      </c>
+      <c r="W18" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="X18" s="67">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="1">
+        <f>Z$13+AA$13*AB18</f>
+        <v>5600</v>
+      </c>
+      <c r="AD18" s="1">
+        <f t="shared" si="8"/>
+        <v>5950</v>
+      </c>
+      <c r="AE18" s="50">
+        <v>7050</v>
+      </c>
+      <c r="AF18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG18" s="17">
+        <v>5987</v>
+      </c>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M18" s="54">
-        <v>6500</v>
-      </c>
-      <c r="N18" s="9" t="s">
+      <c r="AJ18" s="9">
+        <v>3156</v>
+      </c>
+      <c r="AK18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL18" s="30">
+        <f>AG18+AJ18</f>
+        <v>9143</v>
+      </c>
+      <c r="AM18" s="21"/>
+      <c r="AN18" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="60">
-        <v>12450</v>
-      </c>
-      <c r="P18" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" s="22">
+      <c r="AO18" s="21">
+        <v>14500</v>
+      </c>
+      <c r="AP18" s="19"/>
+      <c r="AQ18" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR18" s="19">
+        <v>2444</v>
+      </c>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU18" s="4">
+        <v>28</v>
+      </c>
+      <c r="AV18" s="22"/>
+      <c r="AW18" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX18" s="22">
         <v>123</v>
       </c>
-      <c r="R18" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="S18" s="56">
-        <f>G18*10+M18</f>
-        <v>8277.7039999999997</v>
-      </c>
-      <c r="T18" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="U18" s="61">
-        <f>H18*10+O18</f>
-        <v>13939.924800000001</v>
-      </c>
-      <c r="V18" s="27"/>
-      <c r="W18" s="58">
-        <v>7050</v>
-      </c>
-      <c r="X18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y18" s="17">
-        <v>5987</v>
-      </c>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB18" s="9">
-        <v>3156</v>
-      </c>
-      <c r="AC18" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD18" s="30">
-        <f>Y18+AB18</f>
-        <v>9143</v>
-      </c>
-      <c r="AE18" s="21"/>
-      <c r="AF18" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG18" s="21">
-        <v>14500</v>
-      </c>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19" t="s">
+      <c r="AY18" s="14">
+        <v>20</v>
+      </c>
+      <c r="AZ18" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA18" s="32">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="BB18" s="32">
+        <f>(1630*BA18+AU18*5)*(1630*BA18+AU18*5)*AZ18*1.3035*0.5*0.000066</f>
+        <v>394.44671988194222</v>
+      </c>
+      <c r="BC18" s="32">
+        <f>(1630*BA18+AX18*5)*(1630*BA18+AX18*5)*AZ18*4.1949*0.5*0.000066</f>
+        <v>2190.8084714969227</v>
+      </c>
+      <c r="BD18" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="AJ18" s="19">
-        <v>2444</v>
-      </c>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM18" s="4">
-        <v>28</v>
-      </c>
-      <c r="AN18" s="22"/>
-      <c r="AO18" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP18" s="22">
-        <v>123</v>
-      </c>
-      <c r="AQ18" s="14">
-        <v>20</v>
-      </c>
-      <c r="AR18" s="14">
-        <v>4</v>
-      </c>
-      <c r="AS18" s="32">
-        <v>0.84299999999999997</v>
-      </c>
-      <c r="AT18" s="32">
-        <f>(1630*AS18+AM18*5)*(1630*AS18+AM18*5)*AR18*1.3035*0.5*0.000066</f>
-        <v>394.44671988194222</v>
-      </c>
-      <c r="AU18" s="32">
-        <f>(1630*AS18+AP18*5)*(1630*AS18+AP18*5)*AR18*4.1949*0.5*0.000066</f>
-        <v>2190.8084714969227</v>
-      </c>
-      <c r="AV18" s="32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
@@ -3919,135 +4408,161 @@
       <c r="F19" s="23">
         <v>3.9</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="38">
         <f>2*(D19*E19+E19*F19+F19*D19)</f>
         <v>173.58720000000002</v>
       </c>
-      <c r="H19" s="41">
+      <c r="H19" s="38">
         <f>D19*E19*F19</f>
         <v>149.89104000000003</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="64">
+        <v>15</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="K19" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="K19" s="50" t="s">
+      <c r="L19" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="M19" s="21">
+        <v>1</v>
+      </c>
+      <c r="N19" s="47">
+        <f>Z$3+AA$3*M19</f>
+        <v>3000</v>
+      </c>
+      <c r="O19" s="9">
+        <v>2</v>
+      </c>
+      <c r="P19" s="51">
+        <f>Z$13+AA$13*O19</f>
+        <v>5600</v>
+      </c>
+      <c r="Q19" s="22">
+        <v>7</v>
+      </c>
+      <c r="R19" s="22">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="S19" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="54">
-        <v>2900</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="60">
-        <v>7050</v>
-      </c>
-      <c r="P19" s="22" t="s">
+      <c r="T19" s="48">
+        <f>G19*10+N19</f>
+        <v>4735.8720000000003</v>
+      </c>
+      <c r="U19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V19" s="52">
+        <f>H19*10+P19</f>
+        <v>7098.9104000000007</v>
+      </c>
+      <c r="W19" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="X19" s="67">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="1">
+        <f>Z$13+AA$13*AB19</f>
+        <v>3500</v>
+      </c>
+      <c r="AD19" s="1">
+        <f>AC19+AA$13/6 * (AB19-1)</f>
+        <v>3500</v>
+      </c>
+      <c r="AE19" s="50">
+        <v>4350</v>
+      </c>
+      <c r="AF19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG19" s="17">
+        <v>7346</v>
+      </c>
+      <c r="AH19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="AJ19" s="9">
+        <v>7993</v>
+      </c>
+      <c r="AK19" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL19" s="30">
+        <f>AG19+AJ19</f>
+        <v>15339</v>
+      </c>
+      <c r="AM19" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN19" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO19" s="21">
+        <v>5229</v>
+      </c>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR19" s="19">
+        <v>2075</v>
+      </c>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU19" s="4">
+        <v>35</v>
+      </c>
+      <c r="AV19" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX19" s="22">
         <v>133</v>
       </c>
-      <c r="R19" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="S19" s="56">
-        <f>G19*10+M19</f>
-        <v>4635.8720000000003</v>
-      </c>
-      <c r="T19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U19" s="61">
-        <f>H19*10+O19</f>
-        <v>8548.9104000000007</v>
-      </c>
-      <c r="V19" s="27"/>
-      <c r="W19" s="58">
-        <v>4350</v>
-      </c>
-      <c r="X19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y19" s="17">
-        <v>7346</v>
-      </c>
-      <c r="Z19" s="9" t="s">
+      <c r="AY19" s="14">
+        <v>22</v>
+      </c>
+      <c r="AZ19" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA19" s="32">
         <v>1</v>
       </c>
-      <c r="AA19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB19" s="9">
-        <v>7993</v>
-      </c>
-      <c r="AC19" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD19" s="30">
-        <f>Y19+AB19</f>
-        <v>15339</v>
-      </c>
-      <c r="AE19" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF19" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG19" s="21">
-        <v>5229</v>
-      </c>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ19" s="19">
-        <v>2075</v>
-      </c>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM19" s="4">
-        <v>35</v>
-      </c>
-      <c r="AN19" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO19" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP19" s="22">
-        <v>133</v>
-      </c>
-      <c r="AQ19" s="14">
-        <v>22</v>
-      </c>
-      <c r="AR19" s="14">
-        <v>2</v>
-      </c>
-      <c r="AS19" s="32">
-        <v>1</v>
-      </c>
-      <c r="AT19" s="32">
-        <f>(1630*AS19+AM19*5)*(1630*AS19+AM19*5)*AR19*1.3035*0.5*0.000066</f>
+      <c r="BB19" s="32">
+        <f>(1630*BA19+AU19*5)*(1630*BA19+AU19*5)*AZ19*1.3035*0.5*0.000066</f>
         <v>280.29114877500007</v>
       </c>
-      <c r="AU19" s="32">
-        <f>(1630*AS19+AP19*5)*(1630*AS19+AP19*5)*AR19*4.1949*0.5*0.000066</f>
+      <c r="BC19" s="32">
+        <f>(1630*BA19+AX19*5)*(1630*BA19+AX19*5)*AZ19*4.1949*0.5*0.000066</f>
         <v>1458.246449385</v>
       </c>
-      <c r="AV19" s="32" t="s">
+      <c r="BD19" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
@@ -4066,135 +4581,148 @@
       <c r="F20" s="23">
         <v>3.7</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="38">
         <f>2*(D20*E20+E20*F20+F20*D20)</f>
         <v>149.88640000000001</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="38">
         <f>D20*E20*F20</f>
         <v>120.81314</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="64">
+        <v>17</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="K20" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="50" t="s">
+      <c r="L20" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="M20" s="21">
+        <v>2</v>
+      </c>
+      <c r="N20" s="47">
+        <f>Z$3+AA$3*M20</f>
+        <v>4800</v>
+      </c>
+      <c r="O20" s="9">
+        <v>1</v>
+      </c>
+      <c r="P20" s="51">
+        <f>Z$13+AA$13*O20</f>
+        <v>3500</v>
+      </c>
+      <c r="Q20" s="22">
+        <v>7</v>
+      </c>
+      <c r="R20" s="22">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="S20" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="T20" s="48">
+        <f>G20*10+N20</f>
+        <v>6298.8639999999996</v>
+      </c>
+      <c r="U20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="54">
-        <v>4700</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="60">
-        <v>4350</v>
-      </c>
-      <c r="P20" s="22" t="s">
+      <c r="V20" s="52">
+        <f>H20*10+P20</f>
+        <v>4708.1314000000002</v>
+      </c>
+      <c r="W20" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="X20" s="67">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
+      <c r="Y20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG20" s="17">
+        <v>5375</v>
+      </c>
+      <c r="AH20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ20" s="9">
+        <v>2456</v>
+      </c>
+      <c r="AK20" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL20" s="30">
+        <f>AG20+AJ20</f>
+        <v>7831</v>
+      </c>
+      <c r="AM20" s="21"/>
+      <c r="AN20" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO20" s="21">
+        <v>12934</v>
+      </c>
+      <c r="AP20" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="Q20" s="22">
+      <c r="AR20" s="19">
+        <v>3690</v>
+      </c>
+      <c r="AS20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU20" s="4">
+        <v>28</v>
+      </c>
+      <c r="AV20" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX20" s="22">
         <v>114</v>
       </c>
-      <c r="R20" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="S20" s="56">
-        <f>G20*10+M20</f>
-        <v>6198.8639999999996</v>
-      </c>
-      <c r="T20" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="U20" s="61">
-        <f>H20*10+O20</f>
-        <v>5558.1314000000002</v>
-      </c>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y20" s="17">
-        <v>5375</v>
-      </c>
-      <c r="Z20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB20" s="9">
-        <v>2456</v>
-      </c>
-      <c r="AC20" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD20" s="30">
-        <f>Y20+AB20</f>
-        <v>7831</v>
-      </c>
-      <c r="AE20" s="21"/>
-      <c r="AF20" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG20" s="21">
-        <v>12934</v>
-      </c>
-      <c r="AH20" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI20" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ20" s="19">
-        <v>3690</v>
-      </c>
-      <c r="AK20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM20" s="4">
-        <v>28</v>
-      </c>
-      <c r="AN20" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO20" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP20" s="22">
-        <v>114</v>
-      </c>
-      <c r="AQ20" s="14">
+      <c r="AY20" s="14">
         <v>20</v>
       </c>
-      <c r="AR20" s="14">
+      <c r="AZ20" s="14">
         <v>4</v>
       </c>
-      <c r="AS20" s="32">
+      <c r="BA20" s="32">
         <v>0.84299999999999997</v>
       </c>
-      <c r="AT20" s="32">
-        <f>(1630*AS20+AM20*5)*(1630*AS20+AM20*5)*AR20*1.3035*0.5*0.000066</f>
+      <c r="BB20" s="32">
+        <f>(1630*BA20+AU20*5)*(1630*BA20+AU20*5)*AZ20*1.3035*0.5*0.000066</f>
         <v>394.44671988194222</v>
       </c>
-      <c r="AU20" s="32">
-        <f>(1630*AS20+AP20*5)*(1630*AS20+AP20*5)*AR20*4.1949*0.5*0.000066</f>
+      <c r="BC20" s="32">
+        <f>(1630*BA20+AX20*5)*(1630*BA20+AX20*5)*AZ20*4.1949*0.5*0.000066</f>
         <v>2092.8026486118429</v>
       </c>
-      <c r="AV20" s="32" t="s">
+      <c r="BD20" s="32" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
@@ -4213,133 +4741,152 @@
       <c r="F21" s="23">
         <v>2.96</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="38">
         <f>2*(D21*E21+E21*F21+F21*D21)</f>
         <v>128.83619999999999</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="38">
         <f>D21*E21*F21</f>
         <v>92.021959999999993</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="64">
+        <v>16</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="K21" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="50" t="s">
+      <c r="L21" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="M21" s="21">
+        <v>4</v>
+      </c>
+      <c r="N21" s="47">
+        <f>Z$3+AA$3*M21</f>
+        <v>8400</v>
+      </c>
+      <c r="O21" s="9">
+        <v>5</v>
+      </c>
+      <c r="P21" s="51">
+        <f>Z$13+AA$13*O21</f>
+        <v>11900</v>
+      </c>
+      <c r="Q21" s="22">
+        <v>1</v>
+      </c>
+      <c r="R21" s="22">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="S21" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" s="48">
+        <f>G21*10+N21</f>
+        <v>9688.3619999999992</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="V21" s="52">
+        <f>H21*10+P21</f>
+        <v>12820.2196</v>
+      </c>
+      <c r="W21" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="X21" s="67">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG21" s="17">
+        <v>6692</v>
+      </c>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="53">
-        <v>8300</v>
-      </c>
-      <c r="N21" s="9" t="s">
+      <c r="AJ21" s="9">
+        <v>4156</v>
+      </c>
+      <c r="AK21" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL21" s="30">
+        <f>AG21+AJ21</f>
+        <v>10848</v>
+      </c>
+      <c r="AM21" s="21"/>
+      <c r="AN21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="60">
-        <v>15150</v>
-      </c>
-      <c r="P21" s="22" t="s">
+      <c r="AO21" s="21">
+        <v>16450</v>
+      </c>
+      <c r="AP21" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR21" s="19">
+        <v>1263</v>
+      </c>
+      <c r="AS21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q21" s="22">
+      <c r="AU21" s="4">
+        <v>23</v>
+      </c>
+      <c r="AV21" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW21" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX21" s="22">
         <v>116</v>
       </c>
-      <c r="R21" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="S21" s="56">
-        <f>G21*10+M21</f>
-        <v>9588.3619999999992</v>
-      </c>
-      <c r="T21" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="U21" s="61">
-        <f>H21*10+O21</f>
-        <v>16070.2196</v>
-      </c>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y21" s="17">
-        <v>6692</v>
-      </c>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB21" s="9">
-        <v>4156</v>
-      </c>
-      <c r="AC21" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD21" s="30">
-        <f>Y21+AB21</f>
-        <v>10848</v>
-      </c>
-      <c r="AE21" s="21"/>
-      <c r="AF21" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG21" s="21">
-        <v>16450</v>
-      </c>
-      <c r="AH21" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ21" s="19">
-        <v>1263</v>
-      </c>
-      <c r="AK21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM21" s="4">
-        <v>23</v>
-      </c>
-      <c r="AN21" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO21" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP21" s="22">
-        <v>116</v>
-      </c>
-      <c r="AQ21" s="14">
+      <c r="AY21" s="14">
         <v>18</v>
       </c>
-      <c r="AR21" s="14">
+      <c r="AZ21" s="14">
         <v>6</v>
       </c>
-      <c r="AS21" s="32">
+      <c r="BA21" s="32">
         <v>0.77900000000000003</v>
       </c>
-      <c r="AT21" s="32">
-        <f>(1630*AS21+AM21*5)*(1630*AS21+AM21*5)*AR21*1.3035*0.5*0.000066</f>
+      <c r="BB21" s="32">
+        <f>(1630*BA21+AU21*5)*(1630*BA21+AU21*5)*AZ21*1.3035*0.5*0.000066</f>
         <v>494.91602752781978</v>
       </c>
-      <c r="AU21" s="32">
-        <f>(1630*AS21+AP21*5)*(1630*AS21+AP21*5)*AR21*4.1949*0.5*0.000066</f>
+      <c r="BC21" s="32">
+        <f>(1630*BA21+AX21*5)*(1630*BA21+AX21*5)*AZ21*4.1949*0.5*0.000066</f>
         <v>2841.9881711780213</v>
       </c>
-      <c r="AV21" s="32" t="s">
+      <c r="BD21" s="32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>33</v>
       </c>
@@ -4358,94 +4905,111 @@
       <c r="F22" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="40" t="s">
+      <c r="H22" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="I22" s="35" t="s">
+      <c r="I22" s="63"/>
+      <c r="J22" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="K22" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="K22" s="34" t="s">
+      <c r="L22" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="L22" s="46" t="s">
+      <c r="M22" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="M22" s="47"/>
-      <c r="N22" s="59" t="s">
+      <c r="N22" s="56"/>
+      <c r="O22" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="O22" s="55"/>
-      <c r="P22" s="48" t="s">
+      <c r="P22" s="58"/>
+      <c r="Q22" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="46" t="s">
+      <c r="R22" s="60"/>
+      <c r="S22" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="T22" s="56"/>
+      <c r="U22" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="V22" s="54"/>
+      <c r="W22" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="S22" s="47"/>
-      <c r="T22" s="37" t="s">
+      <c r="AA22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG22" s="54"/>
+      <c r="AH22" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI22" s="61"/>
+      <c r="AJ22" s="61"/>
+      <c r="AK22" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="U22" s="38"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="36"/>
-      <c r="AC22" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="36" t="s">
+      <c r="AL22" s="54"/>
+      <c r="AM22" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AF22" s="36"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="36" t="s">
+      <c r="AN22" s="61"/>
+      <c r="AO22" s="61"/>
+      <c r="AP22" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="AI22" s="36"/>
-      <c r="AJ22" s="36"/>
-      <c r="AK22" s="36" t="s">
+      <c r="AQ22" s="61"/>
+      <c r="AR22" s="61"/>
+      <c r="AS22" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="AL22" s="36"/>
-      <c r="AM22" s="36"/>
-      <c r="AN22" s="36" t="s">
+      <c r="AT22" s="61"/>
+      <c r="AU22" s="61"/>
+      <c r="AV22" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="AO22" s="36"/>
-      <c r="AP22" s="36"/>
-      <c r="AQ22" s="11" t="s">
+      <c r="AW22" s="61"/>
+      <c r="AX22" s="61"/>
+      <c r="AY22" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AR22" s="11" t="s">
+      <c r="AZ22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AS22" s="31" t="s">
+      <c r="BA22" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="AT22" s="31" t="s">
+      <c r="BB22" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="AU22" s="31" t="s">
+      <c r="BC22" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="AV22" s="31"/>
-    </row>
-    <row r="23" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BD22" s="31"/>
+    </row>
+    <row r="23" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
@@ -4464,133 +5028,163 @@
       <c r="F23" s="23">
         <v>2.66</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23" s="38">
         <f>2*(D23*E23+E23*F23+F23*D23)</f>
         <v>70.081800000000001</v>
       </c>
-      <c r="H23" s="41">
+      <c r="H23" s="38">
         <f>D23*E23*F23</f>
         <v>39.009698</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="64">
+        <v>9</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="28" t="s">
+      <c r="K23" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="50" t="s">
+      <c r="L23" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="L23" s="21" t="s">
+      <c r="M23" s="21">
+        <v>1</v>
+      </c>
+      <c r="N23" s="47">
+        <f>Z$3+AA$3*M23</f>
+        <v>3000</v>
+      </c>
+      <c r="O23" s="9">
+        <v>4</v>
+      </c>
+      <c r="P23" s="51">
+        <f>Z$13+AA$13*O23</f>
+        <v>9800</v>
+      </c>
+      <c r="Q23" s="22">
+        <v>5</v>
+      </c>
+      <c r="R23" s="22">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="S23" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="T23" s="48">
+        <f>G23*10+N23</f>
+        <v>3700.8180000000002</v>
+      </c>
+      <c r="U23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="V23" s="52">
+        <f>H23*10+P23</f>
+        <v>10190.09698</v>
+      </c>
+      <c r="W23" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="X23" s="67">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA23" s="1">
         <v>12</v>
       </c>
-      <c r="M23" s="54">
-        <v>2900</v>
-      </c>
-      <c r="N23" s="9" t="s">
+      <c r="AB23" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC23" s="1">
+        <f>Z$23+AA$23*AB23</f>
+        <v>134</v>
+      </c>
+      <c r="AD23" s="1">
+        <f>AC23+AA$23/6 * (AB23-1)</f>
+        <v>146</v>
+      </c>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG23" s="17">
+        <v>4793</v>
+      </c>
+      <c r="AH23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ23" s="9">
+        <v>6522</v>
+      </c>
+      <c r="AK23" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL23" s="30">
+        <f>AG23+AJ23</f>
+        <v>11315</v>
+      </c>
+      <c r="AM23" s="21"/>
+      <c r="AN23" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O23" s="60">
-        <v>12450</v>
-      </c>
-      <c r="P23" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q23" s="22">
+      <c r="AO23" s="21">
+        <v>14859</v>
+      </c>
+      <c r="AP23" s="19"/>
+      <c r="AQ23" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR23" s="19">
+        <v>2237</v>
+      </c>
+      <c r="AS23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU23" s="4">
+        <v>54</v>
+      </c>
+      <c r="AV23" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW23" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX23" s="22">
         <v>85</v>
       </c>
-      <c r="R23" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="S23" s="56">
-        <f>G23*10+M23</f>
-        <v>3600.8180000000002</v>
-      </c>
-      <c r="T23" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="U23" s="61">
-        <f>H23*10+O23</f>
-        <v>12840.09698</v>
-      </c>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y23" s="17">
-        <v>4793</v>
-      </c>
-      <c r="Z23" s="9" t="s">
+      <c r="AY23" s="14">
+        <v>22</v>
+      </c>
+      <c r="AZ23" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA23" s="32">
         <v>1</v>
       </c>
-      <c r="AA23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB23" s="9">
-        <v>6522</v>
-      </c>
-      <c r="AC23" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD23" s="30">
-        <f>Y23+AB23</f>
-        <v>11315</v>
-      </c>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG23" s="21">
-        <v>14859</v>
-      </c>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ23" s="19">
-        <v>2237</v>
-      </c>
-      <c r="AK23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM23" s="4">
-        <v>54</v>
-      </c>
-      <c r="AN23" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO23" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP23" s="22">
-        <v>85</v>
-      </c>
-      <c r="AQ23" s="14">
-        <v>22</v>
-      </c>
-      <c r="AR23" s="14">
-        <v>2</v>
-      </c>
-      <c r="AS23" s="32">
-        <v>1</v>
-      </c>
-      <c r="AT23" s="32">
-        <f>(1630*AS23+AM23*5)*(1630*AS23+AM23*5)*AR23*1.3035*0.5*0.000066</f>
+      <c r="BB23" s="32">
+        <f>(1630*BA23+AU23*5)*(1630*BA23+AU23*5)*AZ23*1.3035*0.5*0.000066</f>
         <v>310.57191</v>
       </c>
-      <c r="AU23" s="32">
-        <f>(1630*AS23+AP23*5)*(1630*AS23+AP23*5)*AR23*4.1949*0.5*0.000066</f>
+      <c r="BC23" s="32">
+        <f>(1630*BA23+AX23*5)*(1630*BA23+AX23*5)*AZ23*4.1949*0.5*0.000066</f>
         <v>1169.2010597849999</v>
       </c>
-      <c r="AV23" s="32" t="s">
+      <c r="BD23" s="32" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
@@ -4609,131 +5203,157 @@
       <c r="F24" s="23">
         <v>1.46</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="38">
         <f>2*(D24*E24+E24*F24+F24*D24)</f>
         <v>62.298399999999994</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="38">
         <f>D24*E24*F24</f>
         <v>27.103439999999999</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="64">
+        <v>23</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="28" t="s">
+      <c r="K24" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="K24" s="50" t="s">
+      <c r="L24" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="L24" s="21" t="s">
+      <c r="M24" s="21">
+        <v>1</v>
+      </c>
+      <c r="N24" s="47">
+        <f>Z$3+AA$3*M24</f>
+        <v>3000</v>
+      </c>
+      <c r="O24" s="9">
+        <v>2</v>
+      </c>
+      <c r="P24" s="51">
+        <f>Z$13+AA$13*O24</f>
+        <v>5600</v>
+      </c>
+      <c r="Q24" s="22">
+        <v>7</v>
+      </c>
+      <c r="R24" s="22">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="S24" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="T24" s="48">
+        <f>G24*10+N24</f>
+        <v>3622.9839999999999</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="V24" s="52">
+        <f>H24*10+P24</f>
+        <v>5871.0344000000005</v>
+      </c>
+      <c r="W24" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="X24" s="67">
+        <f t="shared" si="1"/>
+        <v>157</v>
+      </c>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="3">
+        <v>6</v>
+      </c>
+      <c r="AC24" s="1">
+        <f t="shared" ref="AC24:AC29" si="9">Z$23+AA$23*AB24</f>
+        <v>122</v>
+      </c>
+      <c r="AD24" s="1">
+        <f t="shared" ref="AD24:AD29" si="10">AC24+AA$23/6 * (AB24-1)</f>
+        <v>132</v>
+      </c>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG24" s="17">
+        <v>4327</v>
+      </c>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ24" s="9">
+        <v>3149</v>
+      </c>
+      <c r="AK24" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL24" s="30">
+        <f>AG24+AJ24</f>
+        <v>7476</v>
+      </c>
+      <c r="AM24" s="21"/>
+      <c r="AN24" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO24" s="21">
+        <v>10721</v>
+      </c>
+      <c r="AP24" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ24" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="M24" s="54">
-        <v>2900</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O24" s="60">
-        <v>7050</v>
-      </c>
-      <c r="P24" s="22" t="s">
+      <c r="AR24" s="19">
+        <v>888</v>
+      </c>
+      <c r="AS24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q24" s="22">
+      <c r="AU24" s="4">
+        <v>60</v>
+      </c>
+      <c r="AV24" s="22"/>
+      <c r="AW24" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX24" s="22">
         <v>120</v>
       </c>
-      <c r="R24" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="S24" s="56">
-        <f>G24*10+M24</f>
-        <v>3522.9839999999999</v>
-      </c>
-      <c r="T24" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="U24" s="61">
-        <f>H24*10+O24</f>
-        <v>7321.0344000000005</v>
-      </c>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y24" s="17">
-        <v>4327</v>
-      </c>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB24" s="9">
-        <v>3149</v>
-      </c>
-      <c r="AC24" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD24" s="30">
-        <f>Y24+AB24</f>
-        <v>7476</v>
-      </c>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG24" s="21">
-        <v>10721</v>
-      </c>
-      <c r="AH24" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI24" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ24" s="19">
-        <v>888</v>
-      </c>
-      <c r="AK24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM24" s="4">
-        <v>60</v>
-      </c>
-      <c r="AN24" s="22"/>
-      <c r="AO24" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP24" s="22">
-        <v>120</v>
-      </c>
-      <c r="AQ24" s="14">
+      <c r="AY24" s="14">
         <v>20</v>
       </c>
-      <c r="AR24" s="14">
+      <c r="AZ24" s="14">
         <v>4</v>
       </c>
-      <c r="AS24" s="32">
+      <c r="BA24" s="32">
         <v>0.84299999999999997</v>
       </c>
-      <c r="AT24" s="32">
-        <f>(1630*AS24+AM24*5)*(1630*AS24+AM24*5)*AR24*1.3035*0.5*0.000066</f>
+      <c r="BB24" s="32">
+        <f>(1630*BA24+AU24*5)*(1630*BA24+AU24*5)*AZ24*1.3035*0.5*0.000066</f>
         <v>482.21706022754222</v>
       </c>
-      <c r="AU24" s="32">
-        <f>(1630*AS24+AP24*5)*(1630*AS24+AP24*5)*AR24*4.1949*0.5*0.000066</f>
+      <c r="BC24" s="32">
+        <f>(1630*BA24+AX24*5)*(1630*BA24+AX24*5)*AZ24*4.1949*0.5*0.000066</f>
         <v>2157.8906868085628</v>
       </c>
-      <c r="AV24" s="32" t="s">
+      <c r="BD24" s="32" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>45</v>
       </c>
@@ -4752,367 +5372,477 @@
       <c r="F25" s="23">
         <v>1.07</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="38">
         <f>2*(D25*E25+E25*F25+F25*D25)</f>
         <v>36.478800000000007</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="38">
         <f>D25*E25*F25</f>
         <v>11.845328000000002</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="64">
+        <v>14</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J25" s="28" t="s">
+      <c r="K25" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="K25" s="50" t="s">
+      <c r="L25" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="L25" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="54">
-        <v>6500</v>
-      </c>
-      <c r="N25" s="9" t="s">
+      <c r="M25" s="21">
+        <v>3</v>
+      </c>
+      <c r="N25" s="47">
+        <f>Z$3+AA$3*M25</f>
+        <v>6600</v>
+      </c>
+      <c r="O25" s="9">
+        <v>1</v>
+      </c>
+      <c r="P25" s="51">
+        <f>Z$13+AA$13*O25</f>
+        <v>3500</v>
+      </c>
+      <c r="Q25" s="22">
+        <v>6</v>
+      </c>
+      <c r="R25" s="22">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="S25" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="T25" s="48">
+        <f>G25*10+N25</f>
+        <v>6964.7880000000005</v>
+      </c>
+      <c r="U25" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="O25" s="60">
-        <v>4350</v>
-      </c>
-      <c r="P25" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q25" s="22">
+      <c r="V25" s="52">
+        <f>H25*10+P25</f>
+        <v>3618.4532800000002</v>
+      </c>
+      <c r="W25" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="X25" s="67">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC25" s="1">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
+      <c r="AD25" s="1">
+        <f t="shared" si="10"/>
+        <v>118</v>
+      </c>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG25" s="17">
+        <v>3971</v>
+      </c>
+      <c r="AH25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ25" s="9">
+        <v>1379</v>
+      </c>
+      <c r="AK25" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL25" s="30">
+        <f>AG25+AJ25</f>
+        <v>5350</v>
+      </c>
+      <c r="AM25" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO25" s="21">
+        <v>23740</v>
+      </c>
+      <c r="AP25" s="19"/>
+      <c r="AQ25" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR25" s="19">
+        <v>2773</v>
+      </c>
+      <c r="AS25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU25" s="4">
+        <v>27</v>
+      </c>
+      <c r="AV25" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW25" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX25" s="22">
         <v>127</v>
       </c>
-      <c r="R25" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="S25" s="56">
-        <f>G25*10+M25</f>
-        <v>6864.7880000000005</v>
-      </c>
-      <c r="T25" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="U25" s="61">
-        <f>H25*10+O25</f>
-        <v>4468.4532799999997</v>
-      </c>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y25" s="17">
-        <v>3971</v>
-      </c>
-      <c r="Z25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB25" s="9">
-        <v>1379</v>
-      </c>
-      <c r="AC25" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD25" s="30">
-        <f>Y25+AB25</f>
-        <v>5350</v>
-      </c>
-      <c r="AE25" s="21" t="s">
+      <c r="AY25" s="14">
+        <v>22</v>
+      </c>
+      <c r="AZ25" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA25" s="32">
         <v>1</v>
       </c>
-      <c r="AF25" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG25" s="21">
-        <v>23740</v>
-      </c>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ25" s="19">
-        <v>2773</v>
-      </c>
-      <c r="AK25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM25" s="4">
-        <v>27</v>
-      </c>
-      <c r="AN25" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO25" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP25" s="22">
-        <v>127</v>
-      </c>
-      <c r="AQ25" s="14">
-        <v>22</v>
-      </c>
-      <c r="AR25" s="14">
-        <v>2</v>
-      </c>
-      <c r="AS25" s="32">
-        <v>1</v>
-      </c>
-      <c r="AT25" s="32">
-        <f>(1630*AS25+AM25*5)*(1630*AS25+AM25*5)*AR25*1.3035*0.5*0.000066</f>
+      <c r="BB25" s="32">
+        <f>(1630*BA25+AU25*5)*(1630*BA25+AU25*5)*AZ25*1.3035*0.5*0.000066</f>
         <v>268.00592197500004</v>
       </c>
-      <c r="AU25" s="32">
-        <f>(1630*AS25+AP25*5)*(1630*AS25+AP25*5)*AR25*4.1949*0.5*0.000066</f>
+      <c r="BC25" s="32">
+        <f>(1630*BA25+AX25*5)*(1630*BA25+AX25*5)*AZ25*4.1949*0.5*0.000066</f>
         <v>1420.371536265</v>
       </c>
-      <c r="AV25" s="32" t="s">
+      <c r="BD25" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="29"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="34" t="s">
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="L26" s="46" t="s">
+      <c r="M26" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="M26" s="47"/>
-      <c r="N26" s="59" t="s">
+      <c r="N26" s="56"/>
+      <c r="O26" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="O26" s="55"/>
-      <c r="P26" s="48" t="s">
+      <c r="P26" s="58"/>
+      <c r="Q26" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="S26" s="47"/>
-      <c r="T26" s="37" t="s">
+      <c r="R26" s="60"/>
+      <c r="S26" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="T26" s="56"/>
+      <c r="U26" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="U26" s="38"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="21"/>
-      <c r="AF26" s="21"/>
-      <c r="AG26" s="21"/>
-      <c r="AH26" s="20"/>
-      <c r="AI26" s="20"/>
-      <c r="AJ26" s="20"/>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="4"/>
-      <c r="AM26" s="4"/>
-      <c r="AN26" s="22"/>
-      <c r="AO26" s="22"/>
-      <c r="AP26" s="22"/>
-      <c r="AQ26" s="13"/>
-      <c r="AR26" s="13"/>
-      <c r="AS26" s="33"/>
-      <c r="AT26" s="32"/>
-      <c r="AU26" s="32"/>
-      <c r="AV26" s="33"/>
-    </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="V26" s="54"/>
+      <c r="W26" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="3">
+        <v>4</v>
+      </c>
+      <c r="AC26" s="1">
+        <f t="shared" si="9"/>
+        <v>98</v>
+      </c>
+      <c r="AD26" s="1">
+        <f t="shared" si="10"/>
+        <v>104</v>
+      </c>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="16"/>
+      <c r="AL26" s="30"/>
+      <c r="AM26" s="21"/>
+      <c r="AN26" s="21"/>
+      <c r="AO26" s="21"/>
+      <c r="AP26" s="20"/>
+      <c r="AQ26" s="20"/>
+      <c r="AR26" s="20"/>
+      <c r="AS26" s="4"/>
+      <c r="AT26" s="4"/>
+      <c r="AU26" s="4"/>
+      <c r="AV26" s="22"/>
+      <c r="AW26" s="22"/>
+      <c r="AX26" s="22"/>
+      <c r="AY26" s="13"/>
+      <c r="AZ26" s="13"/>
+      <c r="BA26" s="33"/>
+      <c r="BB26" s="32"/>
+      <c r="BC26" s="32"/>
+      <c r="BD26" s="33"/>
+    </row>
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC27" s="1">
+        <f t="shared" si="9"/>
+        <v>86</v>
+      </c>
+      <c r="AD27" s="1">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC28" s="1">
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="AD28" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="1">
+        <f t="shared" si="9"/>
+        <v>62</v>
+      </c>
+      <c r="AD29" s="1">
+        <f t="shared" si="10"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="I31" s="65">
+        <v>3</v>
+      </c>
+      <c r="J31" s="1">
+        <v>5</v>
+      </c>
+      <c r="K31" s="1">
+        <v>7</v>
+      </c>
+      <c r="L31" s="44">
+        <v>9</v>
+      </c>
+      <c r="M31" s="2">
+        <v>11</v>
+      </c>
+      <c r="N31" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="AE1:AG1"/>
+  <mergeCells count="71">
+    <mergeCell ref="AM22:AO22"/>
+    <mergeCell ref="AP22:AR22"/>
+    <mergeCell ref="AS22:AU22"/>
+    <mergeCell ref="AV22:AX22"/>
+    <mergeCell ref="AM17:AO17"/>
+    <mergeCell ref="AP17:AR17"/>
+    <mergeCell ref="AS17:AU17"/>
+    <mergeCell ref="AV17:AX17"/>
+    <mergeCell ref="AM12:AO12"/>
+    <mergeCell ref="AP12:AR12"/>
+    <mergeCell ref="AS12:AU12"/>
+    <mergeCell ref="AV12:AX12"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AP5:AR5"/>
+    <mergeCell ref="AS5:AU5"/>
+    <mergeCell ref="AV5:AX5"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AK22:AL22"/>
     <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH5:AJ5"/>
     <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK12:AM12"/>
-    <mergeCell ref="AN12:AP12"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AP5"/>
-    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AH17:AJ17"/>
     <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AK22:AM22"/>
-    <mergeCell ref="AN22:AP22"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK17:AM17"/>
-    <mergeCell ref="AN17:AP17"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5122,10 +5852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B084DFE-5D44-4589-8EAD-A629E8E88541}">
-  <dimension ref="A1:X57"/>
+  <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H36" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="T43" sqref="T43"/>
+    <sheetView topLeftCell="H36" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39:R57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5241,7 +5971,7 @@
         <v>20000</v>
       </c>
       <c r="T3" s="1">
-        <f>S3-R3</f>
+        <f t="shared" ref="T3:T9" si="0">S3-R3</f>
         <v>17500</v>
       </c>
       <c r="V3" s="1">
@@ -5249,7 +5979,7 @@
         <v>18000</v>
       </c>
       <c r="W3" s="6">
-        <f>V3+R3</f>
+        <f t="shared" ref="W3:W8" si="1">V3+R3</f>
         <v>20500</v>
       </c>
     </row>
@@ -5305,7 +6035,7 @@
         <v>20000</v>
       </c>
       <c r="T4" s="1">
-        <f>S4-R4</f>
+        <f t="shared" si="0"/>
         <v>17500</v>
       </c>
       <c r="V4" s="1">
@@ -5313,7 +6043,7 @@
         <v>15000</v>
       </c>
       <c r="W4" s="6">
-        <f>V4+R4</f>
+        <f t="shared" si="1"/>
         <v>17500</v>
       </c>
     </row>
@@ -5369,7 +6099,7 @@
         <v>20000</v>
       </c>
       <c r="T5" s="1">
-        <f>S5-R5</f>
+        <f t="shared" si="0"/>
         <v>17500</v>
       </c>
       <c r="V5" s="1">
@@ -5377,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6">
-        <f>V5+R5</f>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
     </row>
@@ -5418,7 +6148,7 @@
         <v>20000</v>
       </c>
       <c r="T6" s="1">
-        <f>S6-R6</f>
+        <f t="shared" si="0"/>
         <v>17500</v>
       </c>
       <c r="V6" s="1">
@@ -5426,7 +6156,7 @@
         <v>9000</v>
       </c>
       <c r="W6" s="6">
-        <f>V6+R6</f>
+        <f t="shared" si="1"/>
         <v>11500</v>
       </c>
     </row>
@@ -5463,7 +6193,7 @@
         <v>20000</v>
       </c>
       <c r="T7" s="1">
-        <f>S7-R7</f>
+        <f t="shared" si="0"/>
         <v>11999</v>
       </c>
       <c r="V7" s="1">
@@ -5471,7 +6201,7 @@
         <v>6000</v>
       </c>
       <c r="W7" s="6">
-        <f>V7+R7</f>
+        <f t="shared" si="1"/>
         <v>14001</v>
       </c>
     </row>
@@ -5527,7 +6257,7 @@
         <v>20000</v>
       </c>
       <c r="T8" s="1">
-        <f>S8-R8</f>
+        <f t="shared" si="0"/>
         <v>14499</v>
       </c>
       <c r="V8" s="1">
@@ -5535,7 +6265,7 @@
         <v>3000</v>
       </c>
       <c r="W8" s="6">
-        <f>V8+R8</f>
+        <f t="shared" si="1"/>
         <v>8501</v>
       </c>
     </row>
@@ -5591,7 +6321,7 @@
         <v>5500</v>
       </c>
       <c r="T9" s="1">
-        <f>S9-R9</f>
+        <f t="shared" si="0"/>
         <v>2499</v>
       </c>
     </row>
@@ -5658,7 +6388,7 @@
         <v>17000</v>
       </c>
       <c r="C12" s="1">
-        <f>B12-A12</f>
+        <f t="shared" ref="C12:C17" si="2">B12-A12</f>
         <v>14000</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -5669,7 +6399,7 @@
         <v>12000</v>
       </c>
       <c r="F12" s="6">
-        <f>E12+A12</f>
+        <f t="shared" ref="F12:F17" si="3">E12+A12</f>
         <v>15000</v>
       </c>
       <c r="G12" s="1"/>
@@ -5689,7 +6419,7 @@
         <v>17000</v>
       </c>
       <c r="C13" s="1">
-        <f>B13-A13</f>
+        <f t="shared" si="2"/>
         <v>14000</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -5700,7 +6430,7 @@
         <v>10000</v>
       </c>
       <c r="F13" s="6">
-        <f>E13+A13</f>
+        <f t="shared" si="3"/>
         <v>13000</v>
       </c>
       <c r="G13" s="1"/>
@@ -5724,7 +6454,7 @@
         <v>19</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>22</v>
@@ -5753,7 +6483,7 @@
         <v>17000</v>
       </c>
       <c r="C14" s="1">
-        <f>B14-A14</f>
+        <f t="shared" si="2"/>
         <v>14000</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -5764,7 +6494,7 @@
         <v>8000</v>
       </c>
       <c r="F14" s="6">
-        <f>E14+A14</f>
+        <f t="shared" si="3"/>
         <v>11000</v>
       </c>
       <c r="G14" s="1"/>
@@ -5776,7 +6506,7 @@
         <v>133</v>
       </c>
       <c r="K14" s="1">
-        <f>J14-I14</f>
+        <f t="shared" ref="K14:K19" si="4">J14-I14</f>
         <v>63</v>
       </c>
       <c r="L14" s="3" t="s">
@@ -5787,7 +6517,7 @@
         <v>54</v>
       </c>
       <c r="N14" s="6">
-        <f>M14+I14</f>
+        <f t="shared" ref="N14:N19" si="5">M14+I14</f>
         <v>124</v>
       </c>
       <c r="Q14" s="1">
@@ -5799,16 +6529,16 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="44">
-        <f>U15</f>
+      <c r="T14" s="41">
+        <f t="shared" ref="T14:T19" si="6">U15</f>
         <v>12800</v>
       </c>
-      <c r="U14" s="44">
-        <f>T14+R$14</f>
+      <c r="U14" s="41">
+        <f t="shared" ref="U14:U20" si="7">T14+R$14</f>
         <v>14600</v>
       </c>
       <c r="V14" s="1">
-        <f>0.5*(T14+U14)</f>
+        <f t="shared" ref="V14:V20" si="8">0.5*(T14+U14)</f>
         <v>13700</v>
       </c>
       <c r="W14" s="1">
@@ -5823,7 +6553,7 @@
         <v>17000</v>
       </c>
       <c r="C15" s="1">
-        <f>B15-A15</f>
+        <f t="shared" si="2"/>
         <v>14000</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -5834,7 +6564,7 @@
         <v>6000</v>
       </c>
       <c r="F15" s="6">
-        <f>E15+A15</f>
+        <f t="shared" si="3"/>
         <v>9000</v>
       </c>
       <c r="G15" s="1"/>
@@ -5846,7 +6576,7 @@
         <v>133</v>
       </c>
       <c r="K15" s="1">
-        <f>J15-I15</f>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="L15" s="3" t="s">
@@ -5857,23 +6587,23 @@
         <v>45</v>
       </c>
       <c r="N15" s="6">
-        <f>M15+I15</f>
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="S15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T15" s="44">
-        <f>U16</f>
+      <c r="T15" s="41">
+        <f t="shared" si="6"/>
         <v>11000</v>
       </c>
-      <c r="U15" s="44">
-        <f>T15+R$14</f>
+      <c r="U15" s="41">
+        <f t="shared" si="7"/>
         <v>12800</v>
       </c>
       <c r="V15" s="1">
-        <f>0.5*(T15+U15)</f>
+        <f t="shared" si="8"/>
         <v>11900</v>
       </c>
       <c r="W15" s="1">
@@ -5888,7 +6618,7 @@
         <v>17000</v>
       </c>
       <c r="C16" s="1">
-        <f>B16-A16</f>
+        <f t="shared" si="2"/>
         <v>14000</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -5899,7 +6629,7 @@
         <v>4000</v>
       </c>
       <c r="F16" s="6">
-        <f>E16+A16</f>
+        <f t="shared" si="3"/>
         <v>7000</v>
       </c>
       <c r="G16" s="1"/>
@@ -5911,7 +6641,7 @@
         <v>133</v>
       </c>
       <c r="K16" s="1">
-        <f>J16-I16</f>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="L16" s="3" t="s">
@@ -5922,23 +6652,23 @@
         <v>36</v>
       </c>
       <c r="N16" s="6">
-        <f>M16+I16</f>
+        <f t="shared" si="5"/>
         <v>106</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="S16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T16" s="44">
-        <f>U17</f>
+      <c r="T16" s="41">
+        <f t="shared" si="6"/>
         <v>9200</v>
       </c>
-      <c r="U16" s="44">
-        <f>T16+R$14</f>
+      <c r="U16" s="41">
+        <f t="shared" si="7"/>
         <v>11000</v>
       </c>
       <c r="V16" s="1">
-        <f>0.5*(T16+U16)</f>
+        <f t="shared" si="8"/>
         <v>10100</v>
       </c>
       <c r="W16" s="1">
@@ -5953,7 +6683,7 @@
         <v>17000</v>
       </c>
       <c r="C17" s="1">
-        <f>B17-A17</f>
+        <f t="shared" si="2"/>
         <v>14000</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -5964,7 +6694,7 @@
         <v>2000</v>
       </c>
       <c r="F17" s="6">
-        <f>E17+A17</f>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="G17" s="1"/>
@@ -5976,7 +6706,7 @@
         <v>133</v>
       </c>
       <c r="K17" s="1">
-        <f>J17-I17</f>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="L17" s="3" t="s">
@@ -5987,23 +6717,23 @@
         <v>27</v>
       </c>
       <c r="N17" s="6">
-        <f>M17+I17</f>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="S17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T17" s="44">
-        <f>U18</f>
+      <c r="T17" s="41">
+        <f t="shared" si="6"/>
         <v>7400</v>
       </c>
-      <c r="U17" s="44">
-        <f>T17+R$14</f>
+      <c r="U17" s="41">
+        <f t="shared" si="7"/>
         <v>9200</v>
       </c>
       <c r="V17" s="1">
-        <f>0.5*(T17+U17)</f>
+        <f t="shared" si="8"/>
         <v>8300</v>
       </c>
       <c r="W17" s="1">
@@ -6028,7 +6758,7 @@
         <v>133</v>
       </c>
       <c r="K18" s="1">
-        <f>J18-I18</f>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="L18" s="3" t="s">
@@ -6039,23 +6769,23 @@
         <v>18</v>
       </c>
       <c r="N18" s="6">
-        <f>M18+I18</f>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="S18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T18" s="44">
-        <f>U19</f>
+      <c r="T18" s="41">
+        <f t="shared" si="6"/>
         <v>5600</v>
       </c>
-      <c r="U18" s="44">
-        <f>T18+R$14</f>
+      <c r="U18" s="41">
+        <f t="shared" si="7"/>
         <v>7400</v>
       </c>
       <c r="V18" s="1">
-        <f>0.5*(T18+U18)</f>
+        <f t="shared" si="8"/>
         <v>6500</v>
       </c>
       <c r="W18" s="1">
@@ -6090,7 +6820,7 @@
         <v>133</v>
       </c>
       <c r="K19" s="1">
-        <f>J19-I19</f>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="L19" s="3" t="s">
@@ -6101,23 +6831,23 @@
         <v>9</v>
       </c>
       <c r="N19" s="6">
-        <f>M19+I19</f>
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="S19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T19" s="44">
-        <f>U20</f>
+      <c r="T19" s="41">
+        <f t="shared" si="6"/>
         <v>3800</v>
       </c>
-      <c r="U19" s="44">
-        <f>T19+R$14</f>
+      <c r="U19" s="41">
+        <f t="shared" si="7"/>
         <v>5600</v>
       </c>
       <c r="V19" s="1">
-        <f>0.5*(T19+U19)</f>
+        <f t="shared" si="8"/>
         <v>4700</v>
       </c>
       <c r="W19" s="1">
@@ -6137,16 +6867,16 @@
       <c r="S20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="T20" s="44">
+      <c r="T20" s="41">
         <f>Q14</f>
         <v>2000</v>
       </c>
-      <c r="U20" s="44">
-        <f>T20+R$14</f>
+      <c r="U20" s="41">
+        <f t="shared" si="7"/>
         <v>3800</v>
       </c>
       <c r="V20" s="1">
-        <f>0.5*(T20+U20)</f>
+        <f t="shared" si="8"/>
         <v>2900</v>
       </c>
       <c r="W20" s="1">
@@ -6161,7 +6891,7 @@
         <v>8000</v>
       </c>
       <c r="C21" s="1">
-        <f>B21-A21</f>
+        <f t="shared" ref="C21:C26" si="9">B21-A21</f>
         <v>7000</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -6172,7 +6902,7 @@
         <v>6000</v>
       </c>
       <c r="F21" s="6">
-        <f>E21+A21</f>
+        <f t="shared" ref="F21:F26" si="10">E21+A21</f>
         <v>7000</v>
       </c>
       <c r="G21" s="1"/>
@@ -6186,7 +6916,7 @@
         <v>8000</v>
       </c>
       <c r="C22" s="1">
-        <f>B22-A22</f>
+        <f t="shared" si="9"/>
         <v>7000</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -6197,7 +6927,7 @@
         <v>5000</v>
       </c>
       <c r="F22" s="6">
-        <f>E22+A22</f>
+        <f t="shared" si="10"/>
         <v>6000</v>
       </c>
       <c r="G22" s="1"/>
@@ -6217,7 +6947,7 @@
         <v>8000</v>
       </c>
       <c r="C23" s="1">
-        <f>B23-A23</f>
+        <f t="shared" si="9"/>
         <v>7000</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -6228,7 +6958,7 @@
         <v>4000</v>
       </c>
       <c r="F23" s="6">
-        <f>E23+A23</f>
+        <f t="shared" si="10"/>
         <v>5000</v>
       </c>
       <c r="G23" s="1"/>
@@ -6252,7 +6982,7 @@
         <v>19</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>22</v>
@@ -6281,7 +7011,7 @@
         <v>8000</v>
       </c>
       <c r="C24" s="1">
-        <f>B24-A24</f>
+        <f t="shared" si="9"/>
         <v>7000</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -6292,7 +7022,7 @@
         <v>3000</v>
       </c>
       <c r="F24" s="6">
-        <f>E24+A24</f>
+        <f t="shared" si="10"/>
         <v>4000</v>
       </c>
       <c r="G24" s="1"/>
@@ -6304,7 +7034,7 @@
         <v>2842</v>
       </c>
       <c r="K24" s="1">
-        <f>J24-I24</f>
+        <f t="shared" ref="K24:K29" si="11">J24-I24</f>
         <v>1750</v>
       </c>
       <c r="L24" s="3" t="s">
@@ -6315,7 +7045,7 @@
         <v>1500</v>
       </c>
       <c r="N24" s="6">
-        <f>M24+I24</f>
+        <f t="shared" ref="N24:N29" si="12">M24+I24</f>
         <v>2592</v>
       </c>
       <c r="Q24" s="1">
@@ -6327,16 +7057,16 @@
       <c r="S24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="44">
-        <f>U25</f>
+      <c r="T24" s="41">
+        <f t="shared" ref="T24:T29" si="13">U25</f>
         <v>19200</v>
       </c>
-      <c r="U24" s="44">
-        <f>T24+R$24</f>
+      <c r="U24" s="41">
+        <f t="shared" ref="U24:U30" si="14">T24+R$24</f>
         <v>21900</v>
       </c>
       <c r="V24" s="1">
-        <f>0.5*(T24+U24)</f>
+        <f t="shared" ref="V24:V30" si="15">0.5*(T24+U24)</f>
         <v>20550</v>
       </c>
       <c r="W24" s="1">
@@ -6351,7 +7081,7 @@
         <v>8000</v>
       </c>
       <c r="C25" s="1">
-        <f>B25-A25</f>
+        <f t="shared" si="9"/>
         <v>7000</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -6362,7 +7092,7 @@
         <v>2000</v>
       </c>
       <c r="F25" s="6">
-        <f>E25+A25</f>
+        <f t="shared" si="10"/>
         <v>3000</v>
       </c>
       <c r="G25" s="1"/>
@@ -6374,7 +7104,7 @@
         <v>2842</v>
       </c>
       <c r="K25" s="1">
-        <f>J25-I25</f>
+        <f t="shared" si="11"/>
         <v>1750</v>
       </c>
       <c r="L25" s="3" t="s">
@@ -6385,23 +7115,23 @@
         <v>1250</v>
       </c>
       <c r="N25" s="6">
-        <f>M25+I25</f>
+        <f t="shared" si="12"/>
         <v>2342</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="S25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T25" s="44">
-        <f>U26</f>
+      <c r="T25" s="41">
+        <f t="shared" si="13"/>
         <v>16500</v>
       </c>
-      <c r="U25" s="44">
-        <f>T25+R$24</f>
+      <c r="U25" s="41">
+        <f t="shared" si="14"/>
         <v>19200</v>
       </c>
       <c r="V25" s="1">
-        <f>0.5*(T25+U25)</f>
+        <f t="shared" si="15"/>
         <v>17850</v>
       </c>
       <c r="W25" s="1">
@@ -6416,7 +7146,7 @@
         <v>8000</v>
       </c>
       <c r="C26" s="1">
-        <f>B26-A26</f>
+        <f t="shared" si="9"/>
         <v>7000</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -6427,7 +7157,7 @@
         <v>1000</v>
       </c>
       <c r="F26" s="6">
-        <f>E26+A26</f>
+        <f t="shared" si="10"/>
         <v>2000</v>
       </c>
       <c r="G26" s="1"/>
@@ -6439,7 +7169,7 @@
         <v>2842</v>
       </c>
       <c r="K26" s="1">
-        <f>J26-I26</f>
+        <f t="shared" si="11"/>
         <v>1750</v>
       </c>
       <c r="L26" s="3" t="s">
@@ -6450,23 +7180,23 @@
         <v>1000</v>
       </c>
       <c r="N26" s="6">
-        <f>M26+I26</f>
+        <f t="shared" si="12"/>
         <v>2092</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="S26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T26" s="44">
-        <f>U27</f>
+      <c r="T26" s="41">
+        <f t="shared" si="13"/>
         <v>13800</v>
       </c>
-      <c r="U26" s="44">
-        <f>T26+R$24</f>
+      <c r="U26" s="41">
+        <f t="shared" si="14"/>
         <v>16500</v>
       </c>
       <c r="V26" s="1">
-        <f>0.5*(T26+U26)</f>
+        <f t="shared" si="15"/>
         <v>15150</v>
       </c>
       <c r="W26" s="1">
@@ -6491,7 +7221,7 @@
         <v>2842</v>
       </c>
       <c r="K27" s="1">
-        <f>J27-I27</f>
+        <f t="shared" si="11"/>
         <v>1750</v>
       </c>
       <c r="L27" s="3" t="s">
@@ -6502,23 +7232,23 @@
         <v>750</v>
       </c>
       <c r="N27" s="6">
-        <f>M27+I27</f>
+        <f t="shared" si="12"/>
         <v>1842</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="S27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="44">
-        <f>U28</f>
+      <c r="T27" s="41">
+        <f t="shared" si="13"/>
         <v>11100</v>
       </c>
-      <c r="U27" s="44">
-        <f>T27+R$24</f>
+      <c r="U27" s="41">
+        <f t="shared" si="14"/>
         <v>13800</v>
       </c>
       <c r="V27" s="1">
-        <f>0.5*(T27+U27)</f>
+        <f t="shared" si="15"/>
         <v>12450</v>
       </c>
       <c r="W27" s="1">
@@ -6553,7 +7283,7 @@
         <v>2842</v>
       </c>
       <c r="K28" s="1">
-        <f>J28-I28</f>
+        <f t="shared" si="11"/>
         <v>1750</v>
       </c>
       <c r="L28" s="3" t="s">
@@ -6564,23 +7294,23 @@
         <v>500</v>
       </c>
       <c r="N28" s="6">
-        <f>M28+I28</f>
+        <f t="shared" si="12"/>
         <v>1592</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="S28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T28" s="44">
-        <f>U29</f>
+      <c r="T28" s="41">
+        <f t="shared" si="13"/>
         <v>8400</v>
       </c>
-      <c r="U28" s="44">
-        <f>T28+R$24</f>
+      <c r="U28" s="41">
+        <f t="shared" si="14"/>
         <v>11100</v>
       </c>
       <c r="V28" s="1">
-        <f>0.5*(T28+U28)</f>
+        <f t="shared" si="15"/>
         <v>9750</v>
       </c>
       <c r="W28" s="1">
@@ -6595,7 +7325,7 @@
         <v>24000</v>
       </c>
       <c r="C29" s="1">
-        <f>B29-A29</f>
+        <f t="shared" ref="C29:C34" si="16">B29-A29</f>
         <v>21000</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -6606,7 +7336,7 @@
         <v>18000</v>
       </c>
       <c r="F29" s="6">
-        <f>E29+A29</f>
+        <f t="shared" ref="F29:F34" si="17">E29+A29</f>
         <v>21000</v>
       </c>
       <c r="G29" s="1"/>
@@ -6618,7 +7348,7 @@
         <v>2830</v>
       </c>
       <c r="K29" s="1">
-        <f>J29-I29</f>
+        <f t="shared" si="11"/>
         <v>1750</v>
       </c>
       <c r="L29" s="3" t="s">
@@ -6629,23 +7359,23 @@
         <v>250</v>
       </c>
       <c r="N29" s="6">
-        <f>M29+I29</f>
+        <f t="shared" si="12"/>
         <v>1330</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="S29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T29" s="44">
-        <f>U30</f>
+      <c r="T29" s="41">
+        <f t="shared" si="13"/>
         <v>5700</v>
       </c>
-      <c r="U29" s="44">
-        <f>T29+R$24</f>
+      <c r="U29" s="41">
+        <f t="shared" si="14"/>
         <v>8400</v>
       </c>
       <c r="V29" s="1">
-        <f>0.5*(T29+U29)</f>
+        <f t="shared" si="15"/>
         <v>7050</v>
       </c>
       <c r="W29" s="1">
@@ -6660,7 +7390,7 @@
         <v>24000</v>
       </c>
       <c r="C30" s="1">
-        <f>B30-A30</f>
+        <f t="shared" si="16"/>
         <v>21000</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -6671,7 +7401,7 @@
         <v>15000</v>
       </c>
       <c r="F30" s="6">
-        <f>E30+A30</f>
+        <f t="shared" si="17"/>
         <v>18000</v>
       </c>
       <c r="G30" s="1"/>
@@ -6680,16 +7410,16 @@
       <c r="S30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="T30" s="44">
+      <c r="T30" s="41">
         <f>Q24</f>
         <v>3000</v>
       </c>
-      <c r="U30" s="44">
-        <f>T30+R$24</f>
+      <c r="U30" s="41">
+        <f t="shared" si="14"/>
         <v>5700</v>
       </c>
       <c r="V30" s="1">
-        <f>0.5*(T30+U30)</f>
+        <f t="shared" si="15"/>
         <v>4350</v>
       </c>
       <c r="W30" s="1">
@@ -6704,7 +7434,7 @@
         <v>24000</v>
       </c>
       <c r="C31" s="1">
-        <f>B31-A31</f>
+        <f t="shared" si="16"/>
         <v>21000</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -6715,7 +7445,7 @@
         <v>12000</v>
       </c>
       <c r="F31" s="6">
-        <f>E31+A31</f>
+        <f t="shared" si="17"/>
         <v>15000</v>
       </c>
       <c r="G31" s="1"/>
@@ -6729,7 +7459,7 @@
         <v>24000</v>
       </c>
       <c r="C32" s="1">
-        <f>B32-A32</f>
+        <f t="shared" si="16"/>
         <v>21000</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -6740,13 +7470,13 @@
         <v>9000</v>
       </c>
       <c r="F32" s="6">
-        <f>E32+A32</f>
+        <f t="shared" si="17"/>
         <v>12000</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>3000</v>
       </c>
@@ -6754,7 +7484,7 @@
         <v>24000</v>
       </c>
       <c r="C33" s="1">
-        <f>B33-A33</f>
+        <f t="shared" si="16"/>
         <v>21000</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -6765,13 +7495,13 @@
         <v>6000</v>
       </c>
       <c r="F33" s="6">
-        <f>E33+A33</f>
+        <f t="shared" si="17"/>
         <v>9000</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>3000</v>
       </c>
@@ -6779,7 +7509,7 @@
         <v>24000</v>
       </c>
       <c r="C34" s="1">
-        <f>B34-A34</f>
+        <f t="shared" si="16"/>
         <v>21000</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -6790,13 +7520,13 @@
         <v>3000</v>
       </c>
       <c r="F34" s="6">
-        <f>E34+A34</f>
+        <f t="shared" si="17"/>
         <v>6000</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>26</v>
       </c>
@@ -6808,7 +7538,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
@@ -6830,7 +7560,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>500</v>
       </c>
@@ -6838,7 +7568,7 @@
         <v>3700</v>
       </c>
       <c r="C37" s="1">
-        <f>B37-A37</f>
+        <f t="shared" ref="C37:C42" si="18">B37-A37</f>
         <v>3200</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -6849,13 +7579,13 @@
         <v>2742.8571428571427</v>
       </c>
       <c r="F37" s="6">
-        <f>E37+A37</f>
+        <f t="shared" ref="F37:F42" si="19">E37+A37</f>
         <v>3242.8571428571427</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>500</v>
       </c>
@@ -6863,7 +7593,7 @@
         <v>3700</v>
       </c>
       <c r="C38" s="1">
-        <f>B38-A38</f>
+        <f t="shared" si="18"/>
         <v>3200</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -6874,13 +7604,13 @@
         <v>2285.7142857142858</v>
       </c>
       <c r="F38" s="6">
-        <f>E38+A38</f>
+        <f t="shared" si="19"/>
         <v>2785.7142857142858</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>500</v>
       </c>
@@ -6888,7 +7618,7 @@
         <v>3700</v>
       </c>
       <c r="C39" s="1">
-        <f>B39-A39</f>
+        <f t="shared" si="18"/>
         <v>3200</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -6899,18 +7629,13 @@
         <v>1828.5714285714287</v>
       </c>
       <c r="F39" s="6">
-        <f>E39+A39</f>
+        <f t="shared" si="19"/>
         <v>2328.5714285714284</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="O39" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>500</v>
       </c>
@@ -6918,7 +7643,7 @@
         <v>3700</v>
       </c>
       <c r="C40" s="1">
-        <f>B40-A40</f>
+        <f t="shared" si="18"/>
         <v>3200</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -6929,25 +7654,13 @@
         <v>1371.4285714285713</v>
       </c>
       <c r="F40" s="6">
-        <f>E40+A40</f>
+        <f t="shared" si="19"/>
         <v>1871.4285714285713</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="O40" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>500</v>
       </c>
@@ -6955,7 +7668,7 @@
         <v>3700</v>
       </c>
       <c r="C41" s="1">
-        <f>B41-A41</f>
+        <f t="shared" si="18"/>
         <v>3200</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -6966,26 +7679,13 @@
         <v>914.28571428571433</v>
       </c>
       <c r="F41" s="6">
-        <f>E41+A41</f>
+        <f t="shared" si="19"/>
         <v>1414.2857142857142</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="O41" s="1">
-        <v>1100</v>
-      </c>
-      <c r="P41" s="1">
-        <v>1800</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>7</v>
-      </c>
-      <c r="R41" s="1">
-        <f t="shared" ref="R41:R46" si="0">O$41+P$41*Q41</f>
-        <v>13700</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>500</v>
       </c>
@@ -6993,7 +7693,7 @@
         <v>3700</v>
       </c>
       <c r="C42" s="1">
-        <f>B42-A42</f>
+        <f t="shared" si="18"/>
         <v>3200</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -7004,22 +7704,13 @@
         <v>457.14285714285717</v>
       </c>
       <c r="F42" s="6">
-        <f>E42+A42</f>
+        <f t="shared" si="19"/>
         <v>957.14285714285711</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="3">
-        <v>6</v>
-      </c>
-      <c r="R42" s="1">
-        <f t="shared" si="0"/>
-        <v>11900</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -7028,17 +7719,8 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="3">
-        <v>5</v>
-      </c>
-      <c r="R43" s="1">
-        <f t="shared" si="0"/>
-        <v>10100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -7047,17 +7729,8 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="3">
-        <v>4</v>
-      </c>
-      <c r="R44" s="1">
-        <f t="shared" si="0"/>
-        <v>8300</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -7066,17 +7739,8 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="3">
-        <v>3</v>
-      </c>
-      <c r="R45" s="1">
-        <f t="shared" si="0"/>
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -7085,17 +7749,8 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="3">
-        <v>2</v>
-      </c>
-      <c r="R46" s="1">
-        <f t="shared" si="0"/>
-        <v>4700</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -7104,17 +7759,8 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="3">
-        <v>1</v>
-      </c>
-      <c r="R47" s="1">
-        <f>O$41+P$41*Q47</f>
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -7123,113 +7769,10 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-    </row>
-    <row r="49" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O49" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O50" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O51" s="1">
-        <v>1650</v>
-      </c>
-      <c r="P51" s="1">
-        <v>2700</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>7</v>
-      </c>
-      <c r="R51" s="1">
-        <f t="shared" ref="R51:R56" si="1">O$51+P$51*Q51</f>
-        <v>20550</v>
-      </c>
-    </row>
-    <row r="52" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="3">
-        <v>6</v>
-      </c>
-      <c r="R52" s="1">
-        <f t="shared" si="1"/>
-        <v>17850</v>
-      </c>
-    </row>
-    <row r="53" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="3">
-        <v>5</v>
-      </c>
-      <c r="R53" s="1">
-        <f t="shared" si="1"/>
-        <v>15150</v>
-      </c>
-    </row>
-    <row r="54" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="3">
-        <v>4</v>
-      </c>
-      <c r="R54" s="1">
-        <f t="shared" si="1"/>
-        <v>12450</v>
-      </c>
-    </row>
-    <row r="55" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="3">
-        <v>3</v>
-      </c>
-      <c r="R55" s="1">
-        <f t="shared" si="1"/>
-        <v>9750</v>
-      </c>
-    </row>
-    <row r="56" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="3">
-        <v>2</v>
-      </c>
-      <c r="R56" s="1">
-        <f t="shared" si="1"/>
-        <v>7050</v>
-      </c>
-    </row>
-    <row r="57" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="3">
-        <v>1</v>
-      </c>
-      <c r="R57" s="1">
-        <f>O$51+P$51*Q57</f>
-        <v>4350</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Heroes of Kocmocraft/Assets/_iLYuSha Wakaka Setting/Wakaka Kocmocraft/Balance Data.xlsx
+++ b/Heroes of Kocmocraft/Assets/_iLYuSha Wakaka Setting/Wakaka Kocmocraft/Balance Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Funny-Skirmish-Online\Heroes of Kocmocraft\Assets\_iLYuSha Wakaka Setting\Wakaka Kocmocraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BD1ADC-DB47-4938-A41C-BFA8F892D143}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0235BBC-1A94-43FE-A89F-1E796D020B08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{31C724A4-68AD-44B9-AAD0-D887B58A3456}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="105" windowWidth="28770" windowHeight="15465" xr2:uid="{31C724A4-68AD-44B9-AAD0-D887B58A3456}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="149">
   <si>
     <t>巨型宇航机</t>
   </si>
@@ -572,6 +572,42 @@
   </si>
   <si>
     <t>1★</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉冲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>涡喷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>涡扇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>离子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>涡桨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>涡轴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力系数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -579,12 +615,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -752,8 +789,23 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,6 +885,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFABDBF1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,7 +978,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1080,6 +1138,27 @@
     <xf numFmtId="177" fontId="14" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1104,26 +1183,32 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="21" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="22" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="9" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1455,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909D19AF-B56F-48A8-942D-AA4A28475538}">
-  <dimension ref="A1:BF55"/>
+  <dimension ref="A1:BV55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AL9" sqref="AL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1469,58 +1554,74 @@
     <col min="4" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.75" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="65" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.75" style="44" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="8.5" style="49" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="8.5" style="49" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8" style="18" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.75" style="56" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" style="56" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.75" style="56" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" style="56" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.75" style="56" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" style="56" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.75" style="56" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5" style="56" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.75" style="56" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5" style="56" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.75" style="56" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5" style="56" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.75" style="56" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5" style="56" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.75" style="56" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5" style="56" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.75" style="44" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.625" style="2" customWidth="1"/>
+    <col min="36" max="36" width="8.5" style="49" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="4.625" style="2" customWidth="1"/>
-    <col min="38" max="38" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="4.625" style="2" customWidth="1"/>
-    <col min="41" max="41" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="4.625" style="2" customWidth="1"/>
-    <col min="44" max="44" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="4.625" style="2" customWidth="1"/>
-    <col min="47" max="47" width="4.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.5" style="49" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3.875" style="1" customWidth="1"/>
+    <col min="42" max="42" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="4.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="4.625" style="2" customWidth="1"/>
-    <col min="50" max="50" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9" style="1" customWidth="1"/>
-    <col min="55" max="55" width="9.75" style="1" customWidth="1"/>
-    <col min="56" max="56" width="5.75" style="1" customWidth="1"/>
-    <col min="57" max="57" width="9" style="1"/>
-    <col min="59" max="16384" width="9" style="1"/>
+    <col min="49" max="49" width="8" style="18" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="4.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4.625" style="2" customWidth="1"/>
+    <col min="54" max="54" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="4.625" style="2" customWidth="1"/>
+    <col min="57" max="57" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="4.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="4.625" style="2" customWidth="1"/>
+    <col min="60" max="60" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="4.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="4.625" style="2" customWidth="1"/>
+    <col min="63" max="63" width="4.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="4.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="4.625" style="2" customWidth="1"/>
+    <col min="66" max="66" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9" style="1" customWidth="1"/>
+    <col min="71" max="71" width="9.75" style="1" customWidth="1"/>
+    <col min="72" max="72" width="5.75" style="1" customWidth="1"/>
+    <col min="73" max="73" width="9" style="1"/>
+    <col min="75" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -1545,99 +1646,147 @@
       <c r="H1" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="35" t="s">
+      <c r="I1" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="70">
+        <v>15</v>
+      </c>
+      <c r="L1" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" s="70">
+        <v>12</v>
+      </c>
+      <c r="N1" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="70">
+        <v>10</v>
+      </c>
+      <c r="P1" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q1" s="70">
+        <v>8</v>
+      </c>
+      <c r="R1" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="S1" s="70">
+        <v>7</v>
+      </c>
+      <c r="T1" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="U1" s="70">
+        <v>6</v>
+      </c>
+      <c r="V1" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="W1" s="70">
+        <v>5</v>
+      </c>
+      <c r="X1" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="34" t="s">
+      <c r="AA1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="AC1" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57" t="s">
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="59" t="s">
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="R1" s="60"/>
-      <c r="S1" s="55" t="s">
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="T1" s="56"/>
-      <c r="U1" s="53" t="s">
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="V1" s="54"/>
-      <c r="W1" s="59" t="s">
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="2" t="s">
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="53" t="s">
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="61" t="s">
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="53" t="s">
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="61" t="s">
+      <c r="BB1" s="61"/>
+      <c r="BC1" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61" t="s">
+      <c r="BD1" s="59"/>
+      <c r="BE1" s="59"/>
+      <c r="BF1" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61" t="s">
+      <c r="BG1" s="59"/>
+      <c r="BH1" s="59"/>
+      <c r="BI1" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61" t="s">
+      <c r="BJ1" s="59"/>
+      <c r="BK1" s="59"/>
+      <c r="BL1" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="11" t="s">
+      <c r="BM1" s="59"/>
+      <c r="BN1" s="59"/>
+      <c r="BO1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AZ1" s="11" t="s">
+      <c r="BP1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="BA1" s="31" t="s">
+      <c r="BQ1" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="BB1" s="31" t="s">
+      <c r="BR1" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="BC1" s="31" t="s">
+      <c r="BS1" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="BD1" s="31"/>
+      <c r="BT1" s="31"/>
     </row>
-    <row r="2" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>10</v>
       </c>
@@ -1664,151 +1813,200 @@
         <f>D2*E2*F2</f>
         <v>622.35880000000009</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="74">
+        <f>G2/H2</f>
+        <v>0.73599987659851518</v>
+      </c>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55">
+        <f>J2*K$1</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55">
+        <f>L2*M$1</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="55">
+        <v>0</v>
+      </c>
+      <c r="O2" s="55">
+        <f>N2*O$1</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="71">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="71">
+        <f>P2*Q$1</f>
+        <v>16</v>
+      </c>
+      <c r="R2" s="55">
+        <v>2</v>
+      </c>
+      <c r="S2" s="55">
+        <f>R2*S$1</f>
+        <v>14</v>
+      </c>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55">
+        <f>T2*U$1</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55">
+        <f>V2*W$1</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="69">
+        <f>K2+M2+O2+Q2+S2+U2+W2</f>
+        <v>30</v>
+      </c>
+      <c r="Y2" s="55">
         <v>20</v>
       </c>
-      <c r="J2" s="5">
+      <c r="Z2" s="5">
         <v>10</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="AA2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="AB2" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="M2" s="21">
+      <c r="AC2" s="21">
         <v>5</v>
       </c>
-      <c r="N2" s="47">
-        <f>Z$3+AA$3*M2</f>
+      <c r="AD2" s="47">
+        <f>AP$3+AQ$3*AC2</f>
         <v>10200</v>
       </c>
-      <c r="O2" s="9">
+      <c r="AE2" s="9">
         <v>1</v>
       </c>
-      <c r="P2" s="51">
-        <f>Z$13+AA$13*O2</f>
+      <c r="AF2" s="51">
+        <f>AP$13+AQ$13*AE2</f>
         <v>3500</v>
       </c>
-      <c r="Q2" s="22">
+      <c r="AG2" s="22">
         <v>4</v>
       </c>
-      <c r="R2" s="22">
-        <f>Z$23+AA$23*Q2</f>
+      <c r="AH2" s="22">
+        <f>AP$23+AQ$23*AG2</f>
         <v>98</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="AI2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="48">
-        <f>G2*10+N2</f>
+      <c r="AJ2" s="48">
+        <f>G2*10+AD2</f>
         <v>14780.560000000001</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="AK2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="52">
-        <f>H2*10+P2</f>
+      <c r="AL2" s="52">
+        <f>H2*10+AF2</f>
         <v>9723.5879999999997</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="AM2" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="X2" s="67">
-        <f>I2++R2</f>
+      <c r="AN2" s="58">
+        <f>Y2++AH2</f>
         <v>118</v>
       </c>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="2" t="s">
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="62" t="s">
+      <c r="AT2" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="7" t="s">
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AG2" s="8">
+      <c r="AW2" s="8">
         <v>14287</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AX2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AY2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AJ2" s="9">
+      <c r="AZ2" s="9">
         <v>6772</v>
       </c>
-      <c r="AK2" s="15" t="s">
+      <c r="BA2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AL2" s="30">
-        <f>AG2+AJ2</f>
+      <c r="BB2" s="30">
+        <f>AW2+AZ2</f>
         <v>21059</v>
       </c>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21" t="s">
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="AO2" s="21">
+      <c r="BE2" s="21">
         <v>10773</v>
       </c>
-      <c r="AP2" s="19" t="s">
+      <c r="BF2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AQ2" s="19" t="s">
+      <c r="BG2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AR2" s="19">
+      <c r="BH2" s="19">
         <v>1398</v>
       </c>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4" t="s">
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AU2" s="4">
+      <c r="BK2" s="4">
         <v>47</v>
       </c>
-      <c r="AV2" s="22"/>
-      <c r="AW2" s="22" t="s">
+      <c r="BL2" s="22"/>
+      <c r="BM2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AX2" s="22">
+      <c r="BN2" s="22">
         <v>100</v>
       </c>
-      <c r="AY2" s="14">
+      <c r="BO2" s="14">
         <v>20</v>
       </c>
-      <c r="AZ2" s="14">
+      <c r="BP2" s="14">
         <v>4</v>
       </c>
-      <c r="BA2" s="32">
+      <c r="BQ2" s="32">
         <v>0.84299999999999997</v>
       </c>
-      <c r="BB2" s="32">
-        <f>(1630*BA2+AU2*5)*(1630*BA2+AU2*5)*AZ2*1.3035*0.5*0.000066</f>
+      <c r="BR2" s="32">
+        <f>(1630*BQ2+BK2*5)*(1630*BQ2+BK2*5)*BP2*1.3035*0.5*0.000066</f>
         <v>445.49787661214225</v>
       </c>
-      <c r="BC2" s="32">
-        <f>(1630*BA2+AX2*5)*(1630*BA2+AX2*5)*AZ2*4.1949*0.5*0.000066</f>
+      <c r="BS2" s="32">
+        <f>(1630*BQ2+BN2*5)*(1630*BQ2+BN2*5)*BP2*4.1949*0.5*0.000066</f>
         <v>1944.8066470861627</v>
       </c>
-      <c r="BD2" s="32" t="s">
+      <c r="BT2" s="32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>44</v>
       </c>
@@ -1835,155 +2033,198 @@
         <f>D3*E3*F3</f>
         <v>574.31010000000003</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="74">
+        <f t="shared" ref="I3:I25" si="0">G3/H3</f>
+        <v>0.75704049084283909</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55">
+        <f t="shared" ref="K3:K25" si="1">J3*K$1</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55">
+        <f t="shared" ref="M3:M25" si="2">L3*M$1</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55">
+        <f t="shared" ref="O3:O25" si="3">N3*O$1</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="68">
+        <f t="shared" ref="Q3:Q25" si="4">P3*Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55">
+        <f t="shared" ref="S3:S25" si="5">R3*S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55">
+        <f t="shared" ref="U3:U25" si="6">T3*U$1</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55">
+        <f t="shared" ref="W3:W25" si="7">V3*W$1</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="69">
+        <f t="shared" ref="X3:X25" si="8">K3+M3+O3+Q3+S3+U3+W3</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="55">
         <v>10</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="Z3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="AA3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="AB3" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="M3" s="21">
+      <c r="AC3" s="21">
         <v>4</v>
       </c>
-      <c r="N3" s="47">
-        <f>Z$3+AA$3*M3</f>
+      <c r="AD3" s="47">
+        <f>AP$3+AQ$3*AC3</f>
         <v>8400</v>
       </c>
-      <c r="O3" s="9">
+      <c r="AE3" s="9">
         <v>3</v>
       </c>
-      <c r="P3" s="51">
-        <f>Z$13+AA$13*O3</f>
+      <c r="AF3" s="51">
+        <f>AP$13+AQ$13*AE3</f>
         <v>7700</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="AG3" s="22">
         <v>3</v>
       </c>
-      <c r="R3" s="22">
-        <f t="shared" ref="R3:R25" si="0">Z$23+AA$23*Q3</f>
+      <c r="AH3" s="22">
+        <f t="shared" ref="AH3:AH25" si="9">AP$23+AQ$23*AG3</f>
         <v>86</v>
       </c>
-      <c r="S3" s="42" t="s">
+      <c r="AI3" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="48">
-        <f>G3*10+N3</f>
+      <c r="AJ3" s="48">
+        <f>G3*10+AD3</f>
         <v>12747.76</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="AK3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="52">
-        <f>H3*10+P3</f>
+      <c r="AL3" s="52">
+        <f>H3*10+AF3</f>
         <v>13443.101000000001</v>
       </c>
-      <c r="W3" s="22" t="s">
+      <c r="AM3" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="X3" s="67">
-        <f t="shared" ref="X3:X25" si="1">I3++R3</f>
+      <c r="AN3" s="58">
+        <f t="shared" ref="AN3:AN25" si="10">Y3++AH3</f>
         <v>96</v>
       </c>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="1">
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="1">
         <v>1200</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AQ3" s="1">
         <v>1800</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AR3" s="3">
         <v>7</v>
       </c>
-      <c r="AC3" s="1">
-        <f>Z$3+AA$3*AB3</f>
+      <c r="AS3" s="1">
+        <f t="shared" ref="AS3:AS9" si="11">AP$3+AQ$3*AR3</f>
         <v>13800</v>
       </c>
-      <c r="AD3" s="1">
-        <f t="shared" ref="AD3:AD8" si="2">AC3+AA$3/6 * (AB3-1)</f>
+      <c r="AT3" s="1">
+        <f t="shared" ref="AT3:AT8" si="12">AS3+AQ$3/6 * (AR3-1)</f>
         <v>15600</v>
       </c>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="7" t="s">
+      <c r="AU3" s="24"/>
+      <c r="AV3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AG3" s="8">
+      <c r="AW3" s="8">
         <v>13722</v>
       </c>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9" t="s">
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AJ3" s="9">
+      <c r="AZ3" s="9">
         <v>3927</v>
       </c>
-      <c r="AK3" s="15" t="s">
+      <c r="BA3" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="AL3" s="30">
-        <f>AG3+AJ3</f>
+      <c r="BB3" s="30">
+        <f>AW3+AZ3</f>
         <v>17649</v>
       </c>
-      <c r="AM3" s="21"/>
-      <c r="AN3" s="21" t="s">
+      <c r="BC3" s="21"/>
+      <c r="BD3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AO3" s="21">
+      <c r="BE3" s="21">
         <v>13915</v>
       </c>
-      <c r="AP3" s="19" t="s">
+      <c r="BF3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AQ3" s="19" t="s">
+      <c r="BG3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AR3" s="19">
+      <c r="BH3" s="19">
         <v>3392</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="BI3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AU3" s="4">
+      <c r="BK3" s="4">
         <v>29</v>
       </c>
-      <c r="AV3" s="22" t="s">
+      <c r="BL3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AW3" s="22" t="s">
+      <c r="BM3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AX3" s="22">
+      <c r="BN3" s="22">
         <v>119</v>
       </c>
-      <c r="AY3" s="14">
+      <c r="BO3" s="14">
         <v>22</v>
       </c>
-      <c r="AZ3" s="14">
+      <c r="BP3" s="14">
         <v>2</v>
       </c>
-      <c r="BA3" s="32">
+      <c r="BQ3" s="32">
         <v>1</v>
       </c>
-      <c r="BB3" s="32">
-        <f>(1630*BA3+AU3*5)*(1630*BA3+AU3*5)*AZ3*1.3035*0.5*0.000066</f>
+      <c r="BR3" s="32">
+        <f>(1630*BQ3+BK3*5)*(1630*BQ3+BK3*5)*BP3*1.3035*0.5*0.000066</f>
         <v>271.05141937500002</v>
       </c>
-      <c r="BC3" s="32">
-        <f>(1630*BA3+AX3*5)*(1630*BA3+AX3*5)*AZ3*4.1949*0.5*0.000066</f>
+      <c r="BS3" s="32">
+        <f>(1630*BQ3+BN3*5)*(1630*BQ3+BN3*5)*BP3*4.1949*0.5*0.000066</f>
         <v>1370.6468696250001</v>
       </c>
-      <c r="BD3" s="32" t="s">
+      <c r="BT3" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>13</v>
       </c>
@@ -2010,147 +2251,194 @@
         <f>D4*E4*F4</f>
         <v>553.7079</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="74">
+        <f t="shared" si="0"/>
+        <v>0.75275465638109917</v>
+      </c>
+      <c r="J4" s="72">
+        <v>1</v>
+      </c>
+      <c r="K4" s="72">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="55">
+        <v>4</v>
+      </c>
+      <c r="S4" s="55">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="69">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="Y4" s="55">
         <v>35</v>
       </c>
-      <c r="J4" s="5">
+      <c r="Z4" s="5">
         <v>13</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="AA4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="AB4" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="M4" s="21">
+      <c r="AC4" s="21">
         <v>3</v>
       </c>
-      <c r="N4" s="47">
-        <f>Z$3+AA$3*M4</f>
+      <c r="AD4" s="47">
+        <f>AP$3+AQ$3*AC4</f>
         <v>6600</v>
       </c>
-      <c r="O4" s="9">
+      <c r="AE4" s="9">
         <v>3</v>
       </c>
-      <c r="P4" s="51">
-        <f>Z$13+AA$13*O4</f>
+      <c r="AF4" s="51">
+        <f>AP$13+AQ$13*AE4</f>
         <v>7700</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="AG4" s="22">
         <v>4</v>
       </c>
-      <c r="R4" s="22">
-        <f t="shared" si="0"/>
+      <c r="AH4" s="22">
+        <f t="shared" si="9"/>
         <v>98</v>
       </c>
-      <c r="S4" s="42" t="s">
+      <c r="AI4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="48">
-        <f>G4*10+N4</f>
+      <c r="AJ4" s="48">
+        <f>G4*10+AD4</f>
         <v>10768.062</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="AK4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="52">
-        <f>H4*10+P4</f>
+      <c r="AL4" s="52">
+        <f>H4*10+AF4</f>
         <v>13237.079</v>
       </c>
-      <c r="W4" s="22" t="s">
+      <c r="AM4" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="X4" s="67">
-        <f t="shared" si="1"/>
+      <c r="AN4" s="58">
+        <f t="shared" si="10"/>
         <v>133</v>
       </c>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="3">
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="3">
         <v>6</v>
       </c>
-      <c r="AC4" s="1">
-        <f>Z$3+AA$3*AB4</f>
+      <c r="AS4" s="1">
+        <f t="shared" si="11"/>
         <v>12000</v>
       </c>
-      <c r="AD4" s="1">
-        <f t="shared" si="2"/>
+      <c r="AT4" s="1">
+        <f t="shared" si="12"/>
         <v>13500</v>
       </c>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="7" t="s">
+      <c r="AU4" s="24"/>
+      <c r="AV4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AG4" s="8">
+      <c r="AW4" s="8">
         <v>16979</v>
       </c>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9" t="s">
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AJ4" s="9">
+      <c r="AZ4" s="9">
         <v>3701</v>
       </c>
-      <c r="AK4" s="15" t="s">
+      <c r="BA4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AL4" s="30">
-        <f>AG4+AJ4</f>
+      <c r="BB4" s="30">
+        <f>AW4+AZ4</f>
         <v>20680</v>
       </c>
-      <c r="AM4" s="21" t="s">
+      <c r="BC4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AN4" s="21" t="s">
+      <c r="BD4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AO4" s="21">
+      <c r="BE4" s="21">
         <v>3999</v>
       </c>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="19" t="s">
+      <c r="BF4" s="19"/>
+      <c r="BG4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AR4" s="19">
+      <c r="BH4" s="19">
         <v>2498</v>
       </c>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4" t="s">
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AU4" s="4">
+      <c r="BK4" s="4">
         <v>38</v>
       </c>
-      <c r="AV4" s="22"/>
-      <c r="AW4" s="22" t="s">
+      <c r="BL4" s="22"/>
+      <c r="BM4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AX4" s="22">
+      <c r="BN4" s="22">
         <v>107</v>
       </c>
-      <c r="AY4" s="14">
+      <c r="BO4" s="14">
         <v>18</v>
       </c>
-      <c r="AZ4" s="14">
+      <c r="BP4" s="14">
         <v>6</v>
       </c>
-      <c r="BA4" s="32">
+      <c r="BQ4" s="32">
         <v>0.77900000000000003</v>
       </c>
-      <c r="BB4" s="32">
-        <f>(1630*BA4+AU4*5)*(1630*BA4+AU4*5)*AZ4*1.3035*0.5*0.000066</f>
+      <c r="BR4" s="32">
+        <f>(1630*BQ4+BK4*5)*(1630*BQ4+BK4*5)*BP4*1.3035*0.5*0.000066</f>
         <v>549.97771719431978</v>
       </c>
-      <c r="BC4" s="32">
-        <f>(1630*BA4+AX4*5)*(1630*BA4+AX4*5)*AZ4*4.1949*0.5*0.000066</f>
+      <c r="BS4" s="32">
+        <f>(1630*BQ4+BN4*5)*(1630*BQ4+BN4*5)*BP4*4.1949*0.5*0.000066</f>
         <v>2705.3940412501611</v>
       </c>
-      <c r="BD4" s="32" t="s">
+      <c r="BT4" s="32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
@@ -2175,106 +2463,140 @@
       <c r="H5" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="35" t="s">
+      <c r="I5" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="AA5" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="AB5" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="AC5" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="N5" s="56"/>
-      <c r="O5" s="57" t="s">
+      <c r="AD5" s="63"/>
+      <c r="AE5" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="59" t="s">
+      <c r="AF5" s="65"/>
+      <c r="AG5" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="R5" s="60"/>
-      <c r="S5" s="55" t="s">
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="T5" s="56"/>
-      <c r="U5" s="53" t="s">
+      <c r="AJ5" s="63"/>
+      <c r="AK5" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="54"/>
-      <c r="W5" s="59" t="s">
+      <c r="AL5" s="61"/>
+      <c r="AM5" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="3">
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="3">
         <v>5</v>
       </c>
-      <c r="AC5" s="1">
-        <f>Z$3+AA$3*AB5</f>
+      <c r="AS5" s="1">
+        <f t="shared" si="11"/>
         <v>10200</v>
       </c>
-      <c r="AD5" s="1">
-        <f t="shared" si="2"/>
+      <c r="AT5" s="1">
+        <f t="shared" si="12"/>
         <v>11400</v>
       </c>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="53" t="s">
+      <c r="AU5" s="36"/>
+      <c r="AV5" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="61" t="s">
+      <c r="AW5" s="61"/>
+      <c r="AX5" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="AI5" s="61"/>
-      <c r="AJ5" s="61"/>
-      <c r="AK5" s="53" t="s">
+      <c r="AY5" s="59"/>
+      <c r="AZ5" s="59"/>
+      <c r="BA5" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="AL5" s="54"/>
-      <c r="AM5" s="61" t="s">
+      <c r="BB5" s="61"/>
+      <c r="BC5" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="AN5" s="61"/>
-      <c r="AO5" s="61"/>
-      <c r="AP5" s="61" t="s">
+      <c r="BD5" s="59"/>
+      <c r="BE5" s="59"/>
+      <c r="BF5" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="AQ5" s="61"/>
-      <c r="AR5" s="61"/>
-      <c r="AS5" s="61" t="s">
+      <c r="BG5" s="59"/>
+      <c r="BH5" s="59"/>
+      <c r="BI5" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="AT5" s="61"/>
-      <c r="AU5" s="61"/>
-      <c r="AV5" s="61" t="s">
+      <c r="BJ5" s="59"/>
+      <c r="BK5" s="59"/>
+      <c r="BL5" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="AW5" s="61"/>
-      <c r="AX5" s="61"/>
-      <c r="AY5" s="11" t="s">
+      <c r="BM5" s="59"/>
+      <c r="BN5" s="59"/>
+      <c r="BO5" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AZ5" s="11" t="s">
+      <c r="BP5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="BA5" s="31" t="s">
+      <c r="BQ5" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="BB5" s="31" t="s">
+      <c r="BR5" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="BC5" s="31" t="s">
+      <c r="BS5" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="BD5" s="31"/>
+      <c r="BT5" s="31"/>
     </row>
-    <row r="6" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -2294,156 +2616,199 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="G6" s="38">
-        <f t="shared" ref="G6:G11" si="3">2*(D6*E6+E6*F6+F6*D6)</f>
+        <f t="shared" ref="G6:G11" si="13">2*(D6*E6+E6*F6+F6*D6)</f>
         <v>383.96400000000006</v>
       </c>
       <c r="H6" s="38">
-        <f t="shared" ref="H6:H11" si="4">D6*E6*F6</f>
+        <f t="shared" ref="H6:H11" si="14">D6*E6*F6</f>
         <v>468.18990000000008</v>
       </c>
-      <c r="I6" s="64">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="I6" s="74">
+        <f t="shared" si="0"/>
+        <v>0.82010312482178704</v>
+      </c>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="45" t="s">
+      <c r="AA6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="43" t="s">
+      <c r="AB6" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="M6" s="21">
+      <c r="AC6" s="21">
         <v>5</v>
       </c>
-      <c r="N6" s="47">
-        <f>Z$3+AA$3*M6</f>
+      <c r="AD6" s="47">
+        <f t="shared" ref="AD6:AD11" si="15">AP$3+AQ$3*AC6</f>
         <v>10200</v>
       </c>
-      <c r="O6" s="9">
+      <c r="AE6" s="9">
         <v>4</v>
       </c>
-      <c r="P6" s="51">
-        <f>Z$13+AA$13*O6</f>
+      <c r="AF6" s="51">
+        <f t="shared" ref="AF6:AF11" si="16">AP$13+AQ$13*AE6</f>
         <v>9800</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="AG6" s="22">
         <v>1</v>
       </c>
-      <c r="R6" s="22">
-        <f t="shared" si="0"/>
+      <c r="AH6" s="22">
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
-      <c r="S6" s="42" t="s">
+      <c r="AI6" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="48">
-        <f>G6*10+N6</f>
+      <c r="AJ6" s="48">
+        <f>G6*10+AD6</f>
         <v>14039.64</v>
       </c>
-      <c r="U6" s="15" t="s">
+      <c r="AK6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="V6" s="52">
-        <f>H6*10+P6</f>
+      <c r="AL6" s="52">
+        <f>H6*10+AF6</f>
         <v>14481.899000000001</v>
       </c>
-      <c r="W6" s="22" t="s">
+      <c r="AM6" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="X6" s="67">
-        <f t="shared" si="1"/>
+      <c r="AN6" s="58">
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="3">
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="3">
         <v>4</v>
       </c>
-      <c r="AC6" s="1">
-        <f>Z$3+AA$3*AB6</f>
+      <c r="AS6" s="1">
+        <f t="shared" si="11"/>
         <v>8400</v>
       </c>
-      <c r="AD6" s="1">
-        <f t="shared" si="2"/>
+      <c r="AT6" s="1">
+        <f t="shared" si="12"/>
         <v>9300</v>
       </c>
-      <c r="AE6" s="46">
+      <c r="AU6" s="46">
         <v>13700</v>
       </c>
-      <c r="AF6" s="7" t="s">
+      <c r="AV6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AG6" s="8">
+      <c r="AW6" s="8">
         <v>14724</v>
       </c>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9" t="s">
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AJ6" s="9">
+      <c r="AZ6" s="9">
         <v>4715</v>
       </c>
-      <c r="AK6" s="15" t="s">
+      <c r="BA6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AL6" s="30">
-        <f t="shared" ref="AL6:AL11" si="5">AG6+AJ6</f>
+      <c r="BB6" s="30">
+        <f t="shared" ref="BB6:BB11" si="17">AW6+AZ6</f>
         <v>19439</v>
       </c>
-      <c r="AM6" s="21"/>
-      <c r="AN6" s="21" t="s">
+      <c r="BC6" s="21"/>
+      <c r="BD6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AO6" s="21">
+      <c r="BE6" s="21">
         <v>17801</v>
       </c>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="19" t="s">
+      <c r="BF6" s="19"/>
+      <c r="BG6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AR6" s="19">
+      <c r="BH6" s="19">
         <v>2311</v>
       </c>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4" t="s">
+      <c r="BI6" s="4"/>
+      <c r="BJ6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AU6" s="4">
+      <c r="BK6" s="4">
         <v>37</v>
       </c>
-      <c r="AV6" s="22" t="s">
+      <c r="BL6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AW6" s="22" t="s">
+      <c r="BM6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="AX6" s="22">
+      <c r="BN6" s="22">
         <v>87</v>
       </c>
-      <c r="AY6" s="14">
+      <c r="BO6" s="14">
         <v>18</v>
       </c>
-      <c r="AZ6" s="14">
+      <c r="BP6" s="14">
         <v>6</v>
       </c>
-      <c r="BA6" s="32">
+      <c r="BQ6" s="32">
         <v>0.77900000000000003</v>
       </c>
-      <c r="BB6" s="32">
-        <f t="shared" ref="BB6:BB11" si="6">(1630*BA6+AU6*5)*(1630*BA6+AU6*5)*AZ6*1.3035*0.5*0.000066</f>
+      <c r="BR6" s="32">
+        <f t="shared" ref="BR6:BR11" si="18">(1630*BQ6+BK6*5)*(1630*BQ6+BK6*5)*BP6*1.3035*0.5*0.000066</f>
         <v>546.21660533321972</v>
       </c>
-      <c r="BC6" s="32">
-        <f t="shared" ref="BC6:BC11" si="7">(1630*BA6+AX6*5)*(1630*BA6+AX6*5)*AZ6*4.1949*0.5*0.000066</f>
+      <c r="BS6" s="32">
+        <f t="shared" ref="BS6:BS11" si="19">(1630*BQ6+BN6*5)*(1630*BQ6+BN6*5)*BP6*4.1949*0.5*0.000066</f>
         <v>2413.8950881993615</v>
       </c>
-      <c r="BD6" s="32" t="s">
+      <c r="BT6" s="32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>16</v>
       </c>
@@ -2463,156 +2828,201 @@
         <v>7.27</v>
       </c>
       <c r="G7" s="38">
+        <f t="shared" si="13"/>
+        <v>376.69240000000002</v>
+      </c>
+      <c r="H7" s="38">
+        <f t="shared" si="14"/>
+        <v>488.74756000000002</v>
+      </c>
+      <c r="I7" s="74">
+        <f t="shared" si="0"/>
+        <v>0.7707299858438168</v>
+      </c>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55">
         <f t="shared" si="3"/>
-        <v>376.69240000000002</v>
-      </c>
-      <c r="H7" s="38">
+        <v>0</v>
+      </c>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="68">
         <f t="shared" si="4"/>
-        <v>488.74756000000002</v>
-      </c>
-      <c r="I7" s="64">
+        <v>0</v>
+      </c>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="72">
+        <v>1</v>
+      </c>
+      <c r="W7" s="72">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="X7" s="69">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="Y7" s="55">
         <v>15</v>
       </c>
-      <c r="J7" s="5">
+      <c r="Z7" s="5">
         <v>16</v>
       </c>
-      <c r="K7" s="45" t="s">
+      <c r="AA7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="43" t="s">
+      <c r="AB7" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="M7" s="21">
+      <c r="AC7" s="21">
         <v>2</v>
       </c>
-      <c r="N7" s="47">
-        <f>Z$3+AA$3*M7</f>
+      <c r="AD7" s="47">
+        <f t="shared" si="15"/>
         <v>4800</v>
       </c>
-      <c r="O7" s="9">
+      <c r="AE7" s="9">
         <v>7</v>
       </c>
-      <c r="P7" s="51">
-        <f>Z$13+AA$13*O7</f>
+      <c r="AF7" s="51">
+        <f t="shared" si="16"/>
         <v>16100</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="AG7" s="22">
         <v>1</v>
       </c>
-      <c r="R7" s="22">
-        <f t="shared" si="0"/>
+      <c r="AH7" s="22">
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
-      <c r="S7" s="42" t="s">
+      <c r="AI7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="48">
-        <f>G7*10+N7</f>
+      <c r="AJ7" s="48">
+        <f>G7*10+AD7</f>
         <v>8566.9239999999991</v>
       </c>
-      <c r="U7" s="15" t="s">
+      <c r="AK7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="V7" s="52">
-        <f>H7*10+P7</f>
+      <c r="AL7" s="52">
+        <f>H7*10+AF7</f>
         <v>20987.475599999998</v>
       </c>
-      <c r="W7" s="22" t="s">
+      <c r="AM7" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="X7" s="67">
-        <f t="shared" si="1"/>
+      <c r="AN7" s="58">
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="3">
+      <c r="AO7" s="24"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="3">
         <v>3</v>
       </c>
-      <c r="AC7" s="1">
-        <f>Z$3+AA$3*AB7</f>
+      <c r="AS7" s="1">
+        <f t="shared" si="11"/>
         <v>6600</v>
       </c>
-      <c r="AD7" s="1">
-        <f t="shared" si="2"/>
+      <c r="AT7" s="1">
+        <f t="shared" si="12"/>
         <v>7200</v>
       </c>
-      <c r="AE7" s="46">
+      <c r="AU7" s="46">
         <v>11900</v>
       </c>
-      <c r="AF7" s="7" t="s">
+      <c r="AV7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AG7" s="8">
+      <c r="AW7" s="8">
         <v>16321</v>
       </c>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9" t="s">
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AJ7" s="9">
+      <c r="AZ7" s="9">
         <v>5974</v>
       </c>
-      <c r="AK7" s="15" t="s">
+      <c r="BA7" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="AL7" s="30">
-        <f t="shared" si="5"/>
+      <c r="BB7" s="30">
+        <f t="shared" si="17"/>
         <v>22295</v>
       </c>
-      <c r="AM7" s="21" t="s">
+      <c r="BC7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AN7" s="21" t="s">
+      <c r="BD7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AO7" s="21">
+      <c r="BE7" s="21">
         <v>19242</v>
       </c>
-      <c r="AP7" s="19"/>
-      <c r="AQ7" s="19" t="s">
+      <c r="BF7" s="19"/>
+      <c r="BG7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AR7" s="19">
+      <c r="BH7" s="19">
         <v>1639</v>
       </c>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4" t="s">
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AU7" s="4">
+      <c r="BK7" s="4">
         <v>36</v>
       </c>
-      <c r="AV7" s="22"/>
-      <c r="AW7" s="22" t="s">
+      <c r="BL7" s="22"/>
+      <c r="BM7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AX7" s="22">
+      <c r="BN7" s="22">
         <v>91</v>
       </c>
-      <c r="AY7" s="14">
+      <c r="BO7" s="14">
         <v>20</v>
       </c>
-      <c r="AZ7" s="14">
+      <c r="BP7" s="14">
         <v>4</v>
       </c>
-      <c r="BA7" s="32">
+      <c r="BQ7" s="32">
         <v>0.84299999999999997</v>
       </c>
-      <c r="BB7" s="32">
-        <f t="shared" si="6"/>
+      <c r="BR7" s="32">
+        <f t="shared" si="18"/>
         <v>415.56340736834221</v>
       </c>
-      <c r="BC7" s="32">
-        <f t="shared" si="7"/>
+      <c r="BS7" s="32">
+        <f t="shared" si="19"/>
         <v>1852.5318965810827</v>
       </c>
-      <c r="BD7" s="32" t="s">
+      <c r="BT7" s="32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>14</v>
       </c>
@@ -2632,158 +3042,205 @@
         <v>5.46</v>
       </c>
       <c r="G8" s="38">
+        <f t="shared" si="13"/>
+        <v>347.13040000000001</v>
+      </c>
+      <c r="H8" s="38">
+        <f t="shared" si="14"/>
+        <v>420.89501999999999</v>
+      </c>
+      <c r="I8" s="74">
+        <f t="shared" si="0"/>
+        <v>0.8247434241441014</v>
+      </c>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55">
         <f t="shared" si="3"/>
-        <v>347.13040000000001</v>
-      </c>
-      <c r="H8" s="38">
+        <v>0</v>
+      </c>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="68">
         <f t="shared" si="4"/>
-        <v>420.89501999999999</v>
-      </c>
-      <c r="I8" s="64">
+        <v>0</v>
+      </c>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="55">
+        <v>2</v>
+      </c>
+      <c r="U8" s="55">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="V8" s="72">
+        <v>2</v>
+      </c>
+      <c r="W8" s="72">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="X8" s="69">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="Y8" s="55">
         <v>28</v>
       </c>
-      <c r="J8" s="5">
+      <c r="Z8" s="5">
         <v>14</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="AA8" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="43" t="s">
+      <c r="AB8" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="M8" s="21">
+      <c r="AC8" s="21">
         <v>6</v>
       </c>
-      <c r="N8" s="47">
-        <f>Z$3+AA$3*M8</f>
+      <c r="AD8" s="47">
+        <f t="shared" si="15"/>
         <v>12000</v>
       </c>
-      <c r="O8" s="9">
+      <c r="AE8" s="9">
         <v>1</v>
       </c>
-      <c r="P8" s="51">
-        <f>Z$13+AA$13*O8</f>
+      <c r="AF8" s="51">
+        <f t="shared" si="16"/>
         <v>3500</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="AG8" s="22">
         <v>3</v>
       </c>
-      <c r="R8" s="22">
-        <f t="shared" si="0"/>
+      <c r="AH8" s="22">
+        <f t="shared" si="9"/>
         <v>86</v>
       </c>
-      <c r="S8" s="42" t="s">
+      <c r="AI8" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="48">
-        <f>G8*10+N8</f>
+      <c r="AJ8" s="48">
+        <f>G8*10+AD8</f>
         <v>15471.304</v>
       </c>
-      <c r="U8" s="15" t="s">
+      <c r="AK8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="V8" s="52">
-        <f>H8*10+P8</f>
+      <c r="AL8" s="52">
+        <f>H8*10+AF8</f>
         <v>7708.9502000000002</v>
       </c>
-      <c r="W8" s="22" t="s">
+      <c r="AM8" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="X8" s="67">
-        <f t="shared" si="1"/>
+      <c r="AN8" s="58">
+        <f t="shared" si="10"/>
         <v>114</v>
       </c>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="3">
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="3">
         <v>2</v>
       </c>
-      <c r="AC8" s="1">
-        <f>Z$3+AA$3*AB8</f>
+      <c r="AS8" s="1">
+        <f t="shared" si="11"/>
         <v>4800</v>
       </c>
-      <c r="AD8" s="1">
-        <f t="shared" si="2"/>
+      <c r="AT8" s="1">
+        <f t="shared" si="12"/>
         <v>5100</v>
       </c>
-      <c r="AE8" s="46">
+      <c r="AU8" s="46">
         <v>10100</v>
       </c>
-      <c r="AF8" s="7" t="s">
+      <c r="AV8" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AG8" s="17">
+      <c r="AW8" s="17">
         <v>10755</v>
       </c>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="9" t="s">
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AJ8" s="9">
+      <c r="AZ8" s="9">
         <v>4720</v>
       </c>
-      <c r="AK8" s="15" t="s">
+      <c r="BA8" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AL8" s="30">
-        <f t="shared" si="5"/>
+      <c r="BB8" s="30">
+        <f t="shared" si="17"/>
         <v>15475</v>
       </c>
-      <c r="AM8" s="21" t="s">
+      <c r="BC8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AN8" s="21" t="s">
+      <c r="BD8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AO8" s="21">
+      <c r="BE8" s="21">
         <v>20884</v>
       </c>
-      <c r="AP8" s="19" t="s">
+      <c r="BF8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AQ8" s="19" t="s">
+      <c r="BG8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AR8" s="19">
+      <c r="BH8" s="19">
         <v>1407</v>
       </c>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4" t="s">
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AU8" s="4">
+      <c r="BK8" s="4">
         <v>44</v>
       </c>
-      <c r="AV8" s="22"/>
-      <c r="AW8" s="22" t="s">
+      <c r="BL8" s="22"/>
+      <c r="BM8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AX8" s="22">
+      <c r="BN8" s="22">
         <v>113</v>
       </c>
-      <c r="AY8" s="14">
+      <c r="BO8" s="14">
         <v>22</v>
       </c>
-      <c r="AZ8" s="14">
+      <c r="BP8" s="14">
         <v>2</v>
       </c>
-      <c r="BA8" s="32">
+      <c r="BQ8" s="32">
         <v>1</v>
       </c>
-      <c r="BB8" s="32">
-        <f t="shared" si="6"/>
+      <c r="BR8" s="32">
+        <f t="shared" si="18"/>
         <v>294.44109750000001</v>
       </c>
-      <c r="BC8" s="32">
-        <f t="shared" si="7"/>
+      <c r="BS8" s="32">
+        <f t="shared" si="19"/>
         <v>1333.9347827849999</v>
       </c>
-      <c r="BD8" s="32" t="s">
+      <c r="BT8" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>108</v>
       </c>
@@ -2803,154 +3260,197 @@
         <v>5.03</v>
       </c>
       <c r="G9" s="38">
+        <f t="shared" si="13"/>
+        <v>343.71160000000003</v>
+      </c>
+      <c r="H9" s="38">
+        <f t="shared" si="14"/>
+        <v>402.44024000000007</v>
+      </c>
+      <c r="I9" s="74">
+        <f t="shared" si="0"/>
+        <v>0.85406866867985165</v>
+      </c>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55">
         <f t="shared" si="3"/>
-        <v>343.71160000000003</v>
-      </c>
-      <c r="H9" s="38">
+        <v>0</v>
+      </c>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="68">
         <f t="shared" si="4"/>
-        <v>402.44024000000007</v>
-      </c>
-      <c r="I9" s="64">
+        <v>0</v>
+      </c>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="55">
         <v>23</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="Z9" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="AA9" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="L9" s="43" t="s">
+      <c r="AB9" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="M9" s="21">
+      <c r="AC9" s="21">
         <v>3</v>
       </c>
-      <c r="N9" s="47">
-        <f>Z$3+AA$3*M9</f>
+      <c r="AD9" s="47">
+        <f t="shared" si="15"/>
         <v>6600</v>
       </c>
-      <c r="O9" s="9">
+      <c r="AE9" s="9">
         <v>4</v>
       </c>
-      <c r="P9" s="51">
-        <f>Z$13+AA$13*O9</f>
+      <c r="AF9" s="51">
+        <f t="shared" si="16"/>
         <v>9800</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="AG9" s="22">
         <v>3</v>
       </c>
-      <c r="R9" s="22">
-        <f t="shared" si="0"/>
+      <c r="AH9" s="22">
+        <f t="shared" si="9"/>
         <v>86</v>
       </c>
-      <c r="S9" s="42" t="s">
+      <c r="AI9" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="48">
-        <f>G9*10+N9</f>
+      <c r="AJ9" s="48">
+        <f>G9*10+AD9</f>
         <v>10037.116</v>
-      </c>
-      <c r="U9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="V9" s="52">
-        <f>H9*10+P9</f>
-        <v>13824.402400000001</v>
-      </c>
-      <c r="W9" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="X9" s="67">
-        <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="1">
-        <f>Z$3+AA$3*AB9</f>
-        <v>3000</v>
-      </c>
-      <c r="AD9" s="1">
-        <f>AC9+AA$3/6 * (AB9-1)</f>
-        <v>3000</v>
-      </c>
-      <c r="AE9" s="46">
-        <v>8300</v>
-      </c>
-      <c r="AF9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG9" s="17">
-        <v>12997</v>
-      </c>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ9" s="9">
-        <v>2792</v>
       </c>
       <c r="AK9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AL9" s="30">
-        <f t="shared" si="5"/>
+      <c r="AL9" s="52">
+        <f>H9*10+AF9</f>
+        <v>13824.402400000001</v>
+      </c>
+      <c r="AM9" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN9" s="58">
+        <f t="shared" si="10"/>
+        <v>109</v>
+      </c>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="1">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="AT9" s="1">
+        <f>AS9+AQ$3/6 * (AR9-1)</f>
+        <v>3000</v>
+      </c>
+      <c r="AU9" s="46">
+        <v>8300</v>
+      </c>
+      <c r="AV9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW9" s="17">
+        <v>12997</v>
+      </c>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ9" s="9">
+        <v>2792</v>
+      </c>
+      <c r="BA9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB9" s="30">
+        <f t="shared" si="17"/>
         <v>15789</v>
       </c>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="21" t="s">
+      <c r="BC9" s="21"/>
+      <c r="BD9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AO9" s="21">
+      <c r="BE9" s="21">
         <v>24000</v>
       </c>
-      <c r="AP9" s="19"/>
-      <c r="AQ9" s="19" t="s">
+      <c r="BF9" s="19"/>
+      <c r="BG9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AR9" s="19">
+      <c r="BH9" s="19">
         <v>1774</v>
       </c>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4" t="s">
+      <c r="BI9" s="4"/>
+      <c r="BJ9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AU9" s="4">
+      <c r="BK9" s="4">
         <v>30</v>
       </c>
-      <c r="AV9" s="22"/>
-      <c r="AW9" s="22" t="s">
+      <c r="BL9" s="22"/>
+      <c r="BM9" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="AX9" s="22">
+      <c r="BN9" s="22">
         <v>105</v>
       </c>
-      <c r="AY9" s="14">
+      <c r="BO9" s="14">
         <v>18</v>
       </c>
-      <c r="AZ9" s="14">
+      <c r="BP9" s="14">
         <v>6</v>
       </c>
-      <c r="BA9" s="32">
+      <c r="BQ9" s="32">
         <v>0.77900000000000003</v>
       </c>
-      <c r="BB9" s="32">
-        <f t="shared" si="6"/>
+      <c r="BR9" s="32">
+        <f t="shared" si="18"/>
         <v>520.25015250551974</v>
       </c>
-      <c r="BC9" s="32">
-        <f t="shared" si="7"/>
+      <c r="BS9" s="32">
+        <f t="shared" si="19"/>
         <v>2675.4966147650812</v>
       </c>
-      <c r="BD9" s="32" t="s">
+      <c r="BT9" s="32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
@@ -2970,150 +3470,193 @@
         <v>3.63</v>
       </c>
       <c r="G10" s="38">
+        <f t="shared" si="13"/>
+        <v>320.19540000000001</v>
+      </c>
+      <c r="H10" s="38">
+        <f t="shared" si="14"/>
+        <v>328.02640200000002</v>
+      </c>
+      <c r="I10" s="74">
+        <f t="shared" si="0"/>
+        <v>0.97612691554017039</v>
+      </c>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55">
         <f t="shared" si="3"/>
-        <v>320.19540000000001</v>
-      </c>
-      <c r="H10" s="38">
+        <v>0</v>
+      </c>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="68">
         <f t="shared" si="4"/>
-        <v>328.02640200000002</v>
-      </c>
-      <c r="I10" s="64">
+        <v>0</v>
+      </c>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="55">
         <v>7</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="Z10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="AA10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="43" t="s">
+      <c r="AB10" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="M10" s="21">
+      <c r="AC10" s="21">
         <v>2</v>
       </c>
-      <c r="N10" s="47">
-        <f>Z$3+AA$3*M10</f>
+      <c r="AD10" s="47">
+        <f t="shared" si="15"/>
         <v>4800</v>
       </c>
-      <c r="O10" s="9">
+      <c r="AE10" s="9">
         <v>3</v>
       </c>
-      <c r="P10" s="51">
-        <f>Z$13+AA$13*O10</f>
+      <c r="AF10" s="51">
+        <f t="shared" si="16"/>
         <v>7700</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="AG10" s="22">
         <v>5</v>
       </c>
-      <c r="R10" s="22">
-        <f t="shared" si="0"/>
+      <c r="AH10" s="22">
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
-      <c r="S10" s="42" t="s">
+      <c r="AI10" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="48">
-        <f>G10*10+N10</f>
+      <c r="AJ10" s="48">
+        <f>G10*10+AD10</f>
         <v>8001.9539999999997</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="AK10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="V10" s="52">
-        <f>H10*10+P10</f>
+      <c r="AL10" s="52">
+        <f>H10*10+AF10</f>
         <v>10980.264020000001</v>
       </c>
-      <c r="W10" s="22" t="s">
+      <c r="AM10" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="X10" s="67">
-        <f t="shared" si="1"/>
+      <c r="AN10" s="58">
+        <f t="shared" si="10"/>
         <v>117</v>
       </c>
-      <c r="Y10" s="26"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AE10" s="46">
+      <c r="AO10" s="26"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AU10" s="46">
         <v>6500</v>
       </c>
-      <c r="AF10" s="7" t="s">
+      <c r="AV10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AG10" s="17">
+      <c r="AW10" s="17">
         <v>9327</v>
       </c>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="9" t="s">
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AJ10" s="9">
+      <c r="AZ10" s="9">
         <v>3329</v>
       </c>
-      <c r="AK10" s="15" t="s">
+      <c r="BA10" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="AL10" s="30">
-        <f t="shared" si="5"/>
+      <c r="BB10" s="30">
+        <f t="shared" si="17"/>
         <v>12656</v>
       </c>
-      <c r="AM10" s="21" t="s">
+      <c r="BC10" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AN10" s="21" t="s">
+      <c r="BD10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AO10" s="21">
+      <c r="BE10" s="21">
         <v>20741</v>
       </c>
-      <c r="AP10" s="19"/>
-      <c r="AQ10" s="19" t="s">
+      <c r="BF10" s="19"/>
+      <c r="BG10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AR10" s="19">
+      <c r="BH10" s="19">
         <v>1597</v>
       </c>
-      <c r="AS10" s="4" t="s">
+      <c r="BI10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AT10" s="4" t="s">
+      <c r="BJ10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AU10" s="4">
+      <c r="BK10" s="4">
         <v>59</v>
       </c>
-      <c r="AV10" s="22" t="s">
+      <c r="BL10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AW10" s="22" t="s">
+      <c r="BM10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AX10" s="22">
+      <c r="BN10" s="22">
         <v>75</v>
       </c>
-      <c r="AY10" s="14">
+      <c r="BO10" s="14">
         <v>20</v>
       </c>
-      <c r="AZ10" s="14">
+      <c r="BP10" s="14">
         <v>4</v>
       </c>
-      <c r="BA10" s="32">
+      <c r="BQ10" s="32">
         <v>0.84299999999999997</v>
       </c>
-      <c r="BB10" s="32">
-        <f t="shared" si="6"/>
+      <c r="BR10" s="32">
+        <f t="shared" si="18"/>
         <v>479.34088904174223</v>
       </c>
-      <c r="BC10" s="32">
-        <f t="shared" si="7"/>
+      <c r="BS10" s="32">
+        <f t="shared" si="19"/>
         <v>1694.0251636831629</v>
       </c>
-      <c r="BD10" s="32" t="s">
+      <c r="BT10" s="32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>17</v>
       </c>
@@ -3133,151 +3676,194 @@
         <v>6.12</v>
       </c>
       <c r="G11" s="38">
+        <f t="shared" si="13"/>
+        <v>310.48320000000001</v>
+      </c>
+      <c r="H11" s="38">
+        <f t="shared" si="14"/>
+        <v>366.16449599999999</v>
+      </c>
+      <c r="I11" s="74">
+        <f t="shared" si="0"/>
+        <v>0.84793365657166286</v>
+      </c>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55">
         <f t="shared" si="3"/>
-        <v>310.48320000000001</v>
-      </c>
-      <c r="H11" s="38">
+        <v>0</v>
+      </c>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="68">
         <f t="shared" si="4"/>
-        <v>366.16449599999999</v>
-      </c>
-      <c r="I11" s="64">
+        <v>0</v>
+      </c>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="55">
         <v>15</v>
       </c>
-      <c r="J11" s="5">
+      <c r="Z11" s="5">
         <v>17</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="AA11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="43" t="s">
+      <c r="AB11" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="M11" s="21">
+      <c r="AC11" s="21">
         <v>2</v>
       </c>
-      <c r="N11" s="47">
-        <f>Z$3+AA$3*M11</f>
+      <c r="AD11" s="47">
+        <f t="shared" si="15"/>
         <v>4800</v>
       </c>
-      <c r="O11" s="9">
+      <c r="AE11" s="9">
         <v>6</v>
       </c>
-      <c r="P11" s="51">
-        <f>Z$13+AA$13*O11</f>
+      <c r="AF11" s="51">
+        <f t="shared" si="16"/>
         <v>14000</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="AG11" s="22">
         <v>2</v>
       </c>
-      <c r="R11" s="22">
-        <f t="shared" si="0"/>
+      <c r="AH11" s="22">
+        <f t="shared" si="9"/>
         <v>74</v>
       </c>
-      <c r="S11" s="42" t="s">
+      <c r="AI11" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="T11" s="48">
-        <f>G11*10+N11</f>
+      <c r="AJ11" s="48">
+        <f>G11*10+AD11</f>
         <v>7904.8320000000003</v>
       </c>
-      <c r="U11" s="15" t="s">
+      <c r="AK11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="V11" s="52">
-        <f>H11*10+P11</f>
+      <c r="AL11" s="52">
+        <f>H11*10+AF11</f>
         <v>17661.644959999998</v>
       </c>
-      <c r="W11" s="22" t="s">
+      <c r="AM11" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="X11" s="67">
-        <f t="shared" si="1"/>
+      <c r="AN11" s="58">
+        <f t="shared" si="10"/>
         <v>89</v>
       </c>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="2" t="s">
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AE11" s="46">
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AU11" s="46">
         <v>4700</v>
       </c>
-      <c r="AF11" s="7" t="s">
+      <c r="AV11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AG11" s="17">
+      <c r="AW11" s="17">
         <v>11386</v>
       </c>
-      <c r="AH11" s="9" t="s">
+      <c r="AX11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AI11" s="9" t="s">
+      <c r="AY11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AJ11" s="9">
+      <c r="AZ11" s="9">
         <v>6922</v>
       </c>
-      <c r="AK11" s="15" t="s">
+      <c r="BA11" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="AL11" s="30">
-        <f t="shared" si="5"/>
+      <c r="BB11" s="30">
+        <f t="shared" si="17"/>
         <v>18308</v>
       </c>
-      <c r="AM11" s="21"/>
-      <c r="AN11" s="21" t="s">
+      <c r="BC11" s="21"/>
+      <c r="BD11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AO11" s="21">
+      <c r="BE11" s="21">
         <v>13749</v>
       </c>
-      <c r="AP11" s="19"/>
-      <c r="AQ11" s="19" t="s">
+      <c r="BF11" s="19"/>
+      <c r="BG11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AR11" s="19">
+      <c r="BH11" s="19">
         <v>1553</v>
       </c>
-      <c r="AS11" s="4" t="s">
+      <c r="BI11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AT11" s="4" t="s">
+      <c r="BJ11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AU11" s="4">
+      <c r="BK11" s="4">
         <v>22</v>
       </c>
-      <c r="AV11" s="22"/>
-      <c r="AW11" s="22" t="s">
+      <c r="BL11" s="22"/>
+      <c r="BM11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AX11" s="22">
+      <c r="BN11" s="22">
         <v>99</v>
       </c>
-      <c r="AY11" s="14">
+      <c r="BO11" s="14">
         <v>18</v>
       </c>
-      <c r="AZ11" s="14">
+      <c r="BP11" s="14">
         <v>6</v>
       </c>
-      <c r="BA11" s="32">
+      <c r="BQ11" s="32">
         <v>0.77900000000000003</v>
       </c>
-      <c r="BB11" s="32">
-        <f t="shared" si="6"/>
+      <c r="BR11" s="32">
+        <f t="shared" si="18"/>
         <v>491.34848541671977</v>
       </c>
-      <c r="BC11" s="32">
-        <f t="shared" si="7"/>
+      <c r="BS11" s="32">
+        <f t="shared" si="19"/>
         <v>2586.8010435498418</v>
       </c>
-      <c r="BD11" s="32" t="s">
+      <c r="BT11" s="32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>33</v>
       </c>
@@ -3302,107 +3888,141 @@
       <c r="H12" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="35" t="s">
+      <c r="I12" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y12" s="54"/>
+      <c r="Z12" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="AA12" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="L12" s="34" t="s">
+      <c r="AB12" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="M12" s="55" t="s">
+      <c r="AC12" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="N12" s="56"/>
-      <c r="O12" s="57" t="s">
+      <c r="AD12" s="63"/>
+      <c r="AE12" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="59" t="s">
+      <c r="AF12" s="65"/>
+      <c r="AG12" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="R12" s="60"/>
-      <c r="S12" s="55" t="s">
+      <c r="AH12" s="67"/>
+      <c r="AI12" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="T12" s="56"/>
-      <c r="U12" s="53" t="s">
+      <c r="AJ12" s="63"/>
+      <c r="AK12" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="54"/>
-      <c r="W12" s="59" t="s">
+      <c r="AL12" s="61"/>
+      <c r="AM12" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="2" t="s">
+      <c r="AN12" s="67"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AA12" s="2" t="s">
+      <c r="AQ12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AB12" s="2" t="s">
+      <c r="AR12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AS12" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AE12" s="46">
+      <c r="AU12" s="46">
         <v>2900</v>
       </c>
-      <c r="AF12" s="53" t="s">
+      <c r="AV12" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="AG12" s="54"/>
-      <c r="AH12" s="61" t="s">
+      <c r="AW12" s="61"/>
+      <c r="AX12" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="AI12" s="61"/>
-      <c r="AJ12" s="61"/>
-      <c r="AK12" s="53" t="s">
+      <c r="AY12" s="59"/>
+      <c r="AZ12" s="59"/>
+      <c r="BA12" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="AL12" s="54"/>
-      <c r="AM12" s="61" t="s">
+      <c r="BB12" s="61"/>
+      <c r="BC12" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="AN12" s="61"/>
-      <c r="AO12" s="61"/>
-      <c r="AP12" s="61" t="s">
+      <c r="BD12" s="59"/>
+      <c r="BE12" s="59"/>
+      <c r="BF12" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="AQ12" s="61"/>
-      <c r="AR12" s="61"/>
-      <c r="AS12" s="61" t="s">
+      <c r="BG12" s="59"/>
+      <c r="BH12" s="59"/>
+      <c r="BI12" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="AT12" s="61"/>
-      <c r="AU12" s="61"/>
-      <c r="AV12" s="61" t="s">
+      <c r="BJ12" s="59"/>
+      <c r="BK12" s="59"/>
+      <c r="BL12" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="AW12" s="61"/>
-      <c r="AX12" s="61"/>
-      <c r="AY12" s="11" t="s">
+      <c r="BM12" s="59"/>
+      <c r="BN12" s="59"/>
+      <c r="BO12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AZ12" s="11" t="s">
+      <c r="BP12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="BA12" s="31" t="s">
+      <c r="BQ12" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="BB12" s="31" t="s">
+      <c r="BR12" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="BC12" s="31" t="s">
+      <c r="BS12" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="BD12" s="31"/>
+      <c r="BT12" s="31"/>
     </row>
-    <row r="13" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -3429,157 +4049,202 @@
         <f>D13*E13*F13</f>
         <v>324.55079999999998</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="74">
+        <f t="shared" si="0"/>
+        <v>0.92193271438554458</v>
+      </c>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="55">
+        <v>4</v>
+      </c>
+      <c r="S13" s="55">
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="J13" s="5">
+      <c r="T13" s="55"/>
+      <c r="U13" s="55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="69">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="Y13" s="55">
+        <v>28</v>
+      </c>
+      <c r="Z13" s="5">
         <v>12</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="AA13" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="43" t="s">
+      <c r="AB13" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="M13" s="21">
+      <c r="AC13" s="21">
         <v>3</v>
       </c>
-      <c r="N13" s="47">
-        <f>Z$3+AA$3*M13</f>
+      <c r="AD13" s="47">
+        <f>AP$3+AQ$3*AC13</f>
         <v>6600</v>
       </c>
-      <c r="O13" s="9">
+      <c r="AE13" s="9">
         <v>2</v>
       </c>
-      <c r="P13" s="51">
-        <f>Z$13+AA$13*O13</f>
+      <c r="AF13" s="51">
+        <f>AP$13+AQ$13*AE13</f>
         <v>5600</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="AG13" s="22">
         <v>5</v>
       </c>
-      <c r="R13" s="22">
-        <f t="shared" si="0"/>
+      <c r="AH13" s="22">
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
-      <c r="S13" s="42" t="s">
+      <c r="AI13" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="T13" s="48">
-        <f>G13*10+N13</f>
+      <c r="AJ13" s="48">
+        <f>G13*10+AD13</f>
         <v>9592.14</v>
       </c>
-      <c r="U13" s="15" t="s">
+      <c r="AK13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="V13" s="52">
-        <f>H13*10+P13</f>
+      <c r="AL13" s="52">
+        <f>H13*10+AF13</f>
         <v>8845.5079999999998</v>
       </c>
-      <c r="W13" s="22" t="s">
+      <c r="AM13" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="X13" s="67">
-        <f t="shared" si="1"/>
+      <c r="AN13" s="58">
+        <f t="shared" si="10"/>
         <v>138</v>
       </c>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="1">
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="1">
         <v>1400</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AQ13" s="1">
         <v>2100</v>
       </c>
-      <c r="AB13" s="3">
+      <c r="AR13" s="3">
         <v>7</v>
       </c>
-      <c r="AC13" s="1">
-        <f>Z$13+AA$13*AB13</f>
+      <c r="AS13" s="1">
+        <f t="shared" ref="AS13:AS19" si="20">AP$13+AQ$13*AR13</f>
         <v>16100</v>
       </c>
-      <c r="AD13" s="1">
-        <f t="shared" ref="AD13:AD18" si="8">AC13+AA$13/6 * (AB13-1)</f>
+      <c r="AT13" s="1">
+        <f t="shared" ref="AT13:AT18" si="21">AS13+AQ$13/6 * (AR13-1)</f>
         <v>18200</v>
       </c>
-      <c r="AE13" s="50">
+      <c r="AU13" s="50">
         <v>20550</v>
       </c>
-      <c r="AF13" s="7" t="s">
+      <c r="AV13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AG13" s="17">
+      <c r="AW13" s="17">
         <v>12760</v>
       </c>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="9" t="s">
+      <c r="AX13" s="10"/>
+      <c r="AY13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AJ13" s="9">
+      <c r="AZ13" s="9">
         <v>3566</v>
       </c>
-      <c r="AK13" s="15" t="s">
+      <c r="BA13" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="AL13" s="30">
-        <f>AG13+AJ13</f>
+      <c r="BB13" s="30">
+        <f>AW13+AZ13</f>
         <v>16326</v>
       </c>
-      <c r="AM13" s="21" t="s">
+      <c r="BC13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AN13" s="21" t="s">
+      <c r="BD13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AO13" s="21">
+      <c r="BE13" s="21">
         <v>8409</v>
       </c>
-      <c r="AP13" s="19" t="s">
+      <c r="BF13" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AQ13" s="19" t="s">
+      <c r="BG13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AR13" s="19">
+      <c r="BH13" s="19">
         <v>3131</v>
       </c>
-      <c r="AS13" s="4"/>
-      <c r="AT13" s="4" t="s">
+      <c r="BI13" s="4"/>
+      <c r="BJ13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AU13" s="4">
+      <c r="BK13" s="4">
         <v>48</v>
       </c>
-      <c r="AV13" s="22" t="s">
+      <c r="BL13" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AW13" s="22" t="s">
+      <c r="BM13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AX13" s="22">
+      <c r="BN13" s="22">
         <v>117</v>
       </c>
-      <c r="AY13" s="14">
+      <c r="BO13" s="14">
         <v>22</v>
       </c>
-      <c r="AZ13" s="14">
+      <c r="BP13" s="14">
         <v>2</v>
       </c>
-      <c r="BA13" s="32">
+      <c r="BQ13" s="32">
         <v>1</v>
       </c>
-      <c r="BB13" s="32">
-        <f>(1630*BA13+AU13*5)*(1630*BA13+AU13*5)*AZ13*1.3035*0.5*0.000066</f>
+      <c r="BR13" s="32">
+        <f>(1630*BQ13+BK13*5)*(1630*BQ13+BK13*5)*BP13*1.3035*0.5*0.000066</f>
         <v>300.84180390000006</v>
       </c>
-      <c r="BC13" s="32">
-        <f>(1630*BA13+AX13*5)*(1630*BA13+AX13*5)*AZ13*4.1949*0.5*0.000066</f>
+      <c r="BS13" s="32">
+        <f>(1630*BQ13+BN13*5)*(1630*BQ13+BN13*5)*BP13*4.1949*0.5*0.000066</f>
         <v>1358.3541346649999</v>
       </c>
-      <c r="BD13" s="32" t="s">
+      <c r="BT13" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>15</v>
       </c>
@@ -3606,151 +4271,200 @@
         <f>D14*E14*F14</f>
         <v>292.40657999999996</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="74">
+        <f t="shared" si="0"/>
+        <v>0.92203397064457304</v>
+      </c>
+      <c r="J14" s="55">
+        <v>0</v>
+      </c>
+      <c r="K14" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="55">
+        <v>1</v>
+      </c>
+      <c r="O14" s="55">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="55">
+        <v>5</v>
+      </c>
+      <c r="S14" s="55">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="69">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="Y14" s="55">
         <v>19</v>
       </c>
-      <c r="J14" s="5">
+      <c r="Z14" s="5">
         <v>15</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="AA14" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="43" t="s">
+      <c r="AB14" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="M14" s="21">
+      <c r="AC14" s="21">
         <v>7</v>
       </c>
-      <c r="N14" s="47">
-        <f>Z$3+AA$3*M14</f>
+      <c r="AD14" s="47">
+        <f>AP$3+AQ$3*AC14</f>
         <v>13800</v>
       </c>
-      <c r="O14" s="9">
+      <c r="AE14" s="9">
         <v>2</v>
       </c>
-      <c r="P14" s="51">
-        <f>Z$13+AA$13*O14</f>
+      <c r="AF14" s="51">
+        <f>AP$13+AQ$13*AE14</f>
         <v>5600</v>
       </c>
-      <c r="Q14" s="22">
+      <c r="AG14" s="22">
         <v>1</v>
       </c>
-      <c r="R14" s="22">
-        <f t="shared" si="0"/>
+      <c r="AH14" s="22">
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
-      <c r="S14" s="42" t="s">
+      <c r="AI14" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="48">
-        <f>G14*10+N14</f>
+      <c r="AJ14" s="48">
+        <f>G14*10+AD14</f>
         <v>16496.088</v>
       </c>
-      <c r="U14" s="15" t="s">
+      <c r="AK14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="V14" s="52">
-        <f>H14*10+P14</f>
+      <c r="AL14" s="52">
+        <f>H14*10+AF14</f>
         <v>8524.0658000000003</v>
       </c>
-      <c r="W14" s="22" t="s">
+      <c r="AM14" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="X14" s="67">
-        <f t="shared" si="1"/>
+      <c r="AN14" s="58">
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="3">
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="3">
         <v>6</v>
       </c>
-      <c r="AC14" s="1">
-        <f>Z$13+AA$13*AB14</f>
+      <c r="AS14" s="1">
+        <f t="shared" si="20"/>
         <v>14000</v>
       </c>
-      <c r="AD14" s="1">
-        <f t="shared" si="8"/>
+      <c r="AT14" s="1">
+        <f t="shared" si="21"/>
         <v>15750</v>
       </c>
-      <c r="AE14" s="50">
+      <c r="AU14" s="50">
         <v>17850</v>
       </c>
-      <c r="AF14" s="7" t="s">
+      <c r="AV14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AG14" s="17">
+      <c r="AW14" s="17">
         <v>10329</v>
       </c>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9" t="s">
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AJ14" s="9">
+      <c r="AZ14" s="9">
         <v>5522</v>
       </c>
-      <c r="AK14" s="15" t="s">
+      <c r="BA14" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AL14" s="30">
-        <f>AG14+AJ14</f>
+      <c r="BB14" s="30">
+        <f>AW14+AZ14</f>
         <v>15851</v>
       </c>
-      <c r="AM14" s="21" t="s">
+      <c r="BC14" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AN14" s="21" t="s">
+      <c r="BD14" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AO14" s="21">
+      <c r="BE14" s="21">
         <v>22058</v>
       </c>
-      <c r="AP14" s="19"/>
-      <c r="AQ14" s="19" t="s">
+      <c r="BF14" s="19"/>
+      <c r="BG14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AR14" s="19">
+      <c r="BH14" s="19">
         <v>2299</v>
       </c>
-      <c r="AS14" s="4"/>
-      <c r="AT14" s="4" t="s">
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AU14" s="4">
+      <c r="BK14" s="4">
         <v>37</v>
       </c>
-      <c r="AV14" s="22" t="s">
+      <c r="BL14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AW14" s="22" t="s">
+      <c r="BM14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AX14" s="22">
+      <c r="BN14" s="22">
         <v>77</v>
       </c>
-      <c r="AY14" s="14">
+      <c r="BO14" s="14">
         <v>20</v>
       </c>
-      <c r="AZ14" s="14">
+      <c r="BP14" s="14">
         <v>4</v>
       </c>
-      <c r="BA14" s="32">
+      <c r="BQ14" s="32">
         <v>0.84299999999999997</v>
       </c>
-      <c r="BB14" s="32">
-        <f>(1630*BA14+AU14*5)*(1630*BA14+AU14*5)*AZ14*1.3035*0.5*0.000066</f>
+      <c r="BR14" s="32">
+        <f>(1630*BQ14+BK14*5)*(1630*BQ14+BK14*5)*BP14*1.3035*0.5*0.000066</f>
         <v>418.24170725414223</v>
       </c>
-      <c r="BC14" s="32">
-        <f>(1630*BA14+AX14*5)*(1630*BA14+AX14*5)*AZ14*4.1949*0.5*0.000066</f>
+      <c r="BS14" s="32">
+        <f>(1630*BQ14+BN14*5)*(1630*BQ14+BN14*5)*BP14*4.1949*0.5*0.000066</f>
         <v>1713.450896535403</v>
       </c>
-      <c r="BD14" s="32" t="s">
+      <c r="BT14" s="32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -3777,153 +4491,196 @@
         <f>D15*E15*F15</f>
         <v>233.67680000000001</v>
       </c>
-      <c r="I15" s="64">
+      <c r="I15" s="74">
+        <f t="shared" si="0"/>
+        <v>1.086711218229623</v>
+      </c>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="55">
         <v>9</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="Z15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="AA15" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="43" t="s">
+      <c r="AB15" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="M15" s="21">
+      <c r="AC15" s="21">
         <v>1</v>
       </c>
-      <c r="N15" s="47">
-        <f>Z$3+AA$3*M15</f>
+      <c r="AD15" s="47">
+        <f>AP$3+AQ$3*AC15</f>
         <v>3000</v>
       </c>
-      <c r="O15" s="9">
+      <c r="AE15" s="9">
         <v>7</v>
       </c>
-      <c r="P15" s="51">
-        <f>Z$13+AA$13*O15</f>
+      <c r="AF15" s="51">
+        <f>AP$13+AQ$13*AE15</f>
         <v>16100</v>
       </c>
-      <c r="Q15" s="22">
+      <c r="AG15" s="22">
         <v>2</v>
       </c>
-      <c r="R15" s="22">
-        <f t="shared" si="0"/>
+      <c r="AH15" s="22">
+        <f t="shared" si="9"/>
         <v>74</v>
       </c>
-      <c r="S15" s="42" t="s">
+      <c r="AI15" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="T15" s="48">
-        <f>G15*10+N15</f>
+      <c r="AJ15" s="48">
+        <f>G15*10+AD15</f>
         <v>5539.3919999999998</v>
       </c>
-      <c r="U15" s="15" t="s">
+      <c r="AK15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="V15" s="52">
-        <f>H15*10+P15</f>
+      <c r="AL15" s="52">
+        <f>H15*10+AF15</f>
         <v>18436.768</v>
       </c>
-      <c r="W15" s="22" t="s">
+      <c r="AM15" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="X15" s="67">
-        <f t="shared" si="1"/>
+      <c r="AN15" s="58">
+        <f t="shared" si="10"/>
         <v>83</v>
       </c>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="3">
+      <c r="AO15" s="26"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="3">
         <v>5</v>
       </c>
-      <c r="AC15" s="1">
-        <f>Z$13+AA$13*AB15</f>
+      <c r="AS15" s="1">
+        <f t="shared" si="20"/>
         <v>11900</v>
       </c>
-      <c r="AD15" s="1">
-        <f t="shared" si="8"/>
+      <c r="AT15" s="1">
+        <f t="shared" si="21"/>
         <v>13300</v>
       </c>
-      <c r="AE15" s="50">
+      <c r="AU15" s="50">
         <v>15150</v>
       </c>
-      <c r="AF15" s="7" t="s">
+      <c r="AV15" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AG15" s="17">
+      <c r="AW15" s="17">
         <v>8325</v>
       </c>
-      <c r="AH15" s="9" t="s">
+      <c r="AX15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AI15" s="9" t="s">
+      <c r="AY15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AJ15" s="9">
+      <c r="AZ15" s="9">
         <v>7724</v>
       </c>
-      <c r="AK15" s="15" t="s">
+      <c r="BA15" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="AL15" s="30">
-        <f>AG15+AJ15</f>
+      <c r="BB15" s="30">
+        <f>AW15+AZ15</f>
         <v>16049</v>
       </c>
-      <c r="AM15" s="21"/>
-      <c r="AN15" s="21" t="s">
+      <c r="BC15" s="21"/>
+      <c r="BD15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="AO15" s="21">
+      <c r="BE15" s="21">
         <v>11754</v>
       </c>
-      <c r="AP15" s="19" t="s">
+      <c r="BF15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AQ15" s="19" t="s">
+      <c r="BG15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AR15" s="19">
+      <c r="BH15" s="19">
         <v>1192</v>
       </c>
-      <c r="AS15" s="4" t="s">
+      <c r="BI15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AT15" s="4" t="s">
+      <c r="BJ15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AU15" s="4">
+      <c r="BK15" s="4">
         <v>53</v>
       </c>
-      <c r="AV15" s="22"/>
-      <c r="AW15" s="22" t="s">
+      <c r="BL15" s="22"/>
+      <c r="BM15" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AX15" s="22">
+      <c r="BN15" s="22">
         <v>97</v>
       </c>
-      <c r="AY15" s="14">
+      <c r="BO15" s="14">
         <v>22</v>
       </c>
-      <c r="AZ15" s="14">
+      <c r="BP15" s="14">
         <v>2</v>
       </c>
-      <c r="BA15" s="32">
+      <c r="BQ15" s="32">
         <v>1</v>
       </c>
-      <c r="BB15" s="32">
-        <f>(1630*BA15+AU15*5)*(1630*BA15+AU15*5)*AZ15*1.3035*0.5*0.000066</f>
+      <c r="BR15" s="32">
+        <f>(1630*BQ15+BK15*5)*(1630*BQ15+BK15*5)*BP15*1.3035*0.5*0.000066</f>
         <v>308.93947177500007</v>
       </c>
-      <c r="BC15" s="32">
-        <f>(1630*BA15+AX15*5)*(1630*BA15+AX15*5)*AZ15*4.1949*0.5*0.000066</f>
+      <c r="BS15" s="32">
+        <f>(1630*BQ15+BN15*5)*(1630*BQ15+BN15*5)*BP15*4.1949*0.5*0.000066</f>
         <v>1238.472282465</v>
       </c>
-      <c r="BD15" s="32" t="s">
+      <c r="BT15" s="32" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -3950,153 +4707,198 @@
         <f>D16*E16*F16</f>
         <v>260.05239999999998</v>
       </c>
-      <c r="I16" s="64">
+      <c r="I16" s="74">
+        <f t="shared" si="0"/>
+        <v>0.97031982785007953</v>
+      </c>
+      <c r="J16" s="72">
+        <v>2</v>
+      </c>
+      <c r="K16" s="72">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="69">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="Y16" s="55">
         <v>22</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="Z16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="AA16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="43" t="s">
+      <c r="AB16" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="M16" s="21">
+      <c r="AC16" s="21">
         <v>1</v>
       </c>
-      <c r="N16" s="47">
-        <f>Z$3+AA$3*M16</f>
+      <c r="AD16" s="47">
+        <f>AP$3+AQ$3*AC16</f>
         <v>3000</v>
       </c>
-      <c r="O16" s="9">
+      <c r="AE16" s="9">
         <v>3</v>
       </c>
-      <c r="P16" s="51">
-        <f>Z$13+AA$13*O16</f>
+      <c r="AF16" s="51">
+        <f>AP$13+AQ$13*AE16</f>
         <v>7700</v>
       </c>
-      <c r="Q16" s="22">
+      <c r="AG16" s="22">
         <v>6</v>
       </c>
-      <c r="R16" s="22">
-        <f t="shared" si="0"/>
+      <c r="AH16" s="22">
+        <f t="shared" si="9"/>
         <v>122</v>
       </c>
-      <c r="S16" s="42" t="s">
+      <c r="AI16" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="T16" s="48">
-        <f>G16*10+N16</f>
+      <c r="AJ16" s="48">
+        <f>G16*10+AD16</f>
         <v>5523.34</v>
       </c>
-      <c r="U16" s="15" t="s">
+      <c r="AK16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="V16" s="52">
-        <f>H16*10+P16</f>
+      <c r="AL16" s="52">
+        <f>H16*10+AF16</f>
         <v>10300.523999999999</v>
       </c>
-      <c r="W16" s="22" t="s">
+      <c r="AM16" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="X16" s="67">
-        <f t="shared" si="1"/>
+      <c r="AN16" s="58">
+        <f t="shared" si="10"/>
         <v>144</v>
       </c>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="3">
+      <c r="AO16" s="26"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="3">
         <v>4</v>
       </c>
-      <c r="AC16" s="1">
-        <f>Z$13+AA$13*AB16</f>
+      <c r="AS16" s="1">
+        <f t="shared" si="20"/>
         <v>9800</v>
       </c>
-      <c r="AD16" s="1">
-        <f t="shared" si="8"/>
+      <c r="AT16" s="1">
+        <f t="shared" si="21"/>
         <v>10850</v>
       </c>
-      <c r="AE16" s="50">
+      <c r="AU16" s="50">
         <v>12450</v>
       </c>
-      <c r="AF16" s="7" t="s">
+      <c r="AV16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AG16" s="17">
+      <c r="AW16" s="17">
         <v>8879</v>
       </c>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="9" t="s">
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AJ16" s="9">
+      <c r="AZ16" s="9">
         <v>3771</v>
       </c>
-      <c r="AK16" s="15" t="s">
+      <c r="BA16" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="AL16" s="30">
-        <f>AG16+AJ16</f>
+      <c r="BB16" s="30">
+        <f>AW16+AZ16</f>
         <v>12650</v>
       </c>
-      <c r="AM16" s="21" t="s">
+      <c r="BC16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AN16" s="21" t="s">
+      <c r="BD16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AO16" s="21">
+      <c r="BE16" s="21">
         <v>7945</v>
       </c>
-      <c r="AP16" s="19" t="s">
+      <c r="BF16" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AQ16" s="19" t="s">
+      <c r="BG16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AR16" s="19">
+      <c r="BH16" s="19">
         <v>3154</v>
       </c>
-      <c r="AS16" s="4"/>
-      <c r="AT16" s="4" t="s">
+      <c r="BI16" s="4"/>
+      <c r="BJ16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AU16" s="4">
+      <c r="BK16" s="4">
         <v>39</v>
       </c>
-      <c r="AV16" s="22" t="s">
+      <c r="BL16" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AW16" s="22" t="s">
+      <c r="BM16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AX16" s="22">
+      <c r="BN16" s="22">
         <v>129</v>
       </c>
-      <c r="AY16" s="14">
+      <c r="BO16" s="14">
         <v>22</v>
       </c>
-      <c r="AZ16" s="14">
+      <c r="BP16" s="14">
         <v>2</v>
       </c>
-      <c r="BA16" s="32">
+      <c r="BQ16" s="32">
         <v>1</v>
       </c>
-      <c r="BB16" s="32">
-        <f>(1630*BA16+AU16*5)*(1630*BA16+AU16*5)*AZ16*1.3035*0.5*0.000066</f>
+      <c r="BR16" s="32">
+        <f>(1630*BQ16+BK16*5)*(1630*BQ16+BK16*5)*BP16*1.3035*0.5*0.000066</f>
         <v>286.53699937500005</v>
       </c>
-      <c r="BC16" s="32">
-        <f>(1630*BA16+AX16*5)*(1630*BA16+AX16*5)*AZ16*4.1949*0.5*0.000066</f>
+      <c r="BS16" s="32">
+        <f>(1630*BQ16+BN16*5)*(1630*BQ16+BN16*5)*BP16*4.1949*0.5*0.000066</f>
         <v>1432.9411346249999</v>
       </c>
-      <c r="BD16" s="32" t="s">
+      <c r="BT16" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>33</v>
       </c>
@@ -4121,108 +4923,142 @@
       <c r="H17" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="I17" s="63"/>
-      <c r="J17" s="35" t="s">
+      <c r="I17" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="AA17" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="34" t="s">
+      <c r="AB17" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="M17" s="55" t="s">
+      <c r="AC17" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="N17" s="56"/>
-      <c r="O17" s="57" t="s">
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="59" t="s">
+      <c r="AF17" s="65"/>
+      <c r="AG17" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="R17" s="60"/>
-      <c r="S17" s="55" t="s">
+      <c r="AH17" s="67"/>
+      <c r="AI17" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="T17" s="56"/>
-      <c r="U17" s="53" t="s">
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="V17" s="54"/>
-      <c r="W17" s="59" t="s">
+      <c r="AL17" s="61"/>
+      <c r="AM17" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="3">
+      <c r="AN17" s="67"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="3">
         <v>3</v>
       </c>
-      <c r="AC17" s="1">
-        <f>Z$13+AA$13*AB17</f>
+      <c r="AS17" s="1">
+        <f t="shared" si="20"/>
         <v>7700</v>
       </c>
-      <c r="AD17" s="1">
-        <f t="shared" si="8"/>
+      <c r="AT17" s="1">
+        <f t="shared" si="21"/>
         <v>8400</v>
       </c>
-      <c r="AE17" s="50">
+      <c r="AU17" s="50">
         <v>9750</v>
       </c>
-      <c r="AF17" s="53" t="s">
+      <c r="AV17" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="AG17" s="54"/>
-      <c r="AH17" s="61" t="s">
+      <c r="AW17" s="61"/>
+      <c r="AX17" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="AI17" s="61"/>
-      <c r="AJ17" s="61"/>
-      <c r="AK17" s="53" t="s">
+      <c r="AY17" s="59"/>
+      <c r="AZ17" s="59"/>
+      <c r="BA17" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="AL17" s="54"/>
-      <c r="AM17" s="61" t="s">
+      <c r="BB17" s="61"/>
+      <c r="BC17" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="AN17" s="61"/>
-      <c r="AO17" s="61"/>
-      <c r="AP17" s="61" t="s">
+      <c r="BD17" s="59"/>
+      <c r="BE17" s="59"/>
+      <c r="BF17" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="AQ17" s="61"/>
-      <c r="AR17" s="61"/>
-      <c r="AS17" s="61" t="s">
+      <c r="BG17" s="59"/>
+      <c r="BH17" s="59"/>
+      <c r="BI17" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="AT17" s="61"/>
-      <c r="AU17" s="61"/>
-      <c r="AV17" s="61" t="s">
+      <c r="BJ17" s="59"/>
+      <c r="BK17" s="59"/>
+      <c r="BL17" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="AW17" s="61"/>
-      <c r="AX17" s="61"/>
-      <c r="AY17" s="11" t="s">
+      <c r="BM17" s="59"/>
+      <c r="BN17" s="59"/>
+      <c r="BO17" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AZ17" s="11" t="s">
+      <c r="BP17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="BA17" s="31" t="s">
+      <c r="BQ17" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="BB17" s="31" t="s">
+      <c r="BR17" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="BC17" s="31" t="s">
+      <c r="BS17" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="BD17" s="31"/>
+      <c r="BT17" s="31"/>
     </row>
-    <row r="18" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>105</v>
       </c>
@@ -4249,147 +5085,190 @@
         <f>D18*E18*F18</f>
         <v>148.99248</v>
       </c>
-      <c r="I18" s="64">
+      <c r="I18" s="74">
+        <f t="shared" si="0"/>
+        <v>1.1931501509337921</v>
+      </c>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="55">
         <v>20</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="Z18" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="K18" s="27" t="s">
+      <c r="AA18" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="L18" s="43" t="s">
+      <c r="AB18" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="M18" s="21">
+      <c r="AC18" s="21">
         <v>3</v>
       </c>
-      <c r="N18" s="47">
-        <f>Z$3+AA$3*M18</f>
+      <c r="AD18" s="47">
+        <f>AP$3+AQ$3*AC18</f>
         <v>6600</v>
       </c>
-      <c r="O18" s="9">
+      <c r="AE18" s="9">
         <v>4</v>
       </c>
-      <c r="P18" s="51">
-        <f>Z$13+AA$13*O18</f>
+      <c r="AF18" s="51">
+        <f>AP$13+AQ$13*AE18</f>
         <v>9800</v>
       </c>
-      <c r="Q18" s="22">
+      <c r="AG18" s="22">
         <v>3</v>
       </c>
-      <c r="R18" s="22">
-        <f t="shared" si="0"/>
+      <c r="AH18" s="22">
+        <f t="shared" si="9"/>
         <v>86</v>
       </c>
-      <c r="S18" s="42" t="s">
+      <c r="AI18" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="T18" s="48">
-        <f>G18*10+N18</f>
+      <c r="AJ18" s="48">
+        <f>G18*10+AD18</f>
         <v>8377.7039999999997</v>
-      </c>
-      <c r="U18" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="V18" s="52">
-        <f>H18*10+P18</f>
-        <v>11289.924800000001</v>
-      </c>
-      <c r="W18" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="X18" s="67">
-        <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="3">
-        <v>2</v>
-      </c>
-      <c r="AC18" s="1">
-        <f>Z$13+AA$13*AB18</f>
-        <v>5600</v>
-      </c>
-      <c r="AD18" s="1">
-        <f t="shared" si="8"/>
-        <v>5950</v>
-      </c>
-      <c r="AE18" s="50">
-        <v>7050</v>
-      </c>
-      <c r="AF18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG18" s="17">
-        <v>5987</v>
-      </c>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ18" s="9">
-        <v>3156</v>
       </c>
       <c r="AK18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AL18" s="30">
-        <f>AG18+AJ18</f>
+      <c r="AL18" s="52">
+        <f>H18*10+AF18</f>
+        <v>11289.924800000001</v>
+      </c>
+      <c r="AM18" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN18" s="58">
+        <f t="shared" si="10"/>
+        <v>106</v>
+      </c>
+      <c r="AO18" s="27"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS18" s="1">
+        <f t="shared" si="20"/>
+        <v>5600</v>
+      </c>
+      <c r="AT18" s="1">
+        <f t="shared" si="21"/>
+        <v>5950</v>
+      </c>
+      <c r="AU18" s="50">
+        <v>7050</v>
+      </c>
+      <c r="AV18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW18" s="17">
+        <v>5987</v>
+      </c>
+      <c r="AX18" s="10"/>
+      <c r="AY18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ18" s="9">
+        <v>3156</v>
+      </c>
+      <c r="BA18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB18" s="30">
+        <f>AW18+AZ18</f>
         <v>9143</v>
       </c>
-      <c r="AM18" s="21"/>
-      <c r="AN18" s="21" t="s">
+      <c r="BC18" s="21"/>
+      <c r="BD18" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AO18" s="21">
+      <c r="BE18" s="21">
         <v>14500</v>
       </c>
-      <c r="AP18" s="19"/>
-      <c r="AQ18" s="19" t="s">
+      <c r="BF18" s="19"/>
+      <c r="BG18" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AR18" s="19">
+      <c r="BH18" s="19">
         <v>2444</v>
       </c>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4" t="s">
+      <c r="BI18" s="4"/>
+      <c r="BJ18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AU18" s="4">
+      <c r="BK18" s="4">
         <v>28</v>
       </c>
-      <c r="AV18" s="22"/>
-      <c r="AW18" s="22" t="s">
+      <c r="BL18" s="22"/>
+      <c r="BM18" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AX18" s="22">
+      <c r="BN18" s="22">
         <v>123</v>
       </c>
-      <c r="AY18" s="14">
+      <c r="BO18" s="14">
         <v>20</v>
       </c>
-      <c r="AZ18" s="14">
+      <c r="BP18" s="14">
         <v>4</v>
       </c>
-      <c r="BA18" s="32">
+      <c r="BQ18" s="32">
         <v>0.84299999999999997</v>
       </c>
-      <c r="BB18" s="32">
-        <f>(1630*BA18+AU18*5)*(1630*BA18+AU18*5)*AZ18*1.3035*0.5*0.000066</f>
+      <c r="BR18" s="32">
+        <f>(1630*BQ18+BK18*5)*(1630*BQ18+BK18*5)*BP18*1.3035*0.5*0.000066</f>
         <v>394.44671988194222</v>
       </c>
-      <c r="BC18" s="32">
-        <f>(1630*BA18+AX18*5)*(1630*BA18+AX18*5)*AZ18*4.1949*0.5*0.000066</f>
+      <c r="BS18" s="32">
+        <f>(1630*BQ18+BN18*5)*(1630*BQ18+BN18*5)*BP18*4.1949*0.5*0.000066</f>
         <v>2190.8084714969227</v>
       </c>
-      <c r="BD18" s="32" t="s">
+      <c r="BT18" s="32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
@@ -4416,153 +5295,196 @@
         <f>D19*E19*F19</f>
         <v>149.89104000000003</v>
       </c>
-      <c r="I19" s="64">
+      <c r="I19" s="74">
+        <f t="shared" si="0"/>
+        <v>1.1580892360210455</v>
+      </c>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="55">
         <v>15</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="Z19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="27" t="s">
+      <c r="AA19" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="L19" s="43" t="s">
+      <c r="AB19" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="M19" s="21">
+      <c r="AC19" s="21">
         <v>1</v>
       </c>
-      <c r="N19" s="47">
-        <f>Z$3+AA$3*M19</f>
+      <c r="AD19" s="47">
+        <f>AP$3+AQ$3*AC19</f>
         <v>3000</v>
       </c>
-      <c r="O19" s="9">
+      <c r="AE19" s="9">
         <v>2</v>
       </c>
-      <c r="P19" s="51">
-        <f>Z$13+AA$13*O19</f>
+      <c r="AF19" s="51">
+        <f>AP$13+AQ$13*AE19</f>
         <v>5600</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="AG19" s="22">
         <v>7</v>
       </c>
-      <c r="R19" s="22">
-        <f t="shared" si="0"/>
+      <c r="AH19" s="22">
+        <f t="shared" si="9"/>
         <v>134</v>
       </c>
-      <c r="S19" s="42" t="s">
+      <c r="AI19" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="T19" s="48">
-        <f>G19*10+N19</f>
+      <c r="AJ19" s="48">
+        <f>G19*10+AD19</f>
         <v>4735.8720000000003</v>
       </c>
-      <c r="U19" s="15" t="s">
+      <c r="AK19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="V19" s="52">
-        <f>H19*10+P19</f>
+      <c r="AL19" s="52">
+        <f>H19*10+AF19</f>
         <v>7098.9104000000007</v>
       </c>
-      <c r="W19" s="22" t="s">
+      <c r="AM19" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="X19" s="67">
-        <f t="shared" si="1"/>
+      <c r="AN19" s="58">
+        <f t="shared" si="10"/>
         <v>149</v>
       </c>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="3">
+      <c r="AO19" s="27"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="3">
         <v>1</v>
       </c>
-      <c r="AC19" s="1">
-        <f>Z$13+AA$13*AB19</f>
+      <c r="AS19" s="1">
+        <f t="shared" si="20"/>
         <v>3500</v>
       </c>
-      <c r="AD19" s="1">
-        <f>AC19+AA$13/6 * (AB19-1)</f>
+      <c r="AT19" s="1">
+        <f>AS19+AQ$13/6 * (AR19-1)</f>
         <v>3500</v>
       </c>
-      <c r="AE19" s="50">
+      <c r="AU19" s="50">
         <v>4350</v>
       </c>
-      <c r="AF19" s="7" t="s">
+      <c r="AV19" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AG19" s="17">
+      <c r="AW19" s="17">
         <v>7346</v>
       </c>
-      <c r="AH19" s="9" t="s">
+      <c r="AX19" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AI19" s="9" t="s">
+      <c r="AY19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AJ19" s="9">
+      <c r="AZ19" s="9">
         <v>7993</v>
       </c>
-      <c r="AK19" s="15" t="s">
+      <c r="BA19" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AL19" s="30">
-        <f>AG19+AJ19</f>
+      <c r="BB19" s="30">
+        <f>AW19+AZ19</f>
         <v>15339</v>
       </c>
-      <c r="AM19" s="21" t="s">
+      <c r="BC19" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AN19" s="21" t="s">
+      <c r="BD19" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AO19" s="21">
+      <c r="BE19" s="21">
         <v>5229</v>
       </c>
-      <c r="AP19" s="19"/>
-      <c r="AQ19" s="19" t="s">
+      <c r="BF19" s="19"/>
+      <c r="BG19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AR19" s="19">
+      <c r="BH19" s="19">
         <v>2075</v>
       </c>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4" t="s">
+      <c r="BI19" s="4"/>
+      <c r="BJ19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AU19" s="4">
+      <c r="BK19" s="4">
         <v>35</v>
       </c>
-      <c r="AV19" s="22" t="s">
+      <c r="BL19" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AW19" s="22" t="s">
+      <c r="BM19" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AX19" s="22">
+      <c r="BN19" s="22">
         <v>133</v>
       </c>
-      <c r="AY19" s="14">
+      <c r="BO19" s="14">
         <v>22</v>
       </c>
-      <c r="AZ19" s="14">
+      <c r="BP19" s="14">
         <v>2</v>
       </c>
-      <c r="BA19" s="32">
+      <c r="BQ19" s="32">
         <v>1</v>
       </c>
-      <c r="BB19" s="32">
-        <f>(1630*BA19+AU19*5)*(1630*BA19+AU19*5)*AZ19*1.3035*0.5*0.000066</f>
+      <c r="BR19" s="32">
+        <f>(1630*BQ19+BK19*5)*(1630*BQ19+BK19*5)*BP19*1.3035*0.5*0.000066</f>
         <v>280.29114877500007</v>
       </c>
-      <c r="BC19" s="32">
-        <f>(1630*BA19+AX19*5)*(1630*BA19+AX19*5)*AZ19*4.1949*0.5*0.000066</f>
+      <c r="BS19" s="32">
+        <f>(1630*BQ19+BN19*5)*(1630*BQ19+BN19*5)*BP19*4.1949*0.5*0.000066</f>
         <v>1458.246449385</v>
       </c>
-      <c r="BD19" s="32" t="s">
+      <c r="BT19" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
@@ -4589,140 +5511,183 @@
         <f>D20*E20*F20</f>
         <v>120.81314</v>
       </c>
-      <c r="I20" s="64">
+      <c r="I20" s="74">
+        <f t="shared" si="0"/>
+        <v>1.2406465058353753</v>
+      </c>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="55">
         <v>17</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="Z20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K20" s="27" t="s">
+      <c r="AA20" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="L20" s="43" t="s">
+      <c r="AB20" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="M20" s="21">
+      <c r="AC20" s="21">
         <v>2</v>
       </c>
-      <c r="N20" s="47">
-        <f>Z$3+AA$3*M20</f>
+      <c r="AD20" s="47">
+        <f>AP$3+AQ$3*AC20</f>
         <v>4800</v>
       </c>
-      <c r="O20" s="9">
+      <c r="AE20" s="9">
         <v>1</v>
       </c>
-      <c r="P20" s="51">
-        <f>Z$13+AA$13*O20</f>
+      <c r="AF20" s="51">
+        <f>AP$13+AQ$13*AE20</f>
         <v>3500</v>
       </c>
-      <c r="Q20" s="22">
+      <c r="AG20" s="22">
         <v>7</v>
       </c>
-      <c r="R20" s="22">
-        <f t="shared" si="0"/>
+      <c r="AH20" s="22">
+        <f t="shared" si="9"/>
         <v>134</v>
       </c>
-      <c r="S20" s="42" t="s">
+      <c r="AI20" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="T20" s="48">
-        <f>G20*10+N20</f>
+      <c r="AJ20" s="48">
+        <f>G20*10+AD20</f>
         <v>6298.8639999999996</v>
       </c>
-      <c r="U20" s="15" t="s">
+      <c r="AK20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="V20" s="52">
-        <f>H20*10+P20</f>
+      <c r="AL20" s="52">
+        <f>H20*10+AF20</f>
         <v>4708.1314000000002</v>
       </c>
-      <c r="W20" s="22" t="s">
+      <c r="AM20" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="X20" s="67">
-        <f t="shared" si="1"/>
+      <c r="AN20" s="58">
+        <f t="shared" si="10"/>
         <v>151</v>
       </c>
-      <c r="Y20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="7" t="s">
+      <c r="AO20" s="27"/>
+      <c r="AU20" s="27"/>
+      <c r="AV20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AG20" s="17">
+      <c r="AW20" s="17">
         <v>5375</v>
       </c>
-      <c r="AH20" s="9" t="s">
+      <c r="AX20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AI20" s="9" t="s">
+      <c r="AY20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AJ20" s="9">
+      <c r="AZ20" s="9">
         <v>2456</v>
       </c>
-      <c r="AK20" s="15" t="s">
+      <c r="BA20" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="AL20" s="30">
-        <f>AG20+AJ20</f>
+      <c r="BB20" s="30">
+        <f>AW20+AZ20</f>
         <v>7831</v>
       </c>
-      <c r="AM20" s="21"/>
-      <c r="AN20" s="21" t="s">
+      <c r="BC20" s="21"/>
+      <c r="BD20" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AO20" s="21">
+      <c r="BE20" s="21">
         <v>12934</v>
       </c>
-      <c r="AP20" s="19" t="s">
+      <c r="BF20" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AQ20" s="19" t="s">
+      <c r="BG20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AR20" s="19">
+      <c r="BH20" s="19">
         <v>3690</v>
       </c>
-      <c r="AS20" s="4" t="s">
+      <c r="BI20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AT20" s="4" t="s">
+      <c r="BJ20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AU20" s="4">
+      <c r="BK20" s="4">
         <v>28</v>
       </c>
-      <c r="AV20" s="22" t="s">
+      <c r="BL20" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AW20" s="22" t="s">
+      <c r="BM20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AX20" s="22">
+      <c r="BN20" s="22">
         <v>114</v>
       </c>
-      <c r="AY20" s="14">
+      <c r="BO20" s="14">
         <v>20</v>
       </c>
-      <c r="AZ20" s="14">
+      <c r="BP20" s="14">
         <v>4</v>
       </c>
-      <c r="BA20" s="32">
+      <c r="BQ20" s="32">
         <v>0.84299999999999997</v>
       </c>
-      <c r="BB20" s="32">
-        <f>(1630*BA20+AU20*5)*(1630*BA20+AU20*5)*AZ20*1.3035*0.5*0.000066</f>
+      <c r="BR20" s="32">
+        <f>(1630*BQ20+BK20*5)*(1630*BQ20+BK20*5)*BP20*1.3035*0.5*0.000066</f>
         <v>394.44671988194222</v>
       </c>
-      <c r="BC20" s="32">
-        <f>(1630*BA20+AX20*5)*(1630*BA20+AX20*5)*AZ20*4.1949*0.5*0.000066</f>
+      <c r="BS20" s="32">
+        <f>(1630*BQ20+BN20*5)*(1630*BQ20+BN20*5)*BP20*4.1949*0.5*0.000066</f>
         <v>2092.8026486118429</v>
       </c>
-      <c r="BD20" s="32" t="s">
+      <c r="BT20" s="32" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
@@ -4749,144 +5714,187 @@
         <f>D21*E21*F21</f>
         <v>92.021959999999993</v>
       </c>
-      <c r="I21" s="64">
+      <c r="I21" s="74">
+        <f t="shared" si="0"/>
+        <v>1.4000592901955142</v>
+      </c>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="55">
         <v>16</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="Z21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="AA21" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L21" s="43" t="s">
+      <c r="AB21" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="M21" s="21">
+      <c r="AC21" s="21">
         <v>4</v>
       </c>
-      <c r="N21" s="47">
-        <f>Z$3+AA$3*M21</f>
+      <c r="AD21" s="47">
+        <f>AP$3+AQ$3*AC21</f>
         <v>8400</v>
       </c>
-      <c r="O21" s="9">
+      <c r="AE21" s="9">
         <v>5</v>
       </c>
-      <c r="P21" s="51">
-        <f>Z$13+AA$13*O21</f>
+      <c r="AF21" s="51">
+        <f>AP$13+AQ$13*AE21</f>
         <v>11900</v>
       </c>
-      <c r="Q21" s="22">
+      <c r="AG21" s="22">
         <v>1</v>
       </c>
-      <c r="R21" s="22">
-        <f t="shared" si="0"/>
+      <c r="AH21" s="22">
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
-      <c r="S21" s="42" t="s">
+      <c r="AI21" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="T21" s="48">
-        <f>G21*10+N21</f>
+      <c r="AJ21" s="48">
+        <f>G21*10+AD21</f>
         <v>9688.3619999999992</v>
       </c>
-      <c r="U21" s="15" t="s">
+      <c r="AK21" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="V21" s="52">
-        <f>H21*10+P21</f>
+      <c r="AL21" s="52">
+        <f>H21*10+AF21</f>
         <v>12820.2196</v>
       </c>
-      <c r="W21" s="22" t="s">
+      <c r="AM21" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="X21" s="67">
-        <f t="shared" si="1"/>
+      <c r="AN21" s="58">
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="2" t="s">
+      <c r="AO21" s="27"/>
+      <c r="AP21" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="7" t="s">
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AU21" s="27"/>
+      <c r="AV21" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AG21" s="17">
+      <c r="AW21" s="17">
         <v>6692</v>
       </c>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="9" t="s">
+      <c r="AX21" s="10"/>
+      <c r="AY21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AJ21" s="9">
+      <c r="AZ21" s="9">
         <v>4156</v>
       </c>
-      <c r="AK21" s="15" t="s">
+      <c r="BA21" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="AL21" s="30">
-        <f>AG21+AJ21</f>
+      <c r="BB21" s="30">
+        <f>AW21+AZ21</f>
         <v>10848</v>
       </c>
-      <c r="AM21" s="21"/>
-      <c r="AN21" s="21" t="s">
+      <c r="BC21" s="21"/>
+      <c r="BD21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AO21" s="21">
+      <c r="BE21" s="21">
         <v>16450</v>
       </c>
-      <c r="AP21" s="19" t="s">
+      <c r="BF21" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AQ21" s="19" t="s">
+      <c r="BG21" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AR21" s="19">
+      <c r="BH21" s="19">
         <v>1263</v>
       </c>
-      <c r="AS21" s="4" t="s">
+      <c r="BI21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AT21" s="4" t="s">
+      <c r="BJ21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AU21" s="4">
+      <c r="BK21" s="4">
         <v>23</v>
       </c>
-      <c r="AV21" s="22" t="s">
+      <c r="BL21" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AW21" s="22" t="s">
+      <c r="BM21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AX21" s="22">
+      <c r="BN21" s="22">
         <v>116</v>
       </c>
-      <c r="AY21" s="14">
+      <c r="BO21" s="14">
         <v>18</v>
       </c>
-      <c r="AZ21" s="14">
+      <c r="BP21" s="14">
         <v>6</v>
       </c>
-      <c r="BA21" s="32">
+      <c r="BQ21" s="32">
         <v>0.77900000000000003</v>
       </c>
-      <c r="BB21" s="32">
-        <f>(1630*BA21+AU21*5)*(1630*BA21+AU21*5)*AZ21*1.3035*0.5*0.000066</f>
+      <c r="BR21" s="32">
+        <f>(1630*BQ21+BK21*5)*(1630*BQ21+BK21*5)*BP21*1.3035*0.5*0.000066</f>
         <v>494.91602752781978</v>
       </c>
-      <c r="BC21" s="32">
-        <f>(1630*BA21+AX21*5)*(1630*BA21+AX21*5)*AZ21*4.1949*0.5*0.000066</f>
+      <c r="BS21" s="32">
+        <f>(1630*BQ21+BN21*5)*(1630*BQ21+BN21*5)*BP21*4.1949*0.5*0.000066</f>
         <v>2841.9881711780213</v>
       </c>
-      <c r="BD21" s="32" t="s">
+      <c r="BT21" s="32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>33</v>
       </c>
@@ -4911,105 +5919,139 @@
       <c r="H22" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="I22" s="63"/>
-      <c r="J22" s="35" t="s">
+      <c r="I22" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="J22" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="AA22" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="L22" s="34" t="s">
+      <c r="AB22" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="M22" s="55" t="s">
+      <c r="AC22" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="N22" s="56"/>
-      <c r="O22" s="57" t="s">
+      <c r="AD22" s="63"/>
+      <c r="AE22" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="59" t="s">
+      <c r="AF22" s="65"/>
+      <c r="AG22" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="R22" s="60"/>
-      <c r="S22" s="55" t="s">
+      <c r="AH22" s="67"/>
+      <c r="AI22" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="T22" s="56"/>
-      <c r="U22" s="53" t="s">
+      <c r="AJ22" s="63"/>
+      <c r="AK22" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="V22" s="54"/>
-      <c r="W22" s="59" t="s">
+      <c r="AL22" s="61"/>
+      <c r="AM22" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="X22" s="60"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="2" t="s">
+      <c r="AN22" s="67"/>
+      <c r="AO22" s="36"/>
+      <c r="AP22" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AA22" s="2" t="s">
+      <c r="AQ22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AB22" s="2" t="s">
+      <c r="AR22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AC22" s="1" t="s">
+      <c r="AS22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AE22" s="36"/>
-      <c r="AF22" s="53" t="s">
+      <c r="AU22" s="36"/>
+      <c r="AV22" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="AG22" s="54"/>
-      <c r="AH22" s="61" t="s">
+      <c r="AW22" s="61"/>
+      <c r="AX22" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="AI22" s="61"/>
-      <c r="AJ22" s="61"/>
-      <c r="AK22" s="53" t="s">
+      <c r="AY22" s="59"/>
+      <c r="AZ22" s="59"/>
+      <c r="BA22" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="AL22" s="54"/>
-      <c r="AM22" s="61" t="s">
+      <c r="BB22" s="61"/>
+      <c r="BC22" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="AN22" s="61"/>
-      <c r="AO22" s="61"/>
-      <c r="AP22" s="61" t="s">
+      <c r="BD22" s="59"/>
+      <c r="BE22" s="59"/>
+      <c r="BF22" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="AQ22" s="61"/>
-      <c r="AR22" s="61"/>
-      <c r="AS22" s="61" t="s">
+      <c r="BG22" s="59"/>
+      <c r="BH22" s="59"/>
+      <c r="BI22" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="AT22" s="61"/>
-      <c r="AU22" s="61"/>
-      <c r="AV22" s="61" t="s">
+      <c r="BJ22" s="59"/>
+      <c r="BK22" s="59"/>
+      <c r="BL22" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="AW22" s="61"/>
-      <c r="AX22" s="61"/>
-      <c r="AY22" s="11" t="s">
+      <c r="BM22" s="59"/>
+      <c r="BN22" s="59"/>
+      <c r="BO22" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AZ22" s="11" t="s">
+      <c r="BP22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="BA22" s="31" t="s">
+      <c r="BQ22" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="BB22" s="31" t="s">
+      <c r="BR22" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="BC22" s="31" t="s">
+      <c r="BS22" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="BD22" s="31"/>
+      <c r="BT22" s="31"/>
     </row>
-    <row r="23" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
@@ -5036,155 +6078,200 @@
         <f>D23*E23*F23</f>
         <v>39.009698</v>
       </c>
-      <c r="I23" s="64">
+      <c r="I23" s="74">
+        <f t="shared" si="0"/>
+        <v>1.7965224955086809</v>
+      </c>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="55">
+        <v>1</v>
+      </c>
+      <c r="U23" s="55">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="69">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="Y23" s="55">
         <v>9</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="Z23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="28" t="s">
+      <c r="AA23" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="43" t="s">
+      <c r="AB23" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="M23" s="21">
+      <c r="AC23" s="21">
         <v>1</v>
       </c>
-      <c r="N23" s="47">
-        <f>Z$3+AA$3*M23</f>
+      <c r="AD23" s="47">
+        <f>AP$3+AQ$3*AC23</f>
         <v>3000</v>
       </c>
-      <c r="O23" s="9">
+      <c r="AE23" s="9">
         <v>4</v>
       </c>
-      <c r="P23" s="51">
-        <f>Z$13+AA$13*O23</f>
+      <c r="AF23" s="51">
+        <f>AP$13+AQ$13*AE23</f>
         <v>9800</v>
       </c>
-      <c r="Q23" s="22">
+      <c r="AG23" s="22">
         <v>5</v>
       </c>
-      <c r="R23" s="22">
-        <f t="shared" si="0"/>
+      <c r="AH23" s="22">
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
-      <c r="S23" s="42" t="s">
+      <c r="AI23" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="T23" s="48">
-        <f>G23*10+N23</f>
+      <c r="AJ23" s="48">
+        <f>G23*10+AD23</f>
         <v>3700.8180000000002</v>
       </c>
-      <c r="U23" s="15" t="s">
+      <c r="AK23" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="V23" s="52">
-        <f>H23*10+P23</f>
+      <c r="AL23" s="52">
+        <f>H23*10+AF23</f>
         <v>10190.09698</v>
       </c>
-      <c r="W23" s="22" t="s">
+      <c r="AM23" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="X23" s="67">
-        <f t="shared" si="1"/>
+      <c r="AN23" s="58">
+        <f t="shared" si="10"/>
         <v>119</v>
       </c>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="1">
+      <c r="AO23" s="28"/>
+      <c r="AP23" s="1">
         <v>50</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AQ23" s="1">
         <v>12</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AR23" s="3">
         <v>7</v>
       </c>
-      <c r="AC23" s="1">
-        <f>Z$23+AA$23*AB23</f>
+      <c r="AS23" s="1">
+        <f>AP$23+AQ$23*AR23</f>
         <v>134</v>
       </c>
-      <c r="AD23" s="1">
-        <f>AC23+AA$23/6 * (AB23-1)</f>
+      <c r="AT23" s="1">
+        <f>AS23+AQ$23/6 * (AR23-1)</f>
         <v>146</v>
       </c>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="7" t="s">
+      <c r="AU23" s="28"/>
+      <c r="AV23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AG23" s="17">
+      <c r="AW23" s="17">
         <v>4793</v>
       </c>
-      <c r="AH23" s="9" t="s">
+      <c r="AX23" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AI23" s="9" t="s">
+      <c r="AY23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AJ23" s="9">
+      <c r="AZ23" s="9">
         <v>6522</v>
       </c>
-      <c r="AK23" s="15" t="s">
+      <c r="BA23" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="AL23" s="30">
-        <f>AG23+AJ23</f>
+      <c r="BB23" s="30">
+        <f>AW23+AZ23</f>
         <v>11315</v>
       </c>
-      <c r="AM23" s="21"/>
-      <c r="AN23" s="21" t="s">
+      <c r="BC23" s="21"/>
+      <c r="BD23" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AO23" s="21">
+      <c r="BE23" s="21">
         <v>14859</v>
       </c>
-      <c r="AP23" s="19"/>
-      <c r="AQ23" s="19" t="s">
+      <c r="BF23" s="19"/>
+      <c r="BG23" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AR23" s="19">
+      <c r="BH23" s="19">
         <v>2237</v>
       </c>
-      <c r="AS23" s="4" t="s">
+      <c r="BI23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AT23" s="4" t="s">
+      <c r="BJ23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AU23" s="4">
+      <c r="BK23" s="4">
         <v>54</v>
       </c>
-      <c r="AV23" s="22" t="s">
+      <c r="BL23" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AW23" s="22" t="s">
+      <c r="BM23" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="AX23" s="22">
+      <c r="BN23" s="22">
         <v>85</v>
       </c>
-      <c r="AY23" s="14">
+      <c r="BO23" s="14">
         <v>22</v>
       </c>
-      <c r="AZ23" s="14">
+      <c r="BP23" s="14">
         <v>2</v>
       </c>
-      <c r="BA23" s="32">
+      <c r="BQ23" s="32">
         <v>1</v>
       </c>
-      <c r="BB23" s="32">
-        <f>(1630*BA23+AU23*5)*(1630*BA23+AU23*5)*AZ23*1.3035*0.5*0.000066</f>
+      <c r="BR23" s="32">
+        <f>(1630*BQ23+BK23*5)*(1630*BQ23+BK23*5)*BP23*1.3035*0.5*0.000066</f>
         <v>310.57191</v>
       </c>
-      <c r="BC23" s="32">
-        <f>(1630*BA23+AX23*5)*(1630*BA23+AX23*5)*AZ23*4.1949*0.5*0.000066</f>
+      <c r="BS23" s="32">
+        <f>(1630*BQ23+BN23*5)*(1630*BQ23+BN23*5)*BP23*4.1949*0.5*0.000066</f>
         <v>1169.2010597849999</v>
       </c>
-      <c r="BD23" s="32" t="s">
+      <c r="BT23" s="32" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
@@ -5211,149 +6298,194 @@
         <f>D24*E24*F24</f>
         <v>27.103439999999999</v>
       </c>
-      <c r="I24" s="64">
+      <c r="I24" s="74">
+        <f t="shared" si="0"/>
+        <v>2.2985421776719117</v>
+      </c>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="55">
+        <v>3</v>
+      </c>
+      <c r="S24" s="55">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="69">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="Y24" s="55">
         <v>23</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="Z24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="28" t="s">
+      <c r="AA24" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="43" t="s">
+      <c r="AB24" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="M24" s="21">
+      <c r="AC24" s="21">
         <v>1</v>
       </c>
-      <c r="N24" s="47">
-        <f>Z$3+AA$3*M24</f>
+      <c r="AD24" s="47">
+        <f>AP$3+AQ$3*AC24</f>
         <v>3000</v>
       </c>
-      <c r="O24" s="9">
+      <c r="AE24" s="9">
         <v>2</v>
       </c>
-      <c r="P24" s="51">
-        <f>Z$13+AA$13*O24</f>
+      <c r="AF24" s="51">
+        <f>AP$13+AQ$13*AE24</f>
         <v>5600</v>
       </c>
-      <c r="Q24" s="22">
+      <c r="AG24" s="22">
         <v>7</v>
       </c>
-      <c r="R24" s="22">
-        <f t="shared" si="0"/>
+      <c r="AH24" s="22">
+        <f t="shared" si="9"/>
         <v>134</v>
       </c>
-      <c r="S24" s="42" t="s">
+      <c r="AI24" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="T24" s="48">
-        <f>G24*10+N24</f>
+      <c r="AJ24" s="48">
+        <f>G24*10+AD24</f>
         <v>3622.9839999999999</v>
       </c>
-      <c r="U24" s="15" t="s">
+      <c r="AK24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="V24" s="52">
-        <f>H24*10+P24</f>
+      <c r="AL24" s="52">
+        <f>H24*10+AF24</f>
         <v>5871.0344000000005</v>
       </c>
-      <c r="W24" s="22" t="s">
+      <c r="AM24" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="X24" s="67">
-        <f t="shared" si="1"/>
+      <c r="AN24" s="58">
+        <f t="shared" si="10"/>
         <v>157</v>
       </c>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="3">
+      <c r="AO24" s="28"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="3">
         <v>6</v>
       </c>
-      <c r="AC24" s="1">
-        <f t="shared" ref="AC24:AC29" si="9">Z$23+AA$23*AB24</f>
+      <c r="AS24" s="1">
+        <f t="shared" ref="AS24:AS29" si="22">AP$23+AQ$23*AR24</f>
         <v>122</v>
       </c>
-      <c r="AD24" s="1">
-        <f t="shared" ref="AD24:AD29" si="10">AC24+AA$23/6 * (AB24-1)</f>
+      <c r="AT24" s="1">
+        <f t="shared" ref="AT24:AT29" si="23">AS24+AQ$23/6 * (AR24-1)</f>
         <v>132</v>
       </c>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="7" t="s">
+      <c r="AU24" s="28"/>
+      <c r="AV24" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AG24" s="17">
+      <c r="AW24" s="17">
         <v>4327</v>
       </c>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="9" t="s">
+      <c r="AX24" s="10"/>
+      <c r="AY24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AJ24" s="9">
+      <c r="AZ24" s="9">
         <v>3149</v>
       </c>
-      <c r="AK24" s="15" t="s">
+      <c r="BA24" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="AL24" s="30">
-        <f>AG24+AJ24</f>
+      <c r="BB24" s="30">
+        <f>AW24+AZ24</f>
         <v>7476</v>
       </c>
-      <c r="AM24" s="21"/>
-      <c r="AN24" s="21" t="s">
+      <c r="BC24" s="21"/>
+      <c r="BD24" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="AO24" s="21">
+      <c r="BE24" s="21">
         <v>10721</v>
       </c>
-      <c r="AP24" s="19" t="s">
+      <c r="BF24" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AQ24" s="19" t="s">
+      <c r="BG24" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AR24" s="19">
+      <c r="BH24" s="19">
         <v>888</v>
       </c>
-      <c r="AS24" s="4" t="s">
+      <c r="BI24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AT24" s="4" t="s">
+      <c r="BJ24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AU24" s="4">
+      <c r="BK24" s="4">
         <v>60</v>
       </c>
-      <c r="AV24" s="22"/>
-      <c r="AW24" s="22" t="s">
+      <c r="BL24" s="22"/>
+      <c r="BM24" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AX24" s="22">
+      <c r="BN24" s="22">
         <v>120</v>
       </c>
-      <c r="AY24" s="14">
+      <c r="BO24" s="14">
         <v>20</v>
       </c>
-      <c r="AZ24" s="14">
+      <c r="BP24" s="14">
         <v>4</v>
       </c>
-      <c r="BA24" s="32">
+      <c r="BQ24" s="32">
         <v>0.84299999999999997</v>
       </c>
-      <c r="BB24" s="32">
-        <f>(1630*BA24+AU24*5)*(1630*BA24+AU24*5)*AZ24*1.3035*0.5*0.000066</f>
+      <c r="BR24" s="32">
+        <f>(1630*BQ24+BK24*5)*(1630*BQ24+BK24*5)*BP24*1.3035*0.5*0.000066</f>
         <v>482.21706022754222</v>
       </c>
-      <c r="BC24" s="32">
-        <f>(1630*BA24+AX24*5)*(1630*BA24+AX24*5)*AZ24*4.1949*0.5*0.000066</f>
+      <c r="BS24" s="32">
+        <f>(1630*BQ24+BN24*5)*(1630*BQ24+BN24*5)*BP24*4.1949*0.5*0.000066</f>
         <v>2157.8906868085628</v>
       </c>
-      <c r="BD24" s="32" t="s">
+      <c r="BT24" s="32" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>45</v>
       </c>
@@ -5380,153 +6512,198 @@
         <f>D25*E25*F25</f>
         <v>11.845328000000002</v>
       </c>
-      <c r="I25" s="64">
+      <c r="I25" s="74">
+        <f t="shared" si="0"/>
+        <v>3.0795939124691185</v>
+      </c>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="55">
+        <v>2</v>
+      </c>
+      <c r="S25" s="55">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="T25" s="55"/>
+      <c r="U25" s="55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="69">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="Y25" s="55">
+        <v>14</v>
+      </c>
+      <c r="Z25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K25" s="28" t="s">
+      <c r="AA25" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="L25" s="43" t="s">
+      <c r="AB25" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="M25" s="21">
+      <c r="AC25" s="21">
         <v>3</v>
       </c>
-      <c r="N25" s="47">
-        <f>Z$3+AA$3*M25</f>
+      <c r="AD25" s="47">
+        <f>AP$3+AQ$3*AC25</f>
         <v>6600</v>
       </c>
-      <c r="O25" s="9">
+      <c r="AE25" s="9">
         <v>1</v>
       </c>
-      <c r="P25" s="51">
-        <f>Z$13+AA$13*O25</f>
+      <c r="AF25" s="51">
+        <f>AP$13+AQ$13*AE25</f>
         <v>3500</v>
       </c>
-      <c r="Q25" s="22">
+      <c r="AG25" s="22">
         <v>6</v>
       </c>
-      <c r="R25" s="22">
-        <f t="shared" si="0"/>
+      <c r="AH25" s="22">
+        <f t="shared" si="9"/>
         <v>122</v>
       </c>
-      <c r="S25" s="42" t="s">
+      <c r="AI25" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="T25" s="48">
-        <f>G25*10+N25</f>
+      <c r="AJ25" s="48">
+        <f>G25*10+AD25</f>
         <v>6964.7880000000005</v>
       </c>
-      <c r="U25" s="15" t="s">
+      <c r="AK25" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="V25" s="52">
-        <f>H25*10+P25</f>
+      <c r="AL25" s="52">
+        <f>H25*10+AF25</f>
         <v>3618.4532800000002</v>
       </c>
-      <c r="W25" s="22" t="s">
+      <c r="AM25" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="X25" s="67">
-        <f t="shared" si="1"/>
+      <c r="AN25" s="58">
+        <f t="shared" si="10"/>
         <v>136</v>
       </c>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="3">
+      <c r="AO25" s="28"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="3">
         <v>5</v>
       </c>
-      <c r="AC25" s="1">
-        <f t="shared" si="9"/>
+      <c r="AS25" s="1">
+        <f t="shared" si="22"/>
         <v>110</v>
       </c>
-      <c r="AD25" s="1">
-        <f t="shared" si="10"/>
+      <c r="AT25" s="1">
+        <f t="shared" si="23"/>
         <v>118</v>
       </c>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="7" t="s">
+      <c r="AU25" s="28"/>
+      <c r="AV25" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AG25" s="17">
+      <c r="AW25" s="17">
         <v>3971</v>
       </c>
-      <c r="AH25" s="9" t="s">
+      <c r="AX25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AI25" s="9" t="s">
+      <c r="AY25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AJ25" s="9">
+      <c r="AZ25" s="9">
         <v>1379</v>
       </c>
-      <c r="AK25" s="15" t="s">
+      <c r="BA25" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AL25" s="30">
-        <f>AG25+AJ25</f>
+      <c r="BB25" s="30">
+        <f>AW25+AZ25</f>
         <v>5350</v>
       </c>
-      <c r="AM25" s="21" t="s">
+      <c r="BC25" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AN25" s="21" t="s">
+      <c r="BD25" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AO25" s="21">
+      <c r="BE25" s="21">
         <v>23740</v>
       </c>
-      <c r="AP25" s="19"/>
-      <c r="AQ25" s="19" t="s">
+      <c r="BF25" s="19"/>
+      <c r="BG25" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AR25" s="19">
+      <c r="BH25" s="19">
         <v>2773</v>
       </c>
-      <c r="AS25" s="4" t="s">
+      <c r="BI25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AT25" s="4" t="s">
+      <c r="BJ25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AU25" s="4">
+      <c r="BK25" s="4">
         <v>27</v>
       </c>
-      <c r="AV25" s="22" t="s">
+      <c r="BL25" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AW25" s="22" t="s">
+      <c r="BM25" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AX25" s="22">
+      <c r="BN25" s="22">
         <v>127</v>
       </c>
-      <c r="AY25" s="14">
+      <c r="BO25" s="14">
         <v>22</v>
       </c>
-      <c r="AZ25" s="14">
+      <c r="BP25" s="14">
         <v>2</v>
       </c>
-      <c r="BA25" s="32">
+      <c r="BQ25" s="32">
         <v>1</v>
       </c>
-      <c r="BB25" s="32">
-        <f>(1630*BA25+AU25*5)*(1630*BA25+AU25*5)*AZ25*1.3035*0.5*0.000066</f>
+      <c r="BR25" s="32">
+        <f>(1630*BQ25+BK25*5)*(1630*BQ25+BK25*5)*BP25*1.3035*0.5*0.000066</f>
         <v>268.00592197500004</v>
       </c>
-      <c r="BC25" s="32">
-        <f>(1630*BA25+AX25*5)*(1630*BA25+AX25*5)*AZ25*4.1949*0.5*0.000066</f>
+      <c r="BS25" s="32">
+        <f>(1630*BQ25+BN25*5)*(1630*BQ25+BN25*5)*BP25*4.1949*0.5*0.000066</f>
         <v>1420.371536265</v>
       </c>
-      <c r="BD25" s="32" t="s">
+      <c r="BT25" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="29"/>
       <c r="C26" s="23"/>
@@ -5535,314 +6712,346 @@
       <c r="F26" s="23"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="34" t="s">
+      <c r="I26" s="74"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="M26" s="55" t="s">
+      <c r="AC26" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="N26" s="56"/>
-      <c r="O26" s="57" t="s">
+      <c r="AD26" s="63"/>
+      <c r="AE26" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="59" t="s">
+      <c r="AF26" s="65"/>
+      <c r="AG26" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="R26" s="60"/>
-      <c r="S26" s="55" t="s">
+      <c r="AH26" s="67"/>
+      <c r="AI26" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="T26" s="56"/>
-      <c r="U26" s="53" t="s">
+      <c r="AJ26" s="63"/>
+      <c r="AK26" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="V26" s="54"/>
-      <c r="W26" s="59" t="s">
+      <c r="AL26" s="61"/>
+      <c r="AM26" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="X26" s="60"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="3">
+      <c r="AN26" s="67"/>
+      <c r="AO26" s="29"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="3">
         <v>4</v>
       </c>
-      <c r="AC26" s="1">
-        <f t="shared" si="9"/>
+      <c r="AS26" s="1">
+        <f t="shared" si="22"/>
         <v>98</v>
       </c>
-      <c r="AD26" s="1">
-        <f t="shared" si="10"/>
+      <c r="AT26" s="1">
+        <f t="shared" si="23"/>
         <v>104</v>
       </c>
-      <c r="AE26" s="29"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="16"/>
-      <c r="AL26" s="30"/>
-      <c r="AM26" s="21"/>
-      <c r="AN26" s="21"/>
-      <c r="AO26" s="21"/>
-      <c r="AP26" s="20"/>
-      <c r="AQ26" s="20"/>
-      <c r="AR26" s="20"/>
-      <c r="AS26" s="4"/>
-      <c r="AT26" s="4"/>
-      <c r="AU26" s="4"/>
-      <c r="AV26" s="22"/>
-      <c r="AW26" s="22"/>
-      <c r="AX26" s="22"/>
-      <c r="AY26" s="13"/>
-      <c r="AZ26" s="13"/>
-      <c r="BA26" s="33"/>
-      <c r="BB26" s="32"/>
-      <c r="BC26" s="32"/>
-      <c r="BD26" s="33"/>
+      <c r="AU26" s="29"/>
+      <c r="AV26" s="7"/>
+      <c r="AW26" s="17"/>
+      <c r="AX26" s="10"/>
+      <c r="AY26" s="10"/>
+      <c r="AZ26" s="10"/>
+      <c r="BA26" s="16"/>
+      <c r="BB26" s="30"/>
+      <c r="BC26" s="21"/>
+      <c r="BD26" s="21"/>
+      <c r="BE26" s="21"/>
+      <c r="BF26" s="20"/>
+      <c r="BG26" s="20"/>
+      <c r="BH26" s="20"/>
+      <c r="BI26" s="4"/>
+      <c r="BJ26" s="4"/>
+      <c r="BK26" s="4"/>
+      <c r="BL26" s="22"/>
+      <c r="BM26" s="22"/>
+      <c r="BN26" s="22"/>
+      <c r="BO26" s="13"/>
+      <c r="BP26" s="13"/>
+      <c r="BQ26" s="33"/>
+      <c r="BR26" s="32"/>
+      <c r="BS26" s="32"/>
+      <c r="BT26" s="33"/>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="Z27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="3">
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="3">
         <v>3</v>
       </c>
-      <c r="AC27" s="1">
-        <f t="shared" si="9"/>
+      <c r="AS27" s="1">
+        <f t="shared" si="22"/>
         <v>86</v>
       </c>
-      <c r="AD27" s="1">
-        <f t="shared" si="10"/>
+      <c r="AT27" s="1">
+        <f t="shared" si="23"/>
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="Z28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="3">
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="3">
         <v>2</v>
       </c>
-      <c r="AC28" s="1">
-        <f t="shared" si="9"/>
+      <c r="AS28" s="1">
+        <f t="shared" si="22"/>
         <v>74</v>
       </c>
-      <c r="AD28" s="1">
-        <f t="shared" si="10"/>
+      <c r="AT28" s="1">
+        <f t="shared" si="23"/>
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="Z29" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="3">
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="3">
         <v>1</v>
       </c>
-      <c r="AC29" s="1">
-        <f t="shared" si="9"/>
+      <c r="AS29" s="1">
+        <f t="shared" si="22"/>
         <v>62</v>
       </c>
-      <c r="AD29" s="1">
-        <f t="shared" si="10"/>
+      <c r="AT29" s="1">
+        <f t="shared" si="23"/>
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="Z30" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="I31" s="65">
+    <row r="31" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="Y31" s="56">
         <v>3</v>
       </c>
-      <c r="J31" s="1">
+      <c r="Z31" s="1">
         <v>5</v>
       </c>
-      <c r="K31" s="1">
+      <c r="AA31" s="1">
         <v>7</v>
       </c>
-      <c r="L31" s="44">
+      <c r="AB31" s="44">
         <v>9</v>
       </c>
-      <c r="M31" s="2">
+      <c r="AC31" s="2">
         <v>11</v>
       </c>
-      <c r="N31" s="2">
+      <c r="AD31" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="Z32" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="Z33" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="Z34" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="Z35" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="Z38" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="Z39" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="Z40" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="Z41" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="40"/>
       <c r="H55" s="40"/>
-      <c r="I55" s="66"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="57"/>
+      <c r="M55" s="57"/>
+      <c r="N55" s="57"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="57"/>
+      <c r="Q55" s="57"/>
+      <c r="R55" s="57"/>
+      <c r="S55" s="57"/>
+      <c r="T55" s="57"/>
+      <c r="U55" s="57"/>
+      <c r="V55" s="57"/>
+      <c r="W55" s="57"/>
+      <c r="X55" s="57"/>
+      <c r="Y55" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="AM22:AO22"/>
-    <mergeCell ref="AP22:AR22"/>
-    <mergeCell ref="AS22:AU22"/>
-    <mergeCell ref="AV22:AX22"/>
-    <mergeCell ref="AM17:AO17"/>
-    <mergeCell ref="AP17:AR17"/>
-    <mergeCell ref="AS17:AU17"/>
-    <mergeCell ref="AV17:AX17"/>
-    <mergeCell ref="AM12:AO12"/>
-    <mergeCell ref="AP12:AR12"/>
-    <mergeCell ref="AS12:AU12"/>
-    <mergeCell ref="AV12:AX12"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AP5:AR5"/>
-    <mergeCell ref="AS5:AU5"/>
-    <mergeCell ref="AV5:AX5"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
     <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BA17:BB17"/>
+    <mergeCell ref="BA22:BB22"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="AX17:AZ17"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="BC1:BE1"/>
+    <mergeCell ref="BF1:BH1"/>
+    <mergeCell ref="BI1:BK1"/>
+    <mergeCell ref="BL1:BN1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BC12:BE12"/>
+    <mergeCell ref="BF12:BH12"/>
+    <mergeCell ref="BI12:BK12"/>
+    <mergeCell ref="BL12:BN12"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BK5"/>
+    <mergeCell ref="BL5:BN5"/>
+    <mergeCell ref="BC22:BE22"/>
+    <mergeCell ref="BF22:BH22"/>
+    <mergeCell ref="BI22:BK22"/>
+    <mergeCell ref="BL22:BN22"/>
+    <mergeCell ref="BC17:BE17"/>
+    <mergeCell ref="BF17:BH17"/>
+    <mergeCell ref="BI17:BK17"/>
+    <mergeCell ref="BL17:BN17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Heroes of Kocmocraft/Assets/_iLYuSha Wakaka Setting/Wakaka Kocmocraft/Balance Data.xlsx
+++ b/Heroes of Kocmocraft/Assets/_iLYuSha Wakaka Setting/Wakaka Kocmocraft/Balance Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Funny-Skirmish-Online\Heroes of Kocmocraft\Assets\_iLYuSha Wakaka Setting\Wakaka Kocmocraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0235BBC-1A94-43FE-A89F-1E796D020B08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD67FF9-0FDE-4C9D-BACB-F1841C1A153D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="0" yWindow="105" windowWidth="28770" windowHeight="15465" xr2:uid="{31C724A4-68AD-44B9-AAD0-D887B58A3456}"/>
   </bookViews>
@@ -1156,33 +1156,6 @@
     <xf numFmtId="178" fontId="18" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1209,6 +1182,33 @@
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1540,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909D19AF-B56F-48A8-942D-AA4A28475538}">
-  <dimension ref="A1:BV55"/>
+  <dimension ref="A1:BX55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AL9" sqref="AL9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1554,9 +1554,9 @@
     <col min="4" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.75" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.75" style="56" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" style="56" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="39" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="66" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.75" style="56" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5" style="56" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.75" style="56" bestFit="1" customWidth="1"/>
@@ -1571,57 +1571,59 @@
     <col min="23" max="23" width="5" style="56" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.75" style="56" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5" style="56" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.75" style="44" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.75" style="56" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5" style="56" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.75" style="44" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.25" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.625" style="2" customWidth="1"/>
-    <col min="36" max="36" width="8.5" style="49" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.5" style="2" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="4.625" style="2" customWidth="1"/>
     <col min="38" max="38" width="8.5" style="49" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="4.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="3.875" style="1" customWidth="1"/>
-    <col min="42" max="42" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="4.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8" style="18" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="4.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="4.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="4.625" style="2" customWidth="1"/>
-    <col min="54" max="54" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="4.625" style="2" customWidth="1"/>
-    <col min="57" max="57" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="4.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="4.625" style="2" customWidth="1"/>
-    <col min="60" max="60" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="4.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="4.625" style="2" customWidth="1"/>
-    <col min="63" max="63" width="4.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="4.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="4.625" style="2" customWidth="1"/>
-    <col min="66" max="66" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9" style="1" customWidth="1"/>
-    <col min="71" max="71" width="9.75" style="1" customWidth="1"/>
-    <col min="72" max="72" width="5.75" style="1" customWidth="1"/>
-    <col min="73" max="73" width="9" style="1"/>
-    <col min="75" max="16384" width="9" style="1"/>
+    <col min="39" max="39" width="4.625" style="2" customWidth="1"/>
+    <col min="40" max="40" width="8.5" style="49" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="3.875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="4.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8" style="18" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="4.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="4.625" style="2" customWidth="1"/>
+    <col min="56" max="56" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="4.625" style="2" customWidth="1"/>
+    <col min="59" max="59" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="4.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="4.625" style="2" customWidth="1"/>
+    <col min="62" max="62" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="4.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="4.625" style="2" customWidth="1"/>
+    <col min="65" max="65" width="4.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="4.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="4.625" style="2" customWidth="1"/>
+    <col min="68" max="68" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9" style="1" customWidth="1"/>
+    <col min="73" max="73" width="9.75" style="1" customWidth="1"/>
+    <col min="74" max="74" width="5.75" style="1" customWidth="1"/>
+    <col min="75" max="75" width="9" style="1"/>
+    <col min="77" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -1646,147 +1648,149 @@
       <c r="H1" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="L1" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="70">
+      <c r="M1" s="61">
         <v>15</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="N1" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="M1" s="70">
+      <c r="O1" s="61">
         <v>12</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="P1" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="70">
+      <c r="Q1" s="61">
         <v>10</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="R1" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="Q1" s="70">
+      <c r="S1" s="61">
         <v>8</v>
       </c>
-      <c r="R1" s="54" t="s">
+      <c r="T1" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="S1" s="70">
+      <c r="U1" s="61">
         <v>7</v>
       </c>
-      <c r="T1" s="54" t="s">
+      <c r="V1" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="U1" s="70">
+      <c r="W1" s="61">
         <v>6</v>
       </c>
-      <c r="V1" s="54" t="s">
+      <c r="X1" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="W1" s="70">
+      <c r="Y1" s="61">
         <v>5</v>
       </c>
-      <c r="X1" s="54" t="s">
+      <c r="Z1" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="35" t="s">
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="34" t="s">
+      <c r="AC1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="AC1" s="62" t="s">
+      <c r="AE1" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="64" t="s">
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="66" t="s">
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="62" t="s">
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="60" t="s">
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="66" t="s">
+      <c r="AN1" s="75"/>
+      <c r="AO1" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="60" t="s">
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="59" t="s">
+      <c r="AY1" s="75"/>
+      <c r="AZ1" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="60" t="s">
+      <c r="BA1" s="76"/>
+      <c r="BB1" s="76"/>
+      <c r="BC1" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="59" t="s">
+      <c r="BD1" s="75"/>
+      <c r="BE1" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="BD1" s="59"/>
-      <c r="BE1" s="59"/>
-      <c r="BF1" s="59" t="s">
+      <c r="BF1" s="76"/>
+      <c r="BG1" s="76"/>
+      <c r="BH1" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="BG1" s="59"/>
-      <c r="BH1" s="59"/>
-      <c r="BI1" s="59" t="s">
+      <c r="BI1" s="76"/>
+      <c r="BJ1" s="76"/>
+      <c r="BK1" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="BJ1" s="59"/>
-      <c r="BK1" s="59"/>
-      <c r="BL1" s="59" t="s">
+      <c r="BL1" s="76"/>
+      <c r="BM1" s="76"/>
+      <c r="BN1" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="BM1" s="59"/>
-      <c r="BN1" s="59"/>
-      <c r="BO1" s="11" t="s">
+      <c r="BO1" s="76"/>
+      <c r="BP1" s="76"/>
+      <c r="BQ1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="BP1" s="11" t="s">
+      <c r="BR1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="BQ1" s="31" t="s">
+      <c r="BS1" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="BR1" s="31" t="s">
+      <c r="BT1" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="BS1" s="31" t="s">
+      <c r="BU1" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="BT1" s="31"/>
+      <c r="BV1" s="31"/>
     </row>
-    <row r="2" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>10</v>
       </c>
@@ -1813,200 +1817,207 @@
         <f>D2*E2*F2</f>
         <v>622.35880000000009</v>
       </c>
-      <c r="I2" s="74">
+      <c r="I2" s="38">
+        <v>15</v>
+      </c>
+      <c r="J2" s="38">
+        <f>G2*I2+H2</f>
+        <v>7493.1988000000001</v>
+      </c>
+      <c r="K2" s="65">
         <f>G2/H2</f>
         <v>0.73599987659851518</v>
-      </c>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55">
-        <f>J2*K$1</f>
-        <v>0</v>
       </c>
       <c r="L2" s="55"/>
       <c r="M2" s="55">
         <f>L2*M$1</f>
         <v>0</v>
       </c>
-      <c r="N2" s="55">
-        <v>0</v>
-      </c>
+      <c r="N2" s="55"/>
       <c r="O2" s="55">
         <f>N2*O$1</f>
         <v>0</v>
       </c>
-      <c r="P2" s="71">
+      <c r="P2" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="55">
+        <f>P2*Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="62">
         <v>2</v>
       </c>
-      <c r="Q2" s="71">
-        <f>P2*Q$1</f>
+      <c r="S2" s="62">
+        <f>R2*S$1</f>
         <v>16</v>
       </c>
-      <c r="R2" s="55">
+      <c r="T2" s="55">
         <v>2</v>
       </c>
-      <c r="S2" s="55">
-        <f>R2*S$1</f>
-        <v>14</v>
-      </c>
-      <c r="T2" s="55"/>
       <c r="U2" s="55">
         <f>T2*U$1</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V2" s="55"/>
       <c r="W2" s="55">
         <f>V2*W$1</f>
         <v>0</v>
       </c>
-      <c r="X2" s="69">
-        <f>K2+M2+O2+Q2+S2+U2+W2</f>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55">
+        <f>X2*Y$1</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="60">
+        <f>M2+O2+Q2+S2+U2+W2+Y2</f>
         <v>30</v>
       </c>
-      <c r="Y2" s="55">
+      <c r="AA2" s="55">
         <v>20</v>
       </c>
-      <c r="Z2" s="5">
+      <c r="AB2" s="5">
         <v>10</v>
       </c>
-      <c r="AA2" s="24" t="s">
+      <c r="AC2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="43" t="s">
+      <c r="AD2" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="AC2" s="21">
+      <c r="AE2" s="21">
         <v>5</v>
       </c>
-      <c r="AD2" s="47">
-        <f>AP$3+AQ$3*AC2</f>
+      <c r="AF2" s="47">
+        <f>AR$3+AS$3*AE2</f>
         <v>10200</v>
       </c>
-      <c r="AE2" s="9">
+      <c r="AG2" s="9">
         <v>1</v>
       </c>
-      <c r="AF2" s="51">
-        <f>AP$13+AQ$13*AE2</f>
+      <c r="AH2" s="51">
+        <f>AR$13+AS$13*AG2</f>
         <v>3500</v>
       </c>
-      <c r="AG2" s="22">
+      <c r="AI2" s="22">
         <v>4</v>
       </c>
-      <c r="AH2" s="22">
-        <f>AP$23+AQ$23*AG2</f>
+      <c r="AJ2" s="22">
+        <f>AR$23+AS$23*AI2</f>
         <v>98</v>
       </c>
-      <c r="AI2" s="42" t="s">
+      <c r="AK2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AJ2" s="48">
-        <f>G2*10+AD2</f>
+      <c r="AL2" s="48">
+        <f>G2*10+AF2</f>
         <v>14780.560000000001</v>
       </c>
-      <c r="AK2" s="15" t="s">
+      <c r="AM2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AL2" s="52">
-        <f>H2*10+AF2</f>
+      <c r="AN2" s="52">
+        <f>H2*10+AH2</f>
         <v>9723.5879999999997</v>
       </c>
-      <c r="AM2" s="22" t="s">
+      <c r="AO2" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="AN2" s="58">
-        <f>Y2++AH2</f>
+      <c r="AP2" s="58">
+        <f>AA2++AJ2</f>
         <v>118</v>
       </c>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AT2" s="53" t="s">
+      <c r="AV2" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="7" t="s">
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AW2" s="8">
+      <c r="AY2" s="8">
         <v>14287</v>
       </c>
-      <c r="AX2" s="9" t="s">
+      <c r="AZ2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AY2" s="9" t="s">
+      <c r="BA2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AZ2" s="9">
+      <c r="BB2" s="9">
         <v>6772</v>
       </c>
-      <c r="BA2" s="15" t="s">
+      <c r="BC2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="BB2" s="30">
-        <f>AW2+AZ2</f>
+      <c r="BD2" s="30">
+        <f>AY2+BB2</f>
         <v>21059</v>
       </c>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21" t="s">
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="BE2" s="21">
+      <c r="BG2" s="21">
         <v>10773</v>
       </c>
-      <c r="BF2" s="19" t="s">
+      <c r="BH2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="BG2" s="19" t="s">
+      <c r="BI2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="BH2" s="19">
+      <c r="BJ2" s="19">
         <v>1398</v>
       </c>
-      <c r="BI2" s="4"/>
-      <c r="BJ2" s="4" t="s">
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="BK2" s="4">
+      <c r="BM2" s="4">
         <v>47</v>
       </c>
-      <c r="BL2" s="22"/>
-      <c r="BM2" s="22" t="s">
+      <c r="BN2" s="22"/>
+      <c r="BO2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="BN2" s="22">
+      <c r="BP2" s="22">
         <v>100</v>
       </c>
-      <c r="BO2" s="14">
+      <c r="BQ2" s="14">
         <v>20</v>
       </c>
-      <c r="BP2" s="14">
+      <c r="BR2" s="14">
         <v>4</v>
       </c>
-      <c r="BQ2" s="32">
+      <c r="BS2" s="32">
         <v>0.84299999999999997</v>
       </c>
-      <c r="BR2" s="32">
-        <f>(1630*BQ2+BK2*5)*(1630*BQ2+BK2*5)*BP2*1.3035*0.5*0.000066</f>
+      <c r="BT2" s="32">
+        <f>(1630*BS2+BM2*5)*(1630*BS2+BM2*5)*BR2*1.3035*0.5*0.000066</f>
         <v>445.49787661214225</v>
       </c>
-      <c r="BS2" s="32">
-        <f>(1630*BQ2+BN2*5)*(1630*BQ2+BN2*5)*BP2*4.1949*0.5*0.000066</f>
+      <c r="BU2" s="32">
+        <f>(1630*BS2+BP2*5)*(1630*BS2+BP2*5)*BR2*4.1949*0.5*0.000066</f>
         <v>1944.8066470861627</v>
       </c>
-      <c r="BT2" s="32" t="s">
+      <c r="BV2" s="32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>44</v>
       </c>
@@ -2033,14 +2044,16 @@
         <f>D3*E3*F3</f>
         <v>574.31010000000003</v>
       </c>
-      <c r="I3" s="74">
-        <f t="shared" ref="I3:I25" si="0">G3/H3</f>
+      <c r="I3" s="38">
+        <v>15</v>
+      </c>
+      <c r="J3" s="38">
+        <f t="shared" ref="J3:J25" si="0">G3*I3+H3</f>
+        <v>7095.9501</v>
+      </c>
+      <c r="K3" s="65">
+        <f t="shared" ref="K3:K25" si="1">G3/H3</f>
         <v>0.75704049084283909</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55">
-        <f t="shared" ref="K3:K25" si="1">J3*K$1</f>
-        <v>0</v>
       </c>
       <c r="L3" s="55"/>
       <c r="M3" s="55">
@@ -2053,12 +2066,12 @@
         <v>0</v>
       </c>
       <c r="P3" s="55"/>
-      <c r="Q3" s="68">
+      <c r="Q3" s="55">
         <f t="shared" ref="Q3:Q25" si="4">P3*Q$1</f>
         <v>0</v>
       </c>
       <c r="R3" s="55"/>
-      <c r="S3" s="55">
+      <c r="S3" s="59">
         <f t="shared" ref="S3:S25" si="5">R3*S$1</f>
         <v>0</v>
       </c>
@@ -2072,159 +2085,164 @@
         <f t="shared" ref="W3:W25" si="7">V3*W$1</f>
         <v>0</v>
       </c>
-      <c r="X3" s="69">
-        <f t="shared" ref="X3:X25" si="8">K3+M3+O3+Q3+S3+U3+W3</f>
-        <v>0</v>
-      </c>
+      <c r="X3" s="55"/>
       <c r="Y3" s="55">
+        <f t="shared" ref="Y3:Y25" si="8">X3*Y$1</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="60">
+        <f t="shared" ref="Z3:Z25" si="9">M3+O3+Q3+S3+U3+W3+Y3</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="55">
         <v>10</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AB3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AA3" s="24" t="s">
+      <c r="AC3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="43" t="s">
+      <c r="AD3" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="AC3" s="21">
+      <c r="AE3" s="21">
         <v>4</v>
       </c>
-      <c r="AD3" s="47">
-        <f>AP$3+AQ$3*AC3</f>
+      <c r="AF3" s="47">
+        <f>AR$3+AS$3*AE3</f>
         <v>8400</v>
       </c>
-      <c r="AE3" s="9">
+      <c r="AG3" s="9">
         <v>3</v>
       </c>
-      <c r="AF3" s="51">
-        <f>AP$13+AQ$13*AE3</f>
+      <c r="AH3" s="51">
+        <f>AR$13+AS$13*AG3</f>
         <v>7700</v>
       </c>
-      <c r="AG3" s="22">
+      <c r="AI3" s="22">
         <v>3</v>
       </c>
-      <c r="AH3" s="22">
-        <f t="shared" ref="AH3:AH25" si="9">AP$23+AQ$23*AG3</f>
+      <c r="AJ3" s="22">
+        <f t="shared" ref="AJ3:AJ25" si="10">AR$23+AS$23*AI3</f>
         <v>86</v>
       </c>
-      <c r="AI3" s="42" t="s">
+      <c r="AK3" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AJ3" s="48">
-        <f>G3*10+AD3</f>
+      <c r="AL3" s="48">
+        <f>G3*10+AF3</f>
         <v>12747.76</v>
       </c>
-      <c r="AK3" s="15" t="s">
+      <c r="AM3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AL3" s="52">
-        <f>H3*10+AF3</f>
+      <c r="AN3" s="52">
+        <f>H3*10+AH3</f>
         <v>13443.101000000001</v>
       </c>
-      <c r="AM3" s="22" t="s">
+      <c r="AO3" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="AN3" s="58">
-        <f t="shared" ref="AN3:AN25" si="10">Y3++AH3</f>
+      <c r="AP3" s="58">
+        <f t="shared" ref="AP3:AP25" si="11">AA3++AJ3</f>
         <v>96</v>
       </c>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="1">
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="1">
         <v>1200</v>
       </c>
-      <c r="AQ3" s="1">
+      <c r="AS3" s="1">
         <v>1800</v>
       </c>
-      <c r="AR3" s="3">
+      <c r="AT3" s="3">
         <v>7</v>
       </c>
-      <c r="AS3" s="1">
-        <f t="shared" ref="AS3:AS9" si="11">AP$3+AQ$3*AR3</f>
+      <c r="AU3" s="1">
+        <f t="shared" ref="AU3:AU9" si="12">AR$3+AS$3*AT3</f>
         <v>13800</v>
       </c>
-      <c r="AT3" s="1">
-        <f t="shared" ref="AT3:AT8" si="12">AS3+AQ$3/6 * (AR3-1)</f>
+      <c r="AV3" s="1">
+        <f t="shared" ref="AV3:AV8" si="13">AU3+AS$3/6 * (AT3-1)</f>
         <v>15600</v>
       </c>
-      <c r="AU3" s="24"/>
-      <c r="AV3" s="7" t="s">
+      <c r="AW3" s="24"/>
+      <c r="AX3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AW3" s="8">
+      <c r="AY3" s="8">
         <v>13722</v>
       </c>
-      <c r="AX3" s="9"/>
-      <c r="AY3" s="9" t="s">
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AZ3" s="9">
+      <c r="BB3" s="9">
         <v>3927</v>
       </c>
-      <c r="BA3" s="15" t="s">
+      <c r="BC3" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="BB3" s="30">
-        <f>AW3+AZ3</f>
+      <c r="BD3" s="30">
+        <f>AY3+BB3</f>
         <v>17649</v>
       </c>
-      <c r="BC3" s="21"/>
-      <c r="BD3" s="21" t="s">
+      <c r="BE3" s="21"/>
+      <c r="BF3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="BE3" s="21">
+      <c r="BG3" s="21">
         <v>13915</v>
       </c>
-      <c r="BF3" s="19" t="s">
+      <c r="BH3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="BG3" s="19" t="s">
+      <c r="BI3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="BH3" s="19">
+      <c r="BJ3" s="19">
         <v>3392</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BK3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BK3" s="4">
+      <c r="BM3" s="4">
         <v>29</v>
       </c>
-      <c r="BL3" s="22" t="s">
+      <c r="BN3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="BM3" s="22" t="s">
+      <c r="BO3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="BN3" s="22">
+      <c r="BP3" s="22">
         <v>119</v>
       </c>
-      <c r="BO3" s="14">
+      <c r="BQ3" s="14">
         <v>22</v>
       </c>
-      <c r="BP3" s="14">
+      <c r="BR3" s="14">
         <v>2</v>
       </c>
-      <c r="BQ3" s="32">
+      <c r="BS3" s="32">
         <v>1</v>
       </c>
-      <c r="BR3" s="32">
-        <f>(1630*BQ3+BK3*5)*(1630*BQ3+BK3*5)*BP3*1.3035*0.5*0.000066</f>
+      <c r="BT3" s="32">
+        <f>(1630*BS3+BM3*5)*(1630*BS3+BM3*5)*BR3*1.3035*0.5*0.000066</f>
         <v>271.05141937500002</v>
       </c>
-      <c r="BS3" s="32">
-        <f>(1630*BQ3+BN3*5)*(1630*BQ3+BN3*5)*BP3*4.1949*0.5*0.000066</f>
+      <c r="BU3" s="32">
+        <f>(1630*BS3+BP3*5)*(1630*BS3+BP3*5)*BR3*4.1949*0.5*0.000066</f>
         <v>1370.6468696250001</v>
       </c>
-      <c r="BT3" s="32" t="s">
+      <c r="BV3" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>13</v>
       </c>
@@ -2251,21 +2269,23 @@
         <f>D4*E4*F4</f>
         <v>553.7079</v>
       </c>
-      <c r="I4" s="74">
+      <c r="I4" s="38">
+        <v>15</v>
+      </c>
+      <c r="J4" s="38">
         <f t="shared" si="0"/>
+        <v>6805.8009000000002</v>
+      </c>
+      <c r="K4" s="65">
+        <f t="shared" si="1"/>
         <v>0.75275465638109917</v>
       </c>
-      <c r="J4" s="72">
+      <c r="L4" s="63">
         <v>1</v>
       </c>
-      <c r="K4" s="72">
-        <f t="shared" si="1"/>
+      <c r="M4" s="63">
+        <f t="shared" si="2"/>
         <v>15</v>
-      </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
       <c r="N4" s="55"/>
       <c r="O4" s="55">
@@ -2273,172 +2293,177 @@
         <v>0</v>
       </c>
       <c r="P4" s="55"/>
-      <c r="Q4" s="68">
+      <c r="Q4" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R4" s="55">
+      <c r="R4" s="55"/>
+      <c r="S4" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="55">
         <v>4</v>
       </c>
-      <c r="S4" s="55">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="T4" s="55"/>
       <c r="U4" s="55">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="V4" s="55"/>
       <c r="W4" s="55">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X4" s="69">
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="60">
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
-      <c r="Y4" s="55">
+      <c r="AA4" s="55">
         <v>35</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="AB4" s="5">
         <v>13</v>
       </c>
-      <c r="AA4" s="24" t="s">
+      <c r="AC4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="AB4" s="43" t="s">
+      <c r="AD4" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="AC4" s="21">
+      <c r="AE4" s="21">
         <v>3</v>
       </c>
-      <c r="AD4" s="47">
-        <f>AP$3+AQ$3*AC4</f>
+      <c r="AF4" s="47">
+        <f>AR$3+AS$3*AE4</f>
         <v>6600</v>
       </c>
-      <c r="AE4" s="9">
+      <c r="AG4" s="9">
         <v>3</v>
       </c>
-      <c r="AF4" s="51">
-        <f>AP$13+AQ$13*AE4</f>
+      <c r="AH4" s="51">
+        <f>AR$13+AS$13*AG4</f>
         <v>7700</v>
       </c>
-      <c r="AG4" s="22">
+      <c r="AI4" s="22">
         <v>4</v>
       </c>
-      <c r="AH4" s="22">
-        <f t="shared" si="9"/>
+      <c r="AJ4" s="22">
+        <f t="shared" si="10"/>
         <v>98</v>
       </c>
-      <c r="AI4" s="42" t="s">
+      <c r="AK4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AJ4" s="48">
-        <f>G4*10+AD4</f>
+      <c r="AL4" s="48">
+        <f>G4*10+AF4</f>
         <v>10768.062</v>
       </c>
-      <c r="AK4" s="15" t="s">
+      <c r="AM4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AL4" s="52">
-        <f>H4*10+AF4</f>
+      <c r="AN4" s="52">
+        <f>H4*10+AH4</f>
         <v>13237.079</v>
       </c>
-      <c r="AM4" s="22" t="s">
+      <c r="AO4" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="AN4" s="58">
-        <f t="shared" si="10"/>
+      <c r="AP4" s="58">
+        <f t="shared" si="11"/>
         <v>133</v>
       </c>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="3">
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="3">
         <v>6</v>
       </c>
-      <c r="AS4" s="1">
-        <f t="shared" si="11"/>
+      <c r="AU4" s="1">
+        <f t="shared" si="12"/>
         <v>12000</v>
       </c>
-      <c r="AT4" s="1">
-        <f t="shared" si="12"/>
+      <c r="AV4" s="1">
+        <f t="shared" si="13"/>
         <v>13500</v>
       </c>
-      <c r="AU4" s="24"/>
-      <c r="AV4" s="7" t="s">
+      <c r="AW4" s="24"/>
+      <c r="AX4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AW4" s="8">
+      <c r="AY4" s="8">
         <v>16979</v>
       </c>
-      <c r="AX4" s="9"/>
-      <c r="AY4" s="9" t="s">
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AZ4" s="9">
+      <c r="BB4" s="9">
         <v>3701</v>
       </c>
-      <c r="BA4" s="15" t="s">
+      <c r="BC4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="BB4" s="30">
-        <f>AW4+AZ4</f>
+      <c r="BD4" s="30">
+        <f>AY4+BB4</f>
         <v>20680</v>
       </c>
-      <c r="BC4" s="21" t="s">
+      <c r="BE4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="BD4" s="21" t="s">
+      <c r="BF4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="BE4" s="21">
+      <c r="BG4" s="21">
         <v>3999</v>
       </c>
-      <c r="BF4" s="19"/>
-      <c r="BG4" s="19" t="s">
+      <c r="BH4" s="19"/>
+      <c r="BI4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="BH4" s="19">
+      <c r="BJ4" s="19">
         <v>2498</v>
       </c>
-      <c r="BI4" s="4"/>
-      <c r="BJ4" s="4" t="s">
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="BK4" s="4">
+      <c r="BM4" s="4">
         <v>38</v>
       </c>
-      <c r="BL4" s="22"/>
-      <c r="BM4" s="22" t="s">
+      <c r="BN4" s="22"/>
+      <c r="BO4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="BN4" s="22">
+      <c r="BP4" s="22">
         <v>107</v>
       </c>
-      <c r="BO4" s="14">
+      <c r="BQ4" s="14">
         <v>18</v>
       </c>
-      <c r="BP4" s="14">
+      <c r="BR4" s="14">
         <v>6</v>
       </c>
-      <c r="BQ4" s="32">
+      <c r="BS4" s="32">
         <v>0.77900000000000003</v>
       </c>
-      <c r="BR4" s="32">
-        <f>(1630*BQ4+BK4*5)*(1630*BQ4+BK4*5)*BP4*1.3035*0.5*0.000066</f>
+      <c r="BT4" s="32">
+        <f>(1630*BS4+BM4*5)*(1630*BS4+BM4*5)*BR4*1.3035*0.5*0.000066</f>
         <v>549.97771719431978</v>
       </c>
-      <c r="BS4" s="32">
-        <f>(1630*BQ4+BN4*5)*(1630*BQ4+BN4*5)*BP4*4.1949*0.5*0.000066</f>
+      <c r="BU4" s="32">
+        <f>(1630*BS4+BP4*5)*(1630*BS4+BP4*5)*BR4*4.1949*0.5*0.000066</f>
         <v>2705.3940412501611</v>
       </c>
-      <c r="BT4" s="32" t="s">
+      <c r="BV4" s="32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
@@ -2463,140 +2488,147 @@
       <c r="H5" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="38">
+        <v>15</v>
+      </c>
+      <c r="J5" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K5" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="L5" s="54" t="s">
         <v>140</v>
-      </c>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="54"/>
       <c r="N5" s="54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O5" s="54"/>
       <c r="P5" s="54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q5" s="54"/>
       <c r="R5" s="54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S5" s="54"/>
       <c r="T5" s="54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U5" s="54"/>
       <c r="V5" s="54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W5" s="54"/>
       <c r="X5" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="35" t="s">
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="AA5" s="12" t="s">
+      <c r="AC5" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AB5" s="34" t="s">
+      <c r="AD5" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="AC5" s="62" t="s">
+      <c r="AE5" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="AD5" s="63"/>
-      <c r="AE5" s="64" t="s">
+      <c r="AF5" s="71"/>
+      <c r="AG5" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="AF5" s="65"/>
-      <c r="AG5" s="66" t="s">
+      <c r="AH5" s="73"/>
+      <c r="AI5" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="62" t="s">
+      <c r="AJ5" s="69"/>
+      <c r="AK5" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="AJ5" s="63"/>
-      <c r="AK5" s="60" t="s">
+      <c r="AL5" s="71"/>
+      <c r="AM5" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="AL5" s="61"/>
-      <c r="AM5" s="66" t="s">
+      <c r="AN5" s="75"/>
+      <c r="AO5" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="3">
+      <c r="AP5" s="69"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="3">
         <v>5</v>
       </c>
-      <c r="AS5" s="1">
-        <f t="shared" si="11"/>
+      <c r="AU5" s="1">
+        <f t="shared" si="12"/>
         <v>10200</v>
       </c>
-      <c r="AT5" s="1">
-        <f t="shared" si="12"/>
+      <c r="AV5" s="1">
+        <f t="shared" si="13"/>
         <v>11400</v>
       </c>
-      <c r="AU5" s="36"/>
-      <c r="AV5" s="60" t="s">
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="AW5" s="61"/>
-      <c r="AX5" s="59" t="s">
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="AY5" s="59"/>
-      <c r="AZ5" s="59"/>
-      <c r="BA5" s="60" t="s">
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="76"/>
+      <c r="BC5" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="BB5" s="61"/>
-      <c r="BC5" s="59" t="s">
+      <c r="BD5" s="75"/>
+      <c r="BE5" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="BD5" s="59"/>
-      <c r="BE5" s="59"/>
-      <c r="BF5" s="59" t="s">
+      <c r="BF5" s="76"/>
+      <c r="BG5" s="76"/>
+      <c r="BH5" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="BG5" s="59"/>
-      <c r="BH5" s="59"/>
-      <c r="BI5" s="59" t="s">
+      <c r="BI5" s="76"/>
+      <c r="BJ5" s="76"/>
+      <c r="BK5" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="BJ5" s="59"/>
-      <c r="BK5" s="59"/>
-      <c r="BL5" s="59" t="s">
+      <c r="BL5" s="76"/>
+      <c r="BM5" s="76"/>
+      <c r="BN5" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="BM5" s="59"/>
-      <c r="BN5" s="59"/>
-      <c r="BO5" s="11" t="s">
+      <c r="BO5" s="76"/>
+      <c r="BP5" s="76"/>
+      <c r="BQ5" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="BP5" s="11" t="s">
+      <c r="BR5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="BQ5" s="31" t="s">
+      <c r="BS5" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="BR5" s="31" t="s">
+      <c r="BT5" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="BS5" s="31" t="s">
+      <c r="BU5" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="BT5" s="31"/>
+      <c r="BV5" s="31"/>
     </row>
-    <row r="6" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -2616,21 +2648,23 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="G6" s="38">
-        <f t="shared" ref="G6:G11" si="13">2*(D6*E6+E6*F6+F6*D6)</f>
+        <f t="shared" ref="G6:G11" si="14">2*(D6*E6+E6*F6+F6*D6)</f>
         <v>383.96400000000006</v>
       </c>
       <c r="H6" s="38">
-        <f t="shared" ref="H6:H11" si="14">D6*E6*F6</f>
+        <f t="shared" ref="H6:H11" si="15">D6*E6*F6</f>
         <v>468.18990000000008</v>
       </c>
-      <c r="I6" s="74">
+      <c r="I6" s="38">
+        <v>15</v>
+      </c>
+      <c r="J6" s="38">
         <f t="shared" si="0"/>
+        <v>6227.6499000000013</v>
+      </c>
+      <c r="K6" s="65">
+        <f t="shared" si="1"/>
         <v>0.82010312482178704</v>
-      </c>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="L6" s="55"/>
       <c r="M6" s="55">
@@ -2643,12 +2677,12 @@
         <v>0</v>
       </c>
       <c r="P6" s="55"/>
-      <c r="Q6" s="68">
+      <c r="Q6" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R6" s="55"/>
-      <c r="S6" s="55">
+      <c r="S6" s="59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2662,153 +2696,158 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X6" s="69">
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="5" t="s">
+      <c r="Z6" s="60">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="55">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AA6" s="45" t="s">
+      <c r="AC6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="43" t="s">
+      <c r="AD6" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="AC6" s="21">
+      <c r="AE6" s="21">
         <v>5</v>
       </c>
-      <c r="AD6" s="47">
-        <f t="shared" ref="AD6:AD11" si="15">AP$3+AQ$3*AC6</f>
+      <c r="AF6" s="47">
+        <f t="shared" ref="AF6:AF11" si="16">AR$3+AS$3*AE6</f>
         <v>10200</v>
       </c>
-      <c r="AE6" s="9">
+      <c r="AG6" s="9">
         <v>4</v>
       </c>
-      <c r="AF6" s="51">
-        <f t="shared" ref="AF6:AF11" si="16">AP$13+AQ$13*AE6</f>
+      <c r="AH6" s="51">
+        <f t="shared" ref="AH6:AH11" si="17">AR$13+AS$13*AG6</f>
         <v>9800</v>
       </c>
-      <c r="AG6" s="22">
+      <c r="AI6" s="22">
         <v>1</v>
       </c>
-      <c r="AH6" s="22">
-        <f t="shared" si="9"/>
-        <v>62</v>
-      </c>
-      <c r="AI6" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ6" s="48">
-        <f>G6*10+AD6</f>
-        <v>14039.64</v>
-      </c>
-      <c r="AK6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL6" s="52">
-        <f>H6*10+AF6</f>
-        <v>14481.899000000001</v>
-      </c>
-      <c r="AM6" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN6" s="58">
+      <c r="AJ6" s="22">
         <f t="shared" si="10"/>
         <v>62</v>
       </c>
-      <c r="AO6" s="24"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="3">
+      <c r="AK6" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL6" s="48">
+        <f t="shared" ref="AL6:AL11" si="18">G6*10+AF6</f>
+        <v>14039.64</v>
+      </c>
+      <c r="AM6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN6" s="52">
+        <f t="shared" ref="AN6:AN11" si="19">H6*10+AH6</f>
+        <v>14481.899000000001</v>
+      </c>
+      <c r="AO6" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP6" s="58">
+        <f t="shared" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="AQ6" s="24"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="3">
         <v>4</v>
       </c>
-      <c r="AS6" s="1">
-        <f t="shared" si="11"/>
+      <c r="AU6" s="1">
+        <f t="shared" si="12"/>
         <v>8400</v>
       </c>
-      <c r="AT6" s="1">
-        <f t="shared" si="12"/>
+      <c r="AV6" s="1">
+        <f t="shared" si="13"/>
         <v>9300</v>
       </c>
-      <c r="AU6" s="46">
+      <c r="AW6" s="46">
         <v>13700</v>
       </c>
-      <c r="AV6" s="7" t="s">
+      <c r="AX6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AW6" s="8">
+      <c r="AY6" s="8">
         <v>14724</v>
       </c>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="9" t="s">
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AZ6" s="9">
+      <c r="BB6" s="9">
         <v>4715</v>
       </c>
-      <c r="BA6" s="15" t="s">
+      <c r="BC6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="BB6" s="30">
-        <f t="shared" ref="BB6:BB11" si="17">AW6+AZ6</f>
+      <c r="BD6" s="30">
+        <f t="shared" ref="BD6:BD11" si="20">AY6+BB6</f>
         <v>19439</v>
       </c>
-      <c r="BC6" s="21"/>
-      <c r="BD6" s="21" t="s">
+      <c r="BE6" s="21"/>
+      <c r="BF6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="BE6" s="21">
+      <c r="BG6" s="21">
         <v>17801</v>
       </c>
-      <c r="BF6" s="19"/>
-      <c r="BG6" s="19" t="s">
+      <c r="BH6" s="19"/>
+      <c r="BI6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BH6" s="19">
+      <c r="BJ6" s="19">
         <v>2311</v>
       </c>
-      <c r="BI6" s="4"/>
-      <c r="BJ6" s="4" t="s">
+      <c r="BK6" s="4"/>
+      <c r="BL6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="BK6" s="4">
+      <c r="BM6" s="4">
         <v>37</v>
       </c>
-      <c r="BL6" s="22" t="s">
+      <c r="BN6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="BM6" s="22" t="s">
+      <c r="BO6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="BN6" s="22">
+      <c r="BP6" s="22">
         <v>87</v>
       </c>
-      <c r="BO6" s="14">
+      <c r="BQ6" s="14">
         <v>18</v>
       </c>
-      <c r="BP6" s="14">
+      <c r="BR6" s="14">
         <v>6</v>
       </c>
-      <c r="BQ6" s="32">
+      <c r="BS6" s="32">
         <v>0.77900000000000003</v>
       </c>
-      <c r="BR6" s="32">
-        <f t="shared" ref="BR6:BR11" si="18">(1630*BQ6+BK6*5)*(1630*BQ6+BK6*5)*BP6*1.3035*0.5*0.000066</f>
+      <c r="BT6" s="32">
+        <f t="shared" ref="BT6:BT11" si="21">(1630*BS6+BM6*5)*(1630*BS6+BM6*5)*BR6*1.3035*0.5*0.000066</f>
         <v>546.21660533321972</v>
       </c>
-      <c r="BS6" s="32">
-        <f t="shared" ref="BS6:BS11" si="19">(1630*BQ6+BN6*5)*(1630*BQ6+BN6*5)*BP6*4.1949*0.5*0.000066</f>
+      <c r="BU6" s="32">
+        <f t="shared" ref="BU6:BU11" si="22">(1630*BS6+BP6*5)*(1630*BS6+BP6*5)*BR6*4.1949*0.5*0.000066</f>
         <v>2413.8950881993615</v>
       </c>
-      <c r="BT6" s="32" t="s">
+      <c r="BV6" s="32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>16</v>
       </c>
@@ -2828,21 +2867,23 @@
         <v>7.27</v>
       </c>
       <c r="G7" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>376.69240000000002</v>
       </c>
       <c r="H7" s="38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>488.74756000000002</v>
       </c>
-      <c r="I7" s="74">
+      <c r="I7" s="38">
+        <v>15</v>
+      </c>
+      <c r="J7" s="38">
         <f t="shared" si="0"/>
+        <v>6139.1335600000002</v>
+      </c>
+      <c r="K7" s="65">
+        <f t="shared" si="1"/>
         <v>0.7707299858438168</v>
-      </c>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="L7" s="55"/>
       <c r="M7" s="55">
@@ -2855,12 +2896,12 @@
         <v>0</v>
       </c>
       <c r="P7" s="55"/>
-      <c r="Q7" s="68">
+      <c r="Q7" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R7" s="55"/>
-      <c r="S7" s="55">
+      <c r="S7" s="59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2869,160 +2910,165 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V7" s="72">
+      <c r="V7" s="55"/>
+      <c r="W7" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="63">
         <v>1</v>
       </c>
-      <c r="W7" s="72">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="X7" s="69">
+      <c r="Y7" s="63">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="Y7" s="55">
+      <c r="Z7" s="60">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AA7" s="55">
         <v>15</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="AB7" s="5">
         <v>16</v>
       </c>
-      <c r="AA7" s="45" t="s">
+      <c r="AC7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="AB7" s="43" t="s">
+      <c r="AD7" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="AC7" s="21">
+      <c r="AE7" s="21">
         <v>2</v>
       </c>
-      <c r="AD7" s="47">
-        <f t="shared" si="15"/>
+      <c r="AF7" s="47">
+        <f t="shared" si="16"/>
         <v>4800</v>
       </c>
-      <c r="AE7" s="9">
+      <c r="AG7" s="9">
         <v>7</v>
       </c>
-      <c r="AF7" s="51">
-        <f t="shared" si="16"/>
+      <c r="AH7" s="51">
+        <f t="shared" si="17"/>
         <v>16100</v>
       </c>
-      <c r="AG7" s="22">
+      <c r="AI7" s="22">
         <v>1</v>
       </c>
-      <c r="AH7" s="22">
-        <f t="shared" si="9"/>
+      <c r="AJ7" s="22">
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
-      <c r="AI7" s="42" t="s">
+      <c r="AK7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AJ7" s="48">
-        <f>G7*10+AD7</f>
+      <c r="AL7" s="48">
+        <f t="shared" si="18"/>
         <v>8566.9239999999991</v>
       </c>
-      <c r="AK7" s="15" t="s">
+      <c r="AM7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AL7" s="52">
-        <f>H7*10+AF7</f>
+      <c r="AN7" s="52">
+        <f t="shared" si="19"/>
         <v>20987.475599999998</v>
       </c>
-      <c r="AM7" s="22" t="s">
+      <c r="AO7" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="AN7" s="58">
-        <f t="shared" si="10"/>
+      <c r="AP7" s="58">
+        <f t="shared" si="11"/>
         <v>77</v>
       </c>
-      <c r="AO7" s="24"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="3">
+      <c r="AQ7" s="24"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="3">
         <v>3</v>
       </c>
-      <c r="AS7" s="1">
-        <f t="shared" si="11"/>
+      <c r="AU7" s="1">
+        <f t="shared" si="12"/>
         <v>6600</v>
       </c>
-      <c r="AT7" s="1">
-        <f t="shared" si="12"/>
+      <c r="AV7" s="1">
+        <f t="shared" si="13"/>
         <v>7200</v>
       </c>
-      <c r="AU7" s="46">
+      <c r="AW7" s="46">
         <v>11900</v>
       </c>
-      <c r="AV7" s="7" t="s">
+      <c r="AX7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AW7" s="8">
+      <c r="AY7" s="8">
         <v>16321</v>
       </c>
-      <c r="AX7" s="9"/>
-      <c r="AY7" s="9" t="s">
+      <c r="AZ7" s="9"/>
+      <c r="BA7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AZ7" s="9">
+      <c r="BB7" s="9">
         <v>5974</v>
       </c>
-      <c r="BA7" s="15" t="s">
+      <c r="BC7" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="BB7" s="30">
-        <f t="shared" si="17"/>
+      <c r="BD7" s="30">
+        <f t="shared" si="20"/>
         <v>22295</v>
       </c>
-      <c r="BC7" s="21" t="s">
+      <c r="BE7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="BD7" s="21" t="s">
+      <c r="BF7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="BE7" s="21">
+      <c r="BG7" s="21">
         <v>19242</v>
       </c>
-      <c r="BF7" s="19"/>
-      <c r="BG7" s="19" t="s">
+      <c r="BH7" s="19"/>
+      <c r="BI7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="BH7" s="19">
+      <c r="BJ7" s="19">
         <v>1639</v>
       </c>
-      <c r="BI7" s="4"/>
-      <c r="BJ7" s="4" t="s">
+      <c r="BK7" s="4"/>
+      <c r="BL7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="BK7" s="4">
+      <c r="BM7" s="4">
         <v>36</v>
       </c>
-      <c r="BL7" s="22"/>
-      <c r="BM7" s="22" t="s">
+      <c r="BN7" s="22"/>
+      <c r="BO7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="BN7" s="22">
+      <c r="BP7" s="22">
         <v>91</v>
       </c>
-      <c r="BO7" s="14">
+      <c r="BQ7" s="14">
         <v>20</v>
       </c>
-      <c r="BP7" s="14">
+      <c r="BR7" s="14">
         <v>4</v>
       </c>
-      <c r="BQ7" s="32">
+      <c r="BS7" s="32">
         <v>0.84299999999999997</v>
       </c>
-      <c r="BR7" s="32">
-        <f t="shared" si="18"/>
+      <c r="BT7" s="32">
+        <f t="shared" si="21"/>
         <v>415.56340736834221</v>
       </c>
-      <c r="BS7" s="32">
-        <f t="shared" si="19"/>
+      <c r="BU7" s="32">
+        <f t="shared" si="22"/>
         <v>1852.5318965810827</v>
       </c>
-      <c r="BT7" s="32" t="s">
+      <c r="BV7" s="32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>14</v>
       </c>
@@ -3042,21 +3088,23 @@
         <v>5.46</v>
       </c>
       <c r="G8" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>347.13040000000001</v>
       </c>
       <c r="H8" s="38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>420.89501999999999</v>
       </c>
-      <c r="I8" s="74">
+      <c r="I8" s="38">
+        <v>15</v>
+      </c>
+      <c r="J8" s="38">
         <f t="shared" si="0"/>
+        <v>5627.8510200000001</v>
+      </c>
+      <c r="K8" s="65">
+        <f t="shared" si="1"/>
         <v>0.8247434241441014</v>
-      </c>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="L8" s="55"/>
       <c r="M8" s="55">
@@ -3069,178 +3117,183 @@
         <v>0</v>
       </c>
       <c r="P8" s="55"/>
-      <c r="Q8" s="68">
+      <c r="Q8" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R8" s="55"/>
-      <c r="S8" s="55">
+      <c r="S8" s="59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T8" s="55">
-        <v>2</v>
-      </c>
+      <c r="T8" s="55"/>
       <c r="U8" s="55">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="55">
+        <v>2</v>
+      </c>
+      <c r="W8" s="55">
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="V8" s="72">
+      <c r="X8" s="63">
         <v>2</v>
       </c>
-      <c r="W8" s="72">
-        <f t="shared" si="7"/>
+      <c r="Y8" s="63">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="X8" s="69">
-        <f t="shared" si="8"/>
+      <c r="Z8" s="60">
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="Y8" s="55">
+      <c r="AA8" s="55">
         <v>28</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="AB8" s="5">
         <v>14</v>
       </c>
-      <c r="AA8" s="25" t="s">
+      <c r="AC8" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AB8" s="43" t="s">
+      <c r="AD8" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="AC8" s="21">
+      <c r="AE8" s="21">
         <v>6</v>
       </c>
-      <c r="AD8" s="47">
-        <f t="shared" si="15"/>
+      <c r="AF8" s="47">
+        <f t="shared" si="16"/>
         <v>12000</v>
       </c>
-      <c r="AE8" s="9">
+      <c r="AG8" s="9">
         <v>1</v>
       </c>
-      <c r="AF8" s="51">
-        <f t="shared" si="16"/>
+      <c r="AH8" s="51">
+        <f t="shared" si="17"/>
         <v>3500</v>
       </c>
-      <c r="AG8" s="22">
+      <c r="AI8" s="22">
         <v>3</v>
       </c>
-      <c r="AH8" s="22">
-        <f t="shared" si="9"/>
+      <c r="AJ8" s="22">
+        <f t="shared" si="10"/>
         <v>86</v>
       </c>
-      <c r="AI8" s="42" t="s">
+      <c r="AK8" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AJ8" s="48">
-        <f>G8*10+AD8</f>
+      <c r="AL8" s="48">
+        <f t="shared" si="18"/>
         <v>15471.304</v>
       </c>
-      <c r="AK8" s="15" t="s">
+      <c r="AM8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AL8" s="52">
-        <f>H8*10+AF8</f>
+      <c r="AN8" s="52">
+        <f t="shared" si="19"/>
         <v>7708.9502000000002</v>
       </c>
-      <c r="AM8" s="22" t="s">
+      <c r="AO8" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AN8" s="58">
-        <f t="shared" si="10"/>
+      <c r="AP8" s="58">
+        <f t="shared" si="11"/>
         <v>114</v>
       </c>
-      <c r="AO8" s="25"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="3">
+      <c r="AQ8" s="25"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="3">
         <v>2</v>
       </c>
-      <c r="AS8" s="1">
-        <f t="shared" si="11"/>
+      <c r="AU8" s="1">
+        <f t="shared" si="12"/>
         <v>4800</v>
       </c>
-      <c r="AT8" s="1">
-        <f t="shared" si="12"/>
+      <c r="AV8" s="1">
+        <f t="shared" si="13"/>
         <v>5100</v>
       </c>
-      <c r="AU8" s="46">
+      <c r="AW8" s="46">
         <v>10100</v>
       </c>
-      <c r="AV8" s="7" t="s">
+      <c r="AX8" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AW8" s="17">
+      <c r="AY8" s="17">
         <v>10755</v>
       </c>
-      <c r="AX8" s="10"/>
-      <c r="AY8" s="9" t="s">
+      <c r="AZ8" s="10"/>
+      <c r="BA8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AZ8" s="9">
+      <c r="BB8" s="9">
         <v>4720</v>
       </c>
-      <c r="BA8" s="15" t="s">
+      <c r="BC8" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="BB8" s="30">
-        <f t="shared" si="17"/>
+      <c r="BD8" s="30">
+        <f t="shared" si="20"/>
         <v>15475</v>
       </c>
-      <c r="BC8" s="21" t="s">
+      <c r="BE8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="BD8" s="21" t="s">
+      <c r="BF8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="BE8" s="21">
+      <c r="BG8" s="21">
         <v>20884</v>
       </c>
-      <c r="BF8" s="19" t="s">
+      <c r="BH8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="BG8" s="19" t="s">
+      <c r="BI8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="BH8" s="19">
+      <c r="BJ8" s="19">
         <v>1407</v>
       </c>
-      <c r="BI8" s="4"/>
-      <c r="BJ8" s="4" t="s">
+      <c r="BK8" s="4"/>
+      <c r="BL8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="BK8" s="4">
+      <c r="BM8" s="4">
         <v>44</v>
       </c>
-      <c r="BL8" s="22"/>
-      <c r="BM8" s="22" t="s">
+      <c r="BN8" s="22"/>
+      <c r="BO8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="BN8" s="22">
+      <c r="BP8" s="22">
         <v>113</v>
       </c>
-      <c r="BO8" s="14">
+      <c r="BQ8" s="14">
         <v>22</v>
       </c>
-      <c r="BP8" s="14">
+      <c r="BR8" s="14">
         <v>2</v>
       </c>
-      <c r="BQ8" s="32">
+      <c r="BS8" s="32">
         <v>1</v>
       </c>
-      <c r="BR8" s="32">
-        <f t="shared" si="18"/>
+      <c r="BT8" s="32">
+        <f t="shared" si="21"/>
         <v>294.44109750000001</v>
       </c>
-      <c r="BS8" s="32">
-        <f t="shared" si="19"/>
+      <c r="BU8" s="32">
+        <f t="shared" si="22"/>
         <v>1333.9347827849999</v>
       </c>
-      <c r="BT8" s="32" t="s">
+      <c r="BV8" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>108</v>
       </c>
@@ -3260,21 +3313,23 @@
         <v>5.03</v>
       </c>
       <c r="G9" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>343.71160000000003</v>
       </c>
       <c r="H9" s="38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>402.44024000000007</v>
       </c>
-      <c r="I9" s="74">
+      <c r="I9" s="38">
+        <v>15</v>
+      </c>
+      <c r="J9" s="38">
         <f t="shared" si="0"/>
+        <v>5558.1142400000008</v>
+      </c>
+      <c r="K9" s="65">
+        <f t="shared" si="1"/>
         <v>0.85406866867985165</v>
-      </c>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="L9" s="55"/>
       <c r="M9" s="55">
@@ -3287,12 +3342,12 @@
         <v>0</v>
       </c>
       <c r="P9" s="55"/>
-      <c r="Q9" s="68">
+      <c r="Q9" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R9" s="55"/>
-      <c r="S9" s="55">
+      <c r="S9" s="59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3306,151 +3361,156 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X9" s="69">
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="55">
+      <c r="Z9" s="60">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="55">
         <v>23</v>
       </c>
-      <c r="Z9" s="5" t="s">
+      <c r="AB9" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AA9" s="25" t="s">
+      <c r="AC9" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="AB9" s="43" t="s">
+      <c r="AD9" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="AC9" s="21">
+      <c r="AE9" s="21">
         <v>3</v>
       </c>
-      <c r="AD9" s="47">
-        <f t="shared" si="15"/>
+      <c r="AF9" s="47">
+        <f t="shared" si="16"/>
         <v>6600</v>
       </c>
-      <c r="AE9" s="9">
+      <c r="AG9" s="9">
         <v>4</v>
       </c>
-      <c r="AF9" s="51">
-        <f t="shared" si="16"/>
+      <c r="AH9" s="51">
+        <f t="shared" si="17"/>
         <v>9800</v>
       </c>
-      <c r="AG9" s="22">
+      <c r="AI9" s="22">
         <v>3</v>
       </c>
-      <c r="AH9" s="22">
-        <f t="shared" si="9"/>
+      <c r="AJ9" s="22">
+        <f t="shared" si="10"/>
         <v>86</v>
       </c>
-      <c r="AI9" s="42" t="s">
+      <c r="AK9" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AJ9" s="48">
-        <f>G9*10+AD9</f>
+      <c r="AL9" s="48">
+        <f t="shared" si="18"/>
         <v>10037.116</v>
       </c>
-      <c r="AK9" s="15" t="s">
+      <c r="AM9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AL9" s="52">
-        <f>H9*10+AF9</f>
+      <c r="AN9" s="52">
+        <f t="shared" si="19"/>
         <v>13824.402400000001</v>
       </c>
-      <c r="AM9" s="22" t="s">
+      <c r="AO9" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AN9" s="58">
-        <f t="shared" si="10"/>
+      <c r="AP9" s="58">
+        <f t="shared" si="11"/>
         <v>109</v>
       </c>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="3">
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="3">
         <v>1</v>
       </c>
-      <c r="AS9" s="1">
-        <f t="shared" si="11"/>
+      <c r="AU9" s="1">
+        <f t="shared" si="12"/>
         <v>3000</v>
       </c>
-      <c r="AT9" s="1">
-        <f>AS9+AQ$3/6 * (AR9-1)</f>
+      <c r="AV9" s="1">
+        <f>AU9+AS$3/6 * (AT9-1)</f>
         <v>3000</v>
       </c>
-      <c r="AU9" s="46">
+      <c r="AW9" s="46">
         <v>8300</v>
       </c>
-      <c r="AV9" s="7" t="s">
+      <c r="AX9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AW9" s="17">
+      <c r="AY9" s="17">
         <v>12997</v>
       </c>
-      <c r="AX9" s="9"/>
-      <c r="AY9" s="9" t="s">
+      <c r="AZ9" s="9"/>
+      <c r="BA9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AZ9" s="9">
+      <c r="BB9" s="9">
         <v>2792</v>
       </c>
-      <c r="BA9" s="15" t="s">
+      <c r="BC9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="BB9" s="30">
-        <f t="shared" si="17"/>
+      <c r="BD9" s="30">
+        <f t="shared" si="20"/>
         <v>15789</v>
       </c>
-      <c r="BC9" s="21"/>
-      <c r="BD9" s="21" t="s">
+      <c r="BE9" s="21"/>
+      <c r="BF9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="BE9" s="21">
+      <c r="BG9" s="21">
         <v>24000</v>
       </c>
-      <c r="BF9" s="19"/>
-      <c r="BG9" s="19" t="s">
+      <c r="BH9" s="19"/>
+      <c r="BI9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="BH9" s="19">
+      <c r="BJ9" s="19">
         <v>1774</v>
       </c>
-      <c r="BI9" s="4"/>
-      <c r="BJ9" s="4" t="s">
+      <c r="BK9" s="4"/>
+      <c r="BL9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BK9" s="4">
+      <c r="BM9" s="4">
         <v>30</v>
       </c>
-      <c r="BL9" s="22"/>
-      <c r="BM9" s="22" t="s">
+      <c r="BN9" s="22"/>
+      <c r="BO9" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="BN9" s="22">
+      <c r="BP9" s="22">
         <v>105</v>
       </c>
-      <c r="BO9" s="14">
+      <c r="BQ9" s="14">
         <v>18</v>
       </c>
-      <c r="BP9" s="14">
+      <c r="BR9" s="14">
         <v>6</v>
       </c>
-      <c r="BQ9" s="32">
+      <c r="BS9" s="32">
         <v>0.77900000000000003</v>
       </c>
-      <c r="BR9" s="32">
-        <f t="shared" si="18"/>
+      <c r="BT9" s="32">
+        <f t="shared" si="21"/>
         <v>520.25015250551974</v>
       </c>
-      <c r="BS9" s="32">
-        <f t="shared" si="19"/>
+      <c r="BU9" s="32">
+        <f t="shared" si="22"/>
         <v>2675.4966147650812</v>
       </c>
-      <c r="BT9" s="32" t="s">
+      <c r="BV9" s="32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
@@ -3470,21 +3530,23 @@
         <v>3.63</v>
       </c>
       <c r="G10" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>320.19540000000001</v>
       </c>
       <c r="H10" s="38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>328.02640200000002</v>
       </c>
-      <c r="I10" s="74">
+      <c r="I10" s="38">
+        <v>15</v>
+      </c>
+      <c r="J10" s="38">
         <f t="shared" si="0"/>
+        <v>5130.9574020000009</v>
+      </c>
+      <c r="K10" s="65">
+        <f t="shared" si="1"/>
         <v>0.97612691554017039</v>
-      </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="L10" s="55"/>
       <c r="M10" s="55">
@@ -3497,12 +3559,12 @@
         <v>0</v>
       </c>
       <c r="P10" s="55"/>
-      <c r="Q10" s="68">
+      <c r="Q10" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R10" s="55"/>
-      <c r="S10" s="55">
+      <c r="S10" s="59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3516,147 +3578,152 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X10" s="69">
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="55">
+      <c r="Z10" s="60">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="55">
         <v>7</v>
       </c>
-      <c r="Z10" s="5" t="s">
+      <c r="AB10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AA10" s="25" t="s">
+      <c r="AC10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AB10" s="43" t="s">
+      <c r="AD10" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="AC10" s="21">
+      <c r="AE10" s="21">
         <v>2</v>
       </c>
-      <c r="AD10" s="47">
-        <f t="shared" si="15"/>
+      <c r="AF10" s="47">
+        <f t="shared" si="16"/>
         <v>4800</v>
       </c>
-      <c r="AE10" s="9">
+      <c r="AG10" s="9">
         <v>3</v>
       </c>
-      <c r="AF10" s="51">
-        <f t="shared" si="16"/>
+      <c r="AH10" s="51">
+        <f t="shared" si="17"/>
         <v>7700</v>
       </c>
-      <c r="AG10" s="22">
+      <c r="AI10" s="22">
         <v>5</v>
       </c>
-      <c r="AH10" s="22">
-        <f t="shared" si="9"/>
+      <c r="AJ10" s="22">
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
-      <c r="AI10" s="42" t="s">
+      <c r="AK10" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AJ10" s="48">
-        <f>G10*10+AD10</f>
+      <c r="AL10" s="48">
+        <f t="shared" si="18"/>
         <v>8001.9539999999997</v>
       </c>
-      <c r="AK10" s="15" t="s">
+      <c r="AM10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AL10" s="52">
-        <f>H10*10+AF10</f>
+      <c r="AN10" s="52">
+        <f t="shared" si="19"/>
         <v>10980.264020000001</v>
       </c>
-      <c r="AM10" s="22" t="s">
+      <c r="AO10" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AN10" s="58">
-        <f t="shared" si="10"/>
+      <c r="AP10" s="58">
+        <f t="shared" si="11"/>
         <v>117</v>
       </c>
-      <c r="AO10" s="26"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
+      <c r="AQ10" s="26"/>
       <c r="AS10" s="1"/>
-      <c r="AU10" s="46">
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AW10" s="46">
         <v>6500</v>
       </c>
-      <c r="AV10" s="7" t="s">
+      <c r="AX10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AW10" s="17">
+      <c r="AY10" s="17">
         <v>9327</v>
       </c>
-      <c r="AX10" s="10"/>
-      <c r="AY10" s="9" t="s">
+      <c r="AZ10" s="10"/>
+      <c r="BA10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AZ10" s="9">
+      <c r="BB10" s="9">
         <v>3329</v>
       </c>
-      <c r="BA10" s="15" t="s">
+      <c r="BC10" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="BB10" s="30">
-        <f t="shared" si="17"/>
+      <c r="BD10" s="30">
+        <f t="shared" si="20"/>
         <v>12656</v>
       </c>
-      <c r="BC10" s="21" t="s">
+      <c r="BE10" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="BD10" s="21" t="s">
+      <c r="BF10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="BE10" s="21">
+      <c r="BG10" s="21">
         <v>20741</v>
       </c>
-      <c r="BF10" s="19"/>
-      <c r="BG10" s="19" t="s">
+      <c r="BH10" s="19"/>
+      <c r="BI10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="BH10" s="19">
+      <c r="BJ10" s="19">
         <v>1597</v>
       </c>
-      <c r="BI10" s="4" t="s">
+      <c r="BK10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="BJ10" s="4" t="s">
+      <c r="BL10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BK10" s="4">
+      <c r="BM10" s="4">
         <v>59</v>
       </c>
-      <c r="BL10" s="22" t="s">
+      <c r="BN10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="BM10" s="22" t="s">
+      <c r="BO10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="BN10" s="22">
+      <c r="BP10" s="22">
         <v>75</v>
       </c>
-      <c r="BO10" s="14">
+      <c r="BQ10" s="14">
         <v>20</v>
       </c>
-      <c r="BP10" s="14">
+      <c r="BR10" s="14">
         <v>4</v>
       </c>
-      <c r="BQ10" s="32">
+      <c r="BS10" s="32">
         <v>0.84299999999999997</v>
       </c>
-      <c r="BR10" s="32">
-        <f t="shared" si="18"/>
+      <c r="BT10" s="32">
+        <f t="shared" si="21"/>
         <v>479.34088904174223</v>
       </c>
-      <c r="BS10" s="32">
-        <f t="shared" si="19"/>
+      <c r="BU10" s="32">
+        <f t="shared" si="22"/>
         <v>1694.0251636831629</v>
       </c>
-      <c r="BT10" s="32" t="s">
+      <c r="BV10" s="32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>17</v>
       </c>
@@ -3676,21 +3743,23 @@
         <v>6.12</v>
       </c>
       <c r="G11" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>310.48320000000001</v>
       </c>
       <c r="H11" s="38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>366.16449599999999</v>
       </c>
-      <c r="I11" s="74">
+      <c r="I11" s="38">
+        <v>15</v>
+      </c>
+      <c r="J11" s="38">
         <f t="shared" si="0"/>
+        <v>5023.4124960000008</v>
+      </c>
+      <c r="K11" s="65">
+        <f t="shared" si="1"/>
         <v>0.84793365657166286</v>
-      </c>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="L11" s="55"/>
       <c r="M11" s="55">
@@ -3703,12 +3772,12 @@
         <v>0</v>
       </c>
       <c r="P11" s="55"/>
-      <c r="Q11" s="68">
+      <c r="Q11" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R11" s="55"/>
-      <c r="S11" s="55">
+      <c r="S11" s="59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3722,148 +3791,153 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X11" s="69">
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="55">
+      <c r="Z11" s="60">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="55">
         <v>15</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="AB11" s="5">
         <v>17</v>
       </c>
-      <c r="AA11" s="25" t="s">
+      <c r="AC11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AB11" s="43" t="s">
+      <c r="AD11" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="AC11" s="21">
+      <c r="AE11" s="21">
         <v>2</v>
       </c>
-      <c r="AD11" s="47">
-        <f t="shared" si="15"/>
+      <c r="AF11" s="47">
+        <f t="shared" si="16"/>
         <v>4800</v>
       </c>
-      <c r="AE11" s="9">
+      <c r="AG11" s="9">
         <v>6</v>
       </c>
-      <c r="AF11" s="51">
-        <f t="shared" si="16"/>
+      <c r="AH11" s="51">
+        <f t="shared" si="17"/>
         <v>14000</v>
       </c>
-      <c r="AG11" s="22">
+      <c r="AI11" s="22">
         <v>2</v>
       </c>
-      <c r="AH11" s="22">
-        <f t="shared" si="9"/>
+      <c r="AJ11" s="22">
+        <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="AI11" s="42" t="s">
+      <c r="AK11" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AJ11" s="48">
-        <f>G11*10+AD11</f>
+      <c r="AL11" s="48">
+        <f t="shared" si="18"/>
         <v>7904.8320000000003</v>
       </c>
-      <c r="AK11" s="15" t="s">
+      <c r="AM11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AL11" s="52">
-        <f>H11*10+AF11</f>
+      <c r="AN11" s="52">
+        <f t="shared" si="19"/>
         <v>17661.644959999998</v>
       </c>
-      <c r="AM11" s="22" t="s">
+      <c r="AO11" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="AN11" s="58">
-        <f t="shared" si="10"/>
+      <c r="AP11" s="58">
+        <f t="shared" si="11"/>
         <v>89</v>
       </c>
-      <c r="AO11" s="25"/>
-      <c r="AP11" s="2" t="s">
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
-      <c r="AU11" s="46">
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AW11" s="46">
         <v>4700</v>
       </c>
-      <c r="AV11" s="7" t="s">
+      <c r="AX11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AW11" s="17">
+      <c r="AY11" s="17">
         <v>11386</v>
       </c>
-      <c r="AX11" s="9" t="s">
+      <c r="AZ11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AY11" s="9" t="s">
+      <c r="BA11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AZ11" s="9">
+      <c r="BB11" s="9">
         <v>6922</v>
       </c>
-      <c r="BA11" s="15" t="s">
+      <c r="BC11" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="BB11" s="30">
-        <f t="shared" si="17"/>
+      <c r="BD11" s="30">
+        <f t="shared" si="20"/>
         <v>18308</v>
       </c>
-      <c r="BC11" s="21"/>
-      <c r="BD11" s="21" t="s">
+      <c r="BE11" s="21"/>
+      <c r="BF11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="BE11" s="21">
+      <c r="BG11" s="21">
         <v>13749</v>
       </c>
-      <c r="BF11" s="19"/>
-      <c r="BG11" s="19" t="s">
+      <c r="BH11" s="19"/>
+      <c r="BI11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="BH11" s="19">
+      <c r="BJ11" s="19">
         <v>1553</v>
       </c>
-      <c r="BI11" s="4" t="s">
+      <c r="BK11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="BJ11" s="4" t="s">
+      <c r="BL11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="BK11" s="4">
+      <c r="BM11" s="4">
         <v>22</v>
       </c>
-      <c r="BL11" s="22"/>
-      <c r="BM11" s="22" t="s">
+      <c r="BN11" s="22"/>
+      <c r="BO11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="BN11" s="22">
+      <c r="BP11" s="22">
         <v>99</v>
       </c>
-      <c r="BO11" s="14">
+      <c r="BQ11" s="14">
         <v>18</v>
       </c>
-      <c r="BP11" s="14">
+      <c r="BR11" s="14">
         <v>6</v>
       </c>
-      <c r="BQ11" s="32">
+      <c r="BS11" s="32">
         <v>0.77900000000000003</v>
       </c>
-      <c r="BR11" s="32">
-        <f t="shared" si="18"/>
+      <c r="BT11" s="32">
+        <f t="shared" si="21"/>
         <v>491.34848541671977</v>
       </c>
-      <c r="BS11" s="32">
-        <f t="shared" si="19"/>
+      <c r="BU11" s="32">
+        <f t="shared" si="22"/>
         <v>2586.8010435498418</v>
       </c>
-      <c r="BT11" s="32" t="s">
+      <c r="BV11" s="32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>33</v>
       </c>
@@ -3888,141 +3962,148 @@
       <c r="H12" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="73" t="s">
+      <c r="I12" s="38">
+        <v>15</v>
+      </c>
+      <c r="J12" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K12" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="J12" s="54" t="s">
+      <c r="L12" s="54" t="s">
         <v>140</v>
-      </c>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54" t="s">
-        <v>141</v>
       </c>
       <c r="M12" s="54"/>
       <c r="N12" s="54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O12" s="54"/>
       <c r="P12" s="54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q12" s="54"/>
       <c r="R12" s="54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S12" s="54"/>
       <c r="T12" s="54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U12" s="54"/>
       <c r="V12" s="54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W12" s="54"/>
       <c r="X12" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y12" s="54"/>
+      <c r="Z12" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="35" t="s">
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="AA12" s="12" t="s">
+      <c r="AC12" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AB12" s="34" t="s">
+      <c r="AD12" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="AC12" s="62" t="s">
+      <c r="AE12" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="AD12" s="63"/>
-      <c r="AE12" s="64" t="s">
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="AF12" s="65"/>
-      <c r="AG12" s="66" t="s">
+      <c r="AH12" s="73"/>
+      <c r="AI12" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="AH12" s="67"/>
-      <c r="AI12" s="62" t="s">
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="AJ12" s="63"/>
-      <c r="AK12" s="60" t="s">
+      <c r="AL12" s="71"/>
+      <c r="AM12" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="AL12" s="61"/>
-      <c r="AM12" s="66" t="s">
+      <c r="AN12" s="75"/>
+      <c r="AO12" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="AN12" s="67"/>
-      <c r="AO12" s="36"/>
-      <c r="AP12" s="2" t="s">
+      <c r="AP12" s="69"/>
+      <c r="AQ12" s="36"/>
+      <c r="AR12" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AQ12" s="2" t="s">
+      <c r="AS12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AR12" s="2" t="s">
+      <c r="AT12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AS12" s="1" t="s">
+      <c r="AU12" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AU12" s="46">
+      <c r="AW12" s="46">
         <v>2900</v>
       </c>
-      <c r="AV12" s="60" t="s">
+      <c r="AX12" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="AW12" s="61"/>
-      <c r="AX12" s="59" t="s">
+      <c r="AY12" s="75"/>
+      <c r="AZ12" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="AY12" s="59"/>
-      <c r="AZ12" s="59"/>
-      <c r="BA12" s="60" t="s">
+      <c r="BA12" s="76"/>
+      <c r="BB12" s="76"/>
+      <c r="BC12" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="BB12" s="61"/>
-      <c r="BC12" s="59" t="s">
+      <c r="BD12" s="75"/>
+      <c r="BE12" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="BD12" s="59"/>
-      <c r="BE12" s="59"/>
-      <c r="BF12" s="59" t="s">
+      <c r="BF12" s="76"/>
+      <c r="BG12" s="76"/>
+      <c r="BH12" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="BG12" s="59"/>
-      <c r="BH12" s="59"/>
-      <c r="BI12" s="59" t="s">
+      <c r="BI12" s="76"/>
+      <c r="BJ12" s="76"/>
+      <c r="BK12" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="BJ12" s="59"/>
-      <c r="BK12" s="59"/>
-      <c r="BL12" s="59" t="s">
+      <c r="BL12" s="76"/>
+      <c r="BM12" s="76"/>
+      <c r="BN12" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="BM12" s="59"/>
-      <c r="BN12" s="59"/>
-      <c r="BO12" s="11" t="s">
+      <c r="BO12" s="76"/>
+      <c r="BP12" s="76"/>
+      <c r="BQ12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="BP12" s="11" t="s">
+      <c r="BR12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="BQ12" s="31" t="s">
+      <c r="BS12" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="BR12" s="31" t="s">
+      <c r="BT12" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="BS12" s="31" t="s">
+      <c r="BU12" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="BT12" s="31"/>
+      <c r="BV12" s="31"/>
     </row>
-    <row r="13" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -4049,14 +4130,16 @@
         <f>D13*E13*F13</f>
         <v>324.55079999999998</v>
       </c>
-      <c r="I13" s="74">
+      <c r="I13" s="38">
+        <v>15</v>
+      </c>
+      <c r="J13" s="38">
         <f t="shared" si="0"/>
+        <v>4812.7608</v>
+      </c>
+      <c r="K13" s="65">
+        <f t="shared" si="1"/>
         <v>0.92193271438554458</v>
-      </c>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="L13" s="55"/>
       <c r="M13" s="55">
@@ -4069,182 +4152,187 @@
         <v>0</v>
       </c>
       <c r="P13" s="55"/>
-      <c r="Q13" s="68">
+      <c r="Q13" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R13" s="55">
+      <c r="R13" s="55"/>
+      <c r="S13" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="55">
         <v>4</v>
       </c>
-      <c r="S13" s="55">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="T13" s="55"/>
       <c r="U13" s="55">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="V13" s="55"/>
       <c r="W13" s="55">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X13" s="69">
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="60">
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="Y13" s="55">
+      <c r="AA13" s="55">
         <v>28</v>
       </c>
-      <c r="Z13" s="5">
+      <c r="AB13" s="5">
         <v>12</v>
       </c>
-      <c r="AA13" s="26" t="s">
+      <c r="AC13" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="AB13" s="43" t="s">
+      <c r="AD13" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="AC13" s="21">
+      <c r="AE13" s="21">
         <v>3</v>
       </c>
-      <c r="AD13" s="47">
-        <f>AP$3+AQ$3*AC13</f>
+      <c r="AF13" s="47">
+        <f>AR$3+AS$3*AE13</f>
         <v>6600</v>
       </c>
-      <c r="AE13" s="9">
+      <c r="AG13" s="9">
         <v>2</v>
       </c>
-      <c r="AF13" s="51">
-        <f>AP$13+AQ$13*AE13</f>
+      <c r="AH13" s="51">
+        <f>AR$13+AS$13*AG13</f>
         <v>5600</v>
       </c>
-      <c r="AG13" s="22">
+      <c r="AI13" s="22">
         <v>5</v>
       </c>
-      <c r="AH13" s="22">
-        <f t="shared" si="9"/>
+      <c r="AJ13" s="22">
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
-      <c r="AI13" s="42" t="s">
+      <c r="AK13" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="AJ13" s="48">
-        <f>G13*10+AD13</f>
+      <c r="AL13" s="48">
+        <f>G13*10+AF13</f>
         <v>9592.14</v>
       </c>
-      <c r="AK13" s="15" t="s">
+      <c r="AM13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AL13" s="52">
-        <f>H13*10+AF13</f>
+      <c r="AN13" s="52">
+        <f>H13*10+AH13</f>
         <v>8845.5079999999998</v>
       </c>
-      <c r="AM13" s="22" t="s">
+      <c r="AO13" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="AN13" s="58">
-        <f t="shared" si="10"/>
+      <c r="AP13" s="58">
+        <f t="shared" si="11"/>
         <v>138</v>
       </c>
-      <c r="AO13" s="25"/>
-      <c r="AP13" s="1">
+      <c r="AQ13" s="25"/>
+      <c r="AR13" s="1">
         <v>1400</v>
       </c>
-      <c r="AQ13" s="1">
+      <c r="AS13" s="1">
         <v>2100</v>
       </c>
-      <c r="AR13" s="3">
+      <c r="AT13" s="3">
         <v>7</v>
       </c>
-      <c r="AS13" s="1">
-        <f t="shared" ref="AS13:AS19" si="20">AP$13+AQ$13*AR13</f>
+      <c r="AU13" s="1">
+        <f t="shared" ref="AU13:AU19" si="23">AR$13+AS$13*AT13</f>
         <v>16100</v>
       </c>
-      <c r="AT13" s="1">
-        <f t="shared" ref="AT13:AT18" si="21">AS13+AQ$13/6 * (AR13-1)</f>
+      <c r="AV13" s="1">
+        <f t="shared" ref="AV13:AV18" si="24">AU13+AS$13/6 * (AT13-1)</f>
         <v>18200</v>
       </c>
-      <c r="AU13" s="50">
+      <c r="AW13" s="50">
         <v>20550</v>
       </c>
-      <c r="AV13" s="7" t="s">
+      <c r="AX13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AW13" s="17">
+      <c r="AY13" s="17">
         <v>12760</v>
       </c>
-      <c r="AX13" s="10"/>
-      <c r="AY13" s="9" t="s">
+      <c r="AZ13" s="10"/>
+      <c r="BA13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AZ13" s="9">
+      <c r="BB13" s="9">
         <v>3566</v>
       </c>
-      <c r="BA13" s="15" t="s">
+      <c r="BC13" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="BB13" s="30">
-        <f>AW13+AZ13</f>
+      <c r="BD13" s="30">
+        <f>AY13+BB13</f>
         <v>16326</v>
       </c>
-      <c r="BC13" s="21" t="s">
+      <c r="BE13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="BD13" s="21" t="s">
+      <c r="BF13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BE13" s="21">
+      <c r="BG13" s="21">
         <v>8409</v>
       </c>
-      <c r="BF13" s="19" t="s">
+      <c r="BH13" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="BG13" s="19" t="s">
+      <c r="BI13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="BH13" s="19">
+      <c r="BJ13" s="19">
         <v>3131</v>
       </c>
-      <c r="BI13" s="4"/>
-      <c r="BJ13" s="4" t="s">
+      <c r="BK13" s="4"/>
+      <c r="BL13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="BK13" s="4">
+      <c r="BM13" s="4">
         <v>48</v>
       </c>
-      <c r="BL13" s="22" t="s">
+      <c r="BN13" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="BM13" s="22" t="s">
+      <c r="BO13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="BN13" s="22">
+      <c r="BP13" s="22">
         <v>117</v>
       </c>
-      <c r="BO13" s="14">
+      <c r="BQ13" s="14">
         <v>22</v>
       </c>
-      <c r="BP13" s="14">
+      <c r="BR13" s="14">
         <v>2</v>
       </c>
-      <c r="BQ13" s="32">
+      <c r="BS13" s="32">
         <v>1</v>
       </c>
-      <c r="BR13" s="32">
-        <f>(1630*BQ13+BK13*5)*(1630*BQ13+BK13*5)*BP13*1.3035*0.5*0.000066</f>
+      <c r="BT13" s="32">
+        <f>(1630*BS13+BM13*5)*(1630*BS13+BM13*5)*BR13*1.3035*0.5*0.000066</f>
         <v>300.84180390000006</v>
       </c>
-      <c r="BS13" s="32">
-        <f>(1630*BQ13+BN13*5)*(1630*BQ13+BN13*5)*BP13*4.1949*0.5*0.000066</f>
+      <c r="BU13" s="32">
+        <f>(1630*BS13+BP13*5)*(1630*BS13+BP13*5)*BR13*4.1949*0.5*0.000066</f>
         <v>1358.3541346649999</v>
       </c>
-      <c r="BT13" s="32" t="s">
+      <c r="BV13" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>15</v>
       </c>
@@ -4271,200 +4359,207 @@
         <f>D14*E14*F14</f>
         <v>292.40657999999996</v>
       </c>
-      <c r="I14" s="74">
-        <f t="shared" si="0"/>
+      <c r="I14" s="38">
+        <v>15</v>
+      </c>
+      <c r="J14" s="38">
+        <f>G14*I14+H14</f>
+        <v>4336.5385799999995</v>
+      </c>
+      <c r="K14" s="65">
+        <f t="shared" si="1"/>
         <v>0.92203397064457304</v>
       </c>
-      <c r="J14" s="55">
-        <v>0</v>
-      </c>
-      <c r="K14" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="55"/>
+      <c r="L14" s="55">
+        <v>0</v>
+      </c>
       <c r="M14" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="55">
-        <v>1</v>
-      </c>
+      <c r="N14" s="55"/>
       <c r="O14" s="55">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="55">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="55">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="68">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="55">
+      <c r="R14" s="55"/>
+      <c r="S14" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="55">
         <v>5</v>
       </c>
-      <c r="S14" s="55">
-        <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-      <c r="T14" s="55"/>
       <c r="U14" s="55">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="V14" s="55"/>
       <c r="W14" s="55">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X14" s="69">
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="60">
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
-      <c r="Y14" s="55">
+      <c r="AA14" s="55">
         <v>19</v>
       </c>
-      <c r="Z14" s="5">
+      <c r="AB14" s="5">
         <v>15</v>
       </c>
-      <c r="AA14" s="26" t="s">
+      <c r="AC14" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="AB14" s="43" t="s">
+      <c r="AD14" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="AC14" s="21">
+      <c r="AE14" s="21">
         <v>7</v>
       </c>
-      <c r="AD14" s="47">
-        <f>AP$3+AQ$3*AC14</f>
+      <c r="AF14" s="47">
+        <f>AR$3+AS$3*AE14</f>
         <v>13800</v>
       </c>
-      <c r="AE14" s="9">
+      <c r="AG14" s="9">
         <v>2</v>
       </c>
-      <c r="AF14" s="51">
-        <f>AP$13+AQ$13*AE14</f>
+      <c r="AH14" s="51">
+        <f>AR$13+AS$13*AG14</f>
         <v>5600</v>
       </c>
-      <c r="AG14" s="22">
+      <c r="AI14" s="22">
         <v>1</v>
       </c>
-      <c r="AH14" s="22">
-        <f t="shared" si="9"/>
+      <c r="AJ14" s="22">
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
-      <c r="AI14" s="42" t="s">
+      <c r="AK14" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AJ14" s="48">
-        <f>G14*10+AD14</f>
+      <c r="AL14" s="48">
+        <f>G14*10+AF14</f>
         <v>16496.088</v>
       </c>
-      <c r="AK14" s="15" t="s">
+      <c r="AM14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AL14" s="52">
-        <f>H14*10+AF14</f>
+      <c r="AN14" s="52">
+        <f>H14*10+AH14</f>
         <v>8524.0658000000003</v>
       </c>
-      <c r="AM14" s="22" t="s">
+      <c r="AO14" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="AN14" s="58">
-        <f t="shared" si="10"/>
+      <c r="AP14" s="58">
+        <f t="shared" si="11"/>
         <v>81</v>
       </c>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
-      <c r="AR14" s="3">
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="3">
         <v>6</v>
       </c>
-      <c r="AS14" s="1">
-        <f t="shared" si="20"/>
+      <c r="AU14" s="1">
+        <f t="shared" si="23"/>
         <v>14000</v>
       </c>
-      <c r="AT14" s="1">
-        <f t="shared" si="21"/>
+      <c r="AV14" s="1">
+        <f t="shared" si="24"/>
         <v>15750</v>
       </c>
-      <c r="AU14" s="50">
+      <c r="AW14" s="50">
         <v>17850</v>
       </c>
-      <c r="AV14" s="7" t="s">
+      <c r="AX14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AW14" s="17">
+      <c r="AY14" s="17">
         <v>10329</v>
       </c>
-      <c r="AX14" s="9"/>
-      <c r="AY14" s="9" t="s">
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AZ14" s="9">
+      <c r="BB14" s="9">
         <v>5522</v>
       </c>
-      <c r="BA14" s="15" t="s">
+      <c r="BC14" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="BB14" s="30">
-        <f>AW14+AZ14</f>
+      <c r="BD14" s="30">
+        <f>AY14+BB14</f>
         <v>15851</v>
       </c>
-      <c r="BC14" s="21" t="s">
+      <c r="BE14" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="BD14" s="21" t="s">
+      <c r="BF14" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="BE14" s="21">
+      <c r="BG14" s="21">
         <v>22058</v>
       </c>
-      <c r="BF14" s="19"/>
-      <c r="BG14" s="19" t="s">
+      <c r="BH14" s="19"/>
+      <c r="BI14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BH14" s="19">
+      <c r="BJ14" s="19">
         <v>2299</v>
       </c>
-      <c r="BI14" s="4"/>
-      <c r="BJ14" s="4" t="s">
+      <c r="BK14" s="4"/>
+      <c r="BL14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="BK14" s="4">
+      <c r="BM14" s="4">
         <v>37</v>
       </c>
-      <c r="BL14" s="22" t="s">
+      <c r="BN14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="BM14" s="22" t="s">
+      <c r="BO14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="BN14" s="22">
+      <c r="BP14" s="22">
         <v>77</v>
       </c>
-      <c r="BO14" s="14">
+      <c r="BQ14" s="14">
         <v>20</v>
       </c>
-      <c r="BP14" s="14">
+      <c r="BR14" s="14">
         <v>4</v>
       </c>
-      <c r="BQ14" s="32">
+      <c r="BS14" s="32">
         <v>0.84299999999999997</v>
       </c>
-      <c r="BR14" s="32">
-        <f>(1630*BQ14+BK14*5)*(1630*BQ14+BK14*5)*BP14*1.3035*0.5*0.000066</f>
+      <c r="BT14" s="32">
+        <f>(1630*BS14+BM14*5)*(1630*BS14+BM14*5)*BR14*1.3035*0.5*0.000066</f>
         <v>418.24170725414223</v>
       </c>
-      <c r="BS14" s="32">
-        <f>(1630*BQ14+BN14*5)*(1630*BQ14+BN14*5)*BP14*4.1949*0.5*0.000066</f>
+      <c r="BU14" s="32">
+        <f>(1630*BS14+BP14*5)*(1630*BS14+BP14*5)*BR14*4.1949*0.5*0.000066</f>
         <v>1713.450896535403</v>
       </c>
-      <c r="BT14" s="32" t="s">
+      <c r="BV14" s="32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -4491,14 +4586,16 @@
         <f>D15*E15*F15</f>
         <v>233.67680000000001</v>
       </c>
-      <c r="I15" s="74">
+      <c r="I15" s="38">
+        <v>15</v>
+      </c>
+      <c r="J15" s="38">
         <f t="shared" si="0"/>
+        <v>4042.7648000000004</v>
+      </c>
+      <c r="K15" s="65">
+        <f t="shared" si="1"/>
         <v>1.086711218229623</v>
-      </c>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="L15" s="55"/>
       <c r="M15" s="55">
@@ -4511,12 +4608,12 @@
         <v>0</v>
       </c>
       <c r="P15" s="55"/>
-      <c r="Q15" s="68">
+      <c r="Q15" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R15" s="55"/>
-      <c r="S15" s="55">
+      <c r="S15" s="59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4530,157 +4627,162 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X15" s="69">
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="55">
+      <c r="Z15" s="60">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="55">
         <v>9</v>
       </c>
-      <c r="Z15" s="5" t="s">
+      <c r="AB15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AA15" s="26" t="s">
+      <c r="AC15" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AB15" s="43" t="s">
+      <c r="AD15" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="AC15" s="21">
+      <c r="AE15" s="21">
         <v>1</v>
       </c>
-      <c r="AD15" s="47">
-        <f>AP$3+AQ$3*AC15</f>
+      <c r="AF15" s="47">
+        <f>AR$3+AS$3*AE15</f>
         <v>3000</v>
       </c>
-      <c r="AE15" s="9">
+      <c r="AG15" s="9">
         <v>7</v>
       </c>
-      <c r="AF15" s="51">
-        <f>AP$13+AQ$13*AE15</f>
+      <c r="AH15" s="51">
+        <f>AR$13+AS$13*AG15</f>
         <v>16100</v>
       </c>
-      <c r="AG15" s="22">
+      <c r="AI15" s="22">
         <v>2</v>
       </c>
-      <c r="AH15" s="22">
-        <f t="shared" si="9"/>
+      <c r="AJ15" s="22">
+        <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="AI15" s="42" t="s">
+      <c r="AK15" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AJ15" s="48">
-        <f>G15*10+AD15</f>
+      <c r="AL15" s="48">
+        <f>G15*10+AF15</f>
         <v>5539.3919999999998</v>
       </c>
-      <c r="AK15" s="15" t="s">
+      <c r="AM15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AL15" s="52">
-        <f>H15*10+AF15</f>
+      <c r="AN15" s="52">
+        <f>H15*10+AH15</f>
         <v>18436.768</v>
       </c>
-      <c r="AM15" s="22" t="s">
+      <c r="AO15" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="AN15" s="58">
-        <f t="shared" si="10"/>
+      <c r="AP15" s="58">
+        <f t="shared" si="11"/>
         <v>83</v>
       </c>
-      <c r="AO15" s="26"/>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="1"/>
-      <c r="AR15" s="3">
+      <c r="AQ15" s="26"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="3">
         <v>5</v>
       </c>
-      <c r="AS15" s="1">
-        <f t="shared" si="20"/>
+      <c r="AU15" s="1">
+        <f t="shared" si="23"/>
         <v>11900</v>
       </c>
-      <c r="AT15" s="1">
-        <f t="shared" si="21"/>
+      <c r="AV15" s="1">
+        <f t="shared" si="24"/>
         <v>13300</v>
       </c>
-      <c r="AU15" s="50">
+      <c r="AW15" s="50">
         <v>15150</v>
       </c>
-      <c r="AV15" s="7" t="s">
+      <c r="AX15" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AW15" s="17">
+      <c r="AY15" s="17">
         <v>8325</v>
       </c>
-      <c r="AX15" s="9" t="s">
+      <c r="AZ15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AY15" s="9" t="s">
+      <c r="BA15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AZ15" s="9">
+      <c r="BB15" s="9">
         <v>7724</v>
       </c>
-      <c r="BA15" s="15" t="s">
+      <c r="BC15" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="BB15" s="30">
-        <f>AW15+AZ15</f>
+      <c r="BD15" s="30">
+        <f>AY15+BB15</f>
         <v>16049</v>
       </c>
-      <c r="BC15" s="21"/>
-      <c r="BD15" s="21" t="s">
+      <c r="BE15" s="21"/>
+      <c r="BF15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="BE15" s="21">
+      <c r="BG15" s="21">
         <v>11754</v>
       </c>
-      <c r="BF15" s="19" t="s">
+      <c r="BH15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="BG15" s="19" t="s">
+      <c r="BI15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="BH15" s="19">
+      <c r="BJ15" s="19">
         <v>1192</v>
       </c>
-      <c r="BI15" s="4" t="s">
+      <c r="BK15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="BJ15" s="4" t="s">
+      <c r="BL15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="BK15" s="4">
+      <c r="BM15" s="4">
         <v>53</v>
       </c>
-      <c r="BL15" s="22"/>
-      <c r="BM15" s="22" t="s">
+      <c r="BN15" s="22"/>
+      <c r="BO15" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="BN15" s="22">
+      <c r="BP15" s="22">
         <v>97</v>
       </c>
-      <c r="BO15" s="14">
+      <c r="BQ15" s="14">
         <v>22</v>
       </c>
-      <c r="BP15" s="14">
+      <c r="BR15" s="14">
         <v>2</v>
       </c>
-      <c r="BQ15" s="32">
+      <c r="BS15" s="32">
         <v>1</v>
       </c>
-      <c r="BR15" s="32">
-        <f>(1630*BQ15+BK15*5)*(1630*BQ15+BK15*5)*BP15*1.3035*0.5*0.000066</f>
+      <c r="BT15" s="32">
+        <f>(1630*BS15+BM15*5)*(1630*BS15+BM15*5)*BR15*1.3035*0.5*0.000066</f>
         <v>308.93947177500007</v>
       </c>
-      <c r="BS15" s="32">
-        <f>(1630*BQ15+BN15*5)*(1630*BQ15+BN15*5)*BP15*4.1949*0.5*0.000066</f>
+      <c r="BU15" s="32">
+        <f>(1630*BS15+BP15*5)*(1630*BS15+BP15*5)*BR15*4.1949*0.5*0.000066</f>
         <v>1238.472282465</v>
       </c>
-      <c r="BT15" s="32" t="s">
+      <c r="BV15" s="32" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -4707,21 +4809,23 @@
         <f>D16*E16*F16</f>
         <v>260.05239999999998</v>
       </c>
-      <c r="I16" s="74">
+      <c r="I16" s="38">
+        <v>15</v>
+      </c>
+      <c r="J16" s="38">
         <f t="shared" si="0"/>
+        <v>4045.0624000000003</v>
+      </c>
+      <c r="K16" s="65">
+        <f t="shared" si="1"/>
         <v>0.97031982785007953</v>
       </c>
-      <c r="J16" s="72">
+      <c r="L16" s="63">
         <v>2</v>
       </c>
-      <c r="K16" s="72">
-        <f t="shared" si="1"/>
+      <c r="M16" s="63">
+        <f t="shared" si="2"/>
         <v>30</v>
-      </c>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
       <c r="N16" s="55"/>
       <c r="O16" s="55">
@@ -4729,12 +4833,12 @@
         <v>0</v>
       </c>
       <c r="P16" s="55"/>
-      <c r="Q16" s="68">
+      <c r="Q16" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R16" s="55"/>
-      <c r="S16" s="55">
+      <c r="S16" s="59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4748,157 +4852,162 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X16" s="69">
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="60">
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="Y16" s="55">
+      <c r="AA16" s="55">
         <v>22</v>
       </c>
-      <c r="Z16" s="5" t="s">
+      <c r="AB16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AA16" s="26" t="s">
+      <c r="AC16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="AB16" s="43" t="s">
+      <c r="AD16" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="AC16" s="21">
+      <c r="AE16" s="21">
         <v>1</v>
       </c>
-      <c r="AD16" s="47">
-        <f>AP$3+AQ$3*AC16</f>
+      <c r="AF16" s="47">
+        <f>AR$3+AS$3*AE16</f>
         <v>3000</v>
       </c>
-      <c r="AE16" s="9">
+      <c r="AG16" s="9">
         <v>3</v>
       </c>
-      <c r="AF16" s="51">
-        <f>AP$13+AQ$13*AE16</f>
+      <c r="AH16" s="51">
+        <f>AR$13+AS$13*AG16</f>
         <v>7700</v>
       </c>
-      <c r="AG16" s="22">
+      <c r="AI16" s="22">
         <v>6</v>
       </c>
-      <c r="AH16" s="22">
-        <f t="shared" si="9"/>
+      <c r="AJ16" s="22">
+        <f t="shared" si="10"/>
         <v>122</v>
       </c>
-      <c r="AI16" s="42" t="s">
+      <c r="AK16" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="AJ16" s="48">
-        <f>G16*10+AD16</f>
+      <c r="AL16" s="48">
+        <f>G16*10+AF16</f>
         <v>5523.34</v>
       </c>
-      <c r="AK16" s="15" t="s">
+      <c r="AM16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AL16" s="52">
-        <f>H16*10+AF16</f>
+      <c r="AN16" s="52">
+        <f>H16*10+AH16</f>
         <v>10300.523999999999</v>
       </c>
-      <c r="AM16" s="22" t="s">
+      <c r="AO16" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="AN16" s="58">
-        <f t="shared" si="10"/>
+      <c r="AP16" s="58">
+        <f t="shared" si="11"/>
         <v>144</v>
       </c>
-      <c r="AO16" s="26"/>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1"/>
-      <c r="AR16" s="3">
+      <c r="AQ16" s="26"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="3">
         <v>4</v>
       </c>
-      <c r="AS16" s="1">
-        <f t="shared" si="20"/>
+      <c r="AU16" s="1">
+        <f t="shared" si="23"/>
         <v>9800</v>
       </c>
-      <c r="AT16" s="1">
-        <f t="shared" si="21"/>
+      <c r="AV16" s="1">
+        <f t="shared" si="24"/>
         <v>10850</v>
       </c>
-      <c r="AU16" s="50">
+      <c r="AW16" s="50">
         <v>12450</v>
       </c>
-      <c r="AV16" s="7" t="s">
+      <c r="AX16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AW16" s="17">
+      <c r="AY16" s="17">
         <v>8879</v>
       </c>
-      <c r="AX16" s="10"/>
-      <c r="AY16" s="9" t="s">
+      <c r="AZ16" s="10"/>
+      <c r="BA16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AZ16" s="9">
+      <c r="BB16" s="9">
         <v>3771</v>
       </c>
-      <c r="BA16" s="15" t="s">
+      <c r="BC16" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="BB16" s="30">
-        <f>AW16+AZ16</f>
+      <c r="BD16" s="30">
+        <f>AY16+BB16</f>
         <v>12650</v>
       </c>
-      <c r="BC16" s="21" t="s">
+      <c r="BE16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="BD16" s="21" t="s">
+      <c r="BF16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BE16" s="21">
+      <c r="BG16" s="21">
         <v>7945</v>
       </c>
-      <c r="BF16" s="19" t="s">
+      <c r="BH16" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="BG16" s="19" t="s">
+      <c r="BI16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="BH16" s="19">
+      <c r="BJ16" s="19">
         <v>3154</v>
       </c>
-      <c r="BI16" s="4"/>
-      <c r="BJ16" s="4" t="s">
+      <c r="BK16" s="4"/>
+      <c r="BL16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="BK16" s="4">
+      <c r="BM16" s="4">
         <v>39</v>
       </c>
-      <c r="BL16" s="22" t="s">
+      <c r="BN16" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="BM16" s="22" t="s">
+      <c r="BO16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="BN16" s="22">
+      <c r="BP16" s="22">
         <v>129</v>
       </c>
-      <c r="BO16" s="14">
+      <c r="BQ16" s="14">
         <v>22</v>
       </c>
-      <c r="BP16" s="14">
+      <c r="BR16" s="14">
         <v>2</v>
       </c>
-      <c r="BQ16" s="32">
+      <c r="BS16" s="32">
         <v>1</v>
       </c>
-      <c r="BR16" s="32">
-        <f>(1630*BQ16+BK16*5)*(1630*BQ16+BK16*5)*BP16*1.3035*0.5*0.000066</f>
+      <c r="BT16" s="32">
+        <f>(1630*BS16+BM16*5)*(1630*BS16+BM16*5)*BR16*1.3035*0.5*0.000066</f>
         <v>286.53699937500005</v>
       </c>
-      <c r="BS16" s="32">
-        <f>(1630*BQ16+BN16*5)*(1630*BQ16+BN16*5)*BP16*4.1949*0.5*0.000066</f>
+      <c r="BU16" s="32">
+        <f>(1630*BS16+BP16*5)*(1630*BS16+BP16*5)*BR16*4.1949*0.5*0.000066</f>
         <v>1432.9411346249999</v>
       </c>
-      <c r="BT16" s="32" t="s">
+      <c r="BV16" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>33</v>
       </c>
@@ -4923,142 +5032,149 @@
       <c r="H17" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="I17" s="73" t="s">
+      <c r="I17" s="38">
+        <v>15</v>
+      </c>
+      <c r="J17" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K17" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="J17" s="54" t="s">
+      <c r="L17" s="54" t="s">
         <v>140</v>
-      </c>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54" t="s">
-        <v>141</v>
       </c>
       <c r="M17" s="54"/>
       <c r="N17" s="54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O17" s="54"/>
       <c r="P17" s="54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q17" s="54"/>
       <c r="R17" s="54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S17" s="54"/>
       <c r="T17" s="54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U17" s="54"/>
       <c r="V17" s="54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W17" s="54"/>
       <c r="X17" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="35" t="s">
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="AA17" s="12" t="s">
+      <c r="AC17" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AB17" s="34" t="s">
+      <c r="AD17" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="AC17" s="62" t="s">
+      <c r="AE17" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="64" t="s">
+      <c r="AF17" s="71"/>
+      <c r="AG17" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="AF17" s="65"/>
-      <c r="AG17" s="66" t="s">
+      <c r="AH17" s="73"/>
+      <c r="AI17" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="AH17" s="67"/>
-      <c r="AI17" s="62" t="s">
+      <c r="AJ17" s="69"/>
+      <c r="AK17" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="AJ17" s="63"/>
-      <c r="AK17" s="60" t="s">
+      <c r="AL17" s="71"/>
+      <c r="AM17" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="AL17" s="61"/>
-      <c r="AM17" s="66" t="s">
+      <c r="AN17" s="75"/>
+      <c r="AO17" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="AN17" s="67"/>
-      <c r="AO17" s="36"/>
-      <c r="AP17" s="1"/>
-      <c r="AQ17" s="1"/>
-      <c r="AR17" s="3">
+      <c r="AP17" s="69"/>
+      <c r="AQ17" s="36"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="3">
         <v>3</v>
       </c>
-      <c r="AS17" s="1">
-        <f t="shared" si="20"/>
+      <c r="AU17" s="1">
+        <f t="shared" si="23"/>
         <v>7700</v>
       </c>
-      <c r="AT17" s="1">
-        <f t="shared" si="21"/>
+      <c r="AV17" s="1">
+        <f t="shared" si="24"/>
         <v>8400</v>
       </c>
-      <c r="AU17" s="50">
+      <c r="AW17" s="50">
         <v>9750</v>
       </c>
-      <c r="AV17" s="60" t="s">
+      <c r="AX17" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="AW17" s="61"/>
-      <c r="AX17" s="59" t="s">
+      <c r="AY17" s="75"/>
+      <c r="AZ17" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="AY17" s="59"/>
-      <c r="AZ17" s="59"/>
-      <c r="BA17" s="60" t="s">
+      <c r="BA17" s="76"/>
+      <c r="BB17" s="76"/>
+      <c r="BC17" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="BB17" s="61"/>
-      <c r="BC17" s="59" t="s">
+      <c r="BD17" s="75"/>
+      <c r="BE17" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="BD17" s="59"/>
-      <c r="BE17" s="59"/>
-      <c r="BF17" s="59" t="s">
+      <c r="BF17" s="76"/>
+      <c r="BG17" s="76"/>
+      <c r="BH17" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="BG17" s="59"/>
-      <c r="BH17" s="59"/>
-      <c r="BI17" s="59" t="s">
+      <c r="BI17" s="76"/>
+      <c r="BJ17" s="76"/>
+      <c r="BK17" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="BJ17" s="59"/>
-      <c r="BK17" s="59"/>
-      <c r="BL17" s="59" t="s">
+      <c r="BL17" s="76"/>
+      <c r="BM17" s="76"/>
+      <c r="BN17" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="BM17" s="59"/>
-      <c r="BN17" s="59"/>
-      <c r="BO17" s="11" t="s">
+      <c r="BO17" s="76"/>
+      <c r="BP17" s="76"/>
+      <c r="BQ17" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="BP17" s="11" t="s">
+      <c r="BR17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="BQ17" s="31" t="s">
+      <c r="BS17" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="BR17" s="31" t="s">
+      <c r="BT17" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="BS17" s="31" t="s">
+      <c r="BU17" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="BT17" s="31"/>
+      <c r="BV17" s="31"/>
     </row>
-    <row r="18" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>105</v>
       </c>
@@ -5085,14 +5201,16 @@
         <f>D18*E18*F18</f>
         <v>148.99248</v>
       </c>
-      <c r="I18" s="74">
+      <c r="I18" s="38">
+        <v>15</v>
+      </c>
+      <c r="J18" s="38">
         <f t="shared" si="0"/>
+        <v>2815.5484799999999</v>
+      </c>
+      <c r="K18" s="65">
+        <f t="shared" si="1"/>
         <v>1.1931501509337921</v>
-      </c>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="L18" s="55"/>
       <c r="M18" s="55">
@@ -5105,12 +5223,12 @@
         <v>0</v>
       </c>
       <c r="P18" s="55"/>
-      <c r="Q18" s="68">
+      <c r="Q18" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R18" s="55"/>
-      <c r="S18" s="55">
+      <c r="S18" s="59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5124,151 +5242,156 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X18" s="69">
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="55">
+      <c r="Z18" s="60">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="55">
         <v>20</v>
       </c>
-      <c r="Z18" s="5" t="s">
+      <c r="AB18" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AA18" s="27" t="s">
+      <c r="AC18" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="AB18" s="43" t="s">
+      <c r="AD18" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="AC18" s="21">
+      <c r="AE18" s="21">
         <v>3</v>
       </c>
-      <c r="AD18" s="47">
-        <f>AP$3+AQ$3*AC18</f>
+      <c r="AF18" s="47">
+        <f>AR$3+AS$3*AE18</f>
         <v>6600</v>
       </c>
-      <c r="AE18" s="9">
+      <c r="AG18" s="9">
         <v>4</v>
       </c>
-      <c r="AF18" s="51">
-        <f>AP$13+AQ$13*AE18</f>
+      <c r="AH18" s="51">
+        <f>AR$13+AS$13*AG18</f>
         <v>9800</v>
       </c>
-      <c r="AG18" s="22">
+      <c r="AI18" s="22">
         <v>3</v>
       </c>
-      <c r="AH18" s="22">
-        <f t="shared" si="9"/>
+      <c r="AJ18" s="22">
+        <f t="shared" si="10"/>
         <v>86</v>
       </c>
-      <c r="AI18" s="42" t="s">
+      <c r="AK18" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AJ18" s="48">
-        <f>G18*10+AD18</f>
+      <c r="AL18" s="48">
+        <f>G18*10+AF18</f>
         <v>8377.7039999999997</v>
       </c>
-      <c r="AK18" s="15" t="s">
+      <c r="AM18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AL18" s="52">
-        <f>H18*10+AF18</f>
+      <c r="AN18" s="52">
+        <f>H18*10+AH18</f>
         <v>11289.924800000001</v>
       </c>
-      <c r="AM18" s="22" t="s">
+      <c r="AO18" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AN18" s="58">
-        <f t="shared" si="10"/>
+      <c r="AP18" s="58">
+        <f t="shared" si="11"/>
         <v>106</v>
       </c>
-      <c r="AO18" s="27"/>
-      <c r="AP18" s="1"/>
-      <c r="AQ18" s="1"/>
-      <c r="AR18" s="3">
+      <c r="AQ18" s="27"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="3">
         <v>2</v>
       </c>
-      <c r="AS18" s="1">
-        <f t="shared" si="20"/>
+      <c r="AU18" s="1">
+        <f t="shared" si="23"/>
         <v>5600</v>
       </c>
-      <c r="AT18" s="1">
-        <f t="shared" si="21"/>
+      <c r="AV18" s="1">
+        <f t="shared" si="24"/>
         <v>5950</v>
       </c>
-      <c r="AU18" s="50">
+      <c r="AW18" s="50">
         <v>7050</v>
       </c>
-      <c r="AV18" s="7" t="s">
+      <c r="AX18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AW18" s="17">
+      <c r="AY18" s="17">
         <v>5987</v>
       </c>
-      <c r="AX18" s="10"/>
-      <c r="AY18" s="9" t="s">
+      <c r="AZ18" s="10"/>
+      <c r="BA18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AZ18" s="9">
+      <c r="BB18" s="9">
         <v>3156</v>
       </c>
-      <c r="BA18" s="15" t="s">
+      <c r="BC18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="BB18" s="30">
-        <f>AW18+AZ18</f>
+      <c r="BD18" s="30">
+        <f>AY18+BB18</f>
         <v>9143</v>
       </c>
-      <c r="BC18" s="21"/>
-      <c r="BD18" s="21" t="s">
+      <c r="BE18" s="21"/>
+      <c r="BF18" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="BE18" s="21">
+      <c r="BG18" s="21">
         <v>14500</v>
       </c>
-      <c r="BF18" s="19"/>
-      <c r="BG18" s="19" t="s">
+      <c r="BH18" s="19"/>
+      <c r="BI18" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="BH18" s="19">
+      <c r="BJ18" s="19">
         <v>2444</v>
       </c>
-      <c r="BI18" s="4"/>
-      <c r="BJ18" s="4" t="s">
+      <c r="BK18" s="4"/>
+      <c r="BL18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BK18" s="4">
+      <c r="BM18" s="4">
         <v>28</v>
       </c>
-      <c r="BL18" s="22"/>
-      <c r="BM18" s="22" t="s">
+      <c r="BN18" s="22"/>
+      <c r="BO18" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="BN18" s="22">
+      <c r="BP18" s="22">
         <v>123</v>
       </c>
-      <c r="BO18" s="14">
+      <c r="BQ18" s="14">
         <v>20</v>
       </c>
-      <c r="BP18" s="14">
+      <c r="BR18" s="14">
         <v>4</v>
       </c>
-      <c r="BQ18" s="32">
+      <c r="BS18" s="32">
         <v>0.84299999999999997</v>
       </c>
-      <c r="BR18" s="32">
-        <f>(1630*BQ18+BK18*5)*(1630*BQ18+BK18*5)*BP18*1.3035*0.5*0.000066</f>
+      <c r="BT18" s="32">
+        <f>(1630*BS18+BM18*5)*(1630*BS18+BM18*5)*BR18*1.3035*0.5*0.000066</f>
         <v>394.44671988194222</v>
       </c>
-      <c r="BS18" s="32">
-        <f>(1630*BQ18+BN18*5)*(1630*BQ18+BN18*5)*BP18*4.1949*0.5*0.000066</f>
+      <c r="BU18" s="32">
+        <f>(1630*BS18+BP18*5)*(1630*BS18+BP18*5)*BR18*4.1949*0.5*0.000066</f>
         <v>2190.8084714969227</v>
       </c>
-      <c r="BT18" s="32" t="s">
+      <c r="BV18" s="32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
@@ -5295,14 +5418,16 @@
         <f>D19*E19*F19</f>
         <v>149.89104000000003</v>
       </c>
-      <c r="I19" s="74">
+      <c r="I19" s="38">
+        <v>15</v>
+      </c>
+      <c r="J19" s="38">
         <f t="shared" si="0"/>
+        <v>2753.6990400000004</v>
+      </c>
+      <c r="K19" s="65">
+        <f t="shared" si="1"/>
         <v>1.1580892360210455</v>
-      </c>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="55">
@@ -5315,12 +5440,12 @@
         <v>0</v>
       </c>
       <c r="P19" s="55"/>
-      <c r="Q19" s="68">
+      <c r="Q19" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R19" s="55"/>
-      <c r="S19" s="55">
+      <c r="S19" s="59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5334,157 +5459,162 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X19" s="69">
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="55">
+      <c r="Z19" s="60">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="55">
         <v>15</v>
       </c>
-      <c r="Z19" s="5" t="s">
+      <c r="AB19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AA19" s="27" t="s">
+      <c r="AC19" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="AB19" s="43" t="s">
+      <c r="AD19" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="AC19" s="21">
+      <c r="AE19" s="21">
         <v>1</v>
       </c>
-      <c r="AD19" s="47">
-        <f>AP$3+AQ$3*AC19</f>
+      <c r="AF19" s="47">
+        <f>AR$3+AS$3*AE19</f>
         <v>3000</v>
       </c>
-      <c r="AE19" s="9">
+      <c r="AG19" s="9">
         <v>2</v>
       </c>
-      <c r="AF19" s="51">
-        <f>AP$13+AQ$13*AE19</f>
+      <c r="AH19" s="51">
+        <f>AR$13+AS$13*AG19</f>
         <v>5600</v>
       </c>
-      <c r="AG19" s="22">
+      <c r="AI19" s="22">
         <v>7</v>
       </c>
-      <c r="AH19" s="22">
-        <f t="shared" si="9"/>
+      <c r="AJ19" s="22">
+        <f t="shared" si="10"/>
         <v>134</v>
       </c>
-      <c r="AI19" s="42" t="s">
+      <c r="AK19" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AJ19" s="48">
-        <f>G19*10+AD19</f>
+      <c r="AL19" s="48">
+        <f>G19*10+AF19</f>
         <v>4735.8720000000003</v>
       </c>
-      <c r="AK19" s="15" t="s">
+      <c r="AM19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AL19" s="52">
-        <f>H19*10+AF19</f>
+      <c r="AN19" s="52">
+        <f>H19*10+AH19</f>
         <v>7098.9104000000007</v>
       </c>
-      <c r="AM19" s="22" t="s">
+      <c r="AO19" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="AN19" s="58">
-        <f t="shared" si="10"/>
+      <c r="AP19" s="58">
+        <f t="shared" si="11"/>
         <v>149</v>
       </c>
-      <c r="AO19" s="27"/>
-      <c r="AP19" s="1"/>
-      <c r="AQ19" s="1"/>
-      <c r="AR19" s="3">
+      <c r="AQ19" s="27"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="3">
         <v>1</v>
       </c>
-      <c r="AS19" s="1">
-        <f t="shared" si="20"/>
+      <c r="AU19" s="1">
+        <f t="shared" si="23"/>
         <v>3500</v>
       </c>
-      <c r="AT19" s="1">
-        <f>AS19+AQ$13/6 * (AR19-1)</f>
+      <c r="AV19" s="1">
+        <f>AU19+AS$13/6 * (AT19-1)</f>
         <v>3500</v>
       </c>
-      <c r="AU19" s="50">
+      <c r="AW19" s="50">
         <v>4350</v>
       </c>
-      <c r="AV19" s="7" t="s">
+      <c r="AX19" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AW19" s="17">
+      <c r="AY19" s="17">
         <v>7346</v>
       </c>
-      <c r="AX19" s="9" t="s">
+      <c r="AZ19" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AY19" s="9" t="s">
+      <c r="BA19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AZ19" s="9">
+      <c r="BB19" s="9">
         <v>7993</v>
       </c>
-      <c r="BA19" s="15" t="s">
+      <c r="BC19" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="BB19" s="30">
-        <f>AW19+AZ19</f>
+      <c r="BD19" s="30">
+        <f>AY19+BB19</f>
         <v>15339</v>
       </c>
-      <c r="BC19" s="21" t="s">
+      <c r="BE19" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="BD19" s="21" t="s">
+      <c r="BF19" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="BE19" s="21">
+      <c r="BG19" s="21">
         <v>5229</v>
       </c>
-      <c r="BF19" s="19"/>
-      <c r="BG19" s="19" t="s">
+      <c r="BH19" s="19"/>
+      <c r="BI19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BH19" s="19">
+      <c r="BJ19" s="19">
         <v>2075</v>
       </c>
-      <c r="BI19" s="4"/>
-      <c r="BJ19" s="4" t="s">
+      <c r="BK19" s="4"/>
+      <c r="BL19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="BK19" s="4">
+      <c r="BM19" s="4">
         <v>35</v>
       </c>
-      <c r="BL19" s="22" t="s">
+      <c r="BN19" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="BM19" s="22" t="s">
+      <c r="BO19" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="BN19" s="22">
+      <c r="BP19" s="22">
         <v>133</v>
       </c>
-      <c r="BO19" s="14">
+      <c r="BQ19" s="14">
         <v>22</v>
       </c>
-      <c r="BP19" s="14">
+      <c r="BR19" s="14">
         <v>2</v>
       </c>
-      <c r="BQ19" s="32">
+      <c r="BS19" s="32">
         <v>1</v>
       </c>
-      <c r="BR19" s="32">
-        <f>(1630*BQ19+BK19*5)*(1630*BQ19+BK19*5)*BP19*1.3035*0.5*0.000066</f>
+      <c r="BT19" s="32">
+        <f>(1630*BS19+BM19*5)*(1630*BS19+BM19*5)*BR19*1.3035*0.5*0.000066</f>
         <v>280.29114877500007</v>
       </c>
-      <c r="BS19" s="32">
-        <f>(1630*BQ19+BN19*5)*(1630*BQ19+BN19*5)*BP19*4.1949*0.5*0.000066</f>
+      <c r="BU19" s="32">
+        <f>(1630*BS19+BP19*5)*(1630*BS19+BP19*5)*BR19*4.1949*0.5*0.000066</f>
         <v>1458.246449385</v>
       </c>
-      <c r="BT19" s="32" t="s">
+      <c r="BV19" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
@@ -5511,14 +5641,16 @@
         <f>D20*E20*F20</f>
         <v>120.81314</v>
       </c>
-      <c r="I20" s="74">
+      <c r="I20" s="38">
+        <v>15</v>
+      </c>
+      <c r="J20" s="38">
         <f t="shared" si="0"/>
+        <v>2369.1091400000005</v>
+      </c>
+      <c r="K20" s="65">
+        <f t="shared" si="1"/>
         <v>1.2406465058353753</v>
-      </c>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="L20" s="55"/>
       <c r="M20" s="55">
@@ -5531,12 +5663,12 @@
         <v>0</v>
       </c>
       <c r="P20" s="55"/>
-      <c r="Q20" s="68">
+      <c r="Q20" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R20" s="55"/>
-      <c r="S20" s="55">
+      <c r="S20" s="59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5550,144 +5682,149 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X20" s="69">
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="55">
+      <c r="Z20" s="60">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="55">
         <v>17</v>
       </c>
-      <c r="Z20" s="5" t="s">
+      <c r="AB20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AA20" s="27" t="s">
+      <c r="AC20" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AB20" s="43" t="s">
+      <c r="AD20" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AC20" s="21">
+      <c r="AE20" s="21">
         <v>2</v>
       </c>
-      <c r="AD20" s="47">
-        <f>AP$3+AQ$3*AC20</f>
+      <c r="AF20" s="47">
+        <f>AR$3+AS$3*AE20</f>
         <v>4800</v>
       </c>
-      <c r="AE20" s="9">
+      <c r="AG20" s="9">
         <v>1</v>
       </c>
-      <c r="AF20" s="51">
-        <f>AP$13+AQ$13*AE20</f>
+      <c r="AH20" s="51">
+        <f>AR$13+AS$13*AG20</f>
         <v>3500</v>
       </c>
-      <c r="AG20" s="22">
+      <c r="AI20" s="22">
         <v>7</v>
       </c>
-      <c r="AH20" s="22">
-        <f t="shared" si="9"/>
+      <c r="AJ20" s="22">
+        <f t="shared" si="10"/>
         <v>134</v>
       </c>
-      <c r="AI20" s="42" t="s">
+      <c r="AK20" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AJ20" s="48">
-        <f>G20*10+AD20</f>
+      <c r="AL20" s="48">
+        <f>G20*10+AF20</f>
         <v>6298.8639999999996</v>
       </c>
-      <c r="AK20" s="15" t="s">
+      <c r="AM20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AL20" s="52">
-        <f>H20*10+AF20</f>
+      <c r="AN20" s="52">
+        <f>H20*10+AH20</f>
         <v>4708.1314000000002</v>
       </c>
-      <c r="AM20" s="22" t="s">
+      <c r="AO20" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="AN20" s="58">
-        <f t="shared" si="10"/>
+      <c r="AP20" s="58">
+        <f t="shared" si="11"/>
         <v>151</v>
       </c>
-      <c r="AO20" s="27"/>
-      <c r="AU20" s="27"/>
-      <c r="AV20" s="7" t="s">
+      <c r="AQ20" s="27"/>
+      <c r="AW20" s="27"/>
+      <c r="AX20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AW20" s="17">
+      <c r="AY20" s="17">
         <v>5375</v>
       </c>
-      <c r="AX20" s="9" t="s">
+      <c r="AZ20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AY20" s="9" t="s">
+      <c r="BA20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AZ20" s="9">
+      <c r="BB20" s="9">
         <v>2456</v>
       </c>
-      <c r="BA20" s="15" t="s">
+      <c r="BC20" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="BB20" s="30">
-        <f>AW20+AZ20</f>
+      <c r="BD20" s="30">
+        <f>AY20+BB20</f>
         <v>7831</v>
       </c>
-      <c r="BC20" s="21"/>
-      <c r="BD20" s="21" t="s">
+      <c r="BE20" s="21"/>
+      <c r="BF20" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="BE20" s="21">
+      <c r="BG20" s="21">
         <v>12934</v>
       </c>
-      <c r="BF20" s="19" t="s">
+      <c r="BH20" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="BG20" s="19" t="s">
+      <c r="BI20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="BH20" s="19">
+      <c r="BJ20" s="19">
         <v>3690</v>
       </c>
-      <c r="BI20" s="4" t="s">
+      <c r="BK20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="BJ20" s="4" t="s">
+      <c r="BL20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BK20" s="4">
+      <c r="BM20" s="4">
         <v>28</v>
       </c>
-      <c r="BL20" s="22" t="s">
+      <c r="BN20" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="BM20" s="22" t="s">
+      <c r="BO20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="BN20" s="22">
+      <c r="BP20" s="22">
         <v>114</v>
       </c>
-      <c r="BO20" s="14">
+      <c r="BQ20" s="14">
         <v>20</v>
       </c>
-      <c r="BP20" s="14">
+      <c r="BR20" s="14">
         <v>4</v>
       </c>
-      <c r="BQ20" s="32">
+      <c r="BS20" s="32">
         <v>0.84299999999999997</v>
       </c>
-      <c r="BR20" s="32">
-        <f>(1630*BQ20+BK20*5)*(1630*BQ20+BK20*5)*BP20*1.3035*0.5*0.000066</f>
+      <c r="BT20" s="32">
+        <f>(1630*BS20+BM20*5)*(1630*BS20+BM20*5)*BR20*1.3035*0.5*0.000066</f>
         <v>394.44671988194222</v>
       </c>
-      <c r="BS20" s="32">
-        <f>(1630*BQ20+BN20*5)*(1630*BQ20+BN20*5)*BP20*4.1949*0.5*0.000066</f>
+      <c r="BU20" s="32">
+        <f>(1630*BS20+BP20*5)*(1630*BS20+BP20*5)*BR20*4.1949*0.5*0.000066</f>
         <v>2092.8026486118429</v>
       </c>
-      <c r="BT20" s="32" t="s">
+      <c r="BV20" s="32" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
@@ -5714,14 +5851,16 @@
         <f>D21*E21*F21</f>
         <v>92.021959999999993</v>
       </c>
-      <c r="I21" s="74">
+      <c r="I21" s="38">
+        <v>15</v>
+      </c>
+      <c r="J21" s="38">
         <f t="shared" si="0"/>
+        <v>2024.5649599999999</v>
+      </c>
+      <c r="K21" s="65">
+        <f t="shared" si="1"/>
         <v>1.4000592901955142</v>
-      </c>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="55">
@@ -5734,12 +5873,12 @@
         <v>0</v>
       </c>
       <c r="P21" s="55"/>
-      <c r="Q21" s="68">
+      <c r="Q21" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R21" s="55"/>
-      <c r="S21" s="55">
+      <c r="S21" s="59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5753,148 +5892,153 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X21" s="69">
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="55">
+      <c r="Z21" s="60">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="55">
         <v>16</v>
       </c>
-      <c r="Z21" s="5" t="s">
+      <c r="AB21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AA21" s="27" t="s">
+      <c r="AC21" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AB21" s="43" t="s">
+      <c r="AD21" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="AC21" s="21">
+      <c r="AE21" s="21">
         <v>4</v>
       </c>
-      <c r="AD21" s="47">
-        <f>AP$3+AQ$3*AC21</f>
+      <c r="AF21" s="47">
+        <f>AR$3+AS$3*AE21</f>
         <v>8400</v>
       </c>
-      <c r="AE21" s="9">
+      <c r="AG21" s="9">
         <v>5</v>
       </c>
-      <c r="AF21" s="51">
-        <f>AP$13+AQ$13*AE21</f>
+      <c r="AH21" s="51">
+        <f>AR$13+AS$13*AG21</f>
         <v>11900</v>
       </c>
-      <c r="AG21" s="22">
+      <c r="AI21" s="22">
         <v>1</v>
       </c>
-      <c r="AH21" s="22">
-        <f t="shared" si="9"/>
+      <c r="AJ21" s="22">
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
-      <c r="AI21" s="42" t="s">
+      <c r="AK21" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="AJ21" s="48">
-        <f>G21*10+AD21</f>
+      <c r="AL21" s="48">
+        <f>G21*10+AF21</f>
         <v>9688.3619999999992</v>
       </c>
-      <c r="AK21" s="15" t="s">
+      <c r="AM21" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AL21" s="52">
-        <f>H21*10+AF21</f>
+      <c r="AN21" s="52">
+        <f>H21*10+AH21</f>
         <v>12820.2196</v>
       </c>
-      <c r="AM21" s="22" t="s">
+      <c r="AO21" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="AN21" s="58">
-        <f t="shared" si="10"/>
+      <c r="AP21" s="58">
+        <f t="shared" si="11"/>
         <v>78</v>
       </c>
-      <c r="AO21" s="27"/>
-      <c r="AP21" s="2" t="s">
+      <c r="AQ21" s="27"/>
+      <c r="AR21" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AQ21" s="1"/>
-      <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
-      <c r="AU21" s="27"/>
-      <c r="AV21" s="7" t="s">
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AW21" s="27"/>
+      <c r="AX21" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AW21" s="17">
+      <c r="AY21" s="17">
         <v>6692</v>
       </c>
-      <c r="AX21" s="10"/>
-      <c r="AY21" s="9" t="s">
+      <c r="AZ21" s="10"/>
+      <c r="BA21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AZ21" s="9">
+      <c r="BB21" s="9">
         <v>4156</v>
       </c>
-      <c r="BA21" s="15" t="s">
+      <c r="BC21" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="BB21" s="30">
-        <f>AW21+AZ21</f>
+      <c r="BD21" s="30">
+        <f>AY21+BB21</f>
         <v>10848</v>
       </c>
-      <c r="BC21" s="21"/>
-      <c r="BD21" s="21" t="s">
+      <c r="BE21" s="21"/>
+      <c r="BF21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="BE21" s="21">
+      <c r="BG21" s="21">
         <v>16450</v>
       </c>
-      <c r="BF21" s="19" t="s">
+      <c r="BH21" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="BG21" s="19" t="s">
+      <c r="BI21" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="BH21" s="19">
+      <c r="BJ21" s="19">
         <v>1263</v>
       </c>
-      <c r="BI21" s="4" t="s">
+      <c r="BK21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="BJ21" s="4" t="s">
+      <c r="BL21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="BK21" s="4">
+      <c r="BM21" s="4">
         <v>23</v>
       </c>
-      <c r="BL21" s="22" t="s">
+      <c r="BN21" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="BM21" s="22" t="s">
+      <c r="BO21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="BN21" s="22">
+      <c r="BP21" s="22">
         <v>116</v>
       </c>
-      <c r="BO21" s="14">
+      <c r="BQ21" s="14">
         <v>18</v>
       </c>
-      <c r="BP21" s="14">
+      <c r="BR21" s="14">
         <v>6</v>
       </c>
-      <c r="BQ21" s="32">
+      <c r="BS21" s="32">
         <v>0.77900000000000003</v>
       </c>
-      <c r="BR21" s="32">
-        <f>(1630*BQ21+BK21*5)*(1630*BQ21+BK21*5)*BP21*1.3035*0.5*0.000066</f>
+      <c r="BT21" s="32">
+        <f>(1630*BS21+BM21*5)*(1630*BS21+BM21*5)*BR21*1.3035*0.5*0.000066</f>
         <v>494.91602752781978</v>
       </c>
-      <c r="BS21" s="32">
-        <f>(1630*BQ21+BN21*5)*(1630*BQ21+BN21*5)*BP21*4.1949*0.5*0.000066</f>
+      <c r="BU21" s="32">
+        <f>(1630*BS21+BP21*5)*(1630*BS21+BP21*5)*BR21*4.1949*0.5*0.000066</f>
         <v>2841.9881711780213</v>
       </c>
-      <c r="BT21" s="32" t="s">
+      <c r="BV21" s="32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>33</v>
       </c>
@@ -5919,139 +6063,146 @@
       <c r="H22" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="I22" s="73" t="s">
+      <c r="I22" s="38">
+        <v>15</v>
+      </c>
+      <c r="J22" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K22" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="J22" s="54" t="s">
+      <c r="L22" s="54" t="s">
         <v>140</v>
-      </c>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54" t="s">
-        <v>141</v>
       </c>
       <c r="M22" s="54"/>
       <c r="N22" s="54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O22" s="54"/>
       <c r="P22" s="54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="54"/>
       <c r="R22" s="54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S22" s="54"/>
       <c r="T22" s="54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U22" s="54"/>
       <c r="V22" s="54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W22" s="54"/>
       <c r="X22" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="35" t="s">
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="AA22" s="12" t="s">
+      <c r="AC22" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="AB22" s="34" t="s">
+      <c r="AD22" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="AC22" s="62" t="s">
+      <c r="AE22" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="AD22" s="63"/>
-      <c r="AE22" s="64" t="s">
+      <c r="AF22" s="71"/>
+      <c r="AG22" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="AF22" s="65"/>
-      <c r="AG22" s="66" t="s">
+      <c r="AH22" s="73"/>
+      <c r="AI22" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="AH22" s="67"/>
-      <c r="AI22" s="62" t="s">
+      <c r="AJ22" s="69"/>
+      <c r="AK22" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="AJ22" s="63"/>
-      <c r="AK22" s="60" t="s">
+      <c r="AL22" s="71"/>
+      <c r="AM22" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="AL22" s="61"/>
-      <c r="AM22" s="66" t="s">
+      <c r="AN22" s="75"/>
+      <c r="AO22" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="AN22" s="67"/>
-      <c r="AO22" s="36"/>
-      <c r="AP22" s="2" t="s">
+      <c r="AP22" s="69"/>
+      <c r="AQ22" s="36"/>
+      <c r="AR22" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AQ22" s="2" t="s">
+      <c r="AS22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AR22" s="2" t="s">
+      <c r="AT22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AS22" s="1" t="s">
+      <c r="AU22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AU22" s="36"/>
-      <c r="AV22" s="60" t="s">
+      <c r="AW22" s="36"/>
+      <c r="AX22" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="AW22" s="61"/>
-      <c r="AX22" s="59" t="s">
+      <c r="AY22" s="75"/>
+      <c r="AZ22" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="AY22" s="59"/>
-      <c r="AZ22" s="59"/>
-      <c r="BA22" s="60" t="s">
+      <c r="BA22" s="76"/>
+      <c r="BB22" s="76"/>
+      <c r="BC22" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="BB22" s="61"/>
-      <c r="BC22" s="59" t="s">
+      <c r="BD22" s="75"/>
+      <c r="BE22" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="BD22" s="59"/>
-      <c r="BE22" s="59"/>
-      <c r="BF22" s="59" t="s">
+      <c r="BF22" s="76"/>
+      <c r="BG22" s="76"/>
+      <c r="BH22" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="BG22" s="59"/>
-      <c r="BH22" s="59"/>
-      <c r="BI22" s="59" t="s">
+      <c r="BI22" s="76"/>
+      <c r="BJ22" s="76"/>
+      <c r="BK22" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="BJ22" s="59"/>
-      <c r="BK22" s="59"/>
-      <c r="BL22" s="59" t="s">
+      <c r="BL22" s="76"/>
+      <c r="BM22" s="76"/>
+      <c r="BN22" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="BM22" s="59"/>
-      <c r="BN22" s="59"/>
-      <c r="BO22" s="11" t="s">
+      <c r="BO22" s="76"/>
+      <c r="BP22" s="76"/>
+      <c r="BQ22" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="BP22" s="11" t="s">
+      <c r="BR22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="BQ22" s="31" t="s">
+      <c r="BS22" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="BR22" s="31" t="s">
+      <c r="BT22" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="BS22" s="31" t="s">
+      <c r="BU22" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="BT22" s="31"/>
+      <c r="BV22" s="31"/>
     </row>
-    <row r="23" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
@@ -6078,14 +6229,16 @@
         <f>D23*E23*F23</f>
         <v>39.009698</v>
       </c>
-      <c r="I23" s="74">
+      <c r="I23" s="38">
+        <v>15</v>
+      </c>
+      <c r="J23" s="38">
         <f t="shared" si="0"/>
+        <v>1090.2366980000002</v>
+      </c>
+      <c r="K23" s="65">
+        <f t="shared" si="1"/>
         <v>1.7965224955086809</v>
-      </c>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55">
@@ -6098,180 +6251,185 @@
         <v>0</v>
       </c>
       <c r="P23" s="55"/>
-      <c r="Q23" s="68">
+      <c r="Q23" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R23" s="55"/>
-      <c r="S23" s="55">
+      <c r="S23" s="59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T23" s="55">
-        <v>1</v>
-      </c>
+      <c r="T23" s="55"/>
       <c r="U23" s="55">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="V23" s="55"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="55">
+        <v>1</v>
+      </c>
       <c r="W23" s="55">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X23" s="69">
+        <v>6</v>
+      </c>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="60">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="Y23" s="55">
+      <c r="AA23" s="55">
         <v>9</v>
       </c>
-      <c r="Z23" s="5" t="s">
+      <c r="AB23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AA23" s="28" t="s">
+      <c r="AC23" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AB23" s="43" t="s">
+      <c r="AD23" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AC23" s="21">
+      <c r="AE23" s="21">
         <v>1</v>
       </c>
-      <c r="AD23" s="47">
-        <f>AP$3+AQ$3*AC23</f>
+      <c r="AF23" s="47">
+        <f>AR$3+AS$3*AE23</f>
         <v>3000</v>
       </c>
-      <c r="AE23" s="9">
+      <c r="AG23" s="9">
         <v>4</v>
       </c>
-      <c r="AF23" s="51">
-        <f>AP$13+AQ$13*AE23</f>
+      <c r="AH23" s="51">
+        <f>AR$13+AS$13*AG23</f>
         <v>9800</v>
       </c>
-      <c r="AG23" s="22">
+      <c r="AI23" s="22">
         <v>5</v>
       </c>
-      <c r="AH23" s="22">
-        <f t="shared" si="9"/>
+      <c r="AJ23" s="22">
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
-      <c r="AI23" s="42" t="s">
+      <c r="AK23" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AJ23" s="48">
-        <f>G23*10+AD23</f>
+      <c r="AL23" s="48">
+        <f>G23*10+AF23</f>
         <v>3700.8180000000002</v>
       </c>
-      <c r="AK23" s="15" t="s">
+      <c r="AM23" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AL23" s="52">
-        <f>H23*10+AF23</f>
+      <c r="AN23" s="52">
+        <f>H23*10+AH23</f>
         <v>10190.09698</v>
       </c>
-      <c r="AM23" s="22" t="s">
+      <c r="AO23" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="AN23" s="58">
-        <f t="shared" si="10"/>
+      <c r="AP23" s="58">
+        <f t="shared" si="11"/>
         <v>119</v>
       </c>
-      <c r="AO23" s="28"/>
-      <c r="AP23" s="1">
+      <c r="AQ23" s="28"/>
+      <c r="AR23" s="1">
         <v>50</v>
       </c>
-      <c r="AQ23" s="1">
+      <c r="AS23" s="1">
         <v>12</v>
       </c>
-      <c r="AR23" s="3">
+      <c r="AT23" s="3">
         <v>7</v>
       </c>
-      <c r="AS23" s="1">
-        <f>AP$23+AQ$23*AR23</f>
+      <c r="AU23" s="1">
+        <f>AR$23+AS$23*AT23</f>
         <v>134</v>
       </c>
-      <c r="AT23" s="1">
-        <f>AS23+AQ$23/6 * (AR23-1)</f>
+      <c r="AV23" s="1">
+        <f>AU23+AS$23/6 * (AT23-1)</f>
         <v>146</v>
       </c>
-      <c r="AU23" s="28"/>
-      <c r="AV23" s="7" t="s">
+      <c r="AW23" s="28"/>
+      <c r="AX23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AW23" s="17">
+      <c r="AY23" s="17">
         <v>4793</v>
       </c>
-      <c r="AX23" s="9" t="s">
+      <c r="AZ23" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AY23" s="9" t="s">
+      <c r="BA23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AZ23" s="9">
+      <c r="BB23" s="9">
         <v>6522</v>
       </c>
-      <c r="BA23" s="15" t="s">
+      <c r="BC23" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="BB23" s="30">
-        <f>AW23+AZ23</f>
+      <c r="BD23" s="30">
+        <f>AY23+BB23</f>
         <v>11315</v>
       </c>
-      <c r="BC23" s="21"/>
-      <c r="BD23" s="21" t="s">
+      <c r="BE23" s="21"/>
+      <c r="BF23" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="BE23" s="21">
+      <c r="BG23" s="21">
         <v>14859</v>
       </c>
-      <c r="BF23" s="19"/>
-      <c r="BG23" s="19" t="s">
+      <c r="BH23" s="19"/>
+      <c r="BI23" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BH23" s="19">
+      <c r="BJ23" s="19">
         <v>2237</v>
       </c>
-      <c r="BI23" s="4" t="s">
+      <c r="BK23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="BJ23" s="4" t="s">
+      <c r="BL23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="BK23" s="4">
+      <c r="BM23" s="4">
         <v>54</v>
       </c>
-      <c r="BL23" s="22" t="s">
+      <c r="BN23" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="BM23" s="22" t="s">
+      <c r="BO23" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="BN23" s="22">
+      <c r="BP23" s="22">
         <v>85</v>
       </c>
-      <c r="BO23" s="14">
+      <c r="BQ23" s="14">
         <v>22</v>
       </c>
-      <c r="BP23" s="14">
+      <c r="BR23" s="14">
         <v>2</v>
       </c>
-      <c r="BQ23" s="32">
+      <c r="BS23" s="32">
         <v>1</v>
       </c>
-      <c r="BR23" s="32">
-        <f>(1630*BQ23+BK23*5)*(1630*BQ23+BK23*5)*BP23*1.3035*0.5*0.000066</f>
+      <c r="BT23" s="32">
+        <f>(1630*BS23+BM23*5)*(1630*BS23+BM23*5)*BR23*1.3035*0.5*0.000066</f>
         <v>310.57191</v>
       </c>
-      <c r="BS23" s="32">
-        <f>(1630*BQ23+BN23*5)*(1630*BQ23+BN23*5)*BP23*4.1949*0.5*0.000066</f>
+      <c r="BU23" s="32">
+        <f>(1630*BS23+BP23*5)*(1630*BS23+BP23*5)*BR23*4.1949*0.5*0.000066</f>
         <v>1169.2010597849999</v>
       </c>
-      <c r="BT23" s="32" t="s">
+      <c r="BV23" s="32" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
@@ -6298,14 +6456,16 @@
         <f>D24*E24*F24</f>
         <v>27.103439999999999</v>
       </c>
-      <c r="I24" s="74">
+      <c r="I24" s="38">
+        <v>15</v>
+      </c>
+      <c r="J24" s="38">
         <f t="shared" si="0"/>
+        <v>961.57943999999986</v>
+      </c>
+      <c r="K24" s="65">
+        <f t="shared" si="1"/>
         <v>2.2985421776719117</v>
-      </c>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="L24" s="55"/>
       <c r="M24" s="55">
@@ -6318,174 +6478,179 @@
         <v>0</v>
       </c>
       <c r="P24" s="55"/>
-      <c r="Q24" s="68">
+      <c r="Q24" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R24" s="55">
+      <c r="R24" s="55"/>
+      <c r="S24" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="55">
         <v>3</v>
       </c>
-      <c r="S24" s="55">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="T24" s="55"/>
       <c r="U24" s="55">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V24" s="55"/>
       <c r="W24" s="55">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X24" s="69">
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="60">
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="Y24" s="55">
+      <c r="AA24" s="55">
         <v>23</v>
       </c>
-      <c r="Z24" s="5" t="s">
+      <c r="AB24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AA24" s="28" t="s">
+      <c r="AC24" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AB24" s="43" t="s">
+      <c r="AD24" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AC24" s="21">
+      <c r="AE24" s="21">
         <v>1</v>
       </c>
-      <c r="AD24" s="47">
-        <f>AP$3+AQ$3*AC24</f>
+      <c r="AF24" s="47">
+        <f>AR$3+AS$3*AE24</f>
         <v>3000</v>
       </c>
-      <c r="AE24" s="9">
+      <c r="AG24" s="9">
         <v>2</v>
       </c>
-      <c r="AF24" s="51">
-        <f>AP$13+AQ$13*AE24</f>
+      <c r="AH24" s="51">
+        <f>AR$13+AS$13*AG24</f>
         <v>5600</v>
       </c>
-      <c r="AG24" s="22">
+      <c r="AI24" s="22">
         <v>7</v>
       </c>
-      <c r="AH24" s="22">
-        <f t="shared" si="9"/>
+      <c r="AJ24" s="22">
+        <f t="shared" si="10"/>
         <v>134</v>
       </c>
-      <c r="AI24" s="42" t="s">
+      <c r="AK24" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AJ24" s="48">
-        <f>G24*10+AD24</f>
+      <c r="AL24" s="48">
+        <f>G24*10+AF24</f>
         <v>3622.9839999999999</v>
       </c>
-      <c r="AK24" s="15" t="s">
+      <c r="AM24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AL24" s="52">
-        <f>H24*10+AF24</f>
+      <c r="AN24" s="52">
+        <f>H24*10+AH24</f>
         <v>5871.0344000000005</v>
       </c>
-      <c r="AM24" s="22" t="s">
+      <c r="AO24" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="AN24" s="58">
-        <f t="shared" si="10"/>
+      <c r="AP24" s="58">
+        <f t="shared" si="11"/>
         <v>157</v>
       </c>
-      <c r="AO24" s="28"/>
-      <c r="AP24" s="1"/>
-      <c r="AQ24" s="1"/>
-      <c r="AR24" s="3">
+      <c r="AQ24" s="28"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="3">
         <v>6</v>
       </c>
-      <c r="AS24" s="1">
-        <f t="shared" ref="AS24:AS29" si="22">AP$23+AQ$23*AR24</f>
+      <c r="AU24" s="1">
+        <f t="shared" ref="AU24:AU29" si="25">AR$23+AS$23*AT24</f>
         <v>122</v>
       </c>
-      <c r="AT24" s="1">
-        <f t="shared" ref="AT24:AT29" si="23">AS24+AQ$23/6 * (AR24-1)</f>
+      <c r="AV24" s="1">
+        <f t="shared" ref="AV24:AV29" si="26">AU24+AS$23/6 * (AT24-1)</f>
         <v>132</v>
       </c>
-      <c r="AU24" s="28"/>
-      <c r="AV24" s="7" t="s">
+      <c r="AW24" s="28"/>
+      <c r="AX24" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AW24" s="17">
+      <c r="AY24" s="17">
         <v>4327</v>
       </c>
-      <c r="AX24" s="10"/>
-      <c r="AY24" s="9" t="s">
+      <c r="AZ24" s="10"/>
+      <c r="BA24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AZ24" s="9">
+      <c r="BB24" s="9">
         <v>3149</v>
       </c>
-      <c r="BA24" s="15" t="s">
+      <c r="BC24" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="BB24" s="30">
-        <f>AW24+AZ24</f>
+      <c r="BD24" s="30">
+        <f>AY24+BB24</f>
         <v>7476</v>
       </c>
-      <c r="BC24" s="21"/>
-      <c r="BD24" s="21" t="s">
+      <c r="BE24" s="21"/>
+      <c r="BF24" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="BE24" s="21">
+      <c r="BG24" s="21">
         <v>10721</v>
       </c>
-      <c r="BF24" s="19" t="s">
+      <c r="BH24" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="BG24" s="19" t="s">
+      <c r="BI24" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="BH24" s="19">
+      <c r="BJ24" s="19">
         <v>888</v>
       </c>
-      <c r="BI24" s="4" t="s">
+      <c r="BK24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="BJ24" s="4" t="s">
+      <c r="BL24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BK24" s="4">
+      <c r="BM24" s="4">
         <v>60</v>
       </c>
-      <c r="BL24" s="22"/>
-      <c r="BM24" s="22" t="s">
+      <c r="BN24" s="22"/>
+      <c r="BO24" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="BN24" s="22">
+      <c r="BP24" s="22">
         <v>120</v>
       </c>
-      <c r="BO24" s="14">
+      <c r="BQ24" s="14">
         <v>20</v>
       </c>
-      <c r="BP24" s="14">
+      <c r="BR24" s="14">
         <v>4</v>
       </c>
-      <c r="BQ24" s="32">
+      <c r="BS24" s="32">
         <v>0.84299999999999997</v>
       </c>
-      <c r="BR24" s="32">
-        <f>(1630*BQ24+BK24*5)*(1630*BQ24+BK24*5)*BP24*1.3035*0.5*0.000066</f>
+      <c r="BT24" s="32">
+        <f>(1630*BS24+BM24*5)*(1630*BS24+BM24*5)*BR24*1.3035*0.5*0.000066</f>
         <v>482.21706022754222</v>
       </c>
-      <c r="BS24" s="32">
-        <f>(1630*BQ24+BN24*5)*(1630*BQ24+BN24*5)*BP24*4.1949*0.5*0.000066</f>
+      <c r="BU24" s="32">
+        <f>(1630*BS24+BP24*5)*(1630*BS24+BP24*5)*BR24*4.1949*0.5*0.000066</f>
         <v>2157.8906868085628</v>
       </c>
-      <c r="BT24" s="32" t="s">
+      <c r="BV24" s="32" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>45</v>
       </c>
@@ -6512,14 +6677,16 @@
         <f>D25*E25*F25</f>
         <v>11.845328000000002</v>
       </c>
-      <c r="I25" s="74">
+      <c r="I25" s="38">
+        <v>15</v>
+      </c>
+      <c r="J25" s="38">
         <f t="shared" si="0"/>
+        <v>559.02732800000013</v>
+      </c>
+      <c r="K25" s="65">
+        <f t="shared" si="1"/>
         <v>3.0795939124691185</v>
-      </c>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="55">
@@ -6532,178 +6699,183 @@
         <v>0</v>
       </c>
       <c r="P25" s="55"/>
-      <c r="Q25" s="68">
+      <c r="Q25" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R25" s="55">
+      <c r="R25" s="55"/>
+      <c r="S25" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="55">
         <v>2</v>
       </c>
-      <c r="S25" s="55">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="T25" s="55"/>
       <c r="U25" s="55">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V25" s="55"/>
       <c r="W25" s="55">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X25" s="69">
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="60">
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="Y25" s="55">
+      <c r="AA25" s="55">
         <v>14</v>
       </c>
-      <c r="Z25" s="5" t="s">
+      <c r="AB25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AA25" s="28" t="s">
+      <c r="AC25" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="AB25" s="43" t="s">
+      <c r="AD25" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="AC25" s="21">
+      <c r="AE25" s="21">
         <v>3</v>
       </c>
-      <c r="AD25" s="47">
-        <f>AP$3+AQ$3*AC25</f>
+      <c r="AF25" s="47">
+        <f>AR$3+AS$3*AE25</f>
         <v>6600</v>
       </c>
-      <c r="AE25" s="9">
+      <c r="AG25" s="9">
         <v>1</v>
       </c>
-      <c r="AF25" s="51">
-        <f>AP$13+AQ$13*AE25</f>
+      <c r="AH25" s="51">
+        <f>AR$13+AS$13*AG25</f>
         <v>3500</v>
       </c>
-      <c r="AG25" s="22">
+      <c r="AI25" s="22">
         <v>6</v>
       </c>
-      <c r="AH25" s="22">
-        <f t="shared" si="9"/>
+      <c r="AJ25" s="22">
+        <f t="shared" si="10"/>
         <v>122</v>
       </c>
-      <c r="AI25" s="42" t="s">
+      <c r="AK25" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AJ25" s="48">
-        <f>G25*10+AD25</f>
+      <c r="AL25" s="48">
+        <f>G25*10+AF25</f>
         <v>6964.7880000000005</v>
       </c>
-      <c r="AK25" s="15" t="s">
+      <c r="AM25" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AL25" s="52">
-        <f>H25*10+AF25</f>
+      <c r="AN25" s="52">
+        <f>H25*10+AH25</f>
         <v>3618.4532800000002</v>
       </c>
-      <c r="AM25" s="22" t="s">
+      <c r="AO25" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="AN25" s="58">
-        <f t="shared" si="10"/>
+      <c r="AP25" s="58">
+        <f t="shared" si="11"/>
         <v>136</v>
       </c>
-      <c r="AO25" s="28"/>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="1"/>
-      <c r="AR25" s="3">
+      <c r="AQ25" s="28"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="3">
         <v>5</v>
       </c>
-      <c r="AS25" s="1">
-        <f t="shared" si="22"/>
+      <c r="AU25" s="1">
+        <f t="shared" si="25"/>
         <v>110</v>
       </c>
-      <c r="AT25" s="1">
-        <f t="shared" si="23"/>
+      <c r="AV25" s="1">
+        <f t="shared" si="26"/>
         <v>118</v>
       </c>
-      <c r="AU25" s="28"/>
-      <c r="AV25" s="7" t="s">
+      <c r="AW25" s="28"/>
+      <c r="AX25" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AW25" s="17">
+      <c r="AY25" s="17">
         <v>3971</v>
       </c>
-      <c r="AX25" s="9" t="s">
+      <c r="AZ25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AY25" s="9" t="s">
+      <c r="BA25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AZ25" s="9">
+      <c r="BB25" s="9">
         <v>1379</v>
       </c>
-      <c r="BA25" s="15" t="s">
+      <c r="BC25" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="BB25" s="30">
-        <f>AW25+AZ25</f>
+      <c r="BD25" s="30">
+        <f>AY25+BB25</f>
         <v>5350</v>
       </c>
-      <c r="BC25" s="21" t="s">
+      <c r="BE25" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="BD25" s="21" t="s">
+      <c r="BF25" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="BE25" s="21">
+      <c r="BG25" s="21">
         <v>23740</v>
       </c>
-      <c r="BF25" s="19"/>
-      <c r="BG25" s="19" t="s">
+      <c r="BH25" s="19"/>
+      <c r="BI25" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="BH25" s="19">
+      <c r="BJ25" s="19">
         <v>2773</v>
       </c>
-      <c r="BI25" s="4" t="s">
+      <c r="BK25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="BJ25" s="4" t="s">
+      <c r="BL25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BK25" s="4">
+      <c r="BM25" s="4">
         <v>27</v>
       </c>
-      <c r="BL25" s="22" t="s">
+      <c r="BN25" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="BM25" s="22" t="s">
+      <c r="BO25" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="BN25" s="22">
+      <c r="BP25" s="22">
         <v>127</v>
       </c>
-      <c r="BO25" s="14">
+      <c r="BQ25" s="14">
         <v>22</v>
       </c>
-      <c r="BP25" s="14">
+      <c r="BR25" s="14">
         <v>2</v>
       </c>
-      <c r="BQ25" s="32">
+      <c r="BS25" s="32">
         <v>1</v>
       </c>
-      <c r="BR25" s="32">
-        <f>(1630*BQ25+BK25*5)*(1630*BQ25+BK25*5)*BP25*1.3035*0.5*0.000066</f>
+      <c r="BT25" s="32">
+        <f>(1630*BS25+BM25*5)*(1630*BS25+BM25*5)*BR25*1.3035*0.5*0.000066</f>
         <v>268.00592197500004</v>
       </c>
-      <c r="BS25" s="32">
-        <f>(1630*BQ25+BN25*5)*(1630*BQ25+BN25*5)*BP25*4.1949*0.5*0.000066</f>
+      <c r="BU25" s="32">
+        <f>(1630*BS25+BP25*5)*(1630*BS25+BP25*5)*BR25*4.1949*0.5*0.000066</f>
         <v>1420.371536265</v>
       </c>
-      <c r="BT25" s="32" t="s">
+      <c r="BV25" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="29"/>
       <c r="C26" s="23"/>
@@ -6712,9 +6884,9 @@
       <c r="F26" s="23"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="65"/>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
       <c r="N26" s="55"/>
@@ -6729,241 +6901,243 @@
       <c r="W26" s="55"/>
       <c r="X26" s="55"/>
       <c r="Y26" s="55"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="34" t="s">
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="AC26" s="62" t="s">
+      <c r="AE26" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="AD26" s="63"/>
-      <c r="AE26" s="64" t="s">
+      <c r="AF26" s="71"/>
+      <c r="AG26" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="AF26" s="65"/>
-      <c r="AG26" s="66" t="s">
+      <c r="AH26" s="73"/>
+      <c r="AI26" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="AH26" s="67"/>
-      <c r="AI26" s="62" t="s">
+      <c r="AJ26" s="69"/>
+      <c r="AK26" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="AJ26" s="63"/>
-      <c r="AK26" s="60" t="s">
+      <c r="AL26" s="71"/>
+      <c r="AM26" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="AL26" s="61"/>
-      <c r="AM26" s="66" t="s">
+      <c r="AN26" s="75"/>
+      <c r="AO26" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="AN26" s="67"/>
-      <c r="AO26" s="29"/>
-      <c r="AP26" s="1"/>
-      <c r="AQ26" s="1"/>
-      <c r="AR26" s="3">
+      <c r="AP26" s="69"/>
+      <c r="AQ26" s="29"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="3">
         <v>4</v>
       </c>
-      <c r="AS26" s="1">
-        <f t="shared" si="22"/>
+      <c r="AU26" s="1">
+        <f t="shared" si="25"/>
         <v>98</v>
       </c>
-      <c r="AT26" s="1">
-        <f t="shared" si="23"/>
+      <c r="AV26" s="1">
+        <f t="shared" si="26"/>
         <v>104</v>
       </c>
-      <c r="AU26" s="29"/>
-      <c r="AV26" s="7"/>
-      <c r="AW26" s="17"/>
-      <c r="AX26" s="10"/>
-      <c r="AY26" s="10"/>
+      <c r="AW26" s="29"/>
+      <c r="AX26" s="7"/>
+      <c r="AY26" s="17"/>
       <c r="AZ26" s="10"/>
-      <c r="BA26" s="16"/>
-      <c r="BB26" s="30"/>
-      <c r="BC26" s="21"/>
-      <c r="BD26" s="21"/>
+      <c r="BA26" s="10"/>
+      <c r="BB26" s="10"/>
+      <c r="BC26" s="16"/>
+      <c r="BD26" s="30"/>
       <c r="BE26" s="21"/>
-      <c r="BF26" s="20"/>
-      <c r="BG26" s="20"/>
+      <c r="BF26" s="21"/>
+      <c r="BG26" s="21"/>
       <c r="BH26" s="20"/>
-      <c r="BI26" s="4"/>
-      <c r="BJ26" s="4"/>
+      <c r="BI26" s="20"/>
+      <c r="BJ26" s="20"/>
       <c r="BK26" s="4"/>
-      <c r="BL26" s="22"/>
-      <c r="BM26" s="22"/>
+      <c r="BL26" s="4"/>
+      <c r="BM26" s="4"/>
       <c r="BN26" s="22"/>
-      <c r="BO26" s="13"/>
-      <c r="BP26" s="13"/>
-      <c r="BQ26" s="33"/>
-      <c r="BR26" s="32"/>
-      <c r="BS26" s="32"/>
-      <c r="BT26" s="33"/>
+      <c r="BO26" s="22"/>
+      <c r="BP26" s="22"/>
+      <c r="BQ26" s="13"/>
+      <c r="BR26" s="13"/>
+      <c r="BS26" s="33"/>
+      <c r="BT26" s="32"/>
+      <c r="BU26" s="32"/>
+      <c r="BV26" s="33"/>
     </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="AB27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AP27" s="1"/>
-      <c r="AQ27" s="1"/>
-      <c r="AR27" s="3">
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="3">
         <v>3</v>
       </c>
-      <c r="AS27" s="1">
-        <f t="shared" si="22"/>
+      <c r="AU27" s="1">
+        <f t="shared" si="25"/>
         <v>86</v>
       </c>
-      <c r="AT27" s="1">
-        <f t="shared" si="23"/>
+      <c r="AV27" s="1">
+        <f t="shared" si="26"/>
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Z28" s="1" t="s">
+      <c r="AB28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AP28" s="1"/>
-      <c r="AQ28" s="1"/>
-      <c r="AR28" s="3">
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="3">
         <v>2</v>
       </c>
-      <c r="AS28" s="1">
-        <f t="shared" si="22"/>
+      <c r="AU28" s="1">
+        <f t="shared" si="25"/>
         <v>74</v>
       </c>
-      <c r="AT28" s="1">
-        <f t="shared" si="23"/>
+      <c r="AV28" s="1">
+        <f t="shared" si="26"/>
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Z29" s="1" t="s">
+      <c r="AB29" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AP29" s="1"/>
-      <c r="AQ29" s="1"/>
-      <c r="AR29" s="3">
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="3">
         <v>1</v>
       </c>
-      <c r="AS29" s="1">
-        <f t="shared" si="22"/>
+      <c r="AU29" s="1">
+        <f t="shared" si="25"/>
         <v>62</v>
       </c>
-      <c r="AT29" s="1">
-        <f t="shared" si="23"/>
+      <c r="AV29" s="1">
+        <f t="shared" si="26"/>
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Z30" s="1" t="s">
+      <c r="AB30" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="Y31" s="56">
+    <row r="31" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="AA31" s="56">
         <v>3</v>
       </c>
-      <c r="Z31" s="1">
+      <c r="AB31" s="1">
         <v>5</v>
       </c>
-      <c r="AA31" s="1">
+      <c r="AC31" s="1">
         <v>7</v>
       </c>
-      <c r="AB31" s="44">
+      <c r="AD31" s="44">
         <v>9</v>
       </c>
-      <c r="AC31" s="2">
+      <c r="AE31" s="2">
         <v>11</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AF31" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Z32" s="1" t="s">
+      <c r="AB32" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z33" s="1" t="s">
+      <c r="AB33" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Z34" s="1" t="s">
+      <c r="AB34" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Z35" s="1" t="s">
+      <c r="AB35" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Z38" s="1" t="s">
+      <c r="AB38" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Z39" s="1" t="s">
+      <c r="AB39" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Z40" s="1" t="s">
+      <c r="AB40" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Z41" s="1" t="s">
+      <c r="AB41" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="40"/>
       <c r="H55" s="40"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="57"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="67"/>
       <c r="L55" s="57"/>
       <c r="M55" s="57"/>
       <c r="N55" s="57"/>
@@ -6978,80 +7152,82 @@
       <c r="W55" s="57"/>
       <c r="X55" s="57"/>
       <c r="Y55" s="57"/>
+      <c r="Z55" s="57"/>
+      <c r="AA55" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AM26:AN26"/>
-    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="BE22:BG22"/>
+    <mergeCell ref="BH22:BJ22"/>
+    <mergeCell ref="BK22:BM22"/>
+    <mergeCell ref="BN22:BP22"/>
+    <mergeCell ref="BE17:BG17"/>
+    <mergeCell ref="BH17:BJ17"/>
+    <mergeCell ref="BK17:BM17"/>
+    <mergeCell ref="BN17:BP17"/>
+    <mergeCell ref="BE12:BG12"/>
+    <mergeCell ref="BH12:BJ12"/>
+    <mergeCell ref="BK12:BM12"/>
+    <mergeCell ref="BN12:BP12"/>
+    <mergeCell ref="BE5:BG5"/>
+    <mergeCell ref="BH5:BJ5"/>
+    <mergeCell ref="BK5:BM5"/>
+    <mergeCell ref="BN5:BP5"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BC12:BD12"/>
+    <mergeCell ref="BC17:BD17"/>
+    <mergeCell ref="BC22:BD22"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="AZ5:BB5"/>
+    <mergeCell ref="AZ12:BB12"/>
+    <mergeCell ref="AZ17:BB17"/>
+    <mergeCell ref="AZ22:BB22"/>
+    <mergeCell ref="AX1:AY1"/>
+    <mergeCell ref="AX5:AY5"/>
+    <mergeCell ref="AX12:AY12"/>
+    <mergeCell ref="AX17:AY17"/>
+    <mergeCell ref="AX22:AY22"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AK5:AL5"/>
     <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AE5:AF5"/>
     <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AO5:AP5"/>
     <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BA17:BB17"/>
-    <mergeCell ref="BA22:BB22"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="BC1:BE1"/>
-    <mergeCell ref="BF1:BH1"/>
-    <mergeCell ref="BI1:BK1"/>
-    <mergeCell ref="BL1:BN1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BC12:BE12"/>
-    <mergeCell ref="BF12:BH12"/>
-    <mergeCell ref="BI12:BK12"/>
-    <mergeCell ref="BL12:BN12"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BK5"/>
-    <mergeCell ref="BL5:BN5"/>
-    <mergeCell ref="BC22:BE22"/>
-    <mergeCell ref="BF22:BH22"/>
-    <mergeCell ref="BI22:BK22"/>
-    <mergeCell ref="BL22:BN22"/>
-    <mergeCell ref="BC17:BE17"/>
-    <mergeCell ref="BF17:BH17"/>
-    <mergeCell ref="BI17:BK17"/>
-    <mergeCell ref="BL17:BN17"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AO17:AP17"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AO12:AP12"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AO22:AP22"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AO26:AP26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AM26:AN26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
